--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Annex" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12249" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12252" uniqueCount="1486">
   <si>
     <t>ID</t>
   </si>
@@ -4667,24 +4667,8 @@
 </t>
   </si>
   <si>
-    <t>DesignContext.PrizeRank
-DesignContext.PrizeValue</t>
-  </si>
-  <si>
     <t>int
 Amount</t>
-  </si>
-  <si>
-    <t>Definitions is missing</t>
-  </si>
-  <si>
-    <t>DesignContext.PrizeValue</t>
-  </si>
-  <si>
-    <t>DesignContext.PrizeRank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
   </si>
   <si>
     <t>Code list</t>
@@ -5844,33 +5828,6 @@
 (Not included in the Glossary. Pending to review by the WG)</t>
   </si>
   <si>
-    <r>
-      <t>The two concepts shuld be considered together</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>if we want to follow the given description. Also, definition is missing</t>
-    </r>
-  </si>
-  <si>
-    <t>DesignContest.Follow-upContract</t>
-  </si>
-  <si>
     <t>DesignContest.Follow-upContractInformation</t>
   </si>
   <si>
@@ -7203,14 +7160,6 @@
   </si>
   <si>
     <t>Procedure has Lot,
-Lot hasID Identifier,
-Lot implements DesignContest,
-DesignContest hasPrizeRank,
-DesignContes hasPrizeValue,
-DesignContest JuryDecisionIsBinding Indicator, etc.</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
 Lot isFundedBy Fund,
 as an instance of Fund exists for one given Lot and this Fund is identified, the indication that the Lot is funded is presumed (inferred).</t>
   </si>
@@ -7224,6 +7173,56 @@
   <si>
     <t>20/08/2019
 27/08/2019</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize</t>
+  </si>
+  <si>
+    <t>Procedure has Lot, 
+Lot rewardedWith Prize</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize.PrizeValue</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize.PrizeRank</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot isrewardedWith Prize, 
+Prize applyTo Follow-upContractTerms,
+Follow-upContractTerms hasFollow-upContract Indicator</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot rewardedWith Prize,
+Prize hasPrizeRank Numeric</t>
+  </si>
+  <si>
+    <t>Procedure has Lot, 
+Lot rewardedWith Prize, 
+Prize hasPrizeValue Amount</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize.Follow-upContractTerms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The position of the prize (e.g. first place, second place) in a design contest list of prizes.
+</t>
+  </si>
+  <si>
+    <t>The monetary value of a prize, if any, for the winner (or runners-up) of the design contest.</t>
+  </si>
+  <si>
+    <t>Any subsequent service contract will be awarded to the winner or, in the case of a design contest, winners.</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasID Identifier,
+Lot isrewardedWith Prize,
+Prize hasPrizeRank,
+Prize hasPrizeValue,
+DesignContest JuryDecisionIsBinding Indicator, etc.</t>
   </si>
 </sst>
 </file>
@@ -9136,65 +9135,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9211,6 +9156,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9221,6 +9181,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9245,12 +9250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9662,7 +9661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9951,22 +9950,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="AV112" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="AU88" sqref="AU88"/>
+      <selection pane="bottomRight" activeCell="AX109" sqref="AX109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="41" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" style="43" customWidth="1"/>
     <col min="5" max="5" width="9" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="38" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="50" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" style="2" hidden="1" customWidth="1"/>
@@ -10000,92 +9999,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="263" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="255" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="242" t="s">
+      <c r="D1" s="255" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="242" t="s">
+      <c r="E1" s="255" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="242" t="s">
+      <c r="F1" s="255" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="249" t="s">
+      <c r="G1" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="245" t="s">
+      <c r="H1" s="246" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="266"/>
       <c r="O1" s="248"/>
-      <c r="P1" s="245" t="s">
+      <c r="P1" s="246" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="246"/>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="246"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="247"/>
+      <c r="T1" s="247"/>
+      <c r="U1" s="247"/>
+      <c r="V1" s="247"/>
+      <c r="W1" s="247"/>
+      <c r="X1" s="247"/>
+      <c r="Y1" s="247"/>
+      <c r="Z1" s="247"/>
+      <c r="AA1" s="247"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
       <c r="AD1" s="248"/>
-      <c r="AE1" s="245" t="s">
+      <c r="AE1" s="246" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="246"/>
-      <c r="AG1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="247"/>
       <c r="AH1" s="248"/>
-      <c r="AI1" s="245" t="s">
+      <c r="AI1" s="246" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="246"/>
-      <c r="AK1" s="246"/>
-      <c r="AL1" s="246"/>
-      <c r="AM1" s="246"/>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="246"/>
-      <c r="AP1" s="246"/>
+      <c r="AJ1" s="247"/>
+      <c r="AK1" s="247"/>
+      <c r="AL1" s="247"/>
+      <c r="AM1" s="247"/>
+      <c r="AN1" s="247"/>
+      <c r="AO1" s="247"/>
+      <c r="AP1" s="247"/>
       <c r="AQ1" s="248"/>
-      <c r="AR1" s="245" t="s">
+      <c r="AR1" s="246" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="246"/>
+      <c r="AS1" s="247"/>
       <c r="AT1" s="248"/>
-      <c r="AU1" s="264" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AV1" s="265" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AX1" s="266" t="s">
+      <c r="AU1" s="251" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AV1" s="252" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AX1" s="253" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="267"/>
-      <c r="AZ1" s="267"/>
+      <c r="AY1" s="254"/>
+      <c r="AZ1" s="254"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="240"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="250"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="268"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10203,115 +10202,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="264"/>
-      <c r="AV2" s="265"/>
+      <c r="AU2" s="251"/>
+      <c r="AV2" s="252"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="259" t="s">
+      <c r="AX2" s="241" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="259" t="s">
+      <c r="AY2" s="241" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="259" t="s">
+      <c r="AZ2" s="241" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="259" t="s">
+      <c r="BB2" s="241" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:54" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="240"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="254" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="259" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="255"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="257" t="s">
+      <c r="I3" s="250"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="261" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="255"/>
-      <c r="M3" s="258"/>
-      <c r="N3" s="257" t="s">
+      <c r="L3" s="250"/>
+      <c r="M3" s="262"/>
+      <c r="N3" s="261" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254" t="s">
+      <c r="O3" s="258"/>
+      <c r="P3" s="259" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="257" t="s">
+      <c r="Q3" s="262"/>
+      <c r="R3" s="261" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="255"/>
-      <c r="T3" s="258"/>
+      <c r="S3" s="250"/>
+      <c r="T3" s="262"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="257" t="s">
+      <c r="V3" s="261" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="258"/>
-      <c r="Z3" s="257" t="s">
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="261" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="258"/>
+      <c r="AA3" s="262"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="257" t="s">
+      <c r="AC3" s="261" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="254" t="s">
+      <c r="AD3" s="258"/>
+      <c r="AE3" s="259" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="255"/>
-      <c r="AG3" s="255"/>
-      <c r="AH3" s="253"/>
-      <c r="AI3" s="254" t="s">
+      <c r="AF3" s="250"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="255"/>
-      <c r="AK3" s="255"/>
-      <c r="AL3" s="256"/>
-      <c r="AM3" s="252" t="s">
+      <c r="AJ3" s="250"/>
+      <c r="AK3" s="250"/>
+      <c r="AL3" s="260"/>
+      <c r="AM3" s="249" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="255"/>
-      <c r="AO3" s="256"/>
-      <c r="AP3" s="252" t="s">
+      <c r="AN3" s="250"/>
+      <c r="AO3" s="260"/>
+      <c r="AP3" s="249" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="253"/>
-      <c r="AR3" s="252" t="s">
+      <c r="AQ3" s="258"/>
+      <c r="AR3" s="249" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="255"/>
-      <c r="AT3" s="255"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="265"/>
+      <c r="AS3" s="250"/>
+      <c r="AT3" s="250"/>
+      <c r="AU3" s="251"/>
+      <c r="AV3" s="252"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="260"/>
-      <c r="AY3" s="260"/>
-      <c r="AZ3" s="260"/>
+      <c r="AX3" s="242"/>
+      <c r="AY3" s="242"/>
+      <c r="AZ3" s="242"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="260"/>
+      <c r="BB3" s="242"/>
     </row>
     <row r="4" spans="2:54" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="241"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="251"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="269"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10429,16 +10428,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="264"/>
-      <c r="AV4" s="265"/>
+      <c r="AU4" s="251"/>
+      <c r="AV4" s="252"/>
       <c r="AW4" s="212" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AX4" s="260"/>
-      <c r="AY4" s="260"/>
-      <c r="AZ4" s="260"/>
+        <v>1343</v>
+      </c>
+      <c r="AX4" s="242"/>
+      <c r="AY4" s="242"/>
+      <c r="AZ4" s="242"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="260"/>
+      <c r="BB4" s="242"/>
     </row>
     <row r="5" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -10488,11 +10487,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="261" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AX5" s="262"/>
-      <c r="AY5" s="263"/>
+      <c r="AW5" s="243" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AX5" s="244"/>
+      <c r="AY5" s="245"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -10634,14 +10633,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AV6" s="216">
         <v>43662</v>
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -10929,10 +10928,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11083,7 +11082,7 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
@@ -11228,13 +11227,13 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="AV10" s="217">
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="AX10" s="219" t="s">
         <v>981</v>
@@ -11385,13 +11384,13 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="AV11" s="216">
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="AX11" s="219" t="s">
         <v>983</v>
@@ -11546,7 +11545,7 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="AX12" s="219" t="s">
         <v>985</v>
@@ -11701,10 +11700,10 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
@@ -11852,10 +11851,10 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
@@ -12003,10 +12002,10 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
@@ -12149,7 +12148,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12291,10 +12290,10 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
@@ -28766,10 +28765,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -28912,7 +28911,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29056,7 +29055,7 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
@@ -29359,7 +29358,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29505,7 +29504,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -29797,7 +29796,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -31256,7 +31255,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31402,10 +31401,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -31552,7 +31551,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -31697,7 +31696,7 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -31846,7 +31845,7 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -31986,14 +31985,14 @@
       <c r="AS40" s="187"/>
       <c r="AT40" s="188"/>
       <c r="AU40" s="192" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="AV40" s="223">
         <v>43664</v>
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32088,7 +32087,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32228,14 +32227,14 @@
       <c r="AS42" s="187"/>
       <c r="AT42" s="188"/>
       <c r="AU42" s="192" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="AV42" s="223">
         <v>43664</v>
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32375,14 +32374,14 @@
       <c r="AS43" s="187"/>
       <c r="AT43" s="188"/>
       <c r="AU43" s="192" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="AV43" s="223">
         <v>43664</v>
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32618,12 +32617,12 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="146" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="AV45" s="147"/>
       <c r="AW45" s="218"/>
       <c r="AX45" s="62" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="AY45" s="78" t="s">
         <v>1000</v>
@@ -32763,7 +32762,7 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="157" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="AW46" s="218"/>
       <c r="AX46" s="62" t="s">
@@ -32861,7 +32860,7 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="157" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="AW47" s="132" t="s">
         <v>1004</v>
@@ -33014,10 +33013,10 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -33168,7 +33167,7 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -33318,7 +33317,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33460,16 +33459,16 @@
         <v>371</v>
       </c>
       <c r="AU51" s="146" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="AV51" s="216">
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -33613,13 +33612,13 @@
         <v>371</v>
       </c>
       <c r="AU52" s="146" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="AV52" s="216">
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -33920,7 +33919,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34068,10 +34067,10 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -34211,13 +34210,13 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV56" s="216">
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34228,7 +34227,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34351,16 +34350,16 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV57" s="216">
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34494,16 +34493,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV58" s="216">
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -34643,13 +34642,13 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
@@ -34797,11 +34796,11 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="BB60" s="178" t="s">
         <v>321</v>
@@ -34944,16 +34943,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35094,16 +35093,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="AW62" s="218" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35244,14 +35243,14 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35391,16 +35390,16 @@
         <v>371</v>
       </c>
       <c r="AU64" s="146" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="AV64" s="167" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="AW64" s="218" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35541,19 +35540,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -35696,17 +35695,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="AV66" s="216">
         <v>43671</v>
       </c>
       <c r="AW66" s="229"/>
       <c r="AX66" s="62" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -35849,16 +35848,16 @@
         <v>371</v>
       </c>
       <c r="AU67" s="166" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="AV67" s="227" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="AW67" s="229" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="AX67" s="62" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36001,19 +36000,19 @@
         <v>371</v>
       </c>
       <c r="AU68" s="146" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36157,10 +36156,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="AW69" s="229" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36306,10 +36305,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36456,10 +36455,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -36606,10 +36605,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -36756,10 +36755,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -36906,10 +36905,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37053,10 +37052,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37196,19 +37195,19 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV76" s="228" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="AW76" s="229" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37351,19 +37350,19 @@
         <v>371</v>
       </c>
       <c r="AU77" s="151" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -37505,7 +37504,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -37649,14 +37648,14 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -37796,22 +37795,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
       </c>
       <c r="BB80" s="178" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37951,22 +37950,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
       </c>
       <c r="BB81" s="178" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38110,16 +38109,16 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
       </c>
       <c r="BB82" s="178" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -38259,19 +38258,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="AW83" s="218" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38411,19 +38410,19 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="AV84" s="230" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="AW84" s="218" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="AX84" s="62" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="AY84" s="62" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="BB84" s="178" t="s">
         <v>1025</v>
@@ -38566,16 +38565,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV85" s="230" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="AW85" s="218" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="AX85" s="62" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -38864,10 +38863,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39006,20 +39005,20 @@
       <c r="AT88" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU88" s="275" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AV88" s="276" t="s">
-        <v>1481</v>
+      <c r="AU88" s="239" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AV88" s="240" t="s">
+        <v>1473</v>
       </c>
       <c r="AW88" s="236" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39162,7 +39161,7 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
@@ -39299,16 +39298,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39443,25 +39442,25 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="AV91" s="216">
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="AY91" s="179" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:54" ht="153" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>207</v>
       </c>
@@ -39596,13 +39595,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -39749,13 +39748,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -39836,13 +39835,13 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -39985,13 +39984,13 @@
         <v>369</v>
       </c>
       <c r="AU95" s="146" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40134,13 +40133,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="151" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40281,13 +40280,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40436,7 +40435,7 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -40543,13 +40542,13 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
@@ -40698,10 +40697,10 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -40847,7 +40846,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -40992,10 +40991,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41143,10 +41142,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41289,16 +41288,16 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV104" s="216">
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -41448,10 +41447,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41595,10 +41594,10 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -41748,10 +41747,10 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -41897,19 +41896,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV108" s="216">
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42053,13 +42052,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="AW109" s="219" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42202,16 +42201,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42351,11 +42350,14 @@
         <v>369</v>
       </c>
       <c r="AU111" s="139"/>
+      <c r="AV111" s="216">
+        <v>43704</v>
+      </c>
       <c r="AW111" s="218" t="s">
-        <v>1477</v>
+        <v>1485</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42498,17 +42500,20 @@
         <v>369</v>
       </c>
       <c r="AU112" s="139"/>
-      <c r="AW112" s="82" t="s">
-        <v>1249</v>
+      <c r="AV112" s="216">
+        <v>43706</v>
+      </c>
+      <c r="AW112" s="218" t="s">
+        <v>1475</v>
       </c>
       <c r="AX112" s="62" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BB112" s="61" t="s">
         <v>1029</v>
       </c>
-      <c r="BB112" s="61" t="s">
-        <v>1030</v>
-      </c>
     </row>
-    <row r="113" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>208</v>
       </c>
@@ -42645,17 +42650,23 @@
         <v>369</v>
       </c>
       <c r="AU113" s="139"/>
-      <c r="AW113" s="82" t="s">
-        <v>1031</v>
+      <c r="AV113" s="216">
+        <v>43706</v>
+      </c>
+      <c r="AW113" s="218" t="s">
+        <v>1480</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1032</v>
+        <v>1476</v>
+      </c>
+      <c r="AY113" s="80" t="s">
+        <v>1483</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="114" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B114" s="21" t="s">
         <v>208</v>
       </c>
@@ -42792,17 +42803,23 @@
         <v>369</v>
       </c>
       <c r="AU114" s="139"/>
-      <c r="AW114" s="82" t="s">
-        <v>1017</v>
+      <c r="AV114" s="216">
+        <v>43706</v>
+      </c>
+      <c r="AW114" s="218" t="s">
+        <v>1479</v>
       </c>
       <c r="AX114" s="80" t="s">
-        <v>1033</v>
+        <v>1477</v>
+      </c>
+      <c r="AY114" s="80" t="s">
+        <v>1482</v>
       </c>
       <c r="BB114" s="58" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
-    <row r="115" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B115" s="21" t="s">
         <v>207</v>
       </c>
@@ -42939,17 +42956,23 @@
         <v>369</v>
       </c>
       <c r="AU115" s="139"/>
-      <c r="AW115" s="82" t="s">
-        <v>1017</v>
+      <c r="AV115" s="216">
+        <v>43706</v>
+      </c>
+      <c r="AW115" s="218" t="s">
+        <v>1478</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1250</v>
+        <v>1481</v>
+      </c>
+      <c r="AY115" s="80" t="s">
+        <v>1484</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B116" s="21" t="s">
         <v>207</v>
       </c>
@@ -43090,7 +43113,7 @@
         <v>1017</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="BB116" s="176" t="s">
         <v>328</v>
@@ -43237,7 +43260,7 @@
         <v>1017</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
@@ -43523,7 +43546,7 @@
         <v>1017</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -43809,10 +43832,10 @@
         <v>1017</v>
       </c>
       <c r="AX121" s="62" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="BB121" s="61" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="122" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -43948,13 +43971,13 @@
       <c r="AU122" s="139"/>
       <c r="AW122" s="79"/>
       <c r="AX122" s="62" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AY122" s="62" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="BB122" s="61" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="123" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -44189,7 +44212,7 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="AV124" s="138">
         <v>20190314</v>
@@ -44291,13 +44314,13 @@
       <c r="AU125" s="139"/>
       <c r="AW125" s="79"/>
       <c r="AX125" s="62" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="AY125" s="62" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="BB125" s="61" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="126" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -44397,10 +44420,10 @@
         <v>1017</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="BB126" s="61" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="127" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -44497,13 +44520,13 @@
       <c r="AT127" s="24"/>
       <c r="AU127" s="139"/>
       <c r="AW127" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="AY127" s="80" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="BB127" s="58" t="s">
         <v>324</v>
@@ -45449,7 +45472,7 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="AV135" s="147">
         <v>20190314</v>
@@ -45458,10 +45481,10 @@
         <v>1017</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="BB135" s="61" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="136" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -45742,10 +45765,10 @@
       <c r="AU137" s="139"/>
       <c r="AW137" s="79"/>
       <c r="AX137" s="62" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="AY137" s="62" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="BB137" s="61" t="s">
         <v>976</v>
@@ -45892,7 +45915,7 @@
         <v>1017</v>
       </c>
       <c r="AX138" s="62" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -45987,7 +46010,7 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="151" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="AV139" s="138">
         <v>20190226</v>
@@ -45996,7 +46019,7 @@
         <v>1017</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -46105,10 +46128,10 @@
       <c r="AU140" s="139"/>
       <c r="AW140" s="79"/>
       <c r="AX140" s="62" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="AY140" s="62" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="BB140" s="61" t="s">
         <v>976</v>
@@ -46252,7 +46275,7 @@
       </c>
       <c r="AU141" s="139"/>
       <c r="AW141" s="82" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="142" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -46361,7 +46384,7 @@
         <v>1017</v>
       </c>
       <c r="AX142" s="65" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="AY142" s="70"/>
       <c r="AZ142" s="66"/>
@@ -46465,17 +46488,17 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="AV143" s="138">
         <v>20190130</v>
       </c>
       <c r="AW143" s="82"/>
       <c r="AX143" s="62" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="BB143" s="176" t="s">
         <v>328</v>
@@ -46618,17 +46641,17 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="AV144" s="138">
         <v>20190130</v>
       </c>
       <c r="AW144" s="79"/>
       <c r="AX144" s="62" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="AY144" s="62" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="AZ144" s="177"/>
       <c r="BB144" s="176" t="s">
@@ -47010,17 +47033,17 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="AV147" s="138">
         <v>20190130</v>
       </c>
       <c r="AW147" s="79"/>
       <c r="AX147" s="62" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="BB147" s="178" t="s">
         <v>324</v>
@@ -47125,7 +47148,7 @@
         <v>1017</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -47227,13 +47250,13 @@
       </c>
       <c r="AU149" s="139"/>
       <c r="AW149" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX149" s="62" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AY149" s="62" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -47348,13 +47371,13 @@
         <v>369</v>
       </c>
       <c r="AU150" s="165" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="AV150" s="147">
         <v>20190328</v>
       </c>
       <c r="AW150" s="86" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="AX150" s="87"/>
       <c r="AY150" s="88"/>
@@ -47497,24 +47520,24 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="AV151" s="88">
         <v>20190122</v>
       </c>
       <c r="AW151" s="86" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX151" s="87" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AY151" s="87" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="152" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -47614,18 +47637,18 @@
         <v>20190122</v>
       </c>
       <c r="AW152" s="86" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX152" s="87" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="AY152" s="87" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="153" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -48027,10 +48050,10 @@
       <c r="AU155" s="139"/>
       <c r="AW155" s="82"/>
       <c r="AX155" s="80" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AY155" s="80" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="BB155" s="58" t="s">
         <v>976</v>
@@ -48167,20 +48190,20 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="AV156" s="145">
         <v>20190228</v>
       </c>
       <c r="AW156" s="82"/>
       <c r="AX156" s="62" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="AY156" s="68" t="s">
         <v>1000</v>
       </c>
       <c r="BB156" s="61" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="157" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -48303,7 +48326,7 @@
       <c r="AT157" s="24"/>
       <c r="AU157" s="139"/>
       <c r="AW157" s="82" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="158" spans="2:54" x14ac:dyDescent="0.2">
@@ -48691,7 +48714,7 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="143" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AV160" s="155">
         <v>20190326</v>
@@ -48817,7 +48840,7 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="AV161" s="70">
         <v>20190326</v>
@@ -48826,7 +48849,7 @@
         <v>1017</v>
       </c>
       <c r="AX161" s="65" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="AY161" s="70"/>
       <c r="AZ161" s="66"/>
@@ -48954,7 +48977,7 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="AV162" s="70">
         <v>20190326</v>
@@ -48963,7 +48986,7 @@
         <v>1017</v>
       </c>
       <c r="AX162" s="169" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="AY162" s="70"/>
       <c r="AZ162" s="66"/>
@@ -49091,7 +49114,7 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="AV163" s="70">
         <v>20190326</v>
@@ -49100,7 +49123,7 @@
         <v>1017</v>
       </c>
       <c r="AX163" s="70" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="AY163" s="70"/>
       <c r="AZ163" s="66"/>
@@ -49502,7 +49525,7 @@
       <c r="AU166" s="139"/>
       <c r="AW166" s="79"/>
     </row>
-    <row r="167" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B167" s="21" t="s">
         <v>207</v>
       </c>
@@ -49865,10 +49888,10 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="148" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="AV169" s="154" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="170" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -50009,10 +50032,10 @@
       </c>
       <c r="AU170" s="139"/>
       <c r="AW170" s="82" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="AX170" s="62" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="AY170" s="62"/>
       <c r="BB170" s="61" t="s">
@@ -50156,19 +50179,19 @@
         <v>369</v>
       </c>
       <c r="AU171" s="151" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AV171" s="138" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AW171" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX171" s="62" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="AY171" s="62" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
@@ -50311,10 +50334,10 @@
         <v>369</v>
       </c>
       <c r="AU172" s="151" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="AV172" s="154" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="AW172" s="79"/>
     </row>
@@ -50423,17 +50446,17 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="AV173" s="142">
         <v>20190402</v>
       </c>
       <c r="AW173" s="140"/>
       <c r="AX173" s="141" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="AY173" s="141" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="AZ173" s="66"/>
       <c r="BA173" s="66"/>
@@ -50578,19 +50601,19 @@
         <v>369</v>
       </c>
       <c r="AU174" s="152" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AW174" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
@@ -50706,10 +50729,10 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="AY175" s="65" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
@@ -50854,7 +50877,7 @@
         <v>369</v>
       </c>
       <c r="AU176" s="156" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -50997,10 +51020,10 @@
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
       <c r="AU177" s="156" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -51148,7 +51171,7 @@
       <c r="AU178" s="139"/>
       <c r="AW178" s="79"/>
     </row>
-    <row r="179" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>207</v>
       </c>
@@ -51419,10 +51442,10 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="AX180" s="81" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
@@ -51561,10 +51584,10 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AX181" s="62" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="BB181" s="61" t="s">
         <v>999</v>
@@ -52125,13 +52148,13 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AX185" s="62" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="BB185" s="61" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="186" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -52485,19 +52508,19 @@
         <v>369</v>
       </c>
       <c r="AU188" s="160" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="BB188" s="176" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="189" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -52637,17 +52660,17 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="AY189" s="62" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
@@ -52758,17 +52781,17 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="AY190" s="62" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
@@ -52911,16 +52934,16 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
@@ -53063,7 +53086,7 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
@@ -53207,7 +53230,7 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
@@ -53351,19 +53374,19 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
       </c>
       <c r="AW194" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="BB194" s="176" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="195" spans="2:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53560,16 +53583,16 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="197" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -53709,20 +53732,20 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="AV197" s="145">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="AY197" s="180" t="s">
         <v>1000</v>
       </c>
       <c r="BB197" s="178" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="198" spans="2:54" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53862,14 +53885,14 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="AY198" s="180" t="s">
         <v>1000</v>
@@ -53971,7 +53994,7 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="144" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
@@ -53980,7 +54003,7 @@
         <v>1017</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -54266,7 +54289,7 @@
         <v>1017</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="BB201" s="178" t="s">
         <v>321</v>
@@ -54456,19 +54479,19 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
       </c>
       <c r="AW203" s="133" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="BB203" s="176" t="s">
         <v>328</v>
@@ -54611,22 +54634,22 @@
         <v>369</v>
       </c>
       <c r="AU204" s="150" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
       <c r="BA204" s="89"/>
       <c r="BB204" s="90" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="205" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -54865,13 +54888,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="207" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -55093,16 +55116,16 @@
       </c>
       <c r="AU208" s="139"/>
       <c r="AW208" s="133" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="BB208" s="176" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="209" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -55243,16 +55266,16 @@
       </c>
       <c r="AU209" s="139"/>
       <c r="AW209" s="133" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="BB209" s="176" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="210" spans="2:54" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -55346,13 +55369,13 @@
       <c r="AU210" s="139"/>
       <c r="AV210" s="88"/>
       <c r="AW210" s="133" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
@@ -55497,19 +55520,19 @@
         <v>369</v>
       </c>
       <c r="AU211" s="152" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
       </c>
       <c r="AW211" s="133" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
@@ -55578,17 +55601,17 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="146" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="AV212" s="147">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
@@ -55733,22 +55756,22 @@
         <v>369</v>
       </c>
       <c r="AU213" s="144" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="AV213" s="144">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="AX213" s="62" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="AY213" s="62" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="BB213" s="61" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="214" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -55888,7 +55911,7 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
@@ -55897,7 +55920,7 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
@@ -56040,19 +56063,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AX215" s="62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AY215" s="62" t="s">
         <v>1090</v>
-      </c>
-      <c r="AX215" s="62" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AY215" s="62" t="s">
-        <v>1095</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -56532,13 +56555,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="220" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -56678,13 +56701,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="221" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -56825,7 +56848,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="222" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -56965,16 +56988,16 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
@@ -57117,22 +57140,22 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
     </row>
-    <row r="224" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
         <v>207</v>
       </c>
@@ -57408,14 +57431,14 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="BB225" s="176" t="s">
         <v>320</v>
@@ -57552,19 +57575,19 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
       </c>
       <c r="AW226" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -57701,7 +57724,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -57710,7 +57733,7 @@
         <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="228" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -58244,7 +58267,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -58385,11 +58408,11 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
-    <row r="234" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:54" ht="102" x14ac:dyDescent="0.2">
       <c r="B234" s="21" t="s">
         <v>207</v>
       </c>
@@ -58526,7 +58549,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -58667,7 +58690,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -58808,7 +58831,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -58949,7 +58972,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -59091,16 +59114,16 @@
       </c>
       <c r="AU238" s="139"/>
       <c r="AW238" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX238" s="62" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="AY238" s="62" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="BB238" s="61" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="239" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -59236,17 +59259,17 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
@@ -59387,7 +59410,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -59530,7 +59553,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -59671,7 +59694,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -59812,7 +59835,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -59959,7 +59982,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -60050,7 +60073,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -60151,16 +60174,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -60303,7 +60326,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -60398,7 +60421,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -60495,16 +60518,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW249" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -60647,16 +60670,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW250" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -60799,10 +60822,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="252" spans="2:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61360,13 +61383,13 @@
       </c>
       <c r="AU255" s="139"/>
       <c r="AW255" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -61513,7 +61536,7 @@
         <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -61649,13 +61672,13 @@
       </c>
       <c r="AU257" s="139"/>
       <c r="AW257" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -61736,7 +61759,7 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
@@ -61881,7 +61904,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -62093,10 +62116,10 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW261" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX261" s="62" t="s">
         <v>1018</v>
@@ -62211,14 +62234,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -62361,17 +62384,17 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="BB263" s="176" t="s">
         <v>976</v>
@@ -62521,7 +62544,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -62641,17 +62664,17 @@
         <v>371</v>
       </c>
       <c r="AU265" s="168" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AV265" s="167">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="BB265" s="176" t="s">
         <v>976</v>
@@ -62782,14 +62805,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -62923,7 +62946,7 @@
         <v>371</v>
       </c>
       <c r="AU267" s="172" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="AV267" s="169">
         <v>20190404</v>
@@ -62932,7 +62955,7 @@
         <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -63066,7 +63089,7 @@
         <v>371</v>
       </c>
       <c r="AU268" s="173" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="AV268" s="174">
         <v>20190404</v>
@@ -63075,7 +63098,7 @@
         <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -63209,7 +63232,7 @@
         <v>371</v>
       </c>
       <c r="AU269" s="175" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="AV269" s="174">
         <v>20190404</v>
@@ -63218,7 +63241,7 @@
         <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -63298,7 +63321,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="170" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="AV270" s="171">
         <v>20190404</v>
@@ -63381,7 +63404,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="143" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="AV271" s="155">
         <v>20190404</v>
@@ -63464,7 +63487,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="143" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="AV272" s="155">
         <v>20190404</v>
@@ -63599,13 +63622,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AW273" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -63734,16 +63757,16 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AW274" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="BB274" s="61" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="275" spans="2:54" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -63883,7 +63906,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -64030,7 +64053,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -64171,7 +64194,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -64276,7 +64299,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -64418,13 +64441,13 @@
       </c>
       <c r="AU279" s="139"/>
       <c r="AW279" s="82" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -64497,7 +64520,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -64638,7 +64661,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -64779,7 +64802,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -64921,7 +64944,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -65062,7 +65085,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -65203,7 +65226,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -65344,7 +65367,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -65471,16 +65494,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW287" s="82" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AX287" s="62" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="AY287" s="62" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -65551,7 +65574,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -65682,7 +65705,7 @@
         <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -65811,7 +65834,7 @@
         <v>370</v>
       </c>
       <c r="AU290" s="162" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="AV290" s="145">
         <v>20190305</v>
@@ -65820,7 +65843,7 @@
         <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="291" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -65946,13 +65969,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW291" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -66017,7 +66040,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -66080,7 +66103,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -66143,7 +66166,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -66212,7 +66235,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -66275,7 +66298,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -66338,7 +66361,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -66401,7 +66424,7 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="162" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="AV298" s="145">
         <v>20190305</v>
@@ -66410,7 +66433,7 @@
         <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="299" spans="2:54" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -66472,7 +66495,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -66523,17 +66546,13 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AU1:AU4"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AP3:AQ3"/>
@@ -66548,13 +66567,17 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AU1:AU4"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU142 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B110:AU123 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108">
@@ -66710,23 +66733,23 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="274" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="273"/>
+      <c r="B1" s="275"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="276" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="274"/>
+      <c r="B2" s="276"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -66769,16 +66792,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="268" t="s">
+      <c r="A9" s="270" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="270" t="s">
+      <c r="B9" s="272" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="269"/>
-      <c r="B10" s="271"/>
+      <c r="A10" s="271"/>
+      <c r="B10" s="273"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -67053,36 +67076,36 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="164"/>
       <c r="B5" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -67098,170 +67121,170 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B1" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F1" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B2" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="F2" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B3" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="F3" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B4" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F4" s="161" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="B5" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B6" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B7" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B9" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B10" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B11" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="B12" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="B13" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B14" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B15" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B16" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B17" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B18" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B19" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -67269,12 +67292,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -67283,6 +67306,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
@@ -67298,31 +67330,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67505,25 +67513,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -67531,23 +67536,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67565,4 +67572,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Documents\GitHub\eprocurementontology\eprocurementontology\v2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Annex" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12252" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12258" uniqueCount="1494">
   <si>
     <t>ID</t>
   </si>
@@ -4492,9 +4492,6 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>Procedure.Legislation.legal-basis</t>
-  </si>
-  <si>
     <t>Based on Legal Basis list defined by MDR.
 See with PAA</t>
   </si>
@@ -5828,15 +5825,6 @@
 (Not included in the Glossary. Pending to review by the WG)</t>
   </si>
   <si>
-    <t>DesignContest.Follow-upContractInformation</t>
-  </si>
-  <si>
-    <t>DesignContest.JuryDecisionBinding</t>
-  </si>
-  <si>
-    <t>DeisgnContest.ParticipantName</t>
-  </si>
-  <si>
     <r>
       <t>SelectionCriterion.</t>
     </r>
@@ -6987,12 +6975,6 @@
 Lot isFundedBy Fund</t>
   </si>
   <si>
-    <t>Procedure.Legislation</t>
-  </si>
-  <si>
-    <t>Procedure hasCross-BorderLaw Legislation</t>
-  </si>
-  <si>
     <t>A question has been asked to Jachym to clarify whether this could become the legal basis itself or if it is supplementary to de legal-basis.</t>
   </si>
   <si>
@@ -7204,9 +7186,6 @@
 Prize hasPrizeValue Amount</t>
   </si>
   <si>
-    <t>Procedure.Lot.Prize.Follow-upContractTerms</t>
-  </si>
-  <si>
     <t xml:space="preserve">The position of the prize (e.g. first place, second place) in a design contest list of prizes.
 </t>
   </si>
@@ -7223,6 +7202,66 @@
 Prize hasPrizeRank,
 Prize hasPrizeValue,
 DesignContest JuryDecisionIsBinding Indicator, etc.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Follow-upContract.Follow-upContractInformation</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Follow-upContractTerms</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Follow-upContractTerms applyTo Lot,
+Follow-upContractTerms hasFollow-upContractInformation Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further information about follow-up contracts, prizes and payments (for example non-monetary prizes, payments given for participation).
+WG Approval 03/09/2019
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+DesignContestRegimeTerms applyTo Lot,
+DesignContestRegimeTerms has JuryDecisionBinding</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasToBeEvaluatedBy EvalutationBoard,
+EvaluationBoard hasEvaluationGroupType Jury,
+EvaluationBoard isComposedOf Evaluator,
+Evaluator is Agent</t>
+  </si>
+  <si>
+    <t>The Agent class inherits the properties of the FOAF Ontology Agent</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasSecondStage CandidateShortList,
+CandidatShortList is EconomicOperatorShortList,
+EconomicOperatorShortlist hasQualified EconomicOperator,
+EconomicOperator isParty Organization</t>
+  </si>
+  <si>
+    <t>Organisationa is part of the w3c org ontology</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.EvaluationBoard.Evaluator.GivenName/FamiliName/etc.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.DesignContestRegimeTerms.JuryDecisionBinding</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.CandidateShorLlist,
+CandidateShortList.EconomicOperator.Organization.Name/ContactDetails/etc.</t>
+  </si>
+  <si>
+    <t>Procedure hasCross-BorderLaw LegalResource</t>
+  </si>
+  <si>
+    <t>Procedure.LegalResource</t>
+  </si>
+  <si>
+    <t>Procedure.LegalResource.legal-basis</t>
   </si>
 </sst>
 </file>
@@ -8460,7 +8499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9140,6 +9179,12 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9950,12 +9995,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AV112" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="H117" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="AX109" sqref="AX109"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9989,7 +10034,7 @@
     <col min="43" max="43" width="5.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="5.42578125" style="56" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="5.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="5.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="5.42578125" style="3" customWidth="1"/>
     <col min="47" max="47" width="84.7109375" style="158" customWidth="1"/>
     <col min="48" max="48" width="32.5703125" style="138" customWidth="1"/>
     <col min="49" max="49" width="33.28515625" style="129" customWidth="1"/>
@@ -9999,92 +10044,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="265" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="255" t="s">
+      <c r="C1" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="255" t="s">
+      <c r="D1" s="257" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="255" t="s">
+      <c r="E1" s="257" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="255" t="s">
+      <c r="F1" s="257" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="267" t="s">
+      <c r="G1" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="246" t="s">
+      <c r="H1" s="248" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="246" t="s">
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="248" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="247"/>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="247"/>
-      <c r="AA1" s="247"/>
-      <c r="AB1" s="247"/>
-      <c r="AC1" s="247"/>
-      <c r="AD1" s="248"/>
-      <c r="AE1" s="246" t="s">
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="250"/>
+      <c r="AE1" s="248" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="247"/>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="246" t="s">
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="249"/>
+      <c r="AH1" s="250"/>
+      <c r="AI1" s="248" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="247"/>
-      <c r="AK1" s="247"/>
-      <c r="AL1" s="247"/>
-      <c r="AM1" s="247"/>
-      <c r="AN1" s="247"/>
-      <c r="AO1" s="247"/>
-      <c r="AP1" s="247"/>
-      <c r="AQ1" s="248"/>
-      <c r="AR1" s="246" t="s">
+      <c r="AJ1" s="249"/>
+      <c r="AK1" s="249"/>
+      <c r="AL1" s="249"/>
+      <c r="AM1" s="249"/>
+      <c r="AN1" s="249"/>
+      <c r="AO1" s="249"/>
+      <c r="AP1" s="249"/>
+      <c r="AQ1" s="250"/>
+      <c r="AR1" s="248" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="247"/>
-      <c r="AT1" s="248"/>
-      <c r="AU1" s="251" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AV1" s="252" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AX1" s="253" t="s">
+      <c r="AS1" s="249"/>
+      <c r="AT1" s="250"/>
+      <c r="AU1" s="253" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AV1" s="254" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AX1" s="255" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="254"/>
-      <c r="AZ1" s="254"/>
+      <c r="AY1" s="256"/>
+      <c r="AZ1" s="256"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="264"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="268"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="270"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10202,115 +10247,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="251"/>
-      <c r="AV2" s="252"/>
+      <c r="AU2" s="253"/>
+      <c r="AV2" s="254"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="241" t="s">
+      <c r="AX2" s="243" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="241" t="s">
+      <c r="AY2" s="243" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="241" t="s">
+      <c r="AZ2" s="243" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="241" t="s">
+      <c r="BB2" s="243" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:54" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="264"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="259" t="s">
+      <c r="B3" s="266"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="261" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="250"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="261" t="s">
+      <c r="I3" s="252"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="263" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="261" t="s">
+      <c r="L3" s="252"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="263" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="258"/>
-      <c r="P3" s="259" t="s">
+      <c r="O3" s="260"/>
+      <c r="P3" s="261" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="261" t="s">
+      <c r="Q3" s="264"/>
+      <c r="R3" s="263" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="250"/>
-      <c r="T3" s="262"/>
+      <c r="S3" s="252"/>
+      <c r="T3" s="264"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="261" t="s">
+      <c r="V3" s="263" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="261" t="s">
+      <c r="W3" s="252"/>
+      <c r="X3" s="252"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="263" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="262"/>
+      <c r="AA3" s="264"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="261" t="s">
+      <c r="AC3" s="263" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="258"/>
-      <c r="AE3" s="259" t="s">
+      <c r="AD3" s="260"/>
+      <c r="AE3" s="261" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="250"/>
-      <c r="AG3" s="250"/>
-      <c r="AH3" s="258"/>
-      <c r="AI3" s="259" t="s">
+      <c r="AF3" s="252"/>
+      <c r="AG3" s="252"/>
+      <c r="AH3" s="260"/>
+      <c r="AI3" s="261" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="250"/>
-      <c r="AK3" s="250"/>
-      <c r="AL3" s="260"/>
-      <c r="AM3" s="249" t="s">
+      <c r="AJ3" s="252"/>
+      <c r="AK3" s="252"/>
+      <c r="AL3" s="262"/>
+      <c r="AM3" s="251" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="250"/>
-      <c r="AO3" s="260"/>
-      <c r="AP3" s="249" t="s">
+      <c r="AN3" s="252"/>
+      <c r="AO3" s="262"/>
+      <c r="AP3" s="251" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="258"/>
-      <c r="AR3" s="249" t="s">
+      <c r="AQ3" s="260"/>
+      <c r="AR3" s="251" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="250"/>
-      <c r="AT3" s="250"/>
-      <c r="AU3" s="251"/>
-      <c r="AV3" s="252"/>
+      <c r="AS3" s="252"/>
+      <c r="AT3" s="252"/>
+      <c r="AU3" s="253"/>
+      <c r="AV3" s="254"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="242"/>
-      <c r="AY3" s="242"/>
-      <c r="AZ3" s="242"/>
+      <c r="AX3" s="244"/>
+      <c r="AY3" s="244"/>
+      <c r="AZ3" s="244"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="242"/>
+      <c r="BB3" s="244"/>
     </row>
     <row r="4" spans="2:54" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="265"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="269"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="271"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10428,16 +10473,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="251"/>
-      <c r="AV4" s="252"/>
+      <c r="AU4" s="253"/>
+      <c r="AV4" s="254"/>
       <c r="AW4" s="212" t="s">
-        <v>1343</v>
-      </c>
-      <c r="AX4" s="242"/>
-      <c r="AY4" s="242"/>
-      <c r="AZ4" s="242"/>
+        <v>1339</v>
+      </c>
+      <c r="AX4" s="244"/>
+      <c r="AY4" s="244"/>
+      <c r="AZ4" s="244"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="242"/>
+      <c r="BB4" s="244"/>
     </row>
     <row r="5" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -10487,11 +10532,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="243" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AX5" s="244"/>
-      <c r="AY5" s="245"/>
+      <c r="AW5" s="245" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AX5" s="246"/>
+      <c r="AY5" s="247"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -10633,14 +10678,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AV6" s="216">
         <v>43662</v>
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -10928,10 +10973,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11082,7 +11127,7 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
@@ -11227,19 +11272,19 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AV10" s="217">
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="AX10" s="219" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AY10" s="220" t="s">
         <v>981</v>
-      </c>
-      <c r="AY10" s="220" t="s">
-        <v>982</v>
       </c>
       <c r="AZ10" s="221"/>
       <c r="BA10" s="221"/>
@@ -11384,19 +11429,19 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV11" s="216">
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="AX11" s="219" t="s">
+        <v>982</v>
+      </c>
+      <c r="AY11" s="220" t="s">
         <v>983</v>
-      </c>
-      <c r="AY11" s="220" t="s">
-        <v>984</v>
       </c>
       <c r="AZ11" s="221"/>
       <c r="BA11" s="221"/>
@@ -11545,13 +11590,13 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="AX12" s="219" t="s">
+        <v>984</v>
+      </c>
+      <c r="AY12" s="220" t="s">
         <v>985</v>
-      </c>
-      <c r="AY12" s="220" t="s">
-        <v>986</v>
       </c>
       <c r="AZ12" s="221"/>
       <c r="BA12" s="221"/>
@@ -11700,10 +11745,10 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
@@ -11851,10 +11896,10 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
@@ -12002,10 +12047,10 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
@@ -12148,7 +12193,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12290,10 +12335,10 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
@@ -28765,10 +28810,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -28911,7 +28956,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29055,20 +29100,20 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
       </c>
       <c r="AW20" s="63"/>
       <c r="AX20" s="62" t="s">
+        <v>986</v>
+      </c>
+      <c r="AY20" s="62" t="s">
         <v>987</v>
       </c>
-      <c r="AY20" s="62" t="s">
+      <c r="AZ20" s="61" t="s">
         <v>988</v>
-      </c>
-      <c r="AZ20" s="61" t="s">
-        <v>989</v>
       </c>
       <c r="BA20" s="61"/>
       <c r="BB20" s="61" t="s">
@@ -29358,7 +29403,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29504,7 +29549,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -29796,7 +29841,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -29942,7 +29987,7 @@
       <c r="AU26" s="139"/>
       <c r="AW26" s="71"/>
       <c r="AX26" s="72" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AY26" s="72"/>
       <c r="AZ26" s="73"/>
@@ -30088,7 +30133,7 @@
       <c r="AU27" s="139"/>
       <c r="AW27" s="71"/>
       <c r="AX27" s="72" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AY27" s="72"/>
       <c r="AZ27" s="73"/>
@@ -30234,7 +30279,7 @@
       <c r="AU28" s="139"/>
       <c r="AW28" s="71"/>
       <c r="AX28" s="72" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AY28" s="72"/>
       <c r="AZ28" s="73"/>
@@ -30380,7 +30425,7 @@
       <c r="AU29" s="139"/>
       <c r="AW29" s="71"/>
       <c r="AX29" s="72" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AY29" s="72"/>
       <c r="AZ29" s="73"/>
@@ -30526,7 +30571,7 @@
       <c r="AU30" s="139"/>
       <c r="AW30" s="71"/>
       <c r="AX30" s="72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AY30" s="72"/>
       <c r="AZ30" s="73"/>
@@ -30672,7 +30717,7 @@
       <c r="AU31" s="139"/>
       <c r="AW31" s="71"/>
       <c r="AX31" s="72" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AY31" s="72"/>
       <c r="AZ31" s="73"/>
@@ -30818,7 +30863,7 @@
       <c r="AU32" s="139"/>
       <c r="AW32" s="71"/>
       <c r="AX32" s="88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AY32" s="72"/>
       <c r="AZ32" s="73"/>
@@ -30964,7 +31009,7 @@
       <c r="AU33" s="139"/>
       <c r="AW33" s="71"/>
       <c r="AX33" s="88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AY33" s="72"/>
       <c r="AZ33" s="73"/>
@@ -31110,7 +31155,7 @@
       <c r="AU34" s="139"/>
       <c r="AW34" s="71"/>
       <c r="AX34" s="88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AY34" s="72"/>
       <c r="AZ34" s="73"/>
@@ -31255,7 +31300,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31401,10 +31446,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -31551,7 +31596,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -31696,13 +31741,13 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="AY38" s="62" t="s">
+        <v>995</v>
+      </c>
+      <c r="AZ38" s="61" t="s">
         <v>996</v>
-      </c>
-      <c r="AZ38" s="61" t="s">
-        <v>997</v>
       </c>
       <c r="BA38" s="61"/>
       <c r="BB38" s="61" t="s">
@@ -31845,13 +31890,13 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="AY39" s="62" t="s">
+        <v>997</v>
+      </c>
+      <c r="BB39" s="61" t="s">
         <v>998</v>
-      </c>
-      <c r="BB39" s="61" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="40" spans="2:54" s="197" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -31985,14 +32030,14 @@
       <c r="AS40" s="187"/>
       <c r="AT40" s="188"/>
       <c r="AU40" s="192" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AV40" s="223">
         <v>43664</v>
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32087,7 +32132,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32227,14 +32272,14 @@
       <c r="AS42" s="187"/>
       <c r="AT42" s="188"/>
       <c r="AU42" s="192" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AV42" s="223">
         <v>43664</v>
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32374,14 +32419,14 @@
       <c r="AS43" s="187"/>
       <c r="AT43" s="188"/>
       <c r="AU43" s="192" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AV43" s="223">
         <v>43664</v>
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32480,10 +32525,10 @@
         <v>602</v>
       </c>
       <c r="AY44" s="62" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AZ44" s="58" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="45" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -32617,15 +32662,15 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="146" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AV45" s="147"/>
       <c r="AW45" s="218"/>
       <c r="AX45" s="62" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AY45" s="78" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BB45" s="61" t="s">
         <v>321</v>
@@ -32762,14 +32807,14 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="157" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AW46" s="218"/>
       <c r="AX46" s="62" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AY46" s="81" t="s">
         <v>1002</v>
-      </c>
-      <c r="AY46" s="81" t="s">
-        <v>1003</v>
       </c>
       <c r="BB46" s="61" t="s">
         <v>321</v>
@@ -32860,13 +32905,13 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="157" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AW47" s="132" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AX47" s="62" t="s">
         <v>1004</v>
-      </c>
-      <c r="AX47" s="62" t="s">
-        <v>1005</v>
       </c>
       <c r="BB47" s="61" t="s">
         <v>328</v>
@@ -33013,13 +33058,13 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="AY48" s="62" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="BB48" s="61" t="s">
         <v>976</v>
@@ -33167,13 +33212,13 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="AY49" s="62" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BB49" s="61" t="s">
         <v>1007</v>
-      </c>
-      <c r="BB49" s="61" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="50" spans="2:54" ht="293.25" x14ac:dyDescent="0.2">
@@ -33317,7 +33362,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33459,16 +33504,16 @@
         <v>371</v>
       </c>
       <c r="AU51" s="146" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AV51" s="216">
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -33612,16 +33657,16 @@
         <v>371</v>
       </c>
       <c r="AU52" s="146" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AV52" s="216">
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="AX52" s="62" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AY52" s="78"/>
       <c r="BB52" s="58" t="s">
@@ -33770,7 +33815,7 @@
       </c>
       <c r="AW53" s="218"/>
       <c r="AX53" s="62" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AY53" s="78"/>
       <c r="BB53" s="61" t="s">
@@ -33919,7 +33964,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34067,16 +34112,16 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="AY55" s="65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BB55" s="61" t="s">
         <v>1011</v>
-      </c>
-      <c r="BB55" s="61" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -34210,13 +34255,13 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV56" s="216">
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34227,7 +34272,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34350,16 +34395,16 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV57" s="216">
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34493,16 +34538,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV58" s="216">
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -34642,17 +34687,17 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="60" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -34796,11 +34841,11 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="BB60" s="178" t="s">
         <v>321</v>
@@ -34943,16 +34988,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35093,16 +35138,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AW62" s="218" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35243,14 +35288,14 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35390,16 +35435,16 @@
         <v>371</v>
       </c>
       <c r="AU64" s="146" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AV64" s="167" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AW64" s="218" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35540,19 +35585,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -35695,17 +35740,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AV66" s="216">
         <v>43671</v>
       </c>
       <c r="AW66" s="229"/>
       <c r="AX66" s="62" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -35848,16 +35893,16 @@
         <v>371</v>
       </c>
       <c r="AU67" s="166" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AV67" s="227" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AW67" s="229" t="s">
         <v>1381</v>
       </c>
-      <c r="AW67" s="229" t="s">
-        <v>1385</v>
-      </c>
       <c r="AX67" s="62" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36000,19 +36045,19 @@
         <v>371</v>
       </c>
       <c r="AU68" s="146" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36156,10 +36201,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="AW69" s="229" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36305,10 +36350,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36455,10 +36500,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -36605,10 +36650,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -36755,10 +36800,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -36905,10 +36950,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37052,10 +37097,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37195,19 +37240,19 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV76" s="228" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="AW76" s="229" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37350,19 +37395,19 @@
         <v>371</v>
       </c>
       <c r="AU77" s="151" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -37504,7 +37549,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -37648,14 +37693,14 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -37795,22 +37840,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="AY80" s="62" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="BB80" s="178" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37950,22 +37995,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="AY81" s="62" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BB81" s="178" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38109,16 +38154,16 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="AY82" s="83" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BB82" s="178" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -38258,19 +38303,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="AW83" s="218" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38410,22 +38455,22 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AV84" s="230" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AW84" s="218" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AX84" s="62" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AY84" s="62" t="s">
         <v>1419</v>
       </c>
-      <c r="AV84" s="230" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AW84" s="218" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AX84" s="62" t="s">
-        <v>1422</v>
-      </c>
-      <c r="AY84" s="62" t="s">
-        <v>1423</v>
-      </c>
       <c r="BB84" s="178" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="85" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -38565,16 +38610,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV85" s="230" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AW85" s="218" t="s">
         <v>1420</v>
       </c>
-      <c r="AW85" s="218" t="s">
-        <v>1424</v>
-      </c>
       <c r="AX85" s="62" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -38863,10 +38908,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39006,19 +39051,19 @@
         <v>371</v>
       </c>
       <c r="AU88" s="239" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="AV88" s="240" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="AW88" s="236" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39161,10 +39206,10 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="BB89" s="61" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="90" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -39298,16 +39343,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1430</v>
+        <v>1491</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1429</v>
+        <v>1492</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39442,19 +39487,19 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV91" s="216">
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="AY91" s="179" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
@@ -39595,13 +39640,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="AX92" s="62" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -39748,13 +39793,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="AX93" s="80" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -39835,13 +39880,13 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="AX94" s="62" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AY94" s="80" t="s">
         <v>1242</v>
-      </c>
-      <c r="AY94" s="80" t="s">
-        <v>1243</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -39984,13 +40029,13 @@
         <v>369</v>
       </c>
       <c r="AU95" s="146" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40133,13 +40178,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="151" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40280,13 +40325,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40435,16 +40480,16 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="AX98" s="62" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AY98" s="62" t="s">
         <v>1023</v>
       </c>
-      <c r="AY98" s="62" t="s">
+      <c r="BB98" s="61" t="s">
         <v>1024</v>
-      </c>
-      <c r="BB98" s="61" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="99" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -40542,18 +40587,18 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
       <c r="BB99" s="233" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -40697,16 +40742,16 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
       </c>
       <c r="BB100" s="61" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="101" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -40846,7 +40891,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -40991,10 +41036,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41142,10 +41187,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41288,19 +41333,19 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV104" s="216">
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="AY104" s="62" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="BB104" s="61" t="s">
         <v>976</v>
@@ -41447,10 +41492,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41594,16 +41639,16 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="AY106" s="62" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BB106" s="61" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="107" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41747,16 +41792,16 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="AY107" s="62" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="BB107" s="61" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="108" spans="2:54" ht="191.25" x14ac:dyDescent="0.2">
@@ -41896,19 +41941,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV108" s="216">
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42052,13 +42097,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="AW109" s="219" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42201,16 +42246,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42354,10 +42399,10 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="218" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42504,13 +42549,13 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="218" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="BB112" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="113" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -42654,16 +42699,16 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="218" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="AX113" s="62" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AY113" s="80" t="s">
         <v>1476</v>
       </c>
-      <c r="AY113" s="80" t="s">
-        <v>1483</v>
-      </c>
       <c r="BB113" s="61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="114" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -42807,16 +42852,16 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="218" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="AX114" s="80" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="AY114" s="80" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="BB114" s="58" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="115" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -42960,19 +43005,19 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="218" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B116" s="21" t="s">
         <v>207</v>
       </c>
@@ -43109,17 +43154,23 @@
         <v>369</v>
       </c>
       <c r="AU116" s="139"/>
-      <c r="AW116" s="82" t="s">
-        <v>1017</v>
+      <c r="AV116" s="216">
+        <v>43711</v>
+      </c>
+      <c r="AW116" s="218" t="s">
+        <v>1481</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1244</v>
+        <v>1479</v>
+      </c>
+      <c r="AY116" s="62" t="s">
+        <v>1482</v>
       </c>
       <c r="BB116" s="176" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="117" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B117" s="21" t="s">
         <v>207</v>
       </c>
@@ -43256,17 +43307,20 @@
         <v>369</v>
       </c>
       <c r="AU117" s="139"/>
-      <c r="AW117" s="82" t="s">
-        <v>1017</v>
+      <c r="AV117" s="216">
+        <v>43711</v>
+      </c>
+      <c r="AW117" s="218" t="s">
+        <v>1483</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1245</v>
+        <v>1489</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:54" ht="102" x14ac:dyDescent="0.2">
       <c r="B118" s="21" t="s">
         <v>207</v>
       </c>
@@ -43402,10 +43456,23 @@
       <c r="AT118" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU118" s="139"/>
-      <c r="AW118" s="82"/>
+      <c r="AU118" s="139" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AV118" s="216">
+        <v>43711</v>
+      </c>
+      <c r="AW118" s="218" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AX118" s="62" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BB118" s="242" t="s">
+        <v>321</v>
+      </c>
     </row>
-    <row r="119" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
         <v>207</v>
       </c>
@@ -43541,12 +43608,17 @@
       <c r="AT119" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU119" s="139"/>
-      <c r="AW119" s="82" t="s">
-        <v>1017</v>
+      <c r="AU119" s="241" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AV119" s="216">
+        <v>43711</v>
+      </c>
+      <c r="AW119" s="218" t="s">
+        <v>1486</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1246</v>
+        <v>1490</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -43829,13 +43901,13 @@
       </c>
       <c r="AU121" s="139"/>
       <c r="AW121" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX121" s="62" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="BB121" s="61" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="122" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -43971,13 +44043,13 @@
       <c r="AU122" s="139"/>
       <c r="AW122" s="79"/>
       <c r="AX122" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AY122" s="62" t="s">
         <v>1031</v>
       </c>
-      <c r="AY122" s="62" t="s">
+      <c r="BB122" s="61" t="s">
         <v>1032</v>
-      </c>
-      <c r="BB122" s="61" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="123" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -44212,7 +44284,7 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AV124" s="138">
         <v>20190314</v>
@@ -44314,13 +44386,13 @@
       <c r="AU125" s="139"/>
       <c r="AW125" s="79"/>
       <c r="AX125" s="62" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AY125" s="62" t="s">
         <v>1034</v>
       </c>
-      <c r="AY125" s="62" t="s">
+      <c r="BB125" s="61" t="s">
         <v>1035</v>
-      </c>
-      <c r="BB125" s="61" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="126" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -44417,13 +44489,13 @@
       <c r="AT126" s="24"/>
       <c r="AU126" s="139"/>
       <c r="AW126" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="BB126" s="61" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="127" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -44520,13 +44592,13 @@
       <c r="AT127" s="24"/>
       <c r="AU127" s="139"/>
       <c r="AW127" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX127" s="62" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AY127" s="80" t="s">
         <v>1037</v>
-      </c>
-      <c r="AY127" s="80" t="s">
-        <v>1038</v>
       </c>
       <c r="BB127" s="58" t="s">
         <v>324</v>
@@ -45472,19 +45544,19 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AV135" s="147">
         <v>20190314</v>
       </c>
       <c r="AW135" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="BB135" s="61" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="136" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -45765,10 +45837,10 @@
       <c r="AU137" s="139"/>
       <c r="AW137" s="79"/>
       <c r="AX137" s="62" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AY137" s="62" t="s">
         <v>1040</v>
-      </c>
-      <c r="AY137" s="62" t="s">
-        <v>1041</v>
       </c>
       <c r="BB137" s="61" t="s">
         <v>976</v>
@@ -45912,10 +45984,10 @@
       </c>
       <c r="AU138" s="139"/>
       <c r="AW138" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX138" s="62" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -46010,16 +46082,16 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="151" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="AV139" s="138">
         <v>20190226</v>
       </c>
       <c r="AW139" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -46128,10 +46200,10 @@
       <c r="AU140" s="139"/>
       <c r="AW140" s="79"/>
       <c r="AX140" s="62" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AY140" s="62" t="s">
         <v>1044</v>
-      </c>
-      <c r="AY140" s="62" t="s">
-        <v>1045</v>
       </c>
       <c r="BB140" s="61" t="s">
         <v>976</v>
@@ -46275,7 +46347,7 @@
       </c>
       <c r="AU141" s="139"/>
       <c r="AW141" s="82" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="142" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -46381,10 +46453,10 @@
       <c r="AU142" s="139"/>
       <c r="AV142" s="70"/>
       <c r="AW142" s="85" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX142" s="65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AY142" s="70"/>
       <c r="AZ142" s="66"/>
@@ -46488,17 +46560,17 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AV143" s="138">
         <v>20190130</v>
       </c>
       <c r="AW143" s="82"/>
       <c r="AX143" s="62" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="BB143" s="176" t="s">
         <v>328</v>
@@ -46641,17 +46713,17 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AV144" s="138">
         <v>20190130</v>
       </c>
       <c r="AW144" s="79"/>
       <c r="AX144" s="62" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AY144" s="62" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="AZ144" s="177"/>
       <c r="BB144" s="176" t="s">
@@ -47033,17 +47105,17 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AV147" s="138">
         <v>20190130</v>
       </c>
       <c r="AW147" s="79"/>
       <c r="AX147" s="62" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="BB147" s="178" t="s">
         <v>324</v>
@@ -47145,10 +47217,10 @@
       </c>
       <c r="AU148" s="139"/>
       <c r="AW148" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -47250,13 +47322,13 @@
       </c>
       <c r="AU149" s="139"/>
       <c r="AW149" s="82" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AX149" s="62" t="s">
         <v>1049</v>
       </c>
-      <c r="AX149" s="62" t="s">
+      <c r="AY149" s="62" t="s">
         <v>1050</v>
-      </c>
-      <c r="AY149" s="62" t="s">
-        <v>1051</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -47371,13 +47443,13 @@
         <v>369</v>
       </c>
       <c r="AU150" s="165" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="AV150" s="147">
         <v>20190328</v>
       </c>
       <c r="AW150" s="86" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="AX150" s="87"/>
       <c r="AY150" s="88"/>
@@ -47520,24 +47592,24 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AV151" s="88">
         <v>20190122</v>
       </c>
       <c r="AW151" s="86" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX151" s="87" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AY151" s="87" t="s">
         <v>1052</v>
-      </c>
-      <c r="AY151" s="87" t="s">
-        <v>1053</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="152" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -47637,18 +47709,18 @@
         <v>20190122</v>
       </c>
       <c r="AW152" s="86" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX152" s="87" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AY152" s="87" t="s">
         <v>1055</v>
-      </c>
-      <c r="AY152" s="87" t="s">
-        <v>1056</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="153" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -48050,10 +48122,10 @@
       <c r="AU155" s="139"/>
       <c r="AW155" s="82"/>
       <c r="AX155" s="80" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AY155" s="80" t="s">
         <v>1057</v>
-      </c>
-      <c r="AY155" s="80" t="s">
-        <v>1058</v>
       </c>
       <c r="BB155" s="58" t="s">
         <v>976</v>
@@ -48190,20 +48262,20 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AV156" s="145">
         <v>20190228</v>
       </c>
       <c r="AW156" s="82"/>
       <c r="AX156" s="62" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="AY156" s="68" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BB156" s="61" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="157" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -48326,7 +48398,7 @@
       <c r="AT157" s="24"/>
       <c r="AU157" s="139"/>
       <c r="AW157" s="82" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="158" spans="2:54" x14ac:dyDescent="0.2">
@@ -48714,7 +48786,7 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="143" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AV160" s="155">
         <v>20190326</v>
@@ -48840,16 +48912,16 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AV161" s="70">
         <v>20190326</v>
       </c>
       <c r="AW161" s="85" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX161" s="65" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="AY161" s="70"/>
       <c r="AZ161" s="66"/>
@@ -48977,16 +49049,16 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AV162" s="70">
         <v>20190326</v>
       </c>
       <c r="AW162" s="85" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX162" s="169" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="AY162" s="70"/>
       <c r="AZ162" s="66"/>
@@ -49114,16 +49186,16 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AV163" s="70">
         <v>20190326</v>
       </c>
       <c r="AW163" s="85" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX163" s="70" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="AY163" s="70"/>
       <c r="AZ163" s="66"/>
@@ -49888,10 +49960,10 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="148" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AV169" s="154" t="s">
         <v>1198</v>
-      </c>
-      <c r="AV169" s="154" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="170" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -50032,14 +50104,14 @@
       </c>
       <c r="AU170" s="139"/>
       <c r="AW170" s="82" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="AX170" s="62" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AY170" s="62"/>
       <c r="BB170" s="61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="171" spans="2:54" ht="77.25" x14ac:dyDescent="0.25">
@@ -50179,19 +50251,19 @@
         <v>369</v>
       </c>
       <c r="AU171" s="151" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AV171" s="138" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AW171" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX171" s="62" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AY171" s="62" t="s">
         <v>1061</v>
-      </c>
-      <c r="AY171" s="62" t="s">
-        <v>1062</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
@@ -50334,10 +50406,10 @@
         <v>369</v>
       </c>
       <c r="AU172" s="151" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AV172" s="154" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AW172" s="79"/>
     </row>
@@ -50446,17 +50518,17 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AV173" s="142">
         <v>20190402</v>
       </c>
       <c r="AW173" s="140"/>
       <c r="AX173" s="141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AY173" s="141" t="s">
         <v>1063</v>
-      </c>
-      <c r="AY173" s="141" t="s">
-        <v>1064</v>
       </c>
       <c r="AZ173" s="66"/>
       <c r="BA173" s="66"/>
@@ -50601,19 +50673,19 @@
         <v>369</v>
       </c>
       <c r="AU174" s="152" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AW174" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
@@ -50729,10 +50801,10 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AY175" s="65" t="s">
         <v>1066</v>
-      </c>
-      <c r="AY175" s="65" t="s">
-        <v>1067</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
@@ -50877,7 +50949,7 @@
         <v>369</v>
       </c>
       <c r="AU176" s="156" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -51020,10 +51092,10 @@
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
       <c r="AU177" s="156" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -51442,10 +51514,10 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AX180" s="81" t="s">
         <v>1068</v>
-      </c>
-      <c r="AX180" s="81" t="s">
-        <v>1069</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
@@ -51584,13 +51656,13 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AX181" s="62" t="s">
         <v>1070</v>
       </c>
-      <c r="AX181" s="62" t="s">
-        <v>1071</v>
-      </c>
       <c r="BB181" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="182" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -52148,13 +52220,13 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AX185" s="62" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BB185" s="61" t="s">
         <v>1072</v>
-      </c>
-      <c r="BB185" s="61" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="186" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -52508,19 +52580,19 @@
         <v>369</v>
       </c>
       <c r="AU188" s="160" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="BB188" s="176" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="189" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -52660,17 +52732,17 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AY189" s="62" t="s">
         <v>1074</v>
-      </c>
-      <c r="AY189" s="62" t="s">
-        <v>1075</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
@@ -52781,17 +52853,17 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AY190" s="62" t="s">
         <v>1076</v>
-      </c>
-      <c r="AY190" s="62" t="s">
-        <v>1077</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
@@ -52934,16 +53006,16 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
@@ -53086,7 +53158,7 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
@@ -53230,7 +53302,7 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
@@ -53374,19 +53446,19 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
       </c>
       <c r="AW194" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="BB194" s="176" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="195" spans="2:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53583,16 +53655,16 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="197" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -53732,20 +53804,20 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AV197" s="145">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="AY197" s="180" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BB197" s="178" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="198" spans="2:54" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53885,17 +53957,17 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="AY198" s="180" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BB198" s="61" t="s">
         <v>321</v>
@@ -53994,16 +54066,16 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="144" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
       </c>
       <c r="AW199" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -54286,10 +54358,10 @@
       </c>
       <c r="AU201" s="139"/>
       <c r="AW201" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="BB201" s="178" t="s">
         <v>321</v>
@@ -54479,19 +54551,19 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
       </c>
       <c r="AW203" s="133" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="BB203" s="176" t="s">
         <v>328</v>
@@ -54634,22 +54706,22 @@
         <v>369</v>
       </c>
       <c r="AU204" s="150" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
       <c r="BA204" s="89"/>
       <c r="BB204" s="90" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="205" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -54888,13 +54960,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="207" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -55116,16 +55188,16 @@
       </c>
       <c r="AU208" s="139"/>
       <c r="AW208" s="133" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="BB208" s="176" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="209" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -55266,16 +55338,16 @@
       </c>
       <c r="AU209" s="139"/>
       <c r="AW209" s="133" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="BB209" s="176" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="210" spans="2:54" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -55369,13 +55441,13 @@
       <c r="AU210" s="139"/>
       <c r="AV210" s="88"/>
       <c r="AW210" s="133" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
@@ -55520,19 +55592,19 @@
         <v>369</v>
       </c>
       <c r="AU211" s="152" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
       </c>
       <c r="AW211" s="133" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
@@ -55601,17 +55673,17 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="146" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AV212" s="147">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AY212" s="65" t="s">
         <v>1083</v>
-      </c>
-      <c r="AY212" s="65" t="s">
-        <v>1084</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
@@ -55756,22 +55828,22 @@
         <v>369</v>
       </c>
       <c r="AU213" s="144" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AV213" s="144">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AX213" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="AX213" s="62" t="s">
+      <c r="AY213" s="62" t="s">
         <v>1086</v>
       </c>
-      <c r="AY213" s="62" t="s">
+      <c r="BB213" s="61" t="s">
         <v>1087</v>
-      </c>
-      <c r="BB213" s="61" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="214" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -55911,16 +55983,16 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
       </c>
       <c r="AW214" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
@@ -56063,19 +56135,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AX215" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AY215" s="62" t="s">
         <v>1089</v>
-      </c>
-      <c r="AY215" s="62" t="s">
-        <v>1090</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -56555,13 +56627,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="220" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -56701,13 +56773,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="221" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -56848,7 +56920,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="222" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -56988,16 +57060,16 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
@@ -57140,19 +57212,19 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="224" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -57431,14 +57503,14 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="BB225" s="176" t="s">
         <v>320</v>
@@ -57575,19 +57647,19 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
       </c>
       <c r="AW226" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -57724,16 +57796,16 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
       </c>
       <c r="AW227" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="228" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -58267,7 +58339,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -58408,7 +58480,7 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
@@ -58549,7 +58621,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -58690,7 +58762,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -58831,7 +58903,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -58972,7 +59044,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -59114,16 +59186,16 @@
       </c>
       <c r="AU238" s="139"/>
       <c r="AW238" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX238" s="62" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AY238" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="AY238" s="62" t="s">
+      <c r="BB238" s="61" t="s">
         <v>1093</v>
-      </c>
-      <c r="BB238" s="61" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="239" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -59259,22 +59331,22 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX239" s="87" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AY239" s="87" t="s">
         <v>1095</v>
-      </c>
-      <c r="AY239" s="87" t="s">
-        <v>1096</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
       <c r="BB239" s="90" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="240" spans="2:54" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -59410,7 +59482,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -59553,7 +59625,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -59694,7 +59766,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -59835,7 +59907,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -59982,7 +60054,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -60073,7 +60145,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -60174,16 +60246,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AX246" s="62" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AY246" s="80" t="s">
         <v>1083</v>
-      </c>
-      <c r="AY246" s="80" t="s">
-        <v>1084</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -60326,7 +60398,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -60421,7 +60493,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -60518,16 +60590,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW249" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX249" s="80" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AY249" s="80" t="s">
         <v>1098</v>
-      </c>
-      <c r="AY249" s="80" t="s">
-        <v>1099</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -60670,16 +60742,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW250" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX250" s="80" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AY250" s="80" t="s">
         <v>1100</v>
-      </c>
-      <c r="AY250" s="80" t="s">
-        <v>1101</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -60822,10 +60894,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="252" spans="2:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61383,13 +61455,13 @@
       </c>
       <c r="AU255" s="139"/>
       <c r="AW255" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX255" s="62" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AY255" s="62" t="s">
         <v>1103</v>
-      </c>
-      <c r="AY255" s="62" t="s">
-        <v>1104</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -61533,10 +61605,10 @@
       </c>
       <c r="AU256" s="139"/>
       <c r="AW256" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -61672,13 +61744,13 @@
       </c>
       <c r="AU257" s="139"/>
       <c r="AW257" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX257" s="62" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AY257" s="62" t="s">
         <v>1106</v>
-      </c>
-      <c r="AY257" s="62" t="s">
-        <v>1107</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -61759,7 +61831,7 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
@@ -61904,7 +61976,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -62116,16 +62188,16 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW261" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX261" s="62" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY261" s="62" t="s">
         <v>1018</v>
-      </c>
-      <c r="AY261" s="62" t="s">
-        <v>1019</v>
       </c>
       <c r="BB261" s="61" t="s">
         <v>328</v>
@@ -62234,14 +62306,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AY262" s="62" t="s">
         <v>1108</v>
-      </c>
-      <c r="AY262" s="62" t="s">
-        <v>1109</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -62384,17 +62456,17 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="BB263" s="176" t="s">
         <v>976</v>
@@ -62544,7 +62616,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -62664,17 +62736,17 @@
         <v>371</v>
       </c>
       <c r="AU265" s="168" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AV265" s="167">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="BB265" s="176" t="s">
         <v>976</v>
@@ -62805,14 +62877,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -62946,16 +63018,16 @@
         <v>371</v>
       </c>
       <c r="AU267" s="172" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AV267" s="169">
         <v>20190404</v>
       </c>
       <c r="AW267" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -63089,16 +63161,16 @@
         <v>371</v>
       </c>
       <c r="AU268" s="173" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AV268" s="174">
         <v>20190404</v>
       </c>
       <c r="AW268" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -63232,16 +63304,16 @@
         <v>371</v>
       </c>
       <c r="AU269" s="175" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AV269" s="174">
         <v>20190404</v>
       </c>
       <c r="AW269" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -63321,7 +63393,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="170" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AV270" s="171">
         <v>20190404</v>
@@ -63404,7 +63476,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="143" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AV271" s="155">
         <v>20190404</v>
@@ -63487,7 +63559,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="143" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AV272" s="155">
         <v>20190404</v>
@@ -63622,13 +63694,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AW273" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -63757,16 +63829,16 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AW274" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="BB274" s="61" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="275" spans="2:54" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -63906,7 +63978,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -64053,7 +64125,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -64194,7 +64266,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -64299,7 +64371,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -64441,13 +64513,13 @@
       </c>
       <c r="AU279" s="139"/>
       <c r="AW279" s="82" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AX279" s="62" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AY279" s="62" t="s">
         <v>1112</v>
-      </c>
-      <c r="AY279" s="62" t="s">
-        <v>1113</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -64520,7 +64592,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -64661,7 +64733,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -64802,7 +64874,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -64944,7 +65016,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -65085,7 +65157,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -65226,7 +65298,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -65367,7 +65439,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -65494,16 +65566,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW287" s="82" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AX287" s="62" t="s">
         <v>1114</v>
       </c>
-      <c r="AX287" s="62" t="s">
+      <c r="AY287" s="62" t="s">
         <v>1115</v>
-      </c>
-      <c r="AY287" s="62" t="s">
-        <v>1116</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -65574,7 +65646,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -65702,10 +65774,10 @@
       </c>
       <c r="AU289" s="139"/>
       <c r="AW289" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -65834,16 +65906,16 @@
         <v>370</v>
       </c>
       <c r="AU290" s="162" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AV290" s="145">
         <v>20190305</v>
       </c>
       <c r="AW290" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="291" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -65969,13 +66041,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW291" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -66040,7 +66112,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -66103,7 +66175,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -66166,7 +66238,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -66235,7 +66307,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -66298,7 +66370,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -66361,7 +66433,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -66424,16 +66496,16 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="162" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AV298" s="145">
         <v>20190305</v>
       </c>
       <c r="AW298" s="82" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="299" spans="2:54" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -66495,7 +66567,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -66740,16 +66812,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="276" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="277"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="278" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="276"/>
+      <c r="B2" s="278"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -66792,16 +66864,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="272" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="272" t="s">
+      <c r="B9" s="274" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="271"/>
-      <c r="B10" s="273"/>
+      <c r="A10" s="273"/>
+      <c r="B10" s="275"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -67081,31 +67153,31 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="164"/>
       <c r="B5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -67125,166 +67197,166 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1" t="s">
         <v>1122</v>
       </c>
-      <c r="B1" t="s">
-        <v>1123</v>
-      </c>
       <c r="F1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B2" t="s">
         <v>1124</v>
       </c>
-      <c r="B2" t="s">
-        <v>1125</v>
-      </c>
       <c r="F2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B3" t="s">
         <v>1126</v>
       </c>
-      <c r="B3" t="s">
-        <v>1127</v>
-      </c>
       <c r="F3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B4" t="s">
         <v>1128</v>
       </c>
-      <c r="B4" t="s">
-        <v>1129</v>
-      </c>
       <c r="F4" s="161" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B5" t="s">
         <v>1130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B6" t="s">
         <v>1132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B7" t="s">
         <v>1134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B8" t="s">
         <v>1136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B9" t="s">
         <v>1138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B10" t="s">
         <v>1140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B11" t="s">
         <v>1142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B12" t="s">
         <v>1144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B13" t="s">
         <v>1146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B14" t="s">
         <v>1148</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B15" t="s">
         <v>1150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B16" t="s">
         <v>1152</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B17" t="s">
         <v>1154</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B18" t="s">
         <v>1156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B19" t="s">
         <v>1158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -67292,12 +67364,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
@@ -67306,15 +67378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
@@ -67330,7 +67393,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67513,12 +67576,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
   <xsnLocation/>
@@ -67528,33 +67591,34 @@
 </customXsn>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67574,7 +67638,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -67582,10 +67646,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12258" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12272" uniqueCount="1508">
   <si>
     <t>ID</t>
   </si>
@@ -4492,6 +4492,9 @@
     <t>identifier</t>
   </si>
   <si>
+    <t>Procedure.Legislation.legal-basis</t>
+  </si>
+  <si>
     <t>Based on Legal Basis list defined by MDR.
 See with PAA</t>
   </si>
@@ -4671,15 +4674,6 @@
     <t>Code list</t>
   </si>
   <si>
-    <t>Criterion</t>
-  </si>
-  <si>
-    <t>A condition that needs to be answered for evaluation purposes.
-Additional Information: this can be used for transparency and evaluation of  PRICE CRITERIA
-(list of criteria related to price) Selection and Award Criterion that are weighted.
-(WG approval 22/06/2018)</t>
-  </si>
-  <si>
     <t>Public class</t>
   </si>
   <si>
@@ -4691,9 +4685,6 @@
   </si>
   <si>
     <t>Public Class</t>
-  </si>
-  <si>
-    <t>Criterion.Description</t>
   </si>
   <si>
     <t xml:space="preserve"> A narrative description describing the content of the group of properties inside a criterion.
@@ -5825,28 +5816,6 @@
 (Not included in the Glossary. Pending to review by the WG)</t>
   </si>
   <si>
-    <r>
-      <t>SelectionCriterion.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has selection criterion type.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SelectionCriterionType</t>
-    </r>
-  </si>
-  <si>
     <t>ContractTerms.ContractorLegalFormsRequirementDescription</t>
   </si>
   <si>
@@ -6084,28 +6053,6 @@
   </si>
   <si>
     <t>timeperiods</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ExclusionGround. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Has exclusion ground type.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ExclusionGroundType</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -6975,6 +6922,12 @@
 Lot isFundedBy Fund</t>
   </si>
   <si>
+    <t>Procedure.Legislation</t>
+  </si>
+  <si>
+    <t>Procedure hasCross-BorderLaw Legislation</t>
+  </si>
+  <si>
     <t>A question has been asked to Jachym to clarify whether this could become the legal basis itself or if it is supplementary to de legal-basis.</t>
   </si>
   <si>
@@ -7242,9 +7195,6 @@
 EconomicOperator isParty Organization</t>
   </si>
   <si>
-    <t>Organisationa is part of the w3c org ontology</t>
-  </si>
-  <si>
     <t>Procedure.Lot.EvaluationBoard.Evaluator.GivenName/FamiliName/etc.</t>
   </si>
   <si>
@@ -7255,13 +7205,77 @@
 CandidateShortList.EconomicOperator.Organization.Name/ContactDetails/etc.</t>
   </si>
   <si>
-    <t>Procedure hasCross-BorderLaw LegalResource</t>
-  </si>
-  <si>
-    <t>Procedure.LegalResource</t>
-  </si>
-  <si>
-    <t>Procedure.LegalResource.legal-basis</t>
+    <t>ESPDRequest.ExclusionGrounds</t>
+  </si>
+  <si>
+    <t>ESPDRequest has ExclusionGrounds</t>
+  </si>
+  <si>
+    <t>Organisation is part of the w3c org ontology</t>
+  </si>
+  <si>
+    <t>See how the ESPD Document is modelled in ePO. In ePO, Procurement Criteria are fully structure data and not mere text.</t>
+  </si>
+  <si>
+    <t>Describes a legal requirement to be met by the economic operator to be a candidate in the procurement procedure.
+WG approval 31/10/2018</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriteria</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriteria</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriteria.ProcurementCriterionProperty.Lot</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriteria,
+SelectionCriteria has ProcurementCriterionProperty,
+ProcurementCriterionProperty appliesTo Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Contracting Authority uses this property to precise the Lots for which a concrete requirement (expressed as  Procurement Criterion Property) is applicable to.
+WG Approval 05/09/2019 </t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.selection-criterion</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriterion,
+SelectionCriterion is cccev:Criterion,
+cccev:Criterion hasType selection-criterion</t>
+  </si>
+  <si>
+    <t>The list of codes assigned to each Selection Criteria.
+To be reviewed</t>
+  </si>
+  <si>
+    <t>Action: We asked to JH in GitHub</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriterion,
+SelectionCriterion is cccev:Criterion,
+cccev:Criterion hasName Text</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.Name</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriterion,
+SelectionCriterion is cccev:Criterion,
+cccev:Criterion hasDescription Text</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mapping needs further discussion OP as eForms considers that a CN may not link to one ESPD and therefore a minimum set of data needs to be collected by the CN
+See: #219 - https://github.com/eprocurementontology/eprocurementontology/issues/219#issuecomment-528381880 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is under discussion we have asked to JH
+See issue #220 - https://github.com/eprocurementontology/eprocurementontology/issues/220 </t>
   </si>
 </sst>
 </file>
@@ -8499,7 +8513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9186,6 +9200,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9301,7 +9321,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9995,12 +10043,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="H117" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="H137" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10011,29 +10059,29 @@
     <col min="5" max="5" width="9" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="43" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="50" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="50" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="56" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="4" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="3.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="4.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="4.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="3.7109375" style="56" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="3.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="35" max="41" width="3.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="5.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="5.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="5.42578125" style="56" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="5.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="50" customWidth="1"/>
+    <col min="10" max="12" width="3.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7" style="56" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" customWidth="1"/>
+    <col min="18" max="20" width="4" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="2" customWidth="1"/>
+    <col min="22" max="25" width="3.7109375" style="2" customWidth="1"/>
+    <col min="26" max="27" width="4.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" style="4" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="56" customWidth="1"/>
+    <col min="32" max="33" width="3.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="5" customWidth="1"/>
+    <col min="35" max="41" width="3.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="5.7109375" style="4" customWidth="1"/>
+    <col min="44" max="44" width="5.42578125" style="56" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="2" customWidth="1"/>
     <col min="46" max="46" width="5.42578125" style="3" customWidth="1"/>
     <col min="47" max="47" width="84.7109375" style="158" customWidth="1"/>
     <col min="48" max="48" width="32.5703125" style="138" customWidth="1"/>
@@ -10044,92 +10092,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="267" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="257" t="s">
+      <c r="C1" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="257" t="s">
+      <c r="D1" s="259" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="257" t="s">
+      <c r="E1" s="259" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="257" t="s">
+      <c r="F1" s="259" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="269" t="s">
+      <c r="G1" s="271" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="248" t="s">
+      <c r="H1" s="250" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="248" t="s">
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="250" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="249"/>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="249"/>
-      <c r="AD1" s="250"/>
-      <c r="AE1" s="248" t="s">
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="251"/>
+      <c r="AA1" s="251"/>
+      <c r="AB1" s="251"/>
+      <c r="AC1" s="251"/>
+      <c r="AD1" s="252"/>
+      <c r="AE1" s="250" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="249"/>
-      <c r="AG1" s="249"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="248" t="s">
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="250" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="249"/>
-      <c r="AK1" s="249"/>
-      <c r="AL1" s="249"/>
-      <c r="AM1" s="249"/>
-      <c r="AN1" s="249"/>
-      <c r="AO1" s="249"/>
-      <c r="AP1" s="249"/>
-      <c r="AQ1" s="250"/>
-      <c r="AR1" s="248" t="s">
+      <c r="AJ1" s="251"/>
+      <c r="AK1" s="251"/>
+      <c r="AL1" s="251"/>
+      <c r="AM1" s="251"/>
+      <c r="AN1" s="251"/>
+      <c r="AO1" s="251"/>
+      <c r="AP1" s="251"/>
+      <c r="AQ1" s="252"/>
+      <c r="AR1" s="250" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="249"/>
-      <c r="AT1" s="250"/>
-      <c r="AU1" s="253" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AV1" s="254" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AX1" s="255" t="s">
+      <c r="AS1" s="251"/>
+      <c r="AT1" s="252"/>
+      <c r="AU1" s="255" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AV1" s="256" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AX1" s="257" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="256"/>
-      <c r="AZ1" s="256"/>
+      <c r="AY1" s="258"/>
+      <c r="AZ1" s="258"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="266"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="270"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="272"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10247,115 +10295,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="253"/>
-      <c r="AV2" s="254"/>
+      <c r="AU2" s="255"/>
+      <c r="AV2" s="256"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="243" t="s">
+      <c r="AX2" s="245" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="243" t="s">
+      <c r="AY2" s="245" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="243" t="s">
+      <c r="AZ2" s="245" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="243" t="s">
+      <c r="BB2" s="245" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:54" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="266"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="261" t="s">
+      <c r="B3" s="268"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="263" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="252"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="263" t="s">
+      <c r="I3" s="254"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="265" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="252"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="263" t="s">
+      <c r="L3" s="254"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="265" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="260"/>
-      <c r="P3" s="261" t="s">
+      <c r="O3" s="262"/>
+      <c r="P3" s="263" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="263" t="s">
+      <c r="Q3" s="266"/>
+      <c r="R3" s="265" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="252"/>
-      <c r="T3" s="264"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="266"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="263" t="s">
+      <c r="V3" s="265" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="263" t="s">
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
+      <c r="Y3" s="266"/>
+      <c r="Z3" s="265" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="264"/>
+      <c r="AA3" s="266"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="263" t="s">
+      <c r="AC3" s="265" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="261" t="s">
+      <c r="AD3" s="262"/>
+      <c r="AE3" s="263" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="252"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="260"/>
-      <c r="AI3" s="261" t="s">
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="254"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="252"/>
-      <c r="AK3" s="252"/>
-      <c r="AL3" s="262"/>
-      <c r="AM3" s="251" t="s">
+      <c r="AJ3" s="254"/>
+      <c r="AK3" s="254"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="253" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="252"/>
-      <c r="AO3" s="262"/>
-      <c r="AP3" s="251" t="s">
+      <c r="AN3" s="254"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="253" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="260"/>
-      <c r="AR3" s="251" t="s">
+      <c r="AQ3" s="262"/>
+      <c r="AR3" s="253" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="252"/>
-      <c r="AT3" s="252"/>
-      <c r="AU3" s="253"/>
-      <c r="AV3" s="254"/>
+      <c r="AS3" s="254"/>
+      <c r="AT3" s="254"/>
+      <c r="AU3" s="255"/>
+      <c r="AV3" s="256"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="244"/>
-      <c r="AY3" s="244"/>
-      <c r="AZ3" s="244"/>
+      <c r="AX3" s="246"/>
+      <c r="AY3" s="246"/>
+      <c r="AZ3" s="246"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="244"/>
+      <c r="BB3" s="246"/>
     </row>
     <row r="4" spans="2:54" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="267"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="271"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="273"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10473,16 +10521,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="253"/>
-      <c r="AV4" s="254"/>
+      <c r="AU4" s="255"/>
+      <c r="AV4" s="256"/>
       <c r="AW4" s="212" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AX4" s="244"/>
-      <c r="AY4" s="244"/>
-      <c r="AZ4" s="244"/>
+        <v>1335</v>
+      </c>
+      <c r="AX4" s="246"/>
+      <c r="AY4" s="246"/>
+      <c r="AZ4" s="246"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="244"/>
+      <c r="BB4" s="246"/>
     </row>
     <row r="5" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -10532,11 +10580,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="245" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AX5" s="246"/>
-      <c r="AY5" s="247"/>
+      <c r="AW5" s="247" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AX5" s="248"/>
+      <c r="AY5" s="249"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -10678,14 +10726,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AV6" s="216">
         <v>43662</v>
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -10973,10 +11021,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11127,7 +11175,7 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
@@ -11272,19 +11320,19 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AV10" s="217">
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="AX10" s="219" t="s">
-        <v>1493</v>
+        <v>981</v>
       </c>
       <c r="AY10" s="220" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AZ10" s="221"/>
       <c r="BA10" s="221"/>
@@ -11429,19 +11477,19 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AV11" s="216">
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="AX11" s="219" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AY11" s="220" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AZ11" s="221"/>
       <c r="BA11" s="221"/>
@@ -11590,13 +11638,13 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="AX12" s="219" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AY12" s="220" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AZ12" s="221"/>
       <c r="BA12" s="221"/>
@@ -11745,10 +11793,10 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
@@ -11896,10 +11944,10 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
@@ -12047,10 +12095,10 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
@@ -12193,7 +12241,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12335,10 +12383,10 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
@@ -28810,10 +28858,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -28956,7 +29004,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29100,20 +29148,20 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
       </c>
       <c r="AW20" s="63"/>
       <c r="AX20" s="62" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AY20" s="62" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AZ20" s="61" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="BA20" s="61"/>
       <c r="BB20" s="61" t="s">
@@ -29403,7 +29451,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29549,7 +29597,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -29841,7 +29889,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -29987,7 +30035,7 @@
       <c r="AU26" s="139"/>
       <c r="AW26" s="71"/>
       <c r="AX26" s="72" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AY26" s="72"/>
       <c r="AZ26" s="73"/>
@@ -30133,7 +30181,7 @@
       <c r="AU27" s="139"/>
       <c r="AW27" s="71"/>
       <c r="AX27" s="72" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AY27" s="72"/>
       <c r="AZ27" s="73"/>
@@ -30279,7 +30327,7 @@
       <c r="AU28" s="139"/>
       <c r="AW28" s="71"/>
       <c r="AX28" s="72" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AY28" s="72"/>
       <c r="AZ28" s="73"/>
@@ -30425,7 +30473,7 @@
       <c r="AU29" s="139"/>
       <c r="AW29" s="71"/>
       <c r="AX29" s="72" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AY29" s="72"/>
       <c r="AZ29" s="73"/>
@@ -30571,7 +30619,7 @@
       <c r="AU30" s="139"/>
       <c r="AW30" s="71"/>
       <c r="AX30" s="72" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AY30" s="72"/>
       <c r="AZ30" s="73"/>
@@ -30717,7 +30765,7 @@
       <c r="AU31" s="139"/>
       <c r="AW31" s="71"/>
       <c r="AX31" s="72" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AY31" s="72"/>
       <c r="AZ31" s="73"/>
@@ -30863,7 +30911,7 @@
       <c r="AU32" s="139"/>
       <c r="AW32" s="71"/>
       <c r="AX32" s="88" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AY32" s="72"/>
       <c r="AZ32" s="73"/>
@@ -31009,7 +31057,7 @@
       <c r="AU33" s="139"/>
       <c r="AW33" s="71"/>
       <c r="AX33" s="88" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AY33" s="72"/>
       <c r="AZ33" s="73"/>
@@ -31155,7 +31203,7 @@
       <c r="AU34" s="139"/>
       <c r="AW34" s="71"/>
       <c r="AX34" s="88" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AY34" s="72"/>
       <c r="AZ34" s="73"/>
@@ -31300,7 +31348,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31446,10 +31494,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -31596,7 +31644,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -31741,13 +31789,13 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="AY38" s="62" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AZ38" s="61" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="BA38" s="61"/>
       <c r="BB38" s="61" t="s">
@@ -31890,13 +31938,13 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AY39" s="62" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="BB39" s="61" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="2:54" s="197" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -32030,14 +32078,14 @@
       <c r="AS40" s="187"/>
       <c r="AT40" s="188"/>
       <c r="AU40" s="192" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV40" s="223">
         <v>43664</v>
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32132,7 +32180,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32272,14 +32320,14 @@
       <c r="AS42" s="187"/>
       <c r="AT42" s="188"/>
       <c r="AU42" s="192" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AV42" s="223">
         <v>43664</v>
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32419,14 +32467,14 @@
       <c r="AS43" s="187"/>
       <c r="AT43" s="188"/>
       <c r="AU43" s="192" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AV43" s="223">
         <v>43664</v>
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32525,10 +32573,10 @@
         <v>602</v>
       </c>
       <c r="AY44" s="62" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AZ44" s="58" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="45" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -32662,15 +32710,15 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="146" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AV45" s="147"/>
       <c r="AW45" s="218"/>
       <c r="AX45" s="62" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AY45" s="78" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="BB45" s="61" t="s">
         <v>321</v>
@@ -32807,14 +32855,14 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="157" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AW46" s="218"/>
       <c r="AX46" s="62" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AY46" s="81" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="BB46" s="61" t="s">
         <v>321</v>
@@ -32905,13 +32953,13 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="157" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="AW47" s="132" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AX47" s="62" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="BB47" s="61" t="s">
         <v>328</v>
@@ -33058,13 +33106,13 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="AY48" s="62" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="BB48" s="61" t="s">
         <v>976</v>
@@ -33212,13 +33260,13 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="AY49" s="62" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="BB49" s="61" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="50" spans="2:54" ht="293.25" x14ac:dyDescent="0.2">
@@ -33362,7 +33410,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33504,16 +33552,16 @@
         <v>371</v>
       </c>
       <c r="AU51" s="146" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AV51" s="216">
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -33657,16 +33705,16 @@
         <v>371</v>
       </c>
       <c r="AU52" s="146" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AV52" s="216">
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="AX52" s="62" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AY52" s="78"/>
       <c r="BB52" s="58" t="s">
@@ -33815,7 +33863,7 @@
       </c>
       <c r="AW53" s="218"/>
       <c r="AX53" s="62" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AY53" s="78"/>
       <c r="BB53" s="61" t="s">
@@ -33964,7 +34012,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34112,16 +34160,16 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="AY55" s="65" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="BB55" s="61" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -34255,13 +34303,13 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV56" s="216">
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34272,7 +34320,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34395,16 +34443,16 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV57" s="216">
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34538,16 +34586,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV58" s="216">
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -34687,17 +34735,17 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="60" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -34841,11 +34889,11 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="BB60" s="178" t="s">
         <v>321</v>
@@ -34988,16 +35036,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35138,16 +35186,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AW62" s="218" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35288,14 +35336,14 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35435,16 +35483,16 @@
         <v>371</v>
       </c>
       <c r="AU64" s="146" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AV64" s="167" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AW64" s="218" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35585,19 +35633,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -35740,17 +35788,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AV66" s="216">
         <v>43671</v>
       </c>
       <c r="AW66" s="229"/>
       <c r="AX66" s="62" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -35893,16 +35941,16 @@
         <v>371</v>
       </c>
       <c r="AU67" s="166" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="AV67" s="227" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AW67" s="229" t="s">
         <v>1377</v>
       </c>
-      <c r="AW67" s="229" t="s">
-        <v>1381</v>
-      </c>
       <c r="AX67" s="62" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36045,19 +36093,19 @@
         <v>371</v>
       </c>
       <c r="AU68" s="146" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36201,10 +36249,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="AW69" s="229" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36350,10 +36398,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36500,10 +36548,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -36650,10 +36698,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -36800,10 +36848,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -36950,10 +36998,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37097,10 +37145,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37240,19 +37288,19 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV76" s="228" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="AW76" s="229" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37395,19 +37443,19 @@
         <v>371</v>
       </c>
       <c r="AU77" s="151" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -37549,7 +37597,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -37693,14 +37741,14 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -37840,22 +37888,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="AY80" s="62" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="BB80" s="178" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37995,22 +38043,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="AY81" s="62" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="BB81" s="178" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38154,16 +38202,16 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="AY82" s="83" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="BB82" s="178" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -38303,19 +38351,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="AW83" s="218" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38455,22 +38503,22 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AV84" s="230" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AW84" s="218" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AX84" s="62" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AY84" s="62" t="s">
         <v>1415</v>
       </c>
-      <c r="AV84" s="230" t="s">
-        <v>1416</v>
-      </c>
-      <c r="AW84" s="218" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AX84" s="62" t="s">
-        <v>1418</v>
-      </c>
-      <c r="AY84" s="62" t="s">
-        <v>1419</v>
-      </c>
       <c r="BB84" s="178" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="85" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -38610,16 +38658,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV85" s="230" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AW85" s="218" t="s">
         <v>1416</v>
       </c>
-      <c r="AW85" s="218" t="s">
-        <v>1420</v>
-      </c>
       <c r="AX85" s="62" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -38908,10 +38956,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39051,19 +39099,19 @@
         <v>371</v>
       </c>
       <c r="AU88" s="239" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="AV88" s="240" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AW88" s="236" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39206,10 +39254,10 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="BB89" s="61" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -39343,16 +39391,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1491</v>
+        <v>1422</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1492</v>
+        <v>1421</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39487,19 +39535,19 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV91" s="216">
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
+        <v>1424</v>
+      </c>
+      <c r="AX91" s="62" t="s">
+        <v>1425</v>
+      </c>
+      <c r="AY91" s="179" t="s">
         <v>1426</v>
-      </c>
-      <c r="AX91" s="62" t="s">
-        <v>1427</v>
-      </c>
-      <c r="AY91" s="179" t="s">
-        <v>1428</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
@@ -39640,13 +39688,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="AX92" s="62" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -39793,13 +39841,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="AX93" s="80" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -39880,13 +39928,13 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -40029,13 +40077,13 @@
         <v>369</v>
       </c>
       <c r="AU95" s="146" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40178,13 +40226,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="151" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40325,13 +40373,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40480,16 +40528,16 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="AX98" s="62" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AY98" s="62" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="BB98" s="61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="99" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -40587,18 +40635,18 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AX99" s="62" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AY99" s="62" t="s">
         <v>1438</v>
-      </c>
-      <c r="AX99" s="62" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AY99" s="62" t="s">
-        <v>1440</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
       <c r="BB99" s="233" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="100" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -40742,16 +40790,16 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
       </c>
       <c r="BB100" s="61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="101" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -40891,7 +40939,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -41036,10 +41084,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41187,10 +41235,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41333,19 +41381,19 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV104" s="216">
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="AY104" s="62" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="BB104" s="61" t="s">
         <v>976</v>
@@ -41492,10 +41540,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41639,16 +41687,16 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AY106" s="62" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="BB106" s="61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="107" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41792,16 +41840,16 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="AY107" s="62" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="BB107" s="61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="108" spans="2:54" ht="191.25" x14ac:dyDescent="0.2">
@@ -41941,19 +41989,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV108" s="216">
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="AX108" s="80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AY108" s="80" t="s">
         <v>1455</v>
-      </c>
-      <c r="AY108" s="80" t="s">
-        <v>1457</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42097,13 +42145,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="AW109" s="219" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42246,16 +42294,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AX110" s="62" t="s">
         <v>1461</v>
-      </c>
-      <c r="AX110" s="62" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42399,10 +42447,10 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="218" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42549,13 +42597,13 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="218" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="BB112" s="61" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="113" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -42699,16 +42747,16 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="218" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AX113" s="62" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AY113" s="80" t="s">
         <v>1474</v>
       </c>
-      <c r="AX113" s="62" t="s">
-        <v>1470</v>
-      </c>
-      <c r="AY113" s="80" t="s">
-        <v>1476</v>
-      </c>
       <c r="BB113" s="61" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="114" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -42852,16 +42900,16 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="218" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AX114" s="80" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AY114" s="80" t="s">
         <v>1473</v>
       </c>
-      <c r="AX114" s="80" t="s">
-        <v>1471</v>
-      </c>
-      <c r="AY114" s="80" t="s">
-        <v>1475</v>
-      </c>
       <c r="BB114" s="58" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="115" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -43005,13 +43053,13 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="218" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
@@ -43158,13 +43206,13 @@
         <v>43711</v>
       </c>
       <c r="AW116" s="218" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="AY116" s="62" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="BB116" s="176" t="s">
         <v>324</v>
@@ -43311,10 +43359,10 @@
         <v>43711</v>
       </c>
       <c r="AW117" s="218" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
@@ -43457,16 +43505,16 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AV118" s="216">
         <v>43711</v>
       </c>
       <c r="AW118" s="218" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="BB118" s="242" t="s">
         <v>321</v>
@@ -43609,16 +43657,16 @@
         <v>369</v>
       </c>
       <c r="AU119" s="241" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="AV119" s="216">
         <v>43711</v>
       </c>
       <c r="AW119" s="218" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -43760,8 +43808,21 @@
       <c r="AT120" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU120" s="139"/>
-      <c r="AW120" s="82"/>
+      <c r="AU120" s="243" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AV120" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW120" s="218" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AX120" s="80" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BB120" s="244" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="121" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B121" s="21" t="s">
@@ -43899,18 +43960,22 @@
       <c r="AT121" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU121" s="139"/>
-      <c r="AW121" s="82" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AX121" s="62" t="s">
-        <v>1285</v>
+      <c r="AU121" s="139" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AV121" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW121" s="231"/>
+      <c r="AX121" s="62"/>
+      <c r="AY121" s="62" t="s">
+        <v>1492</v>
       </c>
       <c r="BB121" s="61" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
-    <row r="122" spans="2:54" ht="102" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B122" s="21" t="s">
         <v>206</v>
       </c>
@@ -44040,19 +44105,26 @@
       <c r="AT122" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU122" s="139"/>
-      <c r="AW122" s="79"/>
+      <c r="AU122" s="139" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AV122" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW122" s="218" t="s">
+        <v>1493</v>
+      </c>
       <c r="AX122" s="62" t="s">
-        <v>1030</v>
+        <v>1494</v>
       </c>
       <c r="AY122" s="62" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BB122" s="61" t="s">
         <v>1031</v>
       </c>
-      <c r="BB122" s="61" t="s">
-        <v>1032</v>
-      </c>
     </row>
-    <row r="123" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B123" s="21" t="s">
         <v>207</v>
       </c>
@@ -44189,7 +44261,18 @@
         <v>369</v>
       </c>
       <c r="AU123" s="139"/>
-      <c r="AW123" s="79"/>
+      <c r="AV123" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW123" s="218" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AX123" s="62" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AY123" s="62" t="s">
+        <v>1497</v>
+      </c>
     </row>
     <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B124" s="21" t="s">
@@ -44284,12 +44367,20 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AV124" s="138">
-        <v>20190314</v>
-      </c>
-      <c r="AW124" s="79"/>
+        <v>1165</v>
+      </c>
+      <c r="AV124" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW124" s="218" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AX124" s="62" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AY124" s="62" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B125" s="21" t="s">
@@ -44383,19 +44474,21 @@
       <c r="AR125" s="55"/>
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
-      <c r="AU125" s="139"/>
+      <c r="AU125" s="139" t="s">
+        <v>1501</v>
+      </c>
       <c r="AW125" s="79"/>
       <c r="AX125" s="62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AY125" s="62" t="s">
         <v>1033</v>
       </c>
-      <c r="AY125" s="62" t="s">
+      <c r="BB125" s="61" t="s">
         <v>1034</v>
       </c>
-      <c r="BB125" s="61" t="s">
-        <v>1035</v>
-      </c>
     </row>
-    <row r="126" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B126" s="21" t="s">
         <v>207</v>
       </c>
@@ -44488,14 +44581,17 @@
       <c r="AS126" s="23"/>
       <c r="AT126" s="24"/>
       <c r="AU126" s="139"/>
-      <c r="AW126" s="82" t="s">
-        <v>1016</v>
+      <c r="AV126" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW126" s="218" t="s">
+        <v>1502</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1243</v>
+        <v>1503</v>
       </c>
       <c r="BB126" s="61" t="s">
-        <v>1029</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -44591,14 +44687,17 @@
       <c r="AS127" s="23"/>
       <c r="AT127" s="24"/>
       <c r="AU127" s="139"/>
-      <c r="AW127" s="82" t="s">
-        <v>1048</v>
+      <c r="AV127" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW127" s="218" t="s">
+        <v>1504</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1036</v>
+        <v>1505</v>
       </c>
       <c r="AY127" s="80" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BB127" s="58" t="s">
         <v>324</v>
@@ -44829,7 +44928,9 @@
       <c r="AR129" s="55"/>
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
-      <c r="AU129" s="139"/>
+      <c r="AU129" s="139" t="s">
+        <v>1507</v>
+      </c>
       <c r="AW129" s="79"/>
     </row>
     <row r="130" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -45544,19 +45645,19 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AV135" s="147">
         <v>20190314</v>
       </c>
       <c r="AW135" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BB135" s="61" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="136" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -45837,10 +45938,10 @@
       <c r="AU137" s="139"/>
       <c r="AW137" s="79"/>
       <c r="AX137" s="62" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AY137" s="62" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="BB137" s="61" t="s">
         <v>976</v>
@@ -45984,10 +46085,10 @@
       </c>
       <c r="AU138" s="139"/>
       <c r="AW138" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX138" s="62" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -46082,16 +46183,16 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="151" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AV139" s="138">
         <v>20190226</v>
       </c>
       <c r="AW139" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -46200,10 +46301,10 @@
       <c r="AU140" s="139"/>
       <c r="AW140" s="79"/>
       <c r="AX140" s="62" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AY140" s="62" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="BB140" s="61" t="s">
         <v>976</v>
@@ -46347,7 +46448,7 @@
       </c>
       <c r="AU141" s="139"/>
       <c r="AW141" s="82" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="142" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -46453,10 +46554,10 @@
       <c r="AU142" s="139"/>
       <c r="AV142" s="70"/>
       <c r="AW142" s="85" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX142" s="65" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AY142" s="70"/>
       <c r="AZ142" s="66"/>
@@ -46560,17 +46661,17 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AV143" s="138">
         <v>20190130</v>
       </c>
       <c r="AW143" s="82"/>
       <c r="AX143" s="62" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="BB143" s="176" t="s">
         <v>328</v>
@@ -46713,17 +46814,17 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AV144" s="138">
         <v>20190130</v>
       </c>
       <c r="AW144" s="79"/>
       <c r="AX144" s="62" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="AY144" s="62" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="AZ144" s="177"/>
       <c r="BB144" s="176" t="s">
@@ -47105,17 +47206,17 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AV147" s="138">
         <v>20190130</v>
       </c>
       <c r="AW147" s="79"/>
       <c r="AX147" s="62" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="BB147" s="178" t="s">
         <v>324</v>
@@ -47217,10 +47318,10 @@
       </c>
       <c r="AU148" s="139"/>
       <c r="AW148" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -47322,13 +47423,13 @@
       </c>
       <c r="AU149" s="139"/>
       <c r="AW149" s="82" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AX149" s="62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AY149" s="62" t="s">
         <v>1048</v>
-      </c>
-      <c r="AX149" s="62" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AY149" s="62" t="s">
-        <v>1050</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -47443,13 +47544,13 @@
         <v>369</v>
       </c>
       <c r="AU150" s="165" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="AV150" s="147">
         <v>20190328</v>
       </c>
       <c r="AW150" s="86" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AX150" s="87"/>
       <c r="AY150" s="88"/>
@@ -47592,24 +47693,24 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="AV151" s="88">
         <v>20190122</v>
       </c>
       <c r="AW151" s="86" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX151" s="87" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AY151" s="87" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="152" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -47709,18 +47810,18 @@
         <v>20190122</v>
       </c>
       <c r="AW152" s="86" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX152" s="87" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AY152" s="87" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="153" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -48122,10 +48223,10 @@
       <c r="AU155" s="139"/>
       <c r="AW155" s="82"/>
       <c r="AX155" s="80" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AY155" s="80" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="BB155" s="58" t="s">
         <v>976</v>
@@ -48262,20 +48363,20 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AV156" s="145">
         <v>20190228</v>
       </c>
       <c r="AW156" s="82"/>
       <c r="AX156" s="62" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AY156" s="68" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="BB156" s="61" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="157" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -48398,7 +48499,7 @@
       <c r="AT157" s="24"/>
       <c r="AU157" s="139"/>
       <c r="AW157" s="82" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="158" spans="2:54" x14ac:dyDescent="0.2">
@@ -48786,7 +48887,7 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="143" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AV160" s="155">
         <v>20190326</v>
@@ -48912,16 +49013,16 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AV161" s="70">
         <v>20190326</v>
       </c>
       <c r="AW161" s="85" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX161" s="65" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="AY161" s="70"/>
       <c r="AZ161" s="66"/>
@@ -49049,16 +49150,16 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="AV162" s="70">
         <v>20190326</v>
       </c>
       <c r="AW162" s="85" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX162" s="169" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="AY162" s="70"/>
       <c r="AZ162" s="66"/>
@@ -49186,16 +49287,16 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AV163" s="70">
         <v>20190326</v>
       </c>
       <c r="AW163" s="85" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX163" s="70" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="AY163" s="70"/>
       <c r="AZ163" s="66"/>
@@ -49960,10 +50061,10 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="148" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AV169" s="154" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="170" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -50104,14 +50205,14 @@
       </c>
       <c r="AU170" s="139"/>
       <c r="AW170" s="82" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AX170" s="62" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AY170" s="62"/>
       <c r="BB170" s="61" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="171" spans="2:54" ht="77.25" x14ac:dyDescent="0.25">
@@ -50251,19 +50352,19 @@
         <v>369</v>
       </c>
       <c r="AU171" s="151" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AV171" s="138" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AW171" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX171" s="62" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AY171" s="62" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
@@ -50406,10 +50507,10 @@
         <v>369</v>
       </c>
       <c r="AU172" s="151" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AV172" s="154" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AW172" s="79"/>
     </row>
@@ -50518,17 +50619,17 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AV173" s="142">
         <v>20190402</v>
       </c>
       <c r="AW173" s="140"/>
       <c r="AX173" s="141" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AY173" s="141" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AZ173" s="66"/>
       <c r="BA173" s="66"/>
@@ -50673,19 +50774,19 @@
         <v>369</v>
       </c>
       <c r="AU174" s="152" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AW174" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
@@ -50801,10 +50902,10 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AY175" s="65" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
@@ -50949,7 +51050,7 @@
         <v>369</v>
       </c>
       <c r="AU176" s="156" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -51092,10 +51193,10 @@
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
       <c r="AU177" s="156" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -51514,10 +51615,10 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AX180" s="81" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
@@ -51656,13 +51757,13 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AX181" s="62" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="BB181" s="61" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="182" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -52220,13 +52321,13 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AX185" s="62" t="s">
         <v>1069</v>
       </c>
-      <c r="AX185" s="62" t="s">
-        <v>1071</v>
-      </c>
       <c r="BB185" s="61" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="186" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -52580,19 +52681,19 @@
         <v>369</v>
       </c>
       <c r="AU188" s="160" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="BB188" s="176" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="189" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -52732,17 +52833,17 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AY189" s="62" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
@@ -52853,17 +52954,17 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AY190" s="62" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
@@ -53006,16 +53107,16 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
@@ -53158,7 +53259,7 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
@@ -53302,7 +53403,7 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
@@ -53446,19 +53547,19 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
       </c>
       <c r="AW194" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="BB194" s="176" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="195" spans="2:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53655,16 +53756,16 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="197" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -53804,20 +53905,20 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="AV197" s="145">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="AY197" s="180" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="BB197" s="178" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="198" spans="2:54" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53957,17 +54058,17 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="AY198" s="180" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="BB198" s="61" t="s">
         <v>321</v>
@@ -54066,16 +54167,16 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="144" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
       </c>
       <c r="AW199" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -54358,10 +54459,10 @@
       </c>
       <c r="AU201" s="139"/>
       <c r="AW201" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="BB201" s="178" t="s">
         <v>321</v>
@@ -54551,19 +54652,19 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
       </c>
       <c r="AW203" s="133" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="BB203" s="176" t="s">
         <v>328</v>
@@ -54706,22 +54807,22 @@
         <v>369</v>
       </c>
       <c r="AU204" s="150" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
       <c r="BA204" s="89"/>
       <c r="BB204" s="90" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="205" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -54960,13 +55061,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="207" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -55188,16 +55289,16 @@
       </c>
       <c r="AU208" s="139"/>
       <c r="AW208" s="133" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="BB208" s="176" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="209" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -55338,16 +55439,16 @@
       </c>
       <c r="AU209" s="139"/>
       <c r="AW209" s="133" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="BB209" s="176" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="210" spans="2:54" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -55441,13 +55542,13 @@
       <c r="AU210" s="139"/>
       <c r="AV210" s="88"/>
       <c r="AW210" s="133" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
@@ -55592,19 +55693,19 @@
         <v>369</v>
       </c>
       <c r="AU211" s="152" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
       </c>
       <c r="AW211" s="133" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
@@ -55673,17 +55774,17 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="146" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AV212" s="147">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
@@ -55828,22 +55929,22 @@
         <v>369</v>
       </c>
       <c r="AU213" s="144" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AV213" s="144">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AX213" s="62" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AY213" s="62" t="s">
         <v>1084</v>
       </c>
-      <c r="AX213" s="62" t="s">
+      <c r="BB213" s="61" t="s">
         <v>1085</v>
-      </c>
-      <c r="AY213" s="62" t="s">
-        <v>1086</v>
-      </c>
-      <c r="BB213" s="61" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="214" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -55983,16 +56084,16 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
       </c>
       <c r="AW214" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
@@ -56135,19 +56236,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AX215" s="62" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AY215" s="62" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -56627,13 +56728,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="220" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -56773,13 +56874,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="221" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -56920,7 +57021,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="222" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -57060,16 +57161,16 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
@@ -57212,19 +57313,19 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="224" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -57503,14 +57604,14 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="BB225" s="176" t="s">
         <v>320</v>
@@ -57647,19 +57748,19 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
       </c>
       <c r="AW226" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -57796,16 +57897,16 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
       </c>
       <c r="AW227" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="228" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -58339,7 +58440,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -58480,7 +58581,7 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
@@ -58621,7 +58722,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -58762,7 +58863,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -58903,7 +59004,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -59044,7 +59145,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -59186,16 +59287,16 @@
       </c>
       <c r="AU238" s="139"/>
       <c r="AW238" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX238" s="62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AY238" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BB238" s="61" t="s">
         <v>1091</v>
-      </c>
-      <c r="AY238" s="62" t="s">
-        <v>1092</v>
-      </c>
-      <c r="BB238" s="61" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="239" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -59331,22 +59432,22 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
       <c r="BB239" s="90" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="240" spans="2:54" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -59482,7 +59583,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -59625,7 +59726,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -59766,7 +59867,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -59907,7 +60008,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -60054,7 +60155,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -60145,7 +60246,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -60246,16 +60347,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -60398,7 +60499,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -60493,7 +60594,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -60590,16 +60691,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW249" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -60742,16 +60843,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW250" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -60894,10 +60995,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="252" spans="2:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61455,13 +61556,13 @@
       </c>
       <c r="AU255" s="139"/>
       <c r="AW255" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -61605,10 +61706,10 @@
       </c>
       <c r="AU256" s="139"/>
       <c r="AW256" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -61744,13 +61845,13 @@
       </c>
       <c r="AU257" s="139"/>
       <c r="AW257" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -61831,7 +61932,7 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
@@ -61976,7 +62077,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -62188,16 +62289,16 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW261" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX261" s="62" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AY261" s="62" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="BB261" s="61" t="s">
         <v>328</v>
@@ -62306,14 +62407,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -62456,17 +62557,17 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="BB263" s="176" t="s">
         <v>976</v>
@@ -62616,7 +62717,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -62736,17 +62837,17 @@
         <v>371</v>
       </c>
       <c r="AU265" s="168" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AV265" s="167">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="BB265" s="176" t="s">
         <v>976</v>
@@ -62877,14 +62978,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -63018,16 +63119,16 @@
         <v>371</v>
       </c>
       <c r="AU267" s="172" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AV267" s="169">
         <v>20190404</v>
       </c>
       <c r="AW267" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -63161,16 +63262,16 @@
         <v>371</v>
       </c>
       <c r="AU268" s="173" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AV268" s="174">
         <v>20190404</v>
       </c>
       <c r="AW268" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -63304,16 +63405,16 @@
         <v>371</v>
       </c>
       <c r="AU269" s="175" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AV269" s="174">
         <v>20190404</v>
       </c>
       <c r="AW269" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -63393,7 +63494,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="170" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AV270" s="171">
         <v>20190404</v>
@@ -63476,7 +63577,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="143" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AV271" s="155">
         <v>20190404</v>
@@ -63559,7 +63660,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="143" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="AV272" s="155">
         <v>20190404</v>
@@ -63694,13 +63795,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AW273" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -63829,16 +63930,16 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AW274" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="BB274" s="61" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="275" spans="2:54" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -63978,7 +64079,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -64125,7 +64226,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -64266,7 +64367,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -64371,7 +64472,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -64513,13 +64614,13 @@
       </c>
       <c r="AU279" s="139"/>
       <c r="AW279" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -64592,7 +64693,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -64733,7 +64834,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -64874,7 +64975,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -65016,7 +65117,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -65157,7 +65258,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -65298,7 +65399,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -65439,7 +65540,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -65566,16 +65667,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW287" s="82" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AX287" s="62" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AY287" s="62" t="s">
         <v>1113</v>
-      </c>
-      <c r="AX287" s="62" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AY287" s="62" t="s">
-        <v>1115</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -65646,7 +65747,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -65774,10 +65875,10 @@
       </c>
       <c r="AU289" s="139"/>
       <c r="AW289" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -65906,16 +66007,16 @@
         <v>370</v>
       </c>
       <c r="AU290" s="162" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AV290" s="145">
         <v>20190305</v>
       </c>
       <c r="AW290" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="291" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -66041,13 +66142,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW291" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -66112,7 +66213,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -66175,7 +66276,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -66238,7 +66339,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -66307,7 +66408,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -66370,7 +66471,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -66433,7 +66534,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -66496,16 +66597,16 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="162" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AV298" s="145">
         <v>20190305</v>
       </c>
       <c r="AW298" s="82" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="299" spans="2:54" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -66567,7 +66668,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -66652,140 +66753,140 @@
     <mergeCell ref="AZ2:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU142 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B110:AU123 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108">
-    <cfRule type="expression" dxfId="32" priority="86" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU142 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
+    <cfRule type="expression" dxfId="36" priority="86" stopIfTrue="1">
       <formula>LEFT($C1,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AU19 H21:AU40 H20:AT20 H60:AU66 H59:AT59 H92:AU95 H91:AT91 H125:AU134 H124:AT124 H136:AU138 H135:AT135 H195:AU195 H198:AU198 H228:AU301 H200:AU202 H199:AT199 H204:AU205 H203:AT203 H207:AU210 H206:AT206 H216:AU218 H213:AT215 H221:AU221 H219:AT220 H224:AU224 H222:AT223 H225:AT227 H44:AU45 H43:AT43 H53:AU58 H52:AT52 H173:AU173 H175:AU175 H174:AT174 H212:AU212 H211:AT211 H140:AU142 H139:AT139 H178:AU187 H171:AT172 H145:AU146 H143:AT144 H148:AU170 H147:AT147 H176:AT177 H48:AU51 H46:AT47 H68:AU76 H67:AT67 H78:AU83 H77:AT77 H85:AU90 H84:AT84 H97:AU98 H96:AT96 H110:AU123 H109:AT109 H196:AT197 H188:AT194 H42:AU42 H100:AU108">
-    <cfRule type="cellIs" dxfId="31" priority="87" operator="equal">
+  <conditionalFormatting sqref="H6:AU19 H21:AU40 H20:AT20 H60:AU66 H59:AT59 H92:AU95 H91:AT91 H125:AU134 H124:AT124 H136:AU138 H135:AT135 H195:AU195 H198:AU198 H228:AU301 H200:AU202 H199:AT199 H204:AU205 H203:AT203 H207:AU210 H206:AT206 H216:AU218 H213:AT215 H221:AU221 H219:AT220 H224:AU224 H222:AT223 H225:AT227 H44:AU45 H43:AT43 H53:AU58 H52:AT52 H173:AU173 H175:AU175 H174:AT174 H212:AU212 H211:AT211 H140:AU142 H139:AT139 H178:AU187 H171:AT172 H145:AU146 H143:AT144 H148:AU170 H147:AT147 H176:AT177 H48:AU51 H46:AT47 H68:AU76 H67:AT67 H78:AU83 H77:AT77 H85:AU90 H84:AT84 H97:AU98 H96:AT96 H109:AT109 H196:AT197 H188:AT194 H42:AU42 H100:AU108 H110:AU123">
+    <cfRule type="cellIs" dxfId="35" priority="87" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="88" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="89" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="expression" dxfId="28" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="82" stopIfTrue="1">
       <formula>LEFT($C24,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="cellIs" dxfId="27" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="83" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="84" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="85" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="25" stopIfTrue="1">
       <formula>LEFT($C20,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU59">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
       <formula>LEFT($C59,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU91">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="23" stopIfTrue="1">
       <formula>LEFT($C91,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU124">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="22" stopIfTrue="1">
       <formula>LEFT($C124,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU135">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>LEFT($C135,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>LEFT($C43,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>LEFT($C52,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>LEFT($C197,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:AU41">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>LEFT($C41,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:AU41">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:AU99">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>LEFT($C99,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:AU99">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66812,16 +66913,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="278" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="277"/>
+      <c r="B1" s="279"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="280" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="278"/>
+      <c r="B2" s="280"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -66864,16 +66965,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="272" t="s">
+      <c r="A9" s="274" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="274" t="s">
+      <c r="B9" s="276" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="273"/>
-      <c r="B10" s="275"/>
+      <c r="A10" s="275"/>
+      <c r="B10" s="277"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -67153,31 +67254,31 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="164"/>
       <c r="B5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
@@ -67197,166 +67298,166 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F4" s="161" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B6" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B7" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B9" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B10" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B12" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B13" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B14" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B16" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B17" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B18" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B19" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -67364,12 +67465,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -67378,6 +67479,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
@@ -67393,7 +67513,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67576,49 +67696,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67638,26 +67755,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Documents\GitHub\eprocurementontology\eprocurementontology\v2.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12272" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12284" uniqueCount="1518">
   <si>
     <t>ID</t>
   </si>
@@ -4691,35 +4691,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>Procedure.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has procurement regime.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ProcurementRegimeType</t>
-    </r>
-  </si>
-  <si>
-    <t>SecurityClearanceTerms</t>
-  </si>
-  <si>
-    <t>Status requested to individuals allowing them access to classified information (state or organizational secrets) or to restricted areas, after completion of a thorough background check.
-WG Approval 2015-02-26</t>
-  </si>
-  <si>
     <t>SecurityClearanceTerms.Deadline</t>
   </si>
   <si>
@@ -5636,45 +5607,6 @@
     <t>We have added an object property linking the class Notice (in the diagram Documents) to Procedure. The property is named "refers to previous procedure". The WG has agreed on a definition for this property (see the definition in the EAP file).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">20190228: Following earlier discussions the fact that certain procurement are reserved for sheltered workshops etc requires that the procurement criterion take into consider these criterion that can not be considered as exclusion, selection or award criterion, hence the need for participation criteria.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Action PA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The ESPD taxonomy is to be used.
-It can be found at: https://github.com/ESPD/ESPD-EDM/blob/2.1.0/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V2.1.0.xlsx
-An extra code other is to be used.
-Two use context one for ESPD all codes minus other and one use context  for eforms using the four codes sent with second consultation.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Action Everis: Inform ESPD if necessary
-Action JH: eForms issue
-Previous discussion: 20190115_16 We have deleted the Reserved Contract Type (Code) property from the Post Award Terms because we see these concepts as Criteria that are already defined in the ESPD.</t>
-    </r>
-  </si>
-  <si>
     <t>Additional Information deadline is conveyed by a new property of eAccess terms. Of type Datetime
 WG 20190307</t>
   </si>
@@ -7251,9 +7183,6 @@
 To be reviewed</t>
   </si>
   <si>
-    <t>Action: We asked to JH in GitHub</t>
-  </si>
-  <si>
     <t>ESPDRequest has SelectionCriterion,
 SelectionCriterion is cccev:Criterion,
 cccev:Criterion hasName Text</t>
@@ -7276,13 +7205,153 @@
   <si>
     <t xml:space="preserve">This is under discussion we have asked to JH
 See issue #220 - https://github.com/eprocurementontology/eprocurementontology/issues/220 </t>
+  </si>
+  <si>
+    <t>Procedure hasLot Lot,
+ESPDRequest hasQualificationCriteria ContractNotice,
+ESPDRequest has SelectionCriterion,
+SelectionCriterion appliesTo Lot,
+SelectionCriterion has WeightType</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.WeightType.number-weight</t>
+  </si>
+  <si>
+    <t>2019/0910</t>
+  </si>
+  <si>
+    <t>Procedure hasLot Lot,
+ESPDRequest hasQualificationCriteria ContractNotice,
+ESPDRequest has SelectionCriterion,
+SelectionCriterion appliesTo Lot,
+SelectionCriterion has ThresholdType</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.ThresholdType.number-threshold</t>
+  </si>
+  <si>
+    <t>The way this is modelled in ePO is different: in ePO we do not have a class (a BG) named whatever-number, but the specific types of weights and threshold are in the Criterion base class (weight-type) and the specialised classes of Procurement Criterion (Selection and Award Criterion).</t>
+  </si>
+  <si>
+    <t>We don't see the need for flagging each selection criterion as used or not. If a criterion is instantiated it is becaquse it is intended to be used.</t>
+  </si>
+  <si>
+    <t>20190314
+10/09/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasReservedProcurement reserved-procurement</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.reserved-procurement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20190228: Following earlier discussions the fact that certain procurement are reserved for sheltered workshops etc requires that the procurement criterion take into consider these criterion that can not be considered as exclusion, selection or award criterion, hence the need for participation criteria.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Action PA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The ESPD taxonomy is to be used.
+It can be found at: https://github.com/ESPD/ESPD-EDM/blob/2.1.0/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V2.1.0.xlsx
+An extra code other is to be used.
+Two use context one for ESPD all codes minus other and one use context  for eforms using the four codes sent with second consultation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Action Everis: Inform ESPD if necessary
+Action JH: eForms issue
+Previous discussion: 20190115_16 We have deleted the Reserved Contract Type (Code) property from the Post Award Terms because we see these concepts as Criteria that are already defined in the 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The WG Meeting session of 10/09/2019 has mapped this as explained in columns AV to AX. The design of this in ePO was clarified long time ago (see previous minutes and dates in the definitions). In the ePO, as in eForms, this is linked to the Lot.</t>
+    </r>
+  </si>
+  <si>
+    <t>Description of the Criterion follows: "The following educational and professional qualifications are held by the service provider or the contractor itself, and/or (depending on the requirements set out in the relevant notice or the in the ESPD, the relevant notice or  by its managerial staff."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eForms is changing this into a Code.
+This is covered in the ESPD by criterion #47 (Educational and professional qualifications, code CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.PROFESSIONAL_QUALIFICATIONS), which is a selection criterion.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>However we need to discuss (e.g. in the F2F meeting 2019/10/10-11, in Luxembourg) how the information that should go into the ESPD is to be covered/referred to/etc. in the case an ESPD is not provided). So the mapping is left open</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESPRequest has Criterion,
+ESPDRequest has SelectionCriterion
+(See Criterion 47 data structure about Professional Qualification).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPEN FOR FURTHER DISCUSSION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESPDRequest.SelectionCriterion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPEN FOR FURTHER DISCUSSION</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7495,6 +7564,18 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
@@ -9206,6 +9287,66 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9221,21 +9362,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9246,51 +9372,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9321,35 +9402,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -9754,7 +9807,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10043,15 +10096,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="H137" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="41" customWidth="1"/>
@@ -10059,30 +10108,30 @@
     <col min="5" max="5" width="9" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="43" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="50" customWidth="1"/>
-    <col min="10" max="12" width="3.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7" style="56" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" customWidth="1"/>
-    <col min="18" max="20" width="4" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="2" customWidth="1"/>
-    <col min="22" max="25" width="3.7109375" style="2" customWidth="1"/>
-    <col min="26" max="27" width="4.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" style="4" customWidth="1"/>
-    <col min="31" max="31" width="3.7109375" style="56" customWidth="1"/>
-    <col min="32" max="33" width="3.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" style="5" customWidth="1"/>
-    <col min="35" max="41" width="3.7109375" style="2" customWidth="1"/>
-    <col min="42" max="42" width="5.7109375" style="2" customWidth="1"/>
-    <col min="43" max="43" width="5.7109375" style="4" customWidth="1"/>
-    <col min="44" max="44" width="5.42578125" style="56" customWidth="1"/>
-    <col min="45" max="45" width="5.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="5.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="50" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="50" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="56" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="4" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="4.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="56" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="35" max="41" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="5.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="5.42578125" style="56" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="5.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="84.7109375" style="158" customWidth="1"/>
     <col min="48" max="48" width="32.5703125" style="138" customWidth="1"/>
     <col min="49" max="49" width="33.28515625" style="129" customWidth="1"/>
@@ -10092,92 +10141,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="245" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="259" t="s">
+      <c r="C1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="259" t="s">
+      <c r="D1" s="248" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="259" t="s">
+      <c r="E1" s="248" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="259" t="s">
+      <c r="F1" s="248" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="271" t="s">
+      <c r="G1" s="255" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="250" t="s">
+      <c r="H1" s="251" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="252"/>
-      <c r="P1" s="250" t="s">
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="251" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="251"/>
-      <c r="AB1" s="251"/>
-      <c r="AC1" s="251"/>
-      <c r="AD1" s="252"/>
-      <c r="AE1" s="250" t="s">
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="252"/>
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="252"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="251" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="251"/>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="250" t="s">
+      <c r="AF1" s="252"/>
+      <c r="AG1" s="252"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="251" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="251"/>
-      <c r="AO1" s="251"/>
-      <c r="AP1" s="251"/>
-      <c r="AQ1" s="252"/>
-      <c r="AR1" s="250" t="s">
+      <c r="AJ1" s="252"/>
+      <c r="AK1" s="252"/>
+      <c r="AL1" s="252"/>
+      <c r="AM1" s="252"/>
+      <c r="AN1" s="252"/>
+      <c r="AO1" s="252"/>
+      <c r="AP1" s="252"/>
+      <c r="AQ1" s="254"/>
+      <c r="AR1" s="251" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="251"/>
-      <c r="AT1" s="252"/>
-      <c r="AU1" s="255" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AV1" s="256" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AX1" s="257" t="s">
+      <c r="AS1" s="252"/>
+      <c r="AT1" s="254"/>
+      <c r="AU1" s="270" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AV1" s="271" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AX1" s="272" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="258"/>
-      <c r="AZ1" s="258"/>
+      <c r="AY1" s="273"/>
+      <c r="AZ1" s="273"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="268"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="272"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="256"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10295,115 +10344,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="255"/>
-      <c r="AV2" s="256"/>
+      <c r="AU2" s="270"/>
+      <c r="AV2" s="271"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="245" t="s">
+      <c r="AX2" s="265" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="245" t="s">
+      <c r="AY2" s="265" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="245" t="s">
+      <c r="AZ2" s="265" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="245" t="s">
+      <c r="BB2" s="265" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:54" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="268"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="263" t="s">
+      <c r="B3" s="246"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="260" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="265" t="s">
+      <c r="I3" s="261"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="263" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="254"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="265" t="s">
+      <c r="L3" s="261"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="263" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="262"/>
-      <c r="P3" s="263" t="s">
+      <c r="O3" s="259"/>
+      <c r="P3" s="260" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="265" t="s">
+      <c r="Q3" s="264"/>
+      <c r="R3" s="263" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="254"/>
-      <c r="T3" s="266"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="264"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="265" t="s">
+      <c r="V3" s="263" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="254"/>
-      <c r="X3" s="254"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="265" t="s">
+      <c r="W3" s="261"/>
+      <c r="X3" s="261"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="263" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="266"/>
+      <c r="AA3" s="264"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="265" t="s">
+      <c r="AC3" s="263" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="262"/>
-      <c r="AE3" s="263" t="s">
+      <c r="AD3" s="259"/>
+      <c r="AE3" s="260" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="254"/>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263" t="s">
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="261"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="254"/>
-      <c r="AK3" s="254"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="253" t="s">
+      <c r="AJ3" s="261"/>
+      <c r="AK3" s="261"/>
+      <c r="AL3" s="262"/>
+      <c r="AM3" s="258" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="254"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="253" t="s">
+      <c r="AN3" s="261"/>
+      <c r="AO3" s="262"/>
+      <c r="AP3" s="258" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="262"/>
-      <c r="AR3" s="253" t="s">
+      <c r="AQ3" s="259"/>
+      <c r="AR3" s="258" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="254"/>
-      <c r="AT3" s="254"/>
-      <c r="AU3" s="255"/>
-      <c r="AV3" s="256"/>
+      <c r="AS3" s="261"/>
+      <c r="AT3" s="261"/>
+      <c r="AU3" s="270"/>
+      <c r="AV3" s="271"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="246"/>
-      <c r="AY3" s="246"/>
-      <c r="AZ3" s="246"/>
+      <c r="AX3" s="266"/>
+      <c r="AY3" s="266"/>
+      <c r="AZ3" s="266"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="246"/>
+      <c r="BB3" s="266"/>
     </row>
     <row r="4" spans="2:54" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="269"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="273"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10521,16 +10570,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="255"/>
-      <c r="AV4" s="256"/>
+      <c r="AU4" s="270"/>
+      <c r="AV4" s="271"/>
       <c r="AW4" s="212" t="s">
-        <v>1335</v>
-      </c>
-      <c r="AX4" s="246"/>
-      <c r="AY4" s="246"/>
-      <c r="AZ4" s="246"/>
+        <v>1331</v>
+      </c>
+      <c r="AX4" s="266"/>
+      <c r="AY4" s="266"/>
+      <c r="AZ4" s="266"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="246"/>
+      <c r="BB4" s="266"/>
     </row>
     <row r="5" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -10580,11 +10629,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="247" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AX5" s="248"/>
-      <c r="AY5" s="249"/>
+      <c r="AW5" s="267" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AX5" s="268"/>
+      <c r="AY5" s="269"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -10726,14 +10775,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AV6" s="216">
         <v>43662</v>
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -11021,10 +11070,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11175,7 +11224,7 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
@@ -11320,13 +11369,13 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="AV10" s="217">
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="AX10" s="219" t="s">
         <v>981</v>
@@ -11477,13 +11526,13 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AV11" s="216">
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="AX11" s="219" t="s">
         <v>983</v>
@@ -11638,7 +11687,7 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="AX12" s="219" t="s">
         <v>985</v>
@@ -11793,10 +11842,10 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
@@ -11944,10 +11993,10 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
@@ -12095,10 +12144,10 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
@@ -12241,7 +12290,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12383,10 +12432,10 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
@@ -28858,10 +28907,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -29004,7 +29053,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29148,7 +29197,7 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
@@ -29451,7 +29500,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29597,7 +29646,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -29889,7 +29938,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -31348,7 +31397,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31494,10 +31543,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -31644,7 +31693,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -31789,7 +31838,7 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -31938,7 +31987,7 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -32078,14 +32127,14 @@
       <c r="AS40" s="187"/>
       <c r="AT40" s="188"/>
       <c r="AU40" s="192" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="AV40" s="223">
         <v>43664</v>
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32180,7 +32229,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32320,14 +32369,14 @@
       <c r="AS42" s="187"/>
       <c r="AT42" s="188"/>
       <c r="AU42" s="192" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AV42" s="223">
         <v>43664</v>
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32467,14 +32516,14 @@
       <c r="AS43" s="187"/>
       <c r="AT43" s="188"/>
       <c r="AU43" s="192" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AV43" s="223">
         <v>43664</v>
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32710,12 +32759,12 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="146" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="AV45" s="147"/>
       <c r="AW45" s="218"/>
       <c r="AX45" s="62" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="AY45" s="78" t="s">
         <v>1000</v>
@@ -32855,7 +32904,7 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="157" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AW46" s="218"/>
       <c r="AX46" s="62" t="s">
@@ -32953,7 +33002,7 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="157" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="AW47" s="132" t="s">
         <v>1004</v>
@@ -33106,10 +33155,10 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -33260,7 +33309,7 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -33410,7 +33459,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33552,16 +33601,16 @@
         <v>371</v>
       </c>
       <c r="AU51" s="146" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AV51" s="216">
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -33705,13 +33754,13 @@
         <v>371</v>
       </c>
       <c r="AU52" s="146" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AV52" s="216">
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -34012,7 +34061,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34160,10 +34209,10 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -34303,13 +34352,13 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV56" s="216">
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34320,7 +34369,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34443,16 +34492,16 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV57" s="216">
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34586,16 +34635,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV58" s="216">
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -34735,13 +34784,13 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
@@ -34889,11 +34938,11 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="BB60" s="178" t="s">
         <v>321</v>
@@ -35036,16 +35085,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35186,16 +35235,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="AW62" s="218" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35336,14 +35385,14 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35483,16 +35532,16 @@
         <v>371</v>
       </c>
       <c r="AU64" s="146" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="AV64" s="167" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="AW64" s="218" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35633,19 +35682,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -35788,17 +35837,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="AV66" s="216">
         <v>43671</v>
       </c>
       <c r="AW66" s="229"/>
       <c r="AX66" s="62" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -35941,16 +35990,16 @@
         <v>371</v>
       </c>
       <c r="AU67" s="166" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="AV67" s="227" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AW67" s="229" t="s">
         <v>1373</v>
       </c>
-      <c r="AW67" s="229" t="s">
-        <v>1377</v>
-      </c>
       <c r="AX67" s="62" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36093,19 +36142,19 @@
         <v>371</v>
       </c>
       <c r="AU68" s="146" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36249,10 +36298,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="AW69" s="229" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36398,10 +36447,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36548,10 +36597,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -36698,10 +36747,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -36848,10 +36897,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -36998,10 +37047,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37145,10 +37194,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37288,19 +37337,19 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV76" s="228" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="AW76" s="229" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37443,19 +37492,19 @@
         <v>371</v>
       </c>
       <c r="AU77" s="151" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -37597,7 +37646,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -37741,14 +37790,14 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -37888,22 +37937,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
       </c>
       <c r="BB80" s="178" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38043,22 +38092,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
       </c>
       <c r="BB81" s="178" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38202,16 +38251,16 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
       </c>
       <c r="BB82" s="178" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -38351,19 +38400,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="AW83" s="218" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38503,19 +38552,19 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AV84" s="230" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AW84" s="218" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AX84" s="62" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AY84" s="62" t="s">
         <v>1411</v>
-      </c>
-      <c r="AV84" s="230" t="s">
-        <v>1412</v>
-      </c>
-      <c r="AW84" s="218" t="s">
-        <v>1413</v>
-      </c>
-      <c r="AX84" s="62" t="s">
-        <v>1414</v>
-      </c>
-      <c r="AY84" s="62" t="s">
-        <v>1415</v>
       </c>
       <c r="BB84" s="178" t="s">
         <v>1025</v>
@@ -38658,16 +38707,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV85" s="230" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AW85" s="218" t="s">
         <v>1412</v>
       </c>
-      <c r="AW85" s="218" t="s">
-        <v>1416</v>
-      </c>
       <c r="AX85" s="62" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -38956,10 +39005,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39099,19 +39148,19 @@
         <v>371</v>
       </c>
       <c r="AU88" s="239" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="AV88" s="240" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="AW88" s="236" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39254,7 +39303,7 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
@@ -39391,16 +39440,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39535,25 +39584,25 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AV91" s="216">
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="AY91" s="179" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:54" ht="153" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>207</v>
       </c>
@@ -39688,13 +39737,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -39841,13 +39890,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -39928,13 +39977,13 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -40077,13 +40126,13 @@
         <v>369</v>
       </c>
       <c r="AU95" s="146" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40226,13 +40275,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="151" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40373,13 +40422,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40528,7 +40577,7 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -40635,13 +40684,13 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
@@ -40790,10 +40839,10 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -40939,7 +40988,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -41084,10 +41133,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41235,10 +41284,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41381,16 +41430,16 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV104" s="216">
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -41540,10 +41589,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41687,10 +41736,10 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -41840,10 +41889,10 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -41989,19 +42038,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV108" s="216">
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42145,13 +42194,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="AW109" s="219" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42294,16 +42343,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42447,10 +42496,10 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="218" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42597,10 +42646,10 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="218" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="BB112" s="61" t="s">
         <v>1029</v>
@@ -42747,13 +42796,13 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="218" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AY113" s="80" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
@@ -42900,13 +42949,13 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="218" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="AX114" s="80" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AY114" s="80" t="s">
         <v>1469</v>
-      </c>
-      <c r="AY114" s="80" t="s">
-        <v>1473</v>
       </c>
       <c r="BB114" s="58" t="s">
         <v>1025</v>
@@ -43053,13 +43102,13 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="218" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
@@ -43206,13 +43255,13 @@
         <v>43711</v>
       </c>
       <c r="AW116" s="218" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AY116" s="62" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="BB116" s="176" t="s">
         <v>324</v>
@@ -43359,10 +43408,10 @@
         <v>43711</v>
       </c>
       <c r="AW117" s="218" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
@@ -43505,16 +43554,16 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="AV118" s="216">
         <v>43711</v>
       </c>
       <c r="AW118" s="218" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="BB118" s="242" t="s">
         <v>321</v>
@@ -43657,16 +43706,16 @@
         <v>369</v>
       </c>
       <c r="AU119" s="241" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="AV119" s="216">
         <v>43711</v>
       </c>
       <c r="AW119" s="218" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -43809,16 +43858,16 @@
         <v>369</v>
       </c>
       <c r="AU120" s="243" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="AV120" s="216">
         <v>43713</v>
       </c>
       <c r="AW120" s="218" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="AX120" s="80" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="BB120" s="244" t="s">
         <v>1031</v>
@@ -43961,7 +44010,7 @@
         <v>369</v>
       </c>
       <c r="AU121" s="139" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="AV121" s="216">
         <v>43713</v>
@@ -43969,7 +44018,7 @@
       <c r="AW121" s="231"/>
       <c r="AX121" s="62"/>
       <c r="AY121" s="62" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="BB121" s="61" t="s">
         <v>1030</v>
@@ -44106,16 +44155,16 @@
         <v>369</v>
       </c>
       <c r="AU122" s="139" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="AV122" s="216">
         <v>43713</v>
       </c>
       <c r="AW122" s="218" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="AX122" s="62" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="AY122" s="62" t="s">
         <v>1033</v>
@@ -44265,13 +44314,13 @@
         <v>43713</v>
       </c>
       <c r="AW123" s="218" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="AX123" s="62" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="AY123" s="62" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -44367,19 +44416,19 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="AV124" s="216">
         <v>43713</v>
       </c>
       <c r="AW124" s="218" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="AX124" s="62" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="AY124" s="62" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -44475,9 +44524,12 @@
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="139" t="s">
-        <v>1501</v>
-      </c>
-      <c r="AW125" s="79"/>
+        <v>1509</v>
+      </c>
+      <c r="AV125" s="216">
+        <v>43713</v>
+      </c>
+      <c r="AW125" s="236"/>
       <c r="AX125" s="62" t="s">
         <v>1032</v>
       </c>
@@ -44585,10 +44637,10 @@
         <v>43713</v>
       </c>
       <c r="AW126" s="218" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="BB126" s="61" t="s">
         <v>324</v>
@@ -44691,10 +44743,10 @@
         <v>43713</v>
       </c>
       <c r="AW127" s="218" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="AY127" s="80" t="s">
         <v>1035</v>
@@ -44929,11 +44981,11 @@
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="139" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="AW129" s="79"/>
     </row>
-    <row r="130" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
         <v>208</v>
       </c>
@@ -45033,10 +45085,12 @@
       <c r="AR130" s="55"/>
       <c r="AS130" s="23"/>
       <c r="AT130" s="24"/>
-      <c r="AU130" s="139"/>
+      <c r="AU130" s="139" t="s">
+        <v>1508</v>
+      </c>
       <c r="AW130" s="79"/>
     </row>
-    <row r="131" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:54" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B131" s="95" t="s">
         <v>208</v>
       </c>
@@ -45125,13 +45179,21 @@
       <c r="AS131" s="100"/>
       <c r="AT131" s="101"/>
       <c r="AU131" s="139"/>
-      <c r="AV131" s="70"/>
-      <c r="AW131" s="69"/>
-      <c r="AX131" s="70"/>
+      <c r="AV131" s="225" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AW131" s="154" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AX131" s="69" t="s">
+        <v>1504</v>
+      </c>
       <c r="AY131" s="70"/>
       <c r="AZ131" s="66"/>
       <c r="BA131" s="66"/>
-      <c r="BB131" s="66"/>
+      <c r="BB131" s="66" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="132" spans="2:54" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="95" t="s">
@@ -45222,13 +45284,21 @@
       <c r="AS132" s="100"/>
       <c r="AT132" s="101"/>
       <c r="AU132" s="139"/>
-      <c r="AV132" s="70"/>
-      <c r="AW132" s="69"/>
-      <c r="AX132" s="70"/>
+      <c r="AV132" s="225" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AW132" s="167" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AX132" s="69" t="s">
+        <v>1507</v>
+      </c>
       <c r="AY132" s="70"/>
       <c r="AZ132" s="66"/>
       <c r="BA132" s="66"/>
-      <c r="BB132" s="66"/>
+      <c r="BB132" s="66" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="133" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
@@ -45645,22 +45715,22 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AV135" s="147">
-        <v>20190314</v>
-      </c>
-      <c r="AW135" s="82" t="s">
-        <v>1017</v>
+        <v>1513</v>
+      </c>
+      <c r="AV135" s="235" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AW135" s="218" t="s">
+        <v>1511</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1036</v>
+        <v>1512</v>
       </c>
       <c r="BB135" s="61" t="s">
-        <v>1030</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="136" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B136" s="21" t="s">
         <v>207</v>
       </c>
@@ -45796,10 +45866,26 @@
       <c r="AT136" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU136" s="139"/>
-      <c r="AW136" s="79"/>
+      <c r="AU136" s="139" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AV136" s="216">
+        <v>43718</v>
+      </c>
+      <c r="AW136" s="63" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AX136" s="62" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AY136" s="62" t="s">
+        <v>1514</v>
+      </c>
+      <c r="BB136" s="61" t="s">
+        <v>976</v>
+      </c>
     </row>
-    <row r="137" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
         <v>207</v>
       </c>
@@ -45936,16 +46022,6 @@
         <v>369</v>
       </c>
       <c r="AU137" s="139"/>
-      <c r="AW137" s="79"/>
-      <c r="AX137" s="62" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AY137" s="62" t="s">
-        <v>1038</v>
-      </c>
-      <c r="BB137" s="61" t="s">
-        <v>976</v>
-      </c>
     </row>
     <row r="138" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B138" s="21" t="s">
@@ -46088,7 +46164,7 @@
         <v>1017</v>
       </c>
       <c r="AX138" s="62" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -46183,7 +46259,7 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="151" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="AV139" s="138">
         <v>20190226</v>
@@ -46192,7 +46268,7 @@
         <v>1017</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -46301,10 +46377,10 @@
       <c r="AU140" s="139"/>
       <c r="AW140" s="79"/>
       <c r="AX140" s="62" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="AY140" s="62" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="BB140" s="61" t="s">
         <v>976</v>
@@ -46448,7 +46524,7 @@
       </c>
       <c r="AU141" s="139"/>
       <c r="AW141" s="82" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="142" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -46557,7 +46633,7 @@
         <v>1017</v>
       </c>
       <c r="AX142" s="65" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="AY142" s="70"/>
       <c r="AZ142" s="66"/>
@@ -46661,17 +46737,17 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="AV143" s="138">
         <v>20190130</v>
       </c>
       <c r="AW143" s="82"/>
       <c r="AX143" s="62" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BB143" s="176" t="s">
         <v>328</v>
@@ -46814,17 +46890,17 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="AV144" s="138">
         <v>20190130</v>
       </c>
       <c r="AW144" s="79"/>
       <c r="AX144" s="62" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="AY144" s="62" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="AZ144" s="177"/>
       <c r="BB144" s="176" t="s">
@@ -47206,17 +47282,17 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="AV147" s="138">
         <v>20190130</v>
       </c>
       <c r="AW147" s="79"/>
       <c r="AX147" s="62" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BB147" s="178" t="s">
         <v>324</v>
@@ -47321,7 +47397,7 @@
         <v>1017</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -47423,13 +47499,13 @@
       </c>
       <c r="AU149" s="139"/>
       <c r="AW149" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX149" s="62" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="AY149" s="62" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -47544,13 +47620,13 @@
         <v>369</v>
       </c>
       <c r="AU150" s="165" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="AV150" s="147">
         <v>20190328</v>
       </c>
       <c r="AW150" s="86" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AX150" s="87"/>
       <c r="AY150" s="88"/>
@@ -47693,24 +47769,24 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="AV151" s="88">
         <v>20190122</v>
       </c>
       <c r="AW151" s="86" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AX151" s="87" t="s">
         <v>1046</v>
       </c>
-      <c r="AX151" s="87" t="s">
-        <v>1049</v>
-      </c>
       <c r="AY151" s="87" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="152" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -47810,18 +47886,18 @@
         <v>20190122</v>
       </c>
       <c r="AW152" s="86" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX152" s="87" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AY152" s="87" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="153" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -48223,10 +48299,10 @@
       <c r="AU155" s="139"/>
       <c r="AW155" s="82"/>
       <c r="AX155" s="80" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="AY155" s="80" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="BB155" s="58" t="s">
         <v>976</v>
@@ -48363,14 +48439,14 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="AV156" s="145">
         <v>20190228</v>
       </c>
       <c r="AW156" s="82"/>
       <c r="AX156" s="62" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="AY156" s="68" t="s">
         <v>1000</v>
@@ -48499,7 +48575,7 @@
       <c r="AT157" s="24"/>
       <c r="AU157" s="139"/>
       <c r="AW157" s="82" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="158" spans="2:54" x14ac:dyDescent="0.2">
@@ -48887,7 +48963,7 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="143" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="AV160" s="155">
         <v>20190326</v>
@@ -49013,7 +49089,7 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="AV161" s="70">
         <v>20190326</v>
@@ -49022,7 +49098,7 @@
         <v>1017</v>
       </c>
       <c r="AX161" s="65" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AY161" s="70"/>
       <c r="AZ161" s="66"/>
@@ -49150,7 +49226,7 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="AV162" s="70">
         <v>20190326</v>
@@ -49159,7 +49235,7 @@
         <v>1017</v>
       </c>
       <c r="AX162" s="169" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AY162" s="70"/>
       <c r="AZ162" s="66"/>
@@ -49287,7 +49363,7 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="AV163" s="70">
         <v>20190326</v>
@@ -49296,7 +49372,7 @@
         <v>1017</v>
       </c>
       <c r="AX163" s="70" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="AY163" s="70"/>
       <c r="AZ163" s="66"/>
@@ -49698,7 +49774,7 @@
       <c r="AU166" s="139"/>
       <c r="AW166" s="79"/>
     </row>
-    <row r="167" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B167" s="21" t="s">
         <v>207</v>
       </c>
@@ -50061,10 +50137,10 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="148" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="AV169" s="154" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="170" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -50205,10 +50281,10 @@
       </c>
       <c r="AU170" s="139"/>
       <c r="AW170" s="82" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AX170" s="62" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AY170" s="62"/>
       <c r="BB170" s="61" t="s">
@@ -50352,19 +50428,19 @@
         <v>369</v>
       </c>
       <c r="AU171" s="151" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="AV171" s="138" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AW171" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX171" s="62" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="AY171" s="62" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
@@ -50507,10 +50583,10 @@
         <v>369</v>
       </c>
       <c r="AU172" s="151" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="AV172" s="154" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AW172" s="79"/>
     </row>
@@ -50619,17 +50695,17 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="AV173" s="142">
         <v>20190402</v>
       </c>
       <c r="AW173" s="140"/>
       <c r="AX173" s="141" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AY173" s="141" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AZ173" s="66"/>
       <c r="BA173" s="66"/>
@@ -50774,19 +50850,19 @@
         <v>369</v>
       </c>
       <c r="AU174" s="152" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AW174" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
@@ -50902,10 +50978,10 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AY175" s="65" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
@@ -51050,7 +51126,7 @@
         <v>369</v>
       </c>
       <c r="AU176" s="156" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -51193,10 +51269,10 @@
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
       <c r="AU177" s="156" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -51344,7 +51420,7 @@
       <c r="AU178" s="139"/>
       <c r="AW178" s="79"/>
     </row>
-    <row r="179" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>207</v>
       </c>
@@ -51615,10 +51691,10 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AX180" s="81" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
@@ -51757,10 +51833,10 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AX181" s="62" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="BB181" s="61" t="s">
         <v>999</v>
@@ -52321,13 +52397,13 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AX185" s="62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BB185" s="61" t="s">
         <v>1067</v>
-      </c>
-      <c r="AX185" s="62" t="s">
-        <v>1069</v>
-      </c>
-      <c r="BB185" s="61" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="186" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -52681,19 +52757,19 @@
         <v>369</v>
       </c>
       <c r="AU188" s="160" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="BB188" s="176" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="189" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -52833,17 +52909,17 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AY189" s="62" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
@@ -52954,17 +53030,17 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AY190" s="62" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
@@ -53107,16 +53183,16 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
@@ -53259,7 +53335,7 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
@@ -53403,7 +53479,7 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
@@ -53547,19 +53623,19 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
       </c>
       <c r="AW194" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="BB194" s="176" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="195" spans="2:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53756,16 +53832,16 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="197" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -53905,14 +53981,14 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="AV197" s="145">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="AY197" s="180" t="s">
         <v>1000</v>
@@ -54058,14 +54134,14 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AY198" s="180" t="s">
         <v>1000</v>
@@ -54167,7 +54243,7 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="144" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
@@ -54176,7 +54252,7 @@
         <v>1017</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -54462,7 +54538,7 @@
         <v>1017</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="BB201" s="178" t="s">
         <v>321</v>
@@ -54652,19 +54728,19 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
       </c>
       <c r="AW203" s="133" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="BB203" s="176" t="s">
         <v>328</v>
@@ -54807,16 +54883,16 @@
         <v>369</v>
       </c>
       <c r="AU204" s="150" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
@@ -55061,13 +55137,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="207" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -55289,16 +55365,16 @@
       </c>
       <c r="AU208" s="139"/>
       <c r="AW208" s="133" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="BB208" s="176" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="209" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -55439,16 +55515,16 @@
       </c>
       <c r="AU209" s="139"/>
       <c r="AW209" s="133" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="BB209" s="176" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="210" spans="2:54" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -55542,13 +55618,13 @@
       <c r="AU210" s="139"/>
       <c r="AV210" s="88"/>
       <c r="AW210" s="133" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
@@ -55693,19 +55769,19 @@
         <v>369</v>
       </c>
       <c r="AU211" s="152" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
       </c>
       <c r="AW211" s="133" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
@@ -55774,17 +55850,17 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="146" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="AV212" s="147">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
@@ -55929,22 +56005,22 @@
         <v>369</v>
       </c>
       <c r="AU213" s="144" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="AV213" s="144">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AX213" s="62" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY213" s="62" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BB213" s="61" t="s">
         <v>1082</v>
-      </c>
-      <c r="AX213" s="62" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AY213" s="62" t="s">
-        <v>1084</v>
-      </c>
-      <c r="BB213" s="61" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="214" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -56084,7 +56160,7 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
@@ -56093,7 +56169,7 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
@@ -56236,19 +56312,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AX215" s="62" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="AY215" s="62" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -56728,13 +56804,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="220" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -56874,13 +56950,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="221" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -57021,7 +57097,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="222" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -57161,16 +57237,16 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
@@ -57313,22 +57389,22 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
-    <row r="224" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
         <v>207</v>
       </c>
@@ -57604,14 +57680,14 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="BB225" s="176" t="s">
         <v>320</v>
@@ -57748,19 +57824,19 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
       </c>
       <c r="AW226" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -57897,7 +57973,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -57906,7 +57982,7 @@
         <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="228" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -58440,7 +58516,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -58581,11 +58657,11 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
-    <row r="234" spans="2:54" ht="102" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B234" s="21" t="s">
         <v>207</v>
       </c>
@@ -58722,7 +58798,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -58863,7 +58939,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -59004,7 +59080,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -59145,7 +59221,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -59287,16 +59363,16 @@
       </c>
       <c r="AU238" s="139"/>
       <c r="AW238" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX238" s="62" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="AY238" s="62" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="BB238" s="61" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="239" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -59432,17 +59508,17 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
@@ -59583,7 +59659,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -59726,7 +59802,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -59867,7 +59943,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -60008,7 +60084,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -60155,7 +60231,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -60246,7 +60322,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -60347,16 +60423,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -60499,7 +60575,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -60594,7 +60670,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -60691,16 +60767,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW249" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -60843,16 +60919,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW250" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -60995,10 +61071,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="252" spans="2:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61556,13 +61632,13 @@
       </c>
       <c r="AU255" s="139"/>
       <c r="AW255" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -61709,7 +61785,7 @@
         <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -61845,13 +61921,13 @@
       </c>
       <c r="AU257" s="139"/>
       <c r="AW257" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -61932,7 +62008,7 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
@@ -62077,7 +62153,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -62289,10 +62365,10 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW261" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX261" s="62" t="s">
         <v>1018</v>
@@ -62407,14 +62483,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -62557,17 +62633,17 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="BB263" s="176" t="s">
         <v>976</v>
@@ -62717,7 +62793,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -62837,17 +62913,17 @@
         <v>371</v>
       </c>
       <c r="AU265" s="168" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="AV265" s="167">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="BB265" s="176" t="s">
         <v>976</v>
@@ -62978,14 +63054,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -63119,7 +63195,7 @@
         <v>371</v>
       </c>
       <c r="AU267" s="172" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="AV267" s="169">
         <v>20190404</v>
@@ -63128,7 +63204,7 @@
         <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -63262,7 +63338,7 @@
         <v>371</v>
       </c>
       <c r="AU268" s="173" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="AV268" s="174">
         <v>20190404</v>
@@ -63271,7 +63347,7 @@
         <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -63405,7 +63481,7 @@
         <v>371</v>
       </c>
       <c r="AU269" s="175" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AV269" s="174">
         <v>20190404</v>
@@ -63414,7 +63490,7 @@
         <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -63494,7 +63570,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="170" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="AV270" s="171">
         <v>20190404</v>
@@ -63577,7 +63653,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="143" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="AV271" s="155">
         <v>20190404</v>
@@ -63660,7 +63736,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="143" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="AV272" s="155">
         <v>20190404</v>
@@ -63795,13 +63871,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AW273" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -63930,13 +64006,13 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AW274" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="BB274" s="61" t="s">
         <v>1030</v>
@@ -64079,7 +64155,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -64226,7 +64302,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -64367,7 +64443,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -64472,7 +64548,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -64614,13 +64690,13 @@
       </c>
       <c r="AU279" s="139"/>
       <c r="AW279" s="82" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -64693,7 +64769,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -64834,7 +64910,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -64975,7 +65051,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -65117,7 +65193,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -65258,7 +65334,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -65399,7 +65475,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -65540,7 +65616,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -65667,16 +65743,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW287" s="82" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="AX287" s="62" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="AY287" s="62" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -65747,7 +65823,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -65878,7 +65954,7 @@
         <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -66007,7 +66083,7 @@
         <v>370</v>
       </c>
       <c r="AU290" s="162" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="AV290" s="145">
         <v>20190305</v>
@@ -66016,7 +66092,7 @@
         <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="291" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -66142,13 +66218,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW291" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -66213,7 +66289,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -66276,7 +66352,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -66339,7 +66415,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -66408,7 +66484,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -66471,7 +66547,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -66534,7 +66610,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -66597,7 +66673,7 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="162" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="AV298" s="145">
         <v>20190305</v>
@@ -66606,7 +66682,7 @@
         <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="299" spans="2:54" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -66668,7 +66744,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -66719,13 +66795,17 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AU1:AU4"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AP3:AQ3"/>
@@ -66740,153 +66820,149 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AU1:AU4"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU142 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
-    <cfRule type="expression" dxfId="36" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="86" stopIfTrue="1">
       <formula>LEFT($C1,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AU19 H21:AU40 H20:AT20 H60:AU66 H59:AT59 H92:AU95 H91:AT91 H125:AU134 H124:AT124 H136:AU138 H135:AT135 H195:AU195 H198:AU198 H228:AU301 H200:AU202 H199:AT199 H204:AU205 H203:AT203 H207:AU210 H206:AT206 H216:AU218 H213:AT215 H221:AU221 H219:AT220 H224:AU224 H222:AT223 H225:AT227 H44:AU45 H43:AT43 H53:AU58 H52:AT52 H173:AU173 H175:AU175 H174:AT174 H212:AU212 H211:AT211 H140:AU142 H139:AT139 H178:AU187 H171:AT172 H145:AU146 H143:AT144 H148:AU170 H147:AT147 H176:AT177 H48:AU51 H46:AT47 H68:AU76 H67:AT67 H78:AU83 H77:AT77 H85:AU90 H84:AT84 H97:AU98 H96:AT96 H109:AT109 H196:AT197 H188:AT194 H42:AU42 H100:AU108 H110:AU123">
-    <cfRule type="cellIs" dxfId="35" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="87" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="88" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="89" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="expression" dxfId="32" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="82" stopIfTrue="1">
       <formula>LEFT($C24,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="cellIs" dxfId="31" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="83" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="84" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="85" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20">
-    <cfRule type="expression" dxfId="28" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>LEFT($C20,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU59">
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>LEFT($C59,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU91">
-    <cfRule type="expression" dxfId="26" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>LEFT($C91,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU124">
-    <cfRule type="expression" dxfId="25" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>LEFT($C124,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU135">
-    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>LEFT($C135,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>LEFT($C43,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>LEFT($C52,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>LEFT($C197,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:AU41">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>LEFT($C41,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:AU41">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:AU99">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>LEFT($C99,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:AU99">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66906,7 +66982,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140.28515625" bestFit="1" customWidth="1"/>
@@ -67249,36 +67325,36 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="164"/>
       <c r="B5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -67294,170 +67370,170 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F2" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B4" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F4" s="161" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B6" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B7" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B8" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B10" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B11" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B12" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B13" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B14" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B15" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B16" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B17" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B18" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B19" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -67465,12 +67541,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -67480,40 +67556,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </AresNumber>
-    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </Unit_Dir0_tax>
-    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67696,46 +67742,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </AresNumber>
+    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </Unit_Dir0_tax>
+    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67755,10 +67805,36 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Annex" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12284" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12312" uniqueCount="1545">
   <si>
     <t>ID</t>
   </si>
@@ -4691,12 +4691,6 @@
 </t>
   </si>
   <si>
-    <t>SecurityClearanceTerms.Deadline</t>
-  </si>
-  <si>
-    <t>SecurityClearanceTerms.Description</t>
-  </si>
-  <si>
     <t>ContractTerms</t>
   </si>
   <si>
@@ -4704,23 +4698,7 @@
 (WG decision 23/11/2018)</t>
   </si>
   <si>
-    <t>Lot.Identifier?</t>
-  </si>
-  <si>
-    <t>ReservedProcurementRequirement.Reserved</t>
-  </si>
-  <si>
-    <t>ContractTerms.eInvoicing</t>
-  </si>
-  <si>
     <t>Note, not definition</t>
-  </si>
-  <si>
-    <t>ContractTerms.ePayment</t>
-  </si>
-  <si>
-    <t>Electronic means are used for paying the winner of the contract in the post-award process.
-(Pending to review by the WG)</t>
   </si>
   <si>
     <t>SuncontractTerms.MinimumShare</t>
@@ -5478,36 +5456,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A new data property has been added to the class Contract Terms, "Contractor Legal Form Requirement Description" defined as "A constraint concerning the legal form that must be adopted by a tenderer composed of a group of economic operators once it has been awarded a contract." </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(to be discussed with eForms).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We have added a new field named "Payment Arrangements" (see our own definition in the EAP file). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pending of discussion with eForms.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>The eAuction is a subclass of Technique, which has a URL. Decision: we have renamed the diagram Instruments and Techniques as Techniques and Instruments (2019-01-30).</t>
     </r>
     <r>
@@ -5520,6 +5468,1834 @@
       </rPr>
       <t xml:space="preserve"> We started working on the association of Access Tool to Technique and removing URI:URI from Technique....BUT WE DID NOT FINISH.</t>
     </r>
+  </si>
+  <si>
+    <t>See comment  BT-65</t>
+  </si>
+  <si>
+    <t>Code list name: timeperiods
+There is an anomaly in this table in the fact that it is plural.  The table belongs to EU Vocabularies and is already published so it is not possible to alter its name.  The code list is to be used for unlimited and unknown
+20180115-16: OK, we'll use the EU-Vocabularies Time Period Code List</t>
+  </si>
+  <si>
+    <t>OK: We would need a new Class named Beneficiary Owner, which would be a specialisation of foaf:Agent, and this Beneficiary Owner would have a property "nationality". It will also be necessary to link this Beneficiary Owner class to the Winner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be a new property of the Winner, too. </t>
+  </si>
+  <si>
+    <t>We have added an object property linking the class Notice (in the diagram Documents) to Procedure. The property is named "refers to previous procedure". The WG has agreed on a definition for this property (see the definition in the EAP file).</t>
+  </si>
+  <si>
+    <t>Additional Information deadline is conveyed by a new property of eAccess terms. Of type Datetime
+WG 20190307</t>
+  </si>
+  <si>
+    <t>Conveyed by the predicate between SubmissionTerms and Lots. The definition of "Applies to" has been updated.
+WG 20190307</t>
+  </si>
+  <si>
+    <t>Conveyed by eSubmission permissions à Action create Github issue to change the name of   "Submission Electronic" to "Submission electronic permission" to clarify the code list that is used.
+20190219_21  Code list: permissions
+When discussing the variants it was decided that to increase reusability the code list to be used should be called permission so that it can be used also for the code list required for electronic submission the value of the codes would therefore be Authorised, Required and Not allowed to be in line with the terminology of variants in the Directive</t>
+  </si>
+  <si>
+    <t>20190305 Code list: communication-justification
+• Tools, devices, or file formats not generally available
+• Intellectual property right issues
+• Buyer would need specialised office equipment
+• Inclusion of a physical model
+• Protection of particularly sensitive information
+• Tools, devices, or file formats not generally available
+• Intellectual property right issues
+• Buyer would need specialised office equipment
+• Inclusion of a physical model
+• Protection of particularly sensitive information
+WG 20190307: Conveyed by non-electronic submission code that we change to non electronic submission justification code.
+20190312:  Conveyed by non-electronic submission code that we change to non electronic submission justification code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conveyed by Document.Electronic Means of Communication.URl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently conveyed by Document.restricted Access code. It will be changed to adding the eAccess Terms class and property eAccessTerms. AccessRestriction indicator and Access Restriction Justification Text.
+eForms has a code instead of text action to be taken. Either enter a github issue in eForms or update the Access Restriction justification property type from text to code. 
+The property Document.RestrictedAccess of type code is kept for now as it is interesting that a document confidentiality policy is self-contained in the document but we need to further describe the relationship between the indicator and the code when the codelist will be known.
+</t>
+  </si>
+  <si>
+    <t>WG 20190307: 520 is addressed by linking eAccessTerms to Organisation with the predicate "additional information provided by".</t>
+  </si>
+  <si>
+    <t>WG 20190321 We have added a property named "The electronic means used to obtain" between "Submission Terms" and "Electronic Means of Communication". As the "Submission Terms" class in linked to each Lot, the Lot is also transitively linked to "Electronic Means of Communication".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WG 20190321 We have added a property named "has General Environment Communication" between "Submission Terms" and "Electronic Means of Communication". As the "Submission Terms" class in linked to each Lot, the Lot is also transitively linked to "Electronic Means of </t>
+  </si>
+  <si>
+    <t>Code list: weight type
+Created  and associated to the class criterion</t>
+  </si>
+  <si>
+    <t>Code list: price-cost-threshold type
+Associated to award criterioncriterion</t>
+  </si>
+  <si>
+    <t>code list: threshold-type
+Associated to classes award criterion and selection criterion</t>
+  </si>
+  <si>
+    <t>This needs to be multiple to cover ranges</t>
+  </si>
+  <si>
+    <t>To check</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>Purpose.Options Description</t>
+  </si>
+  <si>
+    <t>Contract.Notice
+Should this not be elsewhere it is not the recurrence of the notice</t>
+  </si>
+  <si>
+    <t>Code list: direct-award-justification
+The values of the codes need to reviewed they are very long --- more like definitions.  The term "no regular tenders" in the third code is not undersood.
+It is in lots and CAN probably just needs to be in lots</t>
+  </si>
+  <si>
+    <t>20190402/The code list is the predicate between the Green procurement, social procurement and Innovative procurement classes</t>
+  </si>
+  <si>
+    <t>20190404: The terms can be added as indicators in the green procurement class.  Becareful that the Environment Management System may be used in the ESPD
+20190402: Predicate: Reduces environmenal impacts
+Code list to be reviewed</t>
+  </si>
+  <si>
+    <t>20190404:The terms covered by the code list seem to be exclusion criteria to some extent and it is difficult to imagine a buyer not wishing to select each value otherwise he would not be seen to repect the principles of the EU.  Therefore this cannot be represented in the ontology
+20190402: Predicate: Fufils social objectives
+Code list to be reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+These terms cover different phases of the procurement chain and it is not clear what is being requested therefore it is not possible at this point to introduce in the ontology
+20140402: Predicate: ensures innovative procurement
+Code list to be reviewed.  
+OECD Innovation:
+https://www.oecd.org/innovation/oslo-manual-2018-9789264304604-en.htm</t>
+  </si>
+  <si>
+    <t>20190404/
+https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32007R1370&amp;from=EN
+REGULATION (EC) No 1370/2007
+https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32007R1370&amp;from=EN
+REGULATION (EC) No 1370/2007
+DIRECTIVE 2009/33/EC on the promotion of clean and energy-efficient road transport vehicles
+20190402: Concern award not selection
+Concern Clean vehicles directive
+could be used like the aggregate in the CAN procedure information however this is about lots</t>
+  </si>
+  <si>
+    <t>Ditto BT 715</t>
+  </si>
+  <si>
+    <t>Ditto BT-715</t>
+  </si>
+  <si>
+    <t>Definition: Condition aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
+Additional information: The conditions mut be achieved via either technical specifications, selection criteria, award criteria and contract terms.</t>
+  </si>
+  <si>
+    <t>EconomicOperator.EORoleType</t>
+  </si>
+  <si>
+    <t>Winner.Tenderer.EconomicOperator.economic-operator-size</t>
+  </si>
+  <si>
+    <t>Any additional information about recurrence (e.g. estimated timing).
+(WG approval 2019-01-16)</t>
+  </si>
+  <si>
+    <t>Procedure.AcceleratedProcedureFurtherJustification</t>
+  </si>
+  <si>
+    <t>Explanation about why the choice of an accelerated procedure is lawful.
+(Not included in the Glossary. Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>AwardCriterion.threshold-type</t>
+  </si>
+  <si>
+    <t>AwardCriterion.price-cost-threshold-type</t>
+  </si>
+  <si>
+    <t>Concept changed, definition missing</t>
+  </si>
+  <si>
+    <t>DynamicPurchaseSystem.DPSTermination</t>
+  </si>
+  <si>
+    <t>Electronic Means of Communication.Url</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>eAccessTerms.AdditionalInformationDeadline</t>
+  </si>
+  <si>
+    <t>Missing definition - definition "applies to" still not updated</t>
+  </si>
+  <si>
+    <t>SubmissionTerms.eSubmissionElectronicSignature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The tender is required to be signed electronically.
+Additional Information: 
+Signature can be defined as "data in electronic form which is attached to or logically associated with other data in electronic form and which is used by the signatory to sign. 
+For more details on the meaning and uses of electronic signature you may consult different authoritative sources, a relevant one being for instance the Regulation (EU) 910/2014 on electronic identification and trust services for electronic transactions in the internal market.
+WG Approval 12/03/2019 15:46:34</t>
+  </si>
+  <si>
+    <t>definition is missing - code list?</t>
+  </si>
+  <si>
+    <t>SubmissionTerms.ReceiptDeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The deadline for submitting Tenders.
+(Not included in the Glossary. Pending to review by the WG)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is in Procedure should perhaps be in submission terms - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>did not find it</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The period during which tenders submitted for this procurement procedure must remain valid.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>SubmissionTerms.TenderValidityDeadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Including the financial modality and request for commitment reserved to be used in case of default.
+Additional Information:
+1. Usual modalities are bonds, cheques, loans, other.
+2. Guarantees can be used to cover the risks that:
+- the winner refuses to sign the contract;
+- the contractor does not execute the contract according to the terms of the contract.
+WG Approval 2019-02-26</t>
+  </si>
+  <si>
+    <t>SubmissionTerms.GuaranteeRequired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Textual explanation on the required guarantee.
+WG Approval 2019-05-26</t>
+  </si>
+  <si>
+    <t>SubmissionTerms.GuaranteeDescription</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The CAN  has value of contract  value conveyed in procurement value WG approval 20190319 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I don’t' understand</t>
+    </r>
+  </si>
+  <si>
+    <t>Lot.ID</t>
+  </si>
+  <si>
+    <t>AwardDecision.AwardIndicator</t>
+  </si>
+  <si>
+    <r>
+      <t>AwardDecision.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has Non-Award Justification.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>non-awarded-justification</t>
+    </r>
+  </si>
+  <si>
+    <t>Condition that aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
+Additional Information: The conditions must be achieved via either  technical specifications, selection criteria, award criteria and contract terms.
+WG Approval 02/04/2019 15:39:57</t>
+  </si>
+  <si>
+    <t>StrategicProcurement</t>
+  </si>
+  <si>
+    <t>StrategicProcurement.StrategicProcurementDescription</t>
+  </si>
+  <si>
+    <t>GreenProcurement</t>
+  </si>
+  <si>
+    <t>SocialProcurement</t>
+  </si>
+  <si>
+    <t>InnovativeProcurement</t>
+  </si>
+  <si>
+    <r>
+      <t>ContractModificationNotice.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has contract modification justification.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modification-justification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CorrigendumNotice.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has notice corrigendum justification.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>notice-corrigendum-justification</t>
+    </r>
+  </si>
+  <si>
+    <t>AwardCriterion.weight-type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The CAN has framework agreement value conveyed in procurement value WG approval 20190319 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I don't understand</t>
+    </r>
+  </si>
+  <si>
+    <t>The indicator is added in the award decision WG decision 20190319
+An indication whether any tenderer has been chosen for a contract or framework contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Statement by the Procuring Entity about whether it may apply modifications to the procurement procedure that would alter the overall nature of the contract or the framework agreement.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(Not included in the Glossary. Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>Purpose.OptionsDescription</t>
+  </si>
+  <si>
+    <t>timeperiods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A specific legal entity must be taken up by a tenderer composed of a group of economic operators once it has been awarded a contract.
+Additional information: this may be applied in the case of groups (e.g. a consortium) where the requirement is that they have to formalise the relationship of the group members as a legal entity itself once the contract is awarded.
+WG Approval 2019-01-29, 2019-01-30
+</t>
+  </si>
+  <si>
+    <t>Information about financial clauses that will govern some economic aspects of the execution of the contract.
+Additional Information: These clauses usually refer to financial and payment provisions.
+This type of information should be structured instead of a free text in order to reuse it an ideal world. Unfortunately this is an information that in the real life no one is willing to provide pro-actively.
+WG Pending of discussion with eForms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The WG decided to keep this as "Performance Conditions". A definition for this term has been agreed by the WG (15-01-2019). See class Post Award Terms (in diagram Procurement Terms, for example)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The particular conditions and additional information related to the execution of the contract.
+Additional Information: e.g. specific information about the place of performance, intermediary deliverables, compensation for damages, intellectual property rights.
+(WG approved 15-01-2019)</t>
+  </si>
+  <si>
+    <r>
+      <t>Contract.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>inherits from.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FrameworkAgreement?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The CPV establishes a single classification system for public procurement aimed at standardising the references used by procuring entities to describe the purpose of procurement contracts and procurement projects.
+(WG approval 25/05/2018)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code list: measurement-unit
+See: https://publications.europa.eu/en/web/eu-vocabularies/at-dataset/-/resource/dataset/measurement-unit
+This code list is based on http://www.unece.org/fileadmin/DAM/cefact/recommendations/rec20/rec20_Rev12e_2016.xls
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I cannot find "measurement-unit" in the diagrams</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We have moved the attributes related to renewal to the class Postaward Terms (see the diagram Procurement Terms). We have added Recurrence (Indicator) as a data property to the class Contract Notice (see Documents diagram).
+</t>
+  </si>
+  <si>
+    <t>Decisions: 
+1. We have come up with a more granular view of this because:
+- We have separated the clearance to access documents from the access to sites;
+- We specify the type of the addressee security clearance.
+2. @Enric to create an Issue in eForms explaining the above, as this adds clarity about to whom and where the security clearance needs to be addressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  See github: https://github.com/eprocurementontology/eprocurementontology/issues/171
+This was previously called subcontracting requirement.
+The working group discussion of 20190328:
+There was a long discussion on the eForms BT-65 which is shown to be a code list.  The group found it difficult to justify as a code list as it covered concepts coming from different origins ie during the tendering procedure or during the execution of contract like is not being compared with like.  The different values foreseen were:
+The working group discussion of 20190122: 
+ The tenderer has to indicate in the tender any share of the contract it may intend to subcontract to third parties and any proposed subcontractor, as well as the subject-matter of the subcontracts for which they are proposed.  
+ The tenderer has to indicate any change occurring at the level of subcontractors during the execution of the contract.   
+ The contracting authority/entity may oblige the successful tenderer to award all or certain subcontracts through the procedure set out in Title III of Directive 2009/81/EC.  
+ The successful tenderer is obliged to specify which part or parts of the contract it intends to subcontract beyond the required percentage and to indicate the subcontractors already identified.   
+ No subcontracting requirements  
+  The solution found by the group was to provide separate indicators for the different terms.  A subcontracting terms class was linked to submission terms and contract terms.  The subcontracting term class provides for the maximum and minimum amounts of subcontracting and whether the subcontractors need to be listed it not and provides.  A subcontracting restriction code to cover Title III of Directive 2009/81/EC has been included.  See attached diagram – however please note the subcontracting-requirement code list should be removed and the  "subcontractors involved needs to be provided as a property of submission class.
+The wg discussion of 20190122: the decision was made by the WG that a new Participation Criterion will be created (see also row just above) that may be instantiated to express these Subcontracting Terms (Subcontracting Requirements Code, Subcontratction Obligation Minimum and Subcontracting Obligation Maximum).  See Conceptual Model Diagram Procurement Criterion and Selection Criteria Diagram. The fact that one set of subcontracting terms is linked to specific Lots can be establishe because Criteria can be linked to Lots. 
+(WG Approval 2019-01-22)</t>
+  </si>
+  <si>
+    <t>SubcontractTerms?</t>
+  </si>
+  <si>
+    <r>
+      <t>AwardCriterionEvaluationDimension.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has dimension type.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluation-dimension</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Document Restricted URl are conveyed by eAccessterms where RestrictionIndicator  is Y linked to procurementDocument. ElectronicMeans of Communication.Url
+WG20190307
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>I don't find RestrictionIndicator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SubmissionTerms.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has eSubmission communication.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>permissions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SubmissionTerms.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has Non-electronic Submission Justification.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>communication-justification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lot.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has variant permissions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>permission</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OpeningTerms.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has opening place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PostalAddress</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lot.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has Framework Maximum Value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ProcurementValue</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Exists in lot diagram WG 20190319
+</t>
+  </si>
+  <si>
+    <t>Not sure about concept
+Definition is missing
+Also, it is not an indicator</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Issue to be created on eforms  github  -  should this value not be directly linked to the group as a whole rather than only in the case of framework agreements ie this information could also concern contracts independent of framework agreements WG 20190319
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>We have added an object property "has Procurement Value" between class "Lot Group" and "Procurement Value" (see "Lots" Diagram).
+We have created also a new diagram named "eAward" to reflect how the Award Decision and the Contract are linked to the Framework Agreement and this latter to the Lot Group, which has also a Procurement Value (and therefore the Maximum Amount).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The highest amount which can be spent within a procurement over its whole duration.
+Additional Information: beware that the procurement can be organised based on different Techniques, e.g. Framework Agreements.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <r>
+      <t>Lot.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>has Framework Maximum Value.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ProcurementValue.MaximumAmout</t>
+    </r>
+  </si>
+  <si>
+    <t>Not sure about concept</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We have this via the lot identifier in the lot class which is connected  to evaluation report with predicate is assessed in WG approval 20190319
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I don't understand: Lot.Identifier?</t>
+    </r>
+  </si>
+  <si>
+    <t>An indication whether any tenderer has been chosen for a contract or framework agreement.
+WG Approval 19/03/2019 15:57:43</t>
+  </si>
+  <si>
+    <t>1. Non award justification is connected to evaluation result therefore no need for indicator if the justification is mandatory.
+2. Direct award justification terms is transferred from CAN to a new class Award terms in procurement terms
+20190305
+• No tenders, requests to participate or projects were received
+• All tenders, requests to participate or projects were rejected
+• Decision of the buyer, because of insufficient funds
+• Decision of the buyer, because of a change in needs
+• Decision of the buyer, not following a tenderer's request to review the award, because of technical or procedural errors
+• Decision of the buyer following a tenderer's request to review the award
+• Decision of a review body or another judicial body</t>
+  </si>
+  <si>
+    <t>Document.Identifier</t>
+  </si>
+  <si>
+    <t>The Notice Identifier is inherited from the Document</t>
+  </si>
+  <si>
+    <t>Under discussion as change notices are new notices not new versions</t>
+  </si>
+  <si>
+    <t>Document.DispatchDate</t>
+  </si>
+  <si>
+    <t>Document.OfficialLanguage</t>
+  </si>
+  <si>
+    <t>Procedure.Description
+Lot.Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Group Framework Estimated Maximum Value Lot Identifier</t>
+  </si>
+  <si>
+    <t>Purpose.TotalMagnitudeQuantity</t>
+  </si>
+  <si>
+    <t>PostalAddress.CountrySubentityCode</t>
+  </si>
+  <si>
+    <t>Classification Type in the ontology is replaced by the CCTS attributes of the code list e.g. "List Name", "List Agency ID" and other</t>
+  </si>
+  <si>
+    <t>Additional Information about the place of performance can be provided in the "Performance Conditions"</t>
+  </si>
+  <si>
+    <t>The Duration Measure has an attribute 'unitCode' (both Unit and a Code). In this specific case the code list used is "timeperiod".</t>
+  </si>
+  <si>
+    <t>Organization.ContactPoint.PostalAddress.StreetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic Means of Communication, but how you link this class? </t>
+  </si>
+  <si>
+    <t>Organization.Agent.Group</t>
+  </si>
+  <si>
+    <t>The Group class represents a collection of individual agents (and may itself play the role of a Agent, ie. something that can perform actions).</t>
+  </si>
+  <si>
+    <t>org:Identifier</t>
+  </si>
+  <si>
+    <t>It should be an attribute of the Organization class</t>
+  </si>
+  <si>
+    <t>Procedure.Buyer</t>
+  </si>
+  <si>
+    <t>Procedure.Buyer.BuyerProfile.URL</t>
+  </si>
+  <si>
+    <t>Document..Notice</t>
+  </si>
+  <si>
+    <t>Contract Notice (CN)</t>
+  </si>
+  <si>
+    <t>CN inherits from Notice</t>
+  </si>
+  <si>
+    <t>CN inherits from Notice which inherits from document</t>
+  </si>
+  <si>
+    <t>Comments and Inheritances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be the Lot referred to in the CN </t>
+  </si>
+  <si>
+    <t>Document.ID</t>
+  </si>
+  <si>
+    <t>CN announces procedure</t>
+  </si>
+  <si>
+    <t>Notice.PreferredPublicationDate</t>
+  </si>
+  <si>
+    <t>Contract Notice.Prior Information Notice.Planned Procurement Part</t>
+  </si>
+  <si>
+    <r>
+      <t>Procedure.Lot.ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>PIN inherits from Notice, which inherits from Document</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Planned Procurement Part.ID</t>
+  </si>
+  <si>
+    <t>Procedure.Buyer.Buyer-legal-type</t>
+  </si>
+  <si>
+    <t>Procedure.Buyer.main-activity</t>
+  </si>
+  <si>
+    <t>Procedure. Buyer. Contracting Entity</t>
+  </si>
+  <si>
+    <t>Procedure. Purpose
+Procedure.Lot.Purpose</t>
+  </si>
+  <si>
+    <t>Procedure hasOverall Purpose, whilst 
+Lot has (specific) Purpose</t>
+  </si>
+  <si>
+    <t>Procedure has Lot
+Lot has Purpose
+Lot has an Identifer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Procedure Identifier has cardinality 0..*. The ccts schemeID already allows to identify where it comes from, what type of identifier it is, etc. 
+This is alligned to the eIDAS Regulation Articles 8 and 9.  
+The ePO should not, in principle, deal with the modelling of this "peculiarity". It is for 1) A clear policy about the indentification of the main entites to establish how this identifier must be built, and 2) for applications to control the origin and conformance of the identifier to the policy.
+Known pPractices on this approach are: eDelivery, eIDAS, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ePO is "expectant" about the progress on the EPPI at the OP.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure. Purpose.contract-nature
+Procedure. Lot.Purpose.contract-nature</t>
+  </si>
+  <si>
+    <t>The Procedure has Purpose,
+the Lot has Purpose,
+Purpose has Additional Nature (pointing at the code list
+contract-nature) with cardinality 0..*.
+Question for eForms: Do eForms forsee to show the Main Nature of the Procedure, the Lots or both?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Procedure has Purpose,
+The Lot has Purpose,
+Purpose has Main Contract Nature (pointing at the code list
+contract-nature) with cardinality 1..1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Question for eForms: Do eForms forsee to show the Main Nature of the Procedure, the Lots or both?</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure.ProcurementValue
+Procedure.Lot.ProcurementValue
+Procedure.LotGroup.ProcurementValue</t>
+  </si>
+  <si>
+    <t>The Procedure has Global Estimated Value.
+The Lot has Estimated Value.
+The Group Lot has Estimated Value.</t>
+  </si>
+  <si>
+    <t>Procedure.FrameworkAgreementTerms.GroupLot.ID</t>
+  </si>
+  <si>
+    <t>Procedure.FrameworkAgreementTerms.GroupLot.ProcurementValue.MaximumAmount</t>
+  </si>
+  <si>
+    <t>Framework Agreement Terms apply to Group Lot</t>
+  </si>
+  <si>
+    <t>Group Lot hasID</t>
+  </si>
+  <si>
+    <t>Group Lot has Estimated Value Procurement Value,
+Procurement Value has Maximum Amount</t>
+  </si>
+  <si>
+    <t>Procedure has Purpose,
+Lot has Purpose,
+Purpose has Main Classification,
+Purpose has Additional Classification</t>
+  </si>
+  <si>
+    <t>20190314
+25/07/2019</t>
+  </si>
+  <si>
+    <t>Procedure.Purpose.Main Classification,
+Lot.Purpose.MainClassification</t>
+  </si>
+  <si>
+    <t>Purpose has Main Classification</t>
+  </si>
+  <si>
+    <t>Purpose has Additional Classification</t>
+  </si>
+  <si>
+    <t>Procedure.Purpose.Additional Classification,
+Lot.Purpose.Additional Classification</t>
+  </si>
+  <si>
+    <t>20190219_21
+25/07/2019</t>
+  </si>
+  <si>
+    <t>Purpose.TotalMagnitudeQuantity hasUnitCode</t>
+  </si>
+  <si>
+    <t>Purpose has TotalMagnitudeQuantity,
+TotalMagnitudeQuantity has UnitCode (as an attribute of the Quantity, modelled according to the ISO 15000-5 CCTS).</t>
+  </si>
+  <si>
+    <t>Purpose.Options.Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purpose has Options Permissions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The WG, without Natalie, thought that the predicate "has Options" is too vague, and that it should bring on more semantics, like in "has Additional Purchase Options".
+Also, the WG considered that the code list "permissions" would not apply to this property as the Options are "rights" of the buyer, not obligations (which is explicitely stated in the definition). Therefore the concepts "allowed", "not-allowed" and "required", are not semantically aligned with Options. For this we are proposing a "technical and temporaty" code list made of "YES", "NO" (until we do not decide otherwise or come up with a better generalisation).</t>
+    </r>
+  </si>
+  <si>
+    <t>TO BE DISCUSSED WITH NATALIE AND OTHER MEMBERS OF THE WG.</t>
+  </si>
+  <si>
+    <t>20190115_16
+25/07/2019</t>
+  </si>
+  <si>
+    <t>ContractNotice.Recurrence</t>
+  </si>
+  <si>
+    <t>ContractNotice.RecurrenceDescription</t>
+  </si>
+  <si>
+    <t>ContractNotice has Recurrence Description</t>
+  </si>
+  <si>
+    <t>ContractNotice has Recurrence.
+Each Procedure is unique and therefore the Recurrence can not be an attribute of the Procedure. Thus it has been moved to the Contract Notice.</t>
+  </si>
+  <si>
+    <t>Procedure. ContractTerms.PostalAddress.StreetName</t>
+  </si>
+  <si>
+    <t>Procedure. ContractTerms.PostalAddress.CityName</t>
+  </si>
+  <si>
+    <t>Procedure. ContractTerms.PostalAddress.PostalZone</t>
+  </si>
+  <si>
+    <t>Procedure. ContractTerms.PostalAddress.Country.CountryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Geopolitical zone where the delivery has to be performed.
+Additional Information
+Used for setting restrictions that cannot be established with one country code or a geographical zone identifier (like NUTS), because they have a broader scope (geographical, economic, political, other).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We understood that the WG should further review this. So let's check with Natalie. (25/07/2019). But we understand that this BT-727 refers to our property "BroaderPlaceOfPerformance".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Definition provided by WG on the 30/07/2019</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.BroadPlaceOfPerformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContractTerms has Broad Place of Performance
+The code list propose by eForms has been used, and we added the code "anywhere in the EU". It was created to enable geopolitical areas to be covered as a whole rather than specific locations/countries. </t>
+  </si>
+  <si>
+    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
+PostalAddress has StreetName</t>
+  </si>
+  <si>
+    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
+PostalAddress has CityName</t>
+  </si>
+  <si>
+    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
+PostalAddress has PostalZone</t>
+  </si>
+  <si>
+    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
+PostalAddress hasCountrySubentityCode Code (NUTS)</t>
+  </si>
+  <si>
+    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
+PostalAddress hasCountryCode Code (ISO country codes)</t>
+  </si>
+  <si>
+    <t>20190115_16
+30/07/2019</t>
+  </si>
+  <si>
+    <t>This BG may refer in fact to two things: a specific postal address or to a place broader than a specific postal address.
+We have changed the attribute "Non-specific place of Performance" into "Broad Place Of Performance" to align it to the predicate.</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has ContractTerms</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has an Identifier</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms,
+Lot.ID</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.PlaceOfPerformanceAdditionalInformation</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has Purpose,</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has Identifier</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ID</t>
+  </si>
+  <si>
+    <t>See minutes 01/08/2019
+See also the definition provided for the property "contract estimated duration" (The estimated date when the contract is to be started. Additional Information: When the Lot uses a Technique the contract estimated duration applies to the Technique.)</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractEstimatedDuration,
+Duration hasStartDate Date.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Duration.StartDate</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractEstimatedDuration,
+Duration hasDurationMeasure DurationMeasure.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Duration.DurationMeasure</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractEstimatedDuration,
+Duration hasEndDate Date.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Duration.EndDate</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractEstimatedDuration,
+Duration hasDescriptionCode Code.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Duration.DescriptionCode</t>
+  </si>
+  <si>
+    <t>A code to inform about a lapse of time that cannot be expressed by means of a start data and end date or duration measure. 
+Additional information
+For example, unlimited, unknown, etc.
+(For this the codelist timeperiods is used)</t>
+  </si>
+  <si>
+    <t>20190228
+01/08/2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In class Post Award Terms we have a "Maximum Number of Renewals" data property (of type Numeric)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The class "post award terms" does not exist. It is in class "contract terms".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20190801) We have copied the definition provided by eForms, but would like to revisit it again with other WG MG (e.g. Natalie and others).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>20190115_16
+01/08/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms,
+ContractTerms hasMaximumNumberOfRenewals Numeric</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.MaximumNumberOfRenewals.Numeric</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The maximum number of times the contract can be renewed. 
+Additional Information
+By renewing, the buyer reserves the right (i.e. not an obligation) to renew the contract (i.e. extend its duration) without a new procurement procedure. 
+For example, a contract may be valid for one year and the buyer may keep a possibility to renew it (e.g. once, twice) for another three months, if he is content with the services he received.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+20190115_16(The maximum number of contract extensions foreseen for this contract.)
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms,
+ContractTerms hasRenewalDescription Text</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.RenewalDescription Text</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A financial resource used to support the procurement.
+Additional Information:
+In the context of EU, funds can be divided into programmes, actions and projects.
+Examples of EU funds are: the European Structural and Investment Funds, European Social Fund (ESF), the Connecting Europe Facility (CEF) programme, or the ISA2 programme and its actions (e.g. Action 2016.05 European Public Procurement Initiative, which supports the eProcurement Ontology under sub-action 3).
+WG Approved 14/05/2019
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasID Identifier
+Lot isFundedBy Fund</t>
+  </si>
+  <si>
+    <t>Procedure.Legislation</t>
+  </si>
+  <si>
+    <t>Procedure hasCross-BorderLaw Legislation</t>
+  </si>
+  <si>
+    <t>A question has been asked to Jachym to clarify whether this could become the legal basis itself or if it is supplementary to de legal-basis.</t>
+  </si>
+  <si>
+    <t>Procedure hasProcedureType Code</t>
+  </si>
+  <si>
+    <t>Procedure.ProcedureType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The categorisation of the set of activities of the procedure according to the Law. 
+Additional Information
+For example "Open Procedure", "Restricted", "Negotiated without Publicity", etc. (see code list "procurement-procedure-type"
+WG Approval 20/08/2019
+</t>
+  </si>
+  <si>
+    <t>A legally defined set of administrative activities conducted  to conclude one or more contracts.
+Additional Information
+The procedure is categorised in the law according to different rules determining whether the procedure is open, restricted, negotiated with or without  publicity, etc. (see Procedure Type).
+WG Approval 20/08/2019</t>
+  </si>
+  <si>
+    <t>Procedure has ProcedureMainFeatures</t>
+  </si>
+  <si>
+    <t>Main features of the procedure and information about where the full rules for the procedure can be found. 
+Additional Information
+This information should be given when the procedure is not one of those mentioned in the procurement directives. This can be the case for example for concessions, for social and other specific services, and in case of voluntary publication of procurement procedures below the EU procurement thresholds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement about  the fact that the procedure will be reduced due to a state of urgency.
+Additional Information
+This modifies the time limit for the receipt of requests to participate or the receipt of tenders.
+WG Approval 20/08/2019
+</t>
+  </si>
+  <si>
+    <t>Procedure.AcceleratedProcedureFurtherJustification Text</t>
+  </si>
+  <si>
+    <t>Procedure.Accelerated.Indicator</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not included in the Contract Notice, as it only makes sense for Result Notices
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLEASE PROVIDE A DEFINITION WHEN CAN ARE ANALYSED</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20190228
+20/08/2019</t>
+  </si>
+  <si>
+    <t>Procedure.LotSubmissionLimit.Numeric</t>
+  </si>
+  <si>
+    <t>Procedure.LotMinimumSubmission.Numeric</t>
+  </si>
+  <si>
+    <t>Procedure.LotMinimumSubmission</t>
+  </si>
+  <si>
+    <t>The minimum number of lots for which one tenderer must submit tenders. Additional Information: this can be used to state that a tendere has to submit a tender for all the lots if the minimum of lots equals the maximum number of lots announced in the contract notice.</t>
+  </si>
+  <si>
+    <t>Procedure.MaximumNumberofLotstoBeAwarded</t>
+  </si>
+  <si>
+    <t>Procedure.MaximumNumberofLotstoBeAwarded.Numeric</t>
+  </si>
+  <si>
+    <t>Procedure specifies Lot,
+Lot isGroupedIn GroupLot,
+GroupLot hasID Identifier</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.GroupLot.ID</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.GroupLot.Lot.ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure specifies Lot,
+Lot isGroupedIn GroupLot,
+GroupLot groups Lot
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
+Lot hasID Identifier</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasMultiple-StageTerms Multiple-StageProcedureTerms</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Multiple-StageProcedureTerms</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Multiple-StageProcedureTerms,
+Procedure.Lot.ID</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
+Multiple-StageProcedureTerms hasMinimunNumberOfCandidates Numeric</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Multiple-StageProcedureTerms.MinimumNumberOfCandidates</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Multiple-StageProcedureTerms.MaximumNumberOfCandidates</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
+Multiple-StageProcedureTerms hasMaximumNumberOfCandidates Numeric</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Multiple-StageProcedureTerms.SuccessiveReduction</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
+Multiple-StageProcedureTerms hasSuccessiveReduction Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of solutions or tenders will be reduced in iterative evaluations for multiple staged procedures.
+Additional information:
+This refers to multiple-stage procedures (included two-stage procedures, at least). Open Procedures can be seen as one-stage procedures. In multiple-stage procedure the first stage (or round) is used for the selection of the candidates, whilst the rest of stages is about submitting tenders and warning (or not) about the right of the CA to award without further negotiations. See Article 29(4) of Directive 2014/24/EU. 
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
+Multiple-StageProcedureTerms NoNegotiationNecessary Indicator</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Multiple-StageProcedureTerms.NoNegotiationNecessary</t>
+  </si>
+  <si>
+    <t>20190115_16
+27/08/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot isToBeEvaluatedBy EvaluationBoard,
+EvaluationBoard hasEvaluationBoardType Jury</t>
+  </si>
+  <si>
+    <t>The WG considers necessary to re-analyse whether we need or not a class "Evaluation Board" (the proposal is to use only Evaluator and not a Board). This should be discussed when analysing the eEvaluation phase. See also notes in the 27/08/2019 minutes.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.EvaluationBoard.EvalutationBoardType.Jury</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot isFundedBy Fund,
+as an instance of Fund exists for one given Lot and this Fund is identified, the indication that the Lot is funded is presumed (inferred).</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Fund,
+Procedure.Lot.Fund.eu-funds-list</t>
+  </si>
+  <si>
+    <t>A List of Identifiers for the EU funds WOULD BE NEEDED!!!!</t>
+  </si>
+  <si>
+    <t>20/08/2019
+27/08/2019</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize</t>
+  </si>
+  <si>
+    <t>Procedure has Lot, 
+Lot rewardedWith Prize</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize.PrizeValue</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Prize.PrizeRank</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot isrewardedWith Prize, 
+Prize applyTo Follow-upContractTerms,
+Follow-upContractTerms hasFollow-upContract Indicator</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot rewardedWith Prize,
+Prize hasPrizeRank Numeric</t>
+  </si>
+  <si>
+    <t>Procedure has Lot, 
+Lot rewardedWith Prize, 
+Prize hasPrizeValue Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The position of the prize (e.g. first place, second place) in a design contest list of prizes.
+</t>
+  </si>
+  <si>
+    <t>The monetary value of a prize, if any, for the winner (or runners-up) of the design contest.</t>
+  </si>
+  <si>
+    <t>Any subsequent service contract will be awarded to the winner or, in the case of a design contest, winners.</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasID Identifier,
+Lot isrewardedWith Prize,
+Prize hasPrizeRank,
+Prize hasPrizeValue,
+DesignContest JuryDecisionIsBinding Indicator, etc.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Follow-upContract.Follow-upContractInformation</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.Follow-upContractTerms</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Follow-upContractTerms applyTo Lot,
+Follow-upContractTerms hasFollow-upContractInformation Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further information about follow-up contracts, prizes and payments (for example non-monetary prizes, payments given for participation).
+WG Approval 03/09/2019
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+DesignContestRegimeTerms applyTo Lot,
+DesignContestRegimeTerms has JuryDecisionBinding</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasToBeEvaluatedBy EvalutationBoard,
+EvaluationBoard hasEvaluationGroupType Jury,
+EvaluationBoard isComposedOf Evaluator,
+Evaluator is Agent</t>
+  </si>
+  <si>
+    <t>The Agent class inherits the properties of the FOAF Ontology Agent</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasSecondStage CandidateShortList,
+CandidatShortList is EconomicOperatorShortList,
+EconomicOperatorShortlist hasQualified EconomicOperator,
+EconomicOperator isParty Organization</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.EvaluationBoard.Evaluator.GivenName/FamiliName/etc.</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.DesignContestRegimeTerms.JuryDecisionBinding</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.CandidateShorLlist,
+CandidateShortList.EconomicOperator.Organization.Name/ContactDetails/etc.</t>
+  </si>
+  <si>
+    <t>ESPDRequest.ExclusionGrounds</t>
+  </si>
+  <si>
+    <t>ESPDRequest has ExclusionGrounds</t>
+  </si>
+  <si>
+    <t>Organisation is part of the w3c org ontology</t>
+  </si>
+  <si>
+    <t>See how the ESPD Document is modelled in ePO. In ePO, Procurement Criteria are fully structure data and not mere text.</t>
+  </si>
+  <si>
+    <t>Describes a legal requirement to be met by the economic operator to be a candidate in the procurement procedure.
+WG approval 31/10/2018</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriteria</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriteria</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriteria.ProcurementCriterionProperty.Lot</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriteria,
+SelectionCriteria has ProcurementCriterionProperty,
+ProcurementCriterionProperty appliesTo Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Contracting Authority uses this property to precise the Lots for which a concrete requirement (expressed as  Procurement Criterion Property) is applicable to.
+WG Approval 05/09/2019 </t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.selection-criterion</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriterion,
+SelectionCriterion is cccev:Criterion,
+cccev:Criterion hasType selection-criterion</t>
+  </si>
+  <si>
+    <t>The list of codes assigned to each Selection Criteria.
+To be reviewed</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriterion,
+SelectionCriterion is cccev:Criterion,
+cccev:Criterion hasName Text</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.Name</t>
+  </si>
+  <si>
+    <t>ESPDRequest has SelectionCriterion,
+SelectionCriterion is cccev:Criterion,
+cccev:Criterion hasDescription Text</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mapping needs further discussion OP as eForms considers that a CN may not link to one ESPD and therefore a minimum set of data needs to be collected by the CN
+See: #219 - https://github.com/eprocurementontology/eprocurementontology/issues/219#issuecomment-528381880 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is under discussion we have asked to JH
+See issue #220 - https://github.com/eprocurementontology/eprocurementontology/issues/220 </t>
+  </si>
+  <si>
+    <t>Procedure hasLot Lot,
+ESPDRequest hasQualificationCriteria ContractNotice,
+ESPDRequest has SelectionCriterion,
+SelectionCriterion appliesTo Lot,
+SelectionCriterion has WeightType</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.WeightType.number-weight</t>
+  </si>
+  <si>
+    <t>2019/0910</t>
+  </si>
+  <si>
+    <t>Procedure hasLot Lot,
+ESPDRequest hasQualificationCriteria ContractNotice,
+ESPDRequest has SelectionCriterion,
+SelectionCriterion appliesTo Lot,
+SelectionCriterion has ThresholdType</t>
+  </si>
+  <si>
+    <t>ESPDRequest.SelectionCriterion.ThresholdType.number-threshold</t>
+  </si>
+  <si>
+    <t>The way this is modelled in ePO is different: in ePO we do not have a class (a BG) named whatever-number, but the specific types of weights and threshold are in the Criterion base class (weight-type) and the specialised classes of Procurement Criterion (Selection and Award Criterion).</t>
+  </si>
+  <si>
+    <t>We don't see the need for flagging each selection criterion as used or not. If a criterion is instantiated it is becaquse it is intended to be used.</t>
+  </si>
+  <si>
+    <t>20190314
+10/09/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasReservedProcurement reserved-procurement</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.reserved-procurement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20190228: Following earlier discussions the fact that certain procurement are reserved for sheltered workshops etc requires that the procurement criterion take into consider these criterion that can not be considered as exclusion, selection or award criterion, hence the need for participation criteria.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Action PA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The ESPD taxonomy is to be used.
+It can be found at: https://github.com/ESPD/ESPD-EDM/blob/2.1.0/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V2.1.0.xlsx
+An extra code other is to be used.
+Two use context one for ESPD all codes minus other and one use context  for eforms using the four codes sent with second consultation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Action Everis: Inform ESPD if necessary
+Action JH: eForms issue
+Previous discussion: 20190115_16 We have deleted the Reserved Contract Type (Code) property from the Post Award Terms because we see these concepts as Criteria that are already defined in the 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The WG Meeting session of 10/09/2019 has mapped this as explained in columns AV to AX. The design of this in ePO was clarified long time ago (see previous minutes and dates in the definitions). In the ePO, as in eForms, this is linked to the Lot.</t>
+    </r>
+  </si>
+  <si>
+    <t>Description of the Criterion follows: "The following educational and professional qualifications are held by the service provider or the contractor itself, and/or (depending on the requirements set out in the relevant notice or the in the ESPD, the relevant notice or  by its managerial staff."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eForms is changing this into a Code.
+This is covered in the ESPD by criterion #47 (Educational and professional qualifications, code CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.PROFESSIONAL_QUALIFICATIONS), which is a selection criterion.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>However we need to discuss (e.g. in the F2F meeting 2019/10/10-11, in Luxembourg) how the information that should go into the ESPD is to be covered/referred to/etc. in the case an ESPD is not provided). So the mapping is left open</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESPRequest has Criterion,
+ESPDRequest has SelectionCriterion
+(See Criterion 47 data structure about Professional Qualification).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPEN FOR FURTHER DISCUSSION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESPDRequest.SelectionCriterion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPEN FOR FURTHER DISCUSSION</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure has Lot,
+Lot requires SecurityClearanceTerms
+</t>
+  </si>
+  <si>
+    <t>The fact that the property "requires" is used (i.e. instantiated by Lot) implies that an instance of the class SecurityClearanceTerms exist and therefore the indicator is true.</t>
+  </si>
+  <si>
+    <t>exists(Procedure.Lot.SecurityClearanceTerms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status requested to individuals allowing them access to classified information (state or organizational secrets) or to restricted areas, after completion of a thorough background check.
+WG Approval 2015-02-26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure has Lot,
+Lot requires SecurityClearanceTerms,
+SecurityClearanceTerms hasDeadline.Date
+</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.SecurityClearanceTerms.DeadLine.Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The deadline by which the security clearance must be submitted to the buyer.
+WG Approval 12/09/2019
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The ePO WG came up with a different definition.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>@everis to create an issue in the ePO Github Issues to report this difference to the eForms WG.</t>
+    </r>
+  </si>
+  <si>
+    <t>20190226
+12/09/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot requires SecurityClearanceTerms,
+SecurityClearanceTerms hasDescription Text</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.SecurityClearanceTerms.Description.Text</t>
+  </si>
+  <si>
+    <t>Additional information about the security clearance (e.g. which level of security clearance is required, which team members must have it, whether it is necessary already for accessing the procurement documents or only for contract execution).
+WG Approval 12/09/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms ContractTerms,
+Lot hasID Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar data is also present in the ESPD. However we understand that this code is also necesseary in the CN as it is acting as a kind of indicator that triggers the need in the ESPD for the EO to include additional data like the percentage of disabled or disadvantaged workers, etc. 
+So, in the ePO CN we keep also this BT as a code.
+Decision: we change the term naming in the ePO from "Sheltered Employment Usage:Code" to "Reserved Execution:Code". Additionally in the ePO we were using the code list "usage" (used, not-used, not-yet-known) and adopt eForms codelist "applicability" (yes, not, unknown).
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms ContractTerms,
+ContractTerms has ReservedExecution</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.ReservedExecution.Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The execution of the contract is restricted to the framework of sheltered employment programmes.
+WG Approval 12/09/2019
+</t>
   </si>
   <si>
     <r>
@@ -5586,1179 +7362,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>QUESTION: SHOULDN'T THIS AND OTHER ELEMENTS RELATED TO THE LEGAL FORM OF THE CONSORTIUM BE, INSTEAD, A REFERENCE TO AN ORGANISATION OBJECT INSTANCE?</t>
-    </r>
-  </si>
-  <si>
-    <t>See comment  BT-65</t>
-  </si>
-  <si>
-    <t>Code list name: timeperiods
-There is an anomaly in this table in the fact that it is plural.  The table belongs to EU Vocabularies and is already published so it is not possible to alter its name.  The code list is to be used for unlimited and unknown
-20180115-16: OK, we'll use the EU-Vocabularies Time Period Code List</t>
-  </si>
-  <si>
-    <t>OK: We would need a new Class named Beneficiary Owner, which would be a specialisation of foaf:Agent, and this Beneficiary Owner would have a property "nationality". It will also be necessary to link this Beneficiary Owner class to the Winner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This could be a new property of the Winner, too. </t>
-  </si>
-  <si>
-    <t>We have added an object property linking the class Notice (in the diagram Documents) to Procedure. The property is named "refers to previous procedure". The WG has agreed on a definition for this property (see the definition in the EAP file).</t>
-  </si>
-  <si>
-    <t>Additional Information deadline is conveyed by a new property of eAccess terms. Of type Datetime
-WG 20190307</t>
-  </si>
-  <si>
-    <t>Conveyed by the predicate between SubmissionTerms and Lots. The definition of "Applies to" has been updated.
-WG 20190307</t>
-  </si>
-  <si>
-    <t>Conveyed by eSubmission permissions à Action create Github issue to change the name of   "Submission Electronic" to "Submission electronic permission" to clarify the code list that is used.
-20190219_21  Code list: permissions
-When discussing the variants it was decided that to increase reusability the code list to be used should be called permission so that it can be used also for the code list required for electronic submission the value of the codes would therefore be Authorised, Required and Not allowed to be in line with the terminology of variants in the Directive</t>
-  </si>
-  <si>
-    <t>20190305 Code list: communication-justification
-• Tools, devices, or file formats not generally available
-• Intellectual property right issues
-• Buyer would need specialised office equipment
-• Inclusion of a physical model
-• Protection of particularly sensitive information
-• Tools, devices, or file formats not generally available
-• Intellectual property right issues
-• Buyer would need specialised office equipment
-• Inclusion of a physical model
-• Protection of particularly sensitive information
-WG 20190307: Conveyed by non-electronic submission code that we change to non electronic submission justification code.
-20190312:  Conveyed by non-electronic submission code that we change to non electronic submission justification code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conveyed by Document.Electronic Means of Communication.URl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently conveyed by Document.restricted Access code. It will be changed to adding the eAccess Terms class and property eAccessTerms. AccessRestriction indicator and Access Restriction Justification Text.
-eForms has a code instead of text action to be taken. Either enter a github issue in eForms or update the Access Restriction justification property type from text to code. 
-The property Document.RestrictedAccess of type code is kept for now as it is interesting that a document confidentiality policy is self-contained in the document but we need to further describe the relationship between the indicator and the code when the codelist will be known.
-</t>
-  </si>
-  <si>
-    <t>WG 20190307: 520 is addressed by linking eAccessTerms to Organisation with the predicate "additional information provided by".</t>
-  </si>
-  <si>
-    <t>WG 20190321 We have added a property named "The electronic means used to obtain" between "Submission Terms" and "Electronic Means of Communication". As the "Submission Terms" class in linked to each Lot, the Lot is also transitively linked to "Electronic Means of Communication".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WG 20190321 We have added a property named "has General Environment Communication" between "Submission Terms" and "Electronic Means of Communication". As the "Submission Terms" class in linked to each Lot, the Lot is also transitively linked to "Electronic Means of </t>
-  </si>
-  <si>
-    <t>Code list: weight type
-Created  and associated to the class criterion</t>
-  </si>
-  <si>
-    <t>Code list: price-cost-threshold type
-Associated to award criterioncriterion</t>
-  </si>
-  <si>
-    <t>code list: threshold-type
-Associated to classes award criterion and selection criterion</t>
-  </si>
-  <si>
-    <t>This needs to be multiple to cover ranges</t>
-  </si>
-  <si>
-    <t>To check</t>
-  </si>
-  <si>
-    <t>To do</t>
-  </si>
-  <si>
-    <t>to do</t>
-  </si>
-  <si>
-    <t>Purpose.Options Description</t>
-  </si>
-  <si>
-    <t>Contract.Notice
-Should this not be elsewhere it is not the recurrence of the notice</t>
-  </si>
-  <si>
-    <t>Code list: direct-award-justification
-The values of the codes need to reviewed they are very long --- more like definitions.  The term "no regular tenders" in the third code is not undersood.
-It is in lots and CAN probably just needs to be in lots</t>
-  </si>
-  <si>
-    <t>20190402/The code list is the predicate between the Green procurement, social procurement and Innovative procurement classes</t>
-  </si>
-  <si>
-    <t>20190404: The terms can be added as indicators in the green procurement class.  Becareful that the Environment Management System may be used in the ESPD
-20190402: Predicate: Reduces environmenal impacts
-Code list to be reviewed</t>
-  </si>
-  <si>
-    <t>20190404:The terms covered by the code list seem to be exclusion criteria to some extent and it is difficult to imagine a buyer not wishing to select each value otherwise he would not be seen to repect the principles of the EU.  Therefore this cannot be represented in the ontology
-20190402: Predicate: Fufils social objectives
-Code list to be reviewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-These terms cover different phases of the procurement chain and it is not clear what is being requested therefore it is not possible at this point to introduce in the ontology
-20140402: Predicate: ensures innovative procurement
-Code list to be reviewed.  
-OECD Innovation:
-https://www.oecd.org/innovation/oslo-manual-2018-9789264304604-en.htm</t>
-  </si>
-  <si>
-    <t>20190404/
-https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32007R1370&amp;from=EN
-REGULATION (EC) No 1370/2007
-https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:32007R1370&amp;from=EN
-REGULATION (EC) No 1370/2007
-DIRECTIVE 2009/33/EC on the promotion of clean and energy-efficient road transport vehicles
-20190402: Concern award not selection
-Concern Clean vehicles directive
-could be used like the aggregate in the CAN procedure information however this is about lots</t>
-  </si>
-  <si>
-    <t>Ditto BT 715</t>
-  </si>
-  <si>
-    <t>Ditto BT-715</t>
-  </si>
-  <si>
-    <t>Definition: Condition aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
-Additional information: The conditions mut be achieved via either technical specifications, selection criteria, award criteria and contract terms.</t>
-  </si>
-  <si>
-    <t>EconomicOperator.EORoleType</t>
-  </si>
-  <si>
-    <t>Winner.Tenderer.EconomicOperator.economic-operator-size</t>
-  </si>
-  <si>
-    <t>Any additional information about recurrence (e.g. estimated timing).
-(WG approval 2019-01-16)</t>
-  </si>
-  <si>
-    <t>Procedure.AcceleratedProcedureFurtherJustification</t>
-  </si>
-  <si>
-    <t>Explanation about why the choice of an accelerated procedure is lawful.
-(Not included in the Glossary. Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>ContractTerms.ContractorLegalFormsRequirementDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-A constraint concerning the legal form that must be adopted by a tenderer composed of a group of economic operators once it has been awarded a contract.
-CONCEPT UNDER DISCUSSION WITH eForms and WG</t>
-  </si>
-  <si>
-    <t>AwardCriterion.threshold-type</t>
-  </si>
-  <si>
-    <t>AwardCriterion.price-cost-threshold-type</t>
-  </si>
-  <si>
-    <t>Concept changed, definition missing</t>
-  </si>
-  <si>
-    <t>DynamicPurchaseSystem.DPSTermination</t>
-  </si>
-  <si>
-    <t>Electronic Means of Communication.Url</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>eAccessTerms.AdditionalInformationDeadline</t>
-  </si>
-  <si>
-    <t>Missing definition - definition "applies to" still not updated</t>
-  </si>
-  <si>
-    <t>SubmissionTerms.eSubmissionElectronicSignature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The tender is required to be signed electronically.
-Additional Information: 
-Signature can be defined as "data in electronic form which is attached to or logically associated with other data in electronic form and which is used by the signatory to sign. 
-For more details on the meaning and uses of electronic signature you may consult different authoritative sources, a relevant one being for instance the Regulation (EU) 910/2014 on electronic identification and trust services for electronic transactions in the internal market.
-WG Approval 12/03/2019 15:46:34</t>
-  </si>
-  <si>
-    <t>definition is missing - code list?</t>
-  </si>
-  <si>
-    <t>SubmissionTerms.ReceiptDeadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The deadline for submitting Tenders.
-(Not included in the Glossary. Pending to review by the WG)
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is in Procedure should perhaps be in submission terms - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>did not find it</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The period during which tenders submitted for this procurement procedure must remain valid.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>SubmissionTerms.TenderValidityDeadline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Including the financial modality and request for commitment reserved to be used in case of default.
-Additional Information:
-1. Usual modalities are bonds, cheques, loans, other.
-2. Guarantees can be used to cover the risks that:
-- the winner refuses to sign the contract;
-- the contractor does not execute the contract according to the terms of the contract.
-WG Approval 2019-02-26</t>
-  </si>
-  <si>
-    <t>SubmissionTerms.GuaranteeRequired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Textual explanation on the required guarantee.
-WG Approval 2019-05-26</t>
-  </si>
-  <si>
-    <t>SubmissionTerms.GuaranteeDescription</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The CAN  has value of contract  value conveyed in procurement value WG approval 20190319 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I don’t' understand</t>
-    </r>
-  </si>
-  <si>
-    <t>Lot.ID</t>
-  </si>
-  <si>
-    <t>AwardDecision.AwardIndicator</t>
-  </si>
-  <si>
-    <r>
-      <t>AwardDecision.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has Non-Award Justification.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>non-awarded-justification</t>
-    </r>
-  </si>
-  <si>
-    <t>Condition that aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
-Additional Information: The conditions must be achieved via either  technical specifications, selection criteria, award criteria and contract terms.
-WG Approval 02/04/2019 15:39:57</t>
-  </si>
-  <si>
-    <t>StrategicProcurement</t>
-  </si>
-  <si>
-    <t>StrategicProcurement.StrategicProcurementDescription</t>
-  </si>
-  <si>
-    <t>GreenProcurement</t>
-  </si>
-  <si>
-    <t>SocialProcurement</t>
-  </si>
-  <si>
-    <t>InnovativeProcurement</t>
-  </si>
-  <si>
-    <r>
-      <t>ContractModificationNotice.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has contract modification justification.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modification-justification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CorrigendumNotice.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has notice corrigendum justification.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>notice-corrigendum-justification</t>
-    </r>
-  </si>
-  <si>
-    <t>AwardCriterion.weight-type</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The CAN has framework agreement value conveyed in procurement value WG approval 20190319 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I don't understand</t>
-    </r>
-  </si>
-  <si>
-    <t>The indicator is added in the award decision WG decision 20190319
-An indication whether any tenderer has been chosen for a contract or framework contract.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Statement by the Procuring Entity about whether it may apply modifications to the procurement procedure that would alter the overall nature of the contract or the framework agreement.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(Not included in the Glossary. Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Purpose.OptionsDescription</t>
-  </si>
-  <si>
-    <t>timeperiods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-A specific legal entity must be taken up by a tenderer composed of a group of economic operators once it has been awarded a contract.
-Additional information: this may be applied in the case of groups (e.g. a consortium) where the requirement is that they have to formalise the relationship of the group members as a legal entity itself once the contract is awarded.
-WG Approval 2019-01-29, 2019-01-30
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractTerms.ContractorLegalFormRequirement </t>
-  </si>
-  <si>
-    <t>ContractTerms.PaymentArrangements</t>
-  </si>
-  <si>
-    <t>Information about financial clauses that will govern some economic aspects of the execution of the contract.
-Additional Information: These clauses usually refer to financial and payment provisions.
-This type of information should be structured instead of a free text in order to reuse it an ideal world. Unfortunately this is an information that in the real life no one is willing to provide pro-actively.
-WG Pending of discussion with eForms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The WG decided to keep this as "Performance Conditions". A definition for this term has been agreed by the WG (15-01-2019). See class Post Award Terms (in diagram Procurement Terms, for example)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The particular conditions and additional information related to the execution of the contract.
-Additional Information: e.g. specific information about the place of performance, intermediary deliverables, compensation for damages, intellectual property rights.
-(WG approved 15-01-2019)</t>
-  </si>
-  <si>
-    <r>
-      <t>Contract.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>inherits from.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FrameworkAgreement?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The CPV establishes a single classification system for public procurement aimed at standardising the references used by procuring entities to describe the purpose of procurement contracts and procurement projects.
-(WG approval 25/05/2018)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Code list: measurement-unit
-See: https://publications.europa.eu/en/web/eu-vocabularies/at-dataset/-/resource/dataset/measurement-unit
-This code list is based on http://www.unece.org/fileadmin/DAM/cefact/recommendations/rec20/rec20_Rev12e_2016.xls
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I cannot find "measurement-unit" in the diagrams</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">We have moved the attributes related to renewal to the class Postaward Terms (see the diagram Procurement Terms). We have added Recurrence (Indicator) as a data property to the class Contract Notice (see Documents diagram).
-</t>
-  </si>
-  <si>
-    <t>Decisions: 
-1. We have come up with a more granular view of this because:
-- We have separated the clearance to access documents from the access to sites;
-- We specify the type of the addressee security clearance.
-2. @Enric to create an Issue in eForms explaining the above, as this adds clarity about to whom and where the security clearance needs to be addressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  See github: https://github.com/eprocurementontology/eprocurementontology/issues/171
-This was previously called subcontracting requirement.
-The working group discussion of 20190328:
-There was a long discussion on the eForms BT-65 which is shown to be a code list.  The group found it difficult to justify as a code list as it covered concepts coming from different origins ie during the tendering procedure or during the execution of contract like is not being compared with like.  The different values foreseen were:
-The working group discussion of 20190122: 
- The tenderer has to indicate in the tender any share of the contract it may intend to subcontract to third parties and any proposed subcontractor, as well as the subject-matter of the subcontracts for which they are proposed.  
- The tenderer has to indicate any change occurring at the level of subcontractors during the execution of the contract.   
- The contracting authority/entity may oblige the successful tenderer to award all or certain subcontracts through the procedure set out in Title III of Directive 2009/81/EC.  
- The successful tenderer is obliged to specify which part or parts of the contract it intends to subcontract beyond the required percentage and to indicate the subcontractors already identified.   
- No subcontracting requirements  
-  The solution found by the group was to provide separate indicators for the different terms.  A subcontracting terms class was linked to submission terms and contract terms.  The subcontracting term class provides for the maximum and minimum amounts of subcontracting and whether the subcontractors need to be listed it not and provides.  A subcontracting restriction code to cover Title III of Directive 2009/81/EC has been included.  See attached diagram – however please note the subcontracting-requirement code list should be removed and the  "subcontractors involved needs to be provided as a property of submission class.
-The wg discussion of 20190122: the decision was made by the WG that a new Participation Criterion will be created (see also row just above) that may be instantiated to express these Subcontracting Terms (Subcontracting Requirements Code, Subcontratction Obligation Minimum and Subcontracting Obligation Maximum).  See Conceptual Model Diagram Procurement Criterion and Selection Criteria Diagram. The fact that one set of subcontracting terms is linked to specific Lots can be establishe because Criteria can be linked to Lots. 
-(WG Approval 2019-01-22)</t>
-  </si>
-  <si>
-    <t>SubcontractTerms?</t>
-  </si>
-  <si>
-    <r>
-      <t>AwardCriterionEvaluationDimension.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has dimension type.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>evaluation-dimension</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Document Restricted URl are conveyed by eAccessterms where RestrictionIndicator  is Y linked to procurementDocument. ElectronicMeans of Communication.Url
-WG20190307
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>I don't find RestrictionIndicator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SubmissionTerms.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has eSubmission communication.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>permissions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SubmissionTerms.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has Non-electronic Submission Justification.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>communication-justification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lot.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has variant permissions.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>permission</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OpeningTerms.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has opening place.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PostalAddress</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lot.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has Framework Maximum Value.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ProcurementValue</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Exists in lot diagram WG 20190319
-</t>
-  </si>
-  <si>
-    <t>Not sure about concept
-Definition is missing
-Also, it is not an indicator</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue to be created on eforms  github  -  should this value not be directly linked to the group as a whole rather than only in the case of framework agreements ie this information could also concern contracts independent of framework agreements WG 20190319
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>We have added an object property "has Procurement Value" between class "Lot Group" and "Procurement Value" (see "Lots" Diagram).
-We have created also a new diagram named "eAward" to reflect how the Award Decision and the Contract are linked to the Framework Agreement and this latter to the Lot Group, which has also a Procurement Value (and therefore the Maximum Amount).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The highest amount which can be spent within a procurement over its whole duration.
-Additional Information: beware that the procurement can be organised based on different Techniques, e.g. Framework Agreements.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <r>
-      <t>Lot.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has Framework Maximum Value.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ProcurementValue.MaximumAmout</t>
-    </r>
-  </si>
-  <si>
-    <t>Not sure about concept</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We have this via the lot identifier in the lot class which is connected  to evaluation report with predicate is assessed in WG approval 20190319
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I don't understand: Lot.Identifier?</t>
-    </r>
-  </si>
-  <si>
-    <t>An indication whether any tenderer has been chosen for a contract or framework agreement.
-WG Approval 19/03/2019 15:57:43</t>
-  </si>
-  <si>
-    <t>1. Non award justification is connected to evaluation result therefore no need for indicator if the justification is mandatory.
-2. Direct award justification terms is transferred from CAN to a new class Award terms in procurement terms
-20190305
-• No tenders, requests to participate or projects were received
-• All tenders, requests to participate or projects were rejected
-• Decision of the buyer, because of insufficient funds
-• Decision of the buyer, because of a change in needs
-• Decision of the buyer, not following a tenderer's request to review the award, because of technical or procedural errors
-• Decision of the buyer following a tenderer's request to review the award
-• Decision of a review body or another judicial body</t>
-  </si>
-  <si>
-    <t>Document.Identifier</t>
-  </si>
-  <si>
-    <t>The Notice Identifier is inherited from the Document</t>
-  </si>
-  <si>
-    <t>Under discussion as change notices are new notices not new versions</t>
-  </si>
-  <si>
-    <t>Document.DispatchDate</t>
-  </si>
-  <si>
-    <t>Document.OfficialLanguage</t>
-  </si>
-  <si>
-    <t>Procedure.Description
-Lot.Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Group Framework Estimated Maximum Value Lot Identifier</t>
-  </si>
-  <si>
-    <t>Purpose.TotalMagnitudeQuantity</t>
-  </si>
-  <si>
-    <t>PostalAddress.CountrySubentityCode</t>
-  </si>
-  <si>
-    <t>Classification Type in the ontology is replaced by the CCTS attributes of the code list e.g. "List Name", "List Agency ID" and other</t>
-  </si>
-  <si>
-    <t>Additional Information about the place of performance can be provided in the "Performance Conditions"</t>
-  </si>
-  <si>
-    <t>The Duration Measure has an attribute 'unitCode' (both Unit and a Code). In this specific case the code list used is "timeperiod".</t>
-  </si>
-  <si>
-    <t>Organization.ContactPoint.PostalAddress.StreetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronic Means of Communication, but how you link this class? </t>
-  </si>
-  <si>
-    <t>Organization.Agent.Group</t>
-  </si>
-  <si>
-    <t>The Group class represents a collection of individual agents (and may itself play the role of a Agent, ie. something that can perform actions).</t>
-  </si>
-  <si>
-    <t>org:Identifier</t>
-  </si>
-  <si>
-    <t>It should be an attribute of the Organization class</t>
-  </si>
-  <si>
-    <t>Procedure.Buyer</t>
-  </si>
-  <si>
-    <t>Procedure.Buyer.BuyerProfile.URL</t>
-  </si>
-  <si>
-    <t>Document..Notice</t>
-  </si>
-  <si>
-    <t>Contract Notice (CN)</t>
-  </si>
-  <si>
-    <t>CN inherits from Notice</t>
-  </si>
-  <si>
-    <t>CN inherits from Notice which inherits from document</t>
-  </si>
-  <si>
-    <t>Comments and Inheritances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should be the Lot referred to in the CN </t>
-  </si>
-  <si>
-    <t>Document.ID</t>
-  </si>
-  <si>
-    <t>CN announces procedure</t>
-  </si>
-  <si>
-    <t>Notice.PreferredPublicationDate</t>
-  </si>
-  <si>
-    <t>Contract Notice.Prior Information Notice.Planned Procurement Part</t>
-  </si>
-  <si>
-    <r>
-      <t>Procedure.Lot.ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>PIN inherits from Notice, which inherits from Document</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Planned Procurement Part.ID</t>
-  </si>
-  <si>
-    <t>Procedure.Buyer.Buyer-legal-type</t>
-  </si>
-  <si>
-    <t>Procedure.Buyer.main-activity</t>
-  </si>
-  <si>
-    <t>Procedure. Buyer. Contracting Entity</t>
-  </si>
-  <si>
-    <t>Procedure. Purpose
-Procedure.Lot.Purpose</t>
-  </si>
-  <si>
-    <t>Procedure hasOverall Purpose, whilst 
-Lot has (specific) Purpose</t>
-  </si>
-  <si>
-    <t>Procedure has Lot
-Lot has Purpose
-Lot has an Identifer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Procedure Identifier has cardinality 0..*. The ccts schemeID already allows to identify where it comes from, what type of identifier it is, etc. 
-This is alligned to the eIDAS Regulation Articles 8 and 9.  
-The ePO should not, in principle, deal with the modelling of this "peculiarity". It is for 1) A clear policy about the indentification of the main entites to establish how this identifier must be built, and 2) for applications to control the origin and conformance of the identifier to the policy.
-Known pPractices on this approach are: eDelivery, eIDAS, etc.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ePO is "expectant" about the progress on the EPPI at the OP.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Procedure. Purpose.contract-nature
-Procedure. Lot.Purpose.contract-nature</t>
-  </si>
-  <si>
-    <t>The Procedure has Purpose,
-the Lot has Purpose,
-Purpose has Additional Nature (pointing at the code list
-contract-nature) with cardinality 0..*.
-Question for eForms: Do eForms forsee to show the Main Nature of the Procedure, the Lots or both?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Procedure has Purpose,
-The Lot has Purpose,
-Purpose has Main Contract Nature (pointing at the code list
-contract-nature) with cardinality 1..1.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Question for eForms: Do eForms forsee to show the Main Nature of the Procedure, the Lots or both?</t>
-    </r>
-  </si>
-  <si>
-    <t>Procedure.ProcurementValue
-Procedure.Lot.ProcurementValue
-Procedure.LotGroup.ProcurementValue</t>
-  </si>
-  <si>
-    <t>The Procedure has Global Estimated Value.
-The Lot has Estimated Value.
-The Group Lot has Estimated Value.</t>
-  </si>
-  <si>
-    <t>Procedure.FrameworkAgreementTerms.GroupLot.ID</t>
-  </si>
-  <si>
-    <t>Procedure.FrameworkAgreementTerms.GroupLot.ProcurementValue.MaximumAmount</t>
-  </si>
-  <si>
-    <t>Framework Agreement Terms apply to Group Lot</t>
-  </si>
-  <si>
-    <t>Group Lot hasID</t>
-  </si>
-  <si>
-    <t>Group Lot has Estimated Value Procurement Value,
-Procurement Value has Maximum Amount</t>
-  </si>
-  <si>
-    <t>Procedure has Purpose,
-Lot has Purpose,
-Purpose has Main Classification,
-Purpose has Additional Classification</t>
-  </si>
-  <si>
-    <t>20190314
-25/07/2019</t>
-  </si>
-  <si>
-    <t>Procedure.Purpose.Main Classification,
-Lot.Purpose.MainClassification</t>
-  </si>
-  <si>
-    <t>Purpose has Main Classification</t>
-  </si>
-  <si>
-    <t>Purpose has Additional Classification</t>
-  </si>
-  <si>
-    <t>Procedure.Purpose.Additional Classification,
-Lot.Purpose.Additional Classification</t>
-  </si>
-  <si>
-    <t>20190219_21
-25/07/2019</t>
-  </si>
-  <si>
-    <t>Purpose.TotalMagnitudeQuantity hasUnitCode</t>
-  </si>
-  <si>
-    <t>Purpose has TotalMagnitudeQuantity,
-TotalMagnitudeQuantity has UnitCode (as an attribute of the Quantity, modelled according to the ISO 15000-5 CCTS).</t>
-  </si>
-  <si>
-    <t>Purpose.Options.Code</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Purpose has Options Permissions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The WG, without Natalie, thought that the predicate "has Options" is too vague, and that it should bring on more semantics, like in "has Additional Purchase Options".
-Also, the WG considered that the code list "permissions" would not apply to this property as the Options are "rights" of the buyer, not obligations (which is explicitely stated in the definition). Therefore the concepts "allowed", "not-allowed" and "required", are not semantically aligned with Options. For this we are proposing a "technical and temporaty" code list made of "YES", "NO" (until we do not decide otherwise or come up with a better generalisation).</t>
-    </r>
-  </si>
-  <si>
-    <t>TO BE DISCUSSED WITH NATALIE AND OTHER MEMBERS OF THE WG.</t>
-  </si>
-  <si>
-    <t>20190115_16
-25/07/2019</t>
-  </si>
-  <si>
-    <t>ContractNotice.Recurrence</t>
-  </si>
-  <si>
-    <t>ContractNotice.RecurrenceDescription</t>
-  </si>
-  <si>
-    <t>ContractNotice has Recurrence Description</t>
-  </si>
-  <si>
-    <t>ContractNotice has Recurrence.
-Each Procedure is unique and therefore the Recurrence can not be an attribute of the Procedure. Thus it has been moved to the Contract Notice.</t>
-  </si>
-  <si>
-    <t>Procedure. ContractTerms.PostalAddress.StreetName</t>
-  </si>
-  <si>
-    <t>Procedure. ContractTerms.PostalAddress.CityName</t>
-  </si>
-  <si>
-    <t>Procedure. ContractTerms.PostalAddress.PostalZone</t>
-  </si>
-  <si>
-    <t>Procedure. ContractTerms.PostalAddress.Country.CountryCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Geopolitical zone where the delivery has to be performed.
-Additional Information
-Used for setting restrictions that cannot be established with one country code or a geographical zone identifier (like NUTS), because they have a broader scope (geographical, economic, political, other).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We understood that the WG should further review this. So let's check with Natalie. (25/07/2019). But we understand that this BT-727 refers to our property "BroaderPlaceOfPerformance".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Definition provided by WG on the 30/07/2019</t>
-    </r>
-  </si>
-  <si>
-    <t>Procedure.Lot.ContractTerms.BroadPlaceOfPerformance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractTerms has Broad Place of Performance
-The code list propose by eForms has been used, and we added the code "anywhere in the EU". It was created to enable geopolitical areas to be covered as a whole rather than specific locations/countries. </t>
-  </si>
-  <si>
-    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
-PostalAddress has StreetName</t>
-  </si>
-  <si>
-    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
-PostalAddress has CityName</t>
-  </si>
-  <si>
-    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
-PostalAddress has PostalZone</t>
-  </si>
-  <si>
-    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
-PostalAddress hasCountrySubentityCode Code (NUTS)</t>
-  </si>
-  <si>
-    <t>ContractTerms hasSpecificPlaceOfPerformance Postal Address,
-PostalAddress hasCountryCode Code (ISO country codes)</t>
-  </si>
-  <si>
-    <t>20190115_16
-30/07/2019</t>
-  </si>
-  <si>
-    <t>This BG may refer in fact to two things: a specific postal address or to a place broader than a specific postal address.
-We have changed the attribute "Non-specific place of Performance" into "Broad Place Of Performance" to align it to the predicate.</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot has ContractTerms</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot has an Identifier</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.ContractTerms,
-Lot.ID</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.ContractTerms.PlaceOfPerformanceAdditionalInformation</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot has Purpose,</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot has Identifier</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.ID</t>
-  </si>
-  <si>
-    <t>See minutes 01/08/2019
-See also the definition provided for the property "contract estimated duration" (The estimated date when the contract is to be started. Additional Information: When the Lot uses a Technique the contract estimated duration applies to the Technique.)</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasContractEstimatedDuration,
-Duration hasStartDate Date.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Duration.StartDate</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasContractEstimatedDuration,
-Duration hasDurationMeasure DurationMeasure.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Duration.DurationMeasure</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasContractEstimatedDuration,
-Duration hasEndDate Date.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Duration.EndDate</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasContractEstimatedDuration,
-Duration hasDescriptionCode Code.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Duration.DescriptionCode</t>
-  </si>
-  <si>
-    <t>A code to inform about a lapse of time that cannot be expressed by means of a start data and end date or duration measure. 
-Additional information
-For example, unlimited, unknown, etc.
-(For this the codelist timeperiods is used)</t>
-  </si>
-  <si>
-    <t>20190228
-01/08/2019</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In class Post Award Terms we have a "Maximum Number of Renewals" data property (of type Numeric)
+      <t xml:space="preserve">QUESTION: SHOULDN'T THIS AND OTHER ELEMENTS RELATED TO THE LEGAL FORM OF THE CONSORTIUM BE, INSTEAD, A REFERENCE TO AN ORGANISATION OBJECT INSTANCE?
 </t>
     </r>
     <r>
@@ -6768,8 +7372,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">The class "post award terms" does not exist. It is in class "contract terms".
-</t>
+      <t>To the question above: at CN time no organisation related to the EO is known. So the answer would be: "NO". (12/09/2019)</t>
+    </r>
+  </si>
+  <si>
+    <t>20190130
+12/05/2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A new data property has been added to the class Contract Terms, "Contractor Legal Form Requirement Description" defined as "A constraint concerning the legal form that must be adopted by a tenderer composed of a group of economic operators once it has been awarded a contract." </t>
     </r>
     <r>
       <rPr>
@@ -6779,572 +7391,108 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(20190801) We have copied the definition provided by eForms, but would like to revisit it again with other WG MG (e.g. Natalie and others).</t>
+      <t>(to be discussed with eForms).
+We adopt the definition of eForms. (12/09/2019)</t>
+    </r>
+  </si>
+  <si>
+    <t>20190130
+12/09/2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms ContractTerms,
+ContractTerms has ContractorLegalFormRequirement</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.ContractorLegalFormRequirement.Description</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.ContractorLegalFormRequirement.Indicator</t>
+  </si>
+  <si>
+    <t>The particular conditions and additional information related to the execution of the contract.
+Additional Information: 
+For example, specific information about the place of performance, intermediary deliverables, compensation for damages, intellectual property rights.
+WG approval 15-01-2019</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms ContractTerms,
+ContractTerms has PerformanceConditions</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms ContractTerms,
+ContractTerms has ContractorLegal FormRequirementDescription</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.PerformanceConditions</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasContractTerms ContractTerms,
+ContractTerms has eOrdering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic means will be used for requesting and purchasing in the post-award process.
+WG Approval 12/09/2019
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We have added a new field named "Payment Arrangements" (see our own definition in the EAP file). </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>Pending of discussion with eForms.
+On 12/09/2019 we conclude that the discussion  aobut the naming of the concept and the definition apparently never took place. However we can map this BT-77 with our field "Payment Arrangements" as definitions in eForms and ePO are explaining the same situation.</t>
     </r>
   </si>
   <si>
-    <t>20190115_16
-01/08/2019</t>
+    <t>20190130,
+12/09/2019</t>
   </si>
   <si>
     <t>Procedure has Lot,
-Lot hasContractTerms,
-ContractTerms hasMaximumNumberOfRenewals Numeric</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.ContractTerms.MaximumNumberOfRenewals.Numeric</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The maximum number of times the contract can be renewed. 
-Additional Information
-By renewing, the buyer reserves the right (i.e. not an obligation) to renew the contract (i.e. extend its duration) without a new procurement procedure. 
-For example, a contract may be valid for one year and the buyer may keep a possibility to renew it (e.g. once, twice) for another three months, if he is content with the services he received.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-20190115_16(The maximum number of contract extensions foreseen for this contract.)
- </t>
-    </r>
+Lot hasContractTerms ContractTerms,
+ContractTerms has PaymentArrangements</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.eOrdering.Indicator</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.PaymentArrangements.Text</t>
   </si>
   <si>
     <t>Procedure has Lot,
-Lot hasContractTerms,
-ContractTerms hasRenewalDescription Text</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.ContractTerms.RenewalDescription Text</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A financial resource used to support the procurement.
-Additional Information:
-In the context of EU, funds can be divided into programmes, actions and projects.
-Examples of EU funds are: the European Structural and Investment Funds, European Social Fund (ESF), the Connecting Europe Facility (CEF) programme, or the ISA2 programme and its actions (e.g. Action 2016.05 European Public Procurement Initiative, which supports the eProcurement Ontology under sub-action 3).
-WG Approved 14/05/2019
-</t>
+Lot hasContractTerms ContractTerms,
+ContractTerms has eInvoicing</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.eInvoicing.Indicator</t>
+  </si>
+  <si>
+    <t>Electronic means will be used for invoicing in the post-award process.
+WG Approval 12/09/2019</t>
+  </si>
+  <si>
+    <t>Electronic means are used for paying the winner of the contract in the post-award process.
+WG Approval 12/09/2019</t>
   </si>
   <si>
     <t>Procedure has Lot,
-Lot hasID Identifier
-Lot isFundedBy Fund</t>
-  </si>
-  <si>
-    <t>Procedure.Legislation</t>
-  </si>
-  <si>
-    <t>Procedure hasCross-BorderLaw Legislation</t>
-  </si>
-  <si>
-    <t>A question has been asked to Jachym to clarify whether this could become the legal basis itself or if it is supplementary to de legal-basis.</t>
-  </si>
-  <si>
-    <t>Procedure hasProcedureType Code</t>
-  </si>
-  <si>
-    <t>Procedure.ProcedureType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The categorisation of the set of activities of the procedure according to the Law. 
-Additional Information
-For example "Open Procedure", "Restricted", "Negotiated without Publicity", etc. (see code list "procurement-procedure-type"
-WG Approval 20/08/2019
-</t>
-  </si>
-  <si>
-    <t>A legally defined set of administrative activities conducted  to conclude one or more contracts.
-Additional Information
-The procedure is categorised in the law according to different rules determining whether the procedure is open, restricted, negotiated with or without  publicity, etc. (see Procedure Type).
-WG Approval 20/08/2019</t>
-  </si>
-  <si>
-    <t>Procedure has ProcedureMainFeatures</t>
-  </si>
-  <si>
-    <t>Main features of the procedure and information about where the full rules for the procedure can be found. 
-Additional Information
-This information should be given when the procedure is not one of those mentioned in the procurement directives. This can be the case for example for concessions, for social and other specific services, and in case of voluntary publication of procurement procedures below the EU procurement thresholds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statement about  the fact that the procedure will be reduced due to a state of urgency.
-Additional Information
-This modifies the time limit for the receipt of requests to participate or the receipt of tenders.
-WG Approval 20/08/2019
-</t>
-  </si>
-  <si>
-    <t>Procedure.AcceleratedProcedureFurtherJustification Text</t>
-  </si>
-  <si>
-    <t>Procedure.Accelerated.Indicator</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Not included in the Contract Notice, as it only makes sense for Result Notices
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PLEASE PROVIDE A DEFINITION WHEN CAN ARE ANALYSED</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20190228
-20/08/2019</t>
-  </si>
-  <si>
-    <t>Procedure.LotSubmissionLimit.Numeric</t>
-  </si>
-  <si>
-    <t>Procedure.LotMinimumSubmission.Numeric</t>
-  </si>
-  <si>
-    <t>Procedure.LotMinimumSubmission</t>
-  </si>
-  <si>
-    <t>The minimum number of lots for which one tenderer must submit tenders. Additional Information: this can be used to state that a tendere has to submit a tender for all the lots if the minimum of lots equals the maximum number of lots announced in the contract notice.</t>
-  </si>
-  <si>
-    <t>Procedure.MaximumNumberofLotstoBeAwarded</t>
-  </si>
-  <si>
-    <t>Procedure.MaximumNumberofLotstoBeAwarded.Numeric</t>
-  </si>
-  <si>
-    <t>Procedure specifies Lot,
-Lot isGroupedIn GroupLot,
-GroupLot hasID Identifier</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.GroupLot.ID</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.GroupLot.Lot.ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procedure specifies Lot,
-Lot isGroupedIn GroupLot,
-GroupLot groups Lot
-</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
-Lot hasID Identifier</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasMultiple-StageTerms Multiple-StageProcedureTerms</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Multiple-StageProcedureTerms</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Multiple-StageProcedureTerms,
-Procedure.Lot.ID</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
-Multiple-StageProcedureTerms hasMinimunNumberOfCandidates Numeric</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Multiple-StageProcedureTerms.MinimumNumberOfCandidates</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Multiple-StageProcedureTerms.MaximumNumberOfCandidates</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
-Multiple-StageProcedureTerms hasMaximumNumberOfCandidates Numeric</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Multiple-StageProcedureTerms.SuccessiveReduction</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
-Multiple-StageProcedureTerms hasSuccessiveReduction Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of solutions or tenders will be reduced in iterative evaluations for multiple staged procedures.
-Additional information:
-This refers to multiple-stage procedures (included two-stage procedures, at least). Open Procedures can be seen as one-stage procedures. In multiple-stage procedure the first stage (or round) is used for the selection of the candidates, whilst the rest of stages is about submitting tenders and warning (or not) about the right of the CA to award without further negotiations. See Article 29(4) of Directive 2014/24/EU. 
-</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasMultiple-StageTerms Multiple-StageProcedureTerms,
-Multiple-StageProcedureTerms NoNegotiationNecessary Indicator</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Multiple-StageProcedureTerms.NoNegotiationNecessary</t>
-  </si>
-  <si>
-    <t>20190115_16
-27/08/2019</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot isToBeEvaluatedBy EvaluationBoard,
-EvaluationBoard hasEvaluationBoardType Jury</t>
-  </si>
-  <si>
-    <t>The WG considers necessary to re-analyse whether we need or not a class "Evaluation Board" (the proposal is to use only Evaluator and not a Board). This should be discussed when analysing the eEvaluation phase. See also notes in the 27/08/2019 minutes.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.EvaluationBoard.EvalutationBoardType.Jury</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot isFundedBy Fund,
-as an instance of Fund exists for one given Lot and this Fund is identified, the indication that the Lot is funded is presumed (inferred).</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Fund,
-Procedure.Lot.Fund.eu-funds-list</t>
-  </si>
-  <si>
-    <t>A List of Identifiers for the EU funds WOULD BE NEEDED!!!!</t>
-  </si>
-  <si>
-    <t>20/08/2019
-27/08/2019</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Prize</t>
-  </si>
-  <si>
-    <t>Procedure has Lot, 
-Lot rewardedWith Prize</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Prize.PrizeValue</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Prize.PrizeRank</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot isrewardedWith Prize, 
-Prize applyTo Follow-upContractTerms,
-Follow-upContractTerms hasFollow-upContract Indicator</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot rewardedWith Prize,
-Prize hasPrizeRank Numeric</t>
-  </si>
-  <si>
-    <t>Procedure has Lot, 
-Lot rewardedWith Prize, 
-Prize hasPrizeValue Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The position of the prize (e.g. first place, second place) in a design contest list of prizes.
-</t>
-  </si>
-  <si>
-    <t>The monetary value of a prize, if any, for the winner (or runners-up) of the design contest.</t>
-  </si>
-  <si>
-    <t>Any subsequent service contract will be awarded to the winner or, in the case of a design contest, winners.</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasID Identifier,
-Lot isrewardedWith Prize,
-Prize hasPrizeRank,
-Prize hasPrizeValue,
-DesignContest JuryDecisionIsBinding Indicator, etc.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Follow-upContract.Follow-upContractInformation</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.Follow-upContractTerms</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Follow-upContractTerms applyTo Lot,
-Follow-upContractTerms hasFollow-upContractInformation Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Further information about follow-up contracts, prizes and payments (for example non-monetary prizes, payments given for participation).
-WG Approval 03/09/2019
-</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-DesignContestRegimeTerms applyTo Lot,
-DesignContestRegimeTerms has JuryDecisionBinding</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasToBeEvaluatedBy EvalutationBoard,
-EvaluationBoard hasEvaluationGroupType Jury,
-EvaluationBoard isComposedOf Evaluator,
-Evaluator is Agent</t>
-  </si>
-  <si>
-    <t>The Agent class inherits the properties of the FOAF Ontology Agent</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasSecondStage CandidateShortList,
-CandidatShortList is EconomicOperatorShortList,
-EconomicOperatorShortlist hasQualified EconomicOperator,
-EconomicOperator isParty Organization</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.EvaluationBoard.Evaluator.GivenName/FamiliName/etc.</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.DesignContestRegimeTerms.JuryDecisionBinding</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.CandidateShorLlist,
-CandidateShortList.EconomicOperator.Organization.Name/ContactDetails/etc.</t>
-  </si>
-  <si>
-    <t>ESPDRequest.ExclusionGrounds</t>
-  </si>
-  <si>
-    <t>ESPDRequest has ExclusionGrounds</t>
-  </si>
-  <si>
-    <t>Organisation is part of the w3c org ontology</t>
-  </si>
-  <si>
-    <t>See how the ESPD Document is modelled in ePO. In ePO, Procurement Criteria are fully structure data and not mere text.</t>
-  </si>
-  <si>
-    <t>Describes a legal requirement to be met by the economic operator to be a candidate in the procurement procedure.
-WG approval 31/10/2018</t>
-  </si>
-  <si>
-    <t>ESPDRequest has SelectionCriteria</t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriteria</t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriteria.ProcurementCriterionProperty.Lot</t>
-  </si>
-  <si>
-    <t>ESPDRequest has SelectionCriteria,
-SelectionCriteria has ProcurementCriterionProperty,
-ProcurementCriterionProperty appliesTo Lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Contracting Authority uses this property to precise the Lots for which a concrete requirement (expressed as  Procurement Criterion Property) is applicable to.
-WG Approval 05/09/2019 </t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.selection-criterion</t>
-  </si>
-  <si>
-    <t>ESPDRequest has SelectionCriterion,
-SelectionCriterion is cccev:Criterion,
-cccev:Criterion hasType selection-criterion</t>
-  </si>
-  <si>
-    <t>The list of codes assigned to each Selection Criteria.
-To be reviewed</t>
-  </si>
-  <si>
-    <t>ESPDRequest has SelectionCriterion,
-SelectionCriterion is cccev:Criterion,
-cccev:Criterion hasName Text</t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.Name</t>
-  </si>
-  <si>
-    <t>ESPDRequest has SelectionCriterion,
-SelectionCriterion is cccev:Criterion,
-cccev:Criterion hasDescription Text</t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriterion.cccev:Criterion.Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mapping needs further discussion OP as eForms considers that a CN may not link to one ESPD and therefore a minimum set of data needs to be collected by the CN
-See: #219 - https://github.com/eprocurementontology/eprocurementontology/issues/219#issuecomment-528381880 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is under discussion we have asked to JH
-See issue #220 - https://github.com/eprocurementontology/eprocurementontology/issues/220 </t>
-  </si>
-  <si>
-    <t>Procedure hasLot Lot,
-ESPDRequest hasQualificationCriteria ContractNotice,
-ESPDRequest has SelectionCriterion,
-SelectionCriterion appliesTo Lot,
-SelectionCriterion has WeightType</t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriterion.WeightType.number-weight</t>
-  </si>
-  <si>
-    <t>2019/0910</t>
-  </si>
-  <si>
-    <t>Procedure hasLot Lot,
-ESPDRequest hasQualificationCriteria ContractNotice,
-ESPDRequest has SelectionCriterion,
-SelectionCriterion appliesTo Lot,
-SelectionCriterion has ThresholdType</t>
-  </si>
-  <si>
-    <t>ESPDRequest.SelectionCriterion.ThresholdType.number-threshold</t>
-  </si>
-  <si>
-    <t>The way this is modelled in ePO is different: in ePO we do not have a class (a BG) named whatever-number, but the specific types of weights and threshold are in the Criterion base class (weight-type) and the specialised classes of Procurement Criterion (Selection and Award Criterion).</t>
-  </si>
-  <si>
-    <t>We don't see the need for flagging each selection criterion as used or not. If a criterion is instantiated it is becaquse it is intended to be used.</t>
-  </si>
-  <si>
-    <t>20190314
-10/09/2019</t>
-  </si>
-  <si>
-    <t>Procedure has Lot,
-Lot hasReservedProcurement reserved-procurement</t>
-  </si>
-  <si>
-    <t>Procedure.Lot.reserved-procurement</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">20190228: Following earlier discussions the fact that certain procurement are reserved for sheltered workshops etc requires that the procurement criterion take into consider these criterion that can not be considered as exclusion, selection or award criterion, hence the need for participation criteria.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Action PA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The ESPD taxonomy is to be used.
-It can be found at: https://github.com/ESPD/ESPD-EDM/blob/2.1.0/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V2.1.0.xlsx
-An extra code other is to be used.
-Two use context one for ESPD all codes minus other and one use context  for eforms using the four codes sent with second consultation.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Action Everis: Inform ESPD if necessary
-Action JH: eForms issue
-Previous discussion: 20190115_16 We have deleted the Reserved Contract Type (Code) property from the Post Award Terms because we see these concepts as Criteria that are already defined in the 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The WG Meeting session of 10/09/2019 has mapped this as explained in columns AV to AX. The design of this in ePO was clarified long time ago (see previous minutes and dates in the definitions). In the ePO, as in eForms, this is linked to the Lot.</t>
-    </r>
-  </si>
-  <si>
-    <t>Description of the Criterion follows: "The following educational and professional qualifications are held by the service provider or the contractor itself, and/or (depending on the requirements set out in the relevant notice or the in the ESPD, the relevant notice or  by its managerial staff."</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">eForms is changing this into a Code.
-This is covered in the ESPD by criterion #47 (Educational and professional qualifications, code CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.PROFESSIONAL_QUALIFICATIONS), which is a selection criterion.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>However we need to discuss (e.g. in the F2F meeting 2019/10/10-11, in Luxembourg) how the information that should go into the ESPD is to be covered/referred to/etc. in the case an ESPD is not provided). So the mapping is left open</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESPRequest has Criterion,
-ESPDRequest has SelectionCriterion
-(See Criterion 47 data structure about Professional Qualification).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPEN FOR FURTHER DISCUSSION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESPDRequest.SelectionCriterion
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPEN FOR FURTHER DISCUSSION</t>
-    </r>
+Lot hasContractTerms ContractTerms,
+ContractTerms has ePayment</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.ePayment.Indicator</t>
   </si>
 </sst>
 </file>
@@ -8594,7 +8742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9287,65 +9435,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9362,6 +9459,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9372,6 +9484,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9397,12 +9554,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10096,8 +10315,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:XFD136"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10141,92 +10363,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="270" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="248" t="s">
+      <c r="C1" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="248" t="s">
+      <c r="D1" s="262" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="248" t="s">
+      <c r="E1" s="262" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="248" t="s">
+      <c r="F1" s="262" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="255" t="s">
+      <c r="G1" s="274" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="251" t="s">
+      <c r="H1" s="253" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="251" t="s">
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="253" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="252"/>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="252"/>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="252"/>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="251" t="s">
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="254"/>
+      <c r="AC1" s="254"/>
+      <c r="AD1" s="255"/>
+      <c r="AE1" s="253" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="252"/>
-      <c r="AG1" s="252"/>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="251" t="s">
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="255"/>
+      <c r="AI1" s="253" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="252"/>
-      <c r="AK1" s="252"/>
-      <c r="AL1" s="252"/>
-      <c r="AM1" s="252"/>
-      <c r="AN1" s="252"/>
-      <c r="AO1" s="252"/>
-      <c r="AP1" s="252"/>
-      <c r="AQ1" s="254"/>
-      <c r="AR1" s="251" t="s">
+      <c r="AJ1" s="254"/>
+      <c r="AK1" s="254"/>
+      <c r="AL1" s="254"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="254"/>
+      <c r="AO1" s="254"/>
+      <c r="AP1" s="254"/>
+      <c r="AQ1" s="255"/>
+      <c r="AR1" s="253" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="252"/>
-      <c r="AT1" s="254"/>
-      <c r="AU1" s="270" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AV1" s="271" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AX1" s="272" t="s">
+      <c r="AS1" s="254"/>
+      <c r="AT1" s="255"/>
+      <c r="AU1" s="258" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AV1" s="259" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AX1" s="260" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="273"/>
-      <c r="AZ1" s="273"/>
+      <c r="AY1" s="261"/>
+      <c r="AZ1" s="261"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="246"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="275"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10344,115 +10566,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="270"/>
-      <c r="AV2" s="271"/>
+      <c r="AU2" s="258"/>
+      <c r="AV2" s="259"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="265" t="s">
+      <c r="AX2" s="248" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="265" t="s">
+      <c r="AY2" s="248" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="265" t="s">
+      <c r="AZ2" s="248" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="265" t="s">
+      <c r="BB2" s="248" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:54" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="246"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="260" t="s">
+      <c r="B3" s="271"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="266" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="261"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="263" t="s">
+      <c r="I3" s="257"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="268" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="263" t="s">
+      <c r="L3" s="257"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="268" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260" t="s">
+      <c r="O3" s="265"/>
+      <c r="P3" s="266" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="263" t="s">
+      <c r="Q3" s="269"/>
+      <c r="R3" s="268" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="261"/>
-      <c r="T3" s="264"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="269"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="263" t="s">
+      <c r="V3" s="268" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="263" t="s">
+      <c r="W3" s="257"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="269"/>
+      <c r="Z3" s="268" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="264"/>
+      <c r="AA3" s="269"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="263" t="s">
+      <c r="AC3" s="268" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="259"/>
-      <c r="AE3" s="260" t="s">
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="266" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="261"/>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260" t="s">
+      <c r="AF3" s="257"/>
+      <c r="AG3" s="257"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="261"/>
-      <c r="AK3" s="261"/>
-      <c r="AL3" s="262"/>
-      <c r="AM3" s="258" t="s">
+      <c r="AJ3" s="257"/>
+      <c r="AK3" s="257"/>
+      <c r="AL3" s="267"/>
+      <c r="AM3" s="256" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="261"/>
-      <c r="AO3" s="262"/>
-      <c r="AP3" s="258" t="s">
+      <c r="AN3" s="257"/>
+      <c r="AO3" s="267"/>
+      <c r="AP3" s="256" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="259"/>
-      <c r="AR3" s="258" t="s">
+      <c r="AQ3" s="265"/>
+      <c r="AR3" s="256" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="261"/>
-      <c r="AT3" s="261"/>
-      <c r="AU3" s="270"/>
-      <c r="AV3" s="271"/>
+      <c r="AS3" s="257"/>
+      <c r="AT3" s="257"/>
+      <c r="AU3" s="258"/>
+      <c r="AV3" s="259"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="266"/>
-      <c r="AY3" s="266"/>
-      <c r="AZ3" s="266"/>
+      <c r="AX3" s="249"/>
+      <c r="AY3" s="249"/>
+      <c r="AZ3" s="249"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="266"/>
+      <c r="BB3" s="249"/>
     </row>
     <row r="4" spans="2:54" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="247"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="257"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="276"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10570,16 +10792,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="270"/>
-      <c r="AV4" s="271"/>
+      <c r="AU4" s="258"/>
+      <c r="AV4" s="259"/>
       <c r="AW4" s="212" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AX4" s="266"/>
-      <c r="AY4" s="266"/>
-      <c r="AZ4" s="266"/>
+        <v>1317</v>
+      </c>
+      <c r="AX4" s="249"/>
+      <c r="AY4" s="249"/>
+      <c r="AZ4" s="249"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="266"/>
+      <c r="BB4" s="249"/>
     </row>
     <row r="5" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -10629,11 +10851,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="267" t="s">
-        <v>1328</v>
-      </c>
-      <c r="AX5" s="268"/>
-      <c r="AY5" s="269"/>
+      <c r="AW5" s="250" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AX5" s="251"/>
+      <c r="AY5" s="252"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -10775,14 +10997,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="AV6" s="216">
         <v>43662</v>
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -11070,10 +11292,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11224,7 +11446,7 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
@@ -11369,13 +11591,13 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="AV10" s="217">
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="AX10" s="219" t="s">
         <v>981</v>
@@ -11526,13 +11748,13 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="AV11" s="216">
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="AX11" s="219" t="s">
         <v>983</v>
@@ -11687,7 +11909,7 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="AX12" s="219" t="s">
         <v>985</v>
@@ -11842,10 +12064,10 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
@@ -11993,10 +12215,10 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
@@ -12144,10 +12366,10 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
@@ -12290,7 +12512,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12432,10 +12654,10 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
@@ -28907,10 +29129,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -29053,7 +29275,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29197,7 +29419,7 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
@@ -29500,7 +29722,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29646,7 +29868,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -29938,7 +30160,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -31397,7 +31619,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31543,10 +31765,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -31693,7 +31915,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -31838,7 +32060,7 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -31987,7 +32209,7 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -32127,14 +32349,14 @@
       <c r="AS40" s="187"/>
       <c r="AT40" s="188"/>
       <c r="AU40" s="192" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="AV40" s="223">
         <v>43664</v>
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32229,7 +32451,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32369,14 +32591,14 @@
       <c r="AS42" s="187"/>
       <c r="AT42" s="188"/>
       <c r="AU42" s="192" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="AV42" s="223">
         <v>43664</v>
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32516,14 +32738,14 @@
       <c r="AS43" s="187"/>
       <c r="AT43" s="188"/>
       <c r="AU43" s="192" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="AV43" s="223">
         <v>43664</v>
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32759,12 +32981,12 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="146" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="AV45" s="147"/>
       <c r="AW45" s="218"/>
       <c r="AX45" s="62" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="AY45" s="78" t="s">
         <v>1000</v>
@@ -32904,7 +33126,7 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="157" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="AW46" s="218"/>
       <c r="AX46" s="62" t="s">
@@ -33002,7 +33224,7 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="157" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="AW47" s="132" t="s">
         <v>1004</v>
@@ -33155,10 +33377,10 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -33309,7 +33531,7 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -33459,7 +33681,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33601,16 +33823,16 @@
         <v>371</v>
       </c>
       <c r="AU51" s="146" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="AV51" s="216">
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -33754,13 +33976,13 @@
         <v>371</v>
       </c>
       <c r="AU52" s="146" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="AV52" s="216">
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -34061,7 +34283,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34209,10 +34431,10 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -34352,13 +34574,13 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV56" s="216">
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34369,7 +34591,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34492,16 +34714,16 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV57" s="216">
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34635,16 +34857,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV58" s="216">
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -34784,13 +35006,13 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
@@ -34938,11 +35160,11 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="BB60" s="178" t="s">
         <v>321</v>
@@ -35085,16 +35307,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35235,16 +35457,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="AW62" s="218" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35385,14 +35607,14 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35532,16 +35754,16 @@
         <v>371</v>
       </c>
       <c r="AU64" s="146" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="AV64" s="167" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="AW64" s="218" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35682,19 +35904,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -35837,17 +36059,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="AV66" s="216">
         <v>43671</v>
       </c>
       <c r="AW66" s="229"/>
       <c r="AX66" s="62" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -35990,16 +36212,16 @@
         <v>371</v>
       </c>
       <c r="AU67" s="166" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="AV67" s="227" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="AW67" s="229" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="AX67" s="62" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36142,19 +36364,19 @@
         <v>371</v>
       </c>
       <c r="AU68" s="146" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36298,10 +36520,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="AW69" s="229" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36447,10 +36669,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36597,10 +36819,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -36747,10 +36969,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -36897,10 +37119,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -37047,10 +37269,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37194,10 +37416,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37337,19 +37559,19 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV76" s="228" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="AW76" s="229" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37492,19 +37714,19 @@
         <v>371</v>
       </c>
       <c r="AU77" s="151" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -37646,7 +37868,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -37790,14 +38012,14 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -37937,22 +38159,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
       </c>
       <c r="BB80" s="178" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38092,22 +38314,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
       </c>
       <c r="BB81" s="178" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38251,16 +38473,16 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
       </c>
       <c r="BB82" s="178" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -38400,19 +38622,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="AW83" s="218" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38552,19 +38774,19 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="AV84" s="230" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="AW84" s="218" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="AX84" s="62" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="AY84" s="62" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="BB84" s="178" t="s">
         <v>1025</v>
@@ -38707,16 +38929,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV85" s="230" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="AW85" s="218" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="AX85" s="62" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -39005,10 +39227,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39148,19 +39370,19 @@
         <v>371</v>
       </c>
       <c r="AU88" s="239" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="AV88" s="240" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="AW88" s="236" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39303,7 +39525,7 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
@@ -39440,16 +39662,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39584,19 +39806,19 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="AV91" s="216">
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="AY91" s="179" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
@@ -39737,13 +39959,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -39890,13 +40112,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -39977,13 +40199,13 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -40126,13 +40348,13 @@
         <v>369</v>
       </c>
       <c r="AU95" s="146" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40275,13 +40497,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="151" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40422,13 +40644,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40577,7 +40799,7 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -40684,13 +40906,13 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
@@ -40839,10 +41061,10 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -40988,7 +41210,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -41133,10 +41355,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41284,10 +41506,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41430,16 +41652,16 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV104" s="216">
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -41589,10 +41811,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41736,10 +41958,10 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -41889,10 +42111,10 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -42038,19 +42260,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV108" s="216">
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42194,13 +42416,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="AW109" s="219" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42343,16 +42565,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42496,10 +42718,10 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="218" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42646,10 +42868,10 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="218" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="BB112" s="61" t="s">
         <v>1029</v>
@@ -42796,13 +43018,13 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="218" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="AY113" s="80" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
@@ -42949,13 +43171,13 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="218" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="AX114" s="80" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="AY114" s="80" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
       <c r="BB114" s="58" t="s">
         <v>1025</v>
@@ -43102,13 +43324,13 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="218" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
@@ -43255,13 +43477,13 @@
         <v>43711</v>
       </c>
       <c r="AW116" s="218" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
       <c r="AY116" s="62" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="BB116" s="176" t="s">
         <v>324</v>
@@ -43408,10 +43630,10 @@
         <v>43711</v>
       </c>
       <c r="AW117" s="218" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
@@ -43554,16 +43776,16 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="AV118" s="216">
         <v>43711</v>
       </c>
       <c r="AW118" s="218" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
       <c r="BB118" s="242" t="s">
         <v>321</v>
@@ -43706,16 +43928,16 @@
         <v>369</v>
       </c>
       <c r="AU119" s="241" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
       <c r="AV119" s="216">
         <v>43711</v>
       </c>
       <c r="AW119" s="218" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -43858,16 +44080,16 @@
         <v>369</v>
       </c>
       <c r="AU120" s="243" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="AV120" s="216">
         <v>43713</v>
       </c>
       <c r="AW120" s="218" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="AX120" s="80" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="BB120" s="244" t="s">
         <v>1031</v>
@@ -44010,7 +44232,7 @@
         <v>369</v>
       </c>
       <c r="AU121" s="139" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
       <c r="AV121" s="216">
         <v>43713</v>
@@ -44018,7 +44240,7 @@
       <c r="AW121" s="231"/>
       <c r="AX121" s="62"/>
       <c r="AY121" s="62" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="BB121" s="61" t="s">
         <v>1030</v>
@@ -44155,16 +44377,16 @@
         <v>369</v>
       </c>
       <c r="AU122" s="139" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="AV122" s="216">
         <v>43713</v>
       </c>
       <c r="AW122" s="218" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="AX122" s="62" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="AY122" s="62" t="s">
         <v>1033</v>
@@ -44314,13 +44536,13 @@
         <v>43713</v>
       </c>
       <c r="AW123" s="218" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
       <c r="AX123" s="62" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
       <c r="AY123" s="62" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -44416,19 +44638,19 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="AV124" s="216">
         <v>43713</v>
       </c>
       <c r="AW124" s="218" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
       <c r="AX124" s="62" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
       <c r="AY124" s="62" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -44524,7 +44746,7 @@
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="139" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="AV125" s="216">
         <v>43713</v>
@@ -44637,10 +44859,10 @@
         <v>43713</v>
       </c>
       <c r="AW126" s="218" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="BB126" s="61" t="s">
         <v>324</v>
@@ -44743,10 +44965,10 @@
         <v>43713</v>
       </c>
       <c r="AW127" s="218" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="AY127" s="80" t="s">
         <v>1035</v>
@@ -44981,7 +45203,7 @@
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="139" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="AW129" s="79"/>
     </row>
@@ -45086,7 +45308,7 @@
       <c r="AS130" s="23"/>
       <c r="AT130" s="24"/>
       <c r="AU130" s="139" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="AW130" s="79"/>
     </row>
@@ -45180,13 +45402,13 @@
       <c r="AT131" s="101"/>
       <c r="AU131" s="139"/>
       <c r="AV131" s="225" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="AW131" s="154" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="AX131" s="69" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="AY131" s="70"/>
       <c r="AZ131" s="66"/>
@@ -45285,13 +45507,13 @@
       <c r="AT132" s="101"/>
       <c r="AU132" s="139"/>
       <c r="AV132" s="225" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="AW132" s="167" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="AX132" s="69" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="AY132" s="70"/>
       <c r="AZ132" s="66"/>
@@ -45715,16 +45937,16 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="AV135" s="235" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="AW135" s="218" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="BB135" s="61" t="s">
         <v>321</v>
@@ -45867,25 +46089,25 @@
         <v>369</v>
       </c>
       <c r="AU136" s="139" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="AV136" s="216">
         <v>43718</v>
       </c>
       <c r="AW136" s="63" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="AX136" s="62" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="AY136" s="62" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
       <c r="BB136" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
         <v>207</v>
       </c>
@@ -46021,9 +46243,26 @@
       <c r="AT137" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU137" s="139"/>
+      <c r="AU137" s="139" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AV137" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW137" s="284" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AX137" s="80" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AY137" s="80" t="s">
+        <v>1507</v>
+      </c>
+      <c r="BB137" s="58" t="s">
+        <v>976</v>
+      </c>
     </row>
-    <row r="138" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B138" s="21" t="s">
         <v>207</v>
       </c>
@@ -46159,12 +46398,20 @@
       <c r="AT138" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU138" s="139"/>
-      <c r="AW138" s="82" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AX138" s="62" t="s">
-        <v>1036</v>
+      <c r="AU138" s="139" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AV138" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW138" s="284" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AX138" s="80" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AY138" s="80" t="s">
+        <v>1510</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -46259,16 +46506,19 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="151" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AV139" s="138">
-        <v>20190226</v>
-      </c>
-      <c r="AW139" s="82" t="s">
-        <v>1017</v>
+        <v>1274</v>
+      </c>
+      <c r="AV139" s="230" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AW139" s="285" t="s">
+        <v>1513</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1037</v>
+        <v>1514</v>
+      </c>
+      <c r="AY139" s="62" t="s">
+        <v>1515</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -46377,10 +46627,10 @@
       <c r="AU140" s="139"/>
       <c r="AW140" s="79"/>
       <c r="AX140" s="62" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AY140" s="62" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="BB140" s="61" t="s">
         <v>976</v>
@@ -46523,123 +46773,138 @@
         <v>372</v>
       </c>
       <c r="AU141" s="139"/>
-      <c r="AW141" s="82" t="s">
-        <v>1040</v>
+      <c r="AV141" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW141" s="285" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AX141" s="62" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BB141" s="246" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="142" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B142" s="95" t="s">
+    <row r="142" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B142" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C142" s="96" t="s">
+      <c r="C142" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="D142" s="97" t="s">
+      <c r="D142" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="E142" s="96" t="s">
+      <c r="E142" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="F142" s="96" t="s">
+      <c r="F142" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="G142" s="98" t="s">
+      <c r="G142" s="22" t="s">
         <v>818</v>
       </c>
-      <c r="H142" s="95"/>
-      <c r="I142" s="99"/>
-      <c r="J142" s="100"/>
-      <c r="K142" s="100" t="s">
-        <v>371</v>
-      </c>
-      <c r="L142" s="100" t="s">
-        <v>371</v>
-      </c>
-      <c r="M142" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="N142" s="99" t="s">
-        <v>370</v>
-      </c>
-      <c r="O142" s="102" t="s">
-        <v>370</v>
-      </c>
-      <c r="P142" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="R142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="S142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="T142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="U142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="V142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="W142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="X142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB142" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC142" s="100"/>
-      <c r="AD142" s="102"/>
-      <c r="AE142" s="103"/>
-      <c r="AF142" s="100"/>
-      <c r="AG142" s="100"/>
-      <c r="AH142" s="104"/>
-      <c r="AI142" s="100"/>
-      <c r="AJ142" s="100"/>
-      <c r="AK142" s="100"/>
-      <c r="AL142" s="100"/>
-      <c r="AM142" s="100"/>
-      <c r="AN142" s="100"/>
-      <c r="AO142" s="100"/>
-      <c r="AP142" s="100"/>
-      <c r="AQ142" s="102"/>
-      <c r="AR142" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS142" s="100" t="s">
-        <v>371</v>
-      </c>
-      <c r="AT142" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU142" s="139"/>
-      <c r="AV142" s="70"/>
-      <c r="AW142" s="85" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AX142" s="65" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AY142" s="70"/>
-      <c r="AZ142" s="66"/>
-      <c r="BA142" s="66"/>
-      <c r="BB142" s="67" t="s">
-        <v>976</v>
+      <c r="H142" s="21"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="L142" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="M142" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="N142" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="O142" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="P142" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="R142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="S142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="T142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="U142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="V142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="W142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="X142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB142" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC142" s="23"/>
+      <c r="AD142" s="25"/>
+      <c r="AE142" s="55"/>
+      <c r="AF142" s="23"/>
+      <c r="AG142" s="23"/>
+      <c r="AH142" s="26"/>
+      <c r="AI142" s="23"/>
+      <c r="AJ142" s="23"/>
+      <c r="AK142" s="23"/>
+      <c r="AL142" s="23"/>
+      <c r="AM142" s="23"/>
+      <c r="AN142" s="23"/>
+      <c r="AO142" s="23"/>
+      <c r="AP142" s="23"/>
+      <c r="AQ142" s="25"/>
+      <c r="AR142" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS142" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="AT142" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU142" s="245" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AV142" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW142" s="285" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AX142" s="62" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AY142" s="80" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AZ142" s="247"/>
+      <c r="BA142" s="247"/>
+      <c r="BB142" s="246" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="2:54" ht="165.75" x14ac:dyDescent="0.25">
@@ -46737,23 +47002,25 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV143" s="138">
-        <v>20190130</v>
-      </c>
-      <c r="AW143" s="82"/>
+        <v>1521</v>
+      </c>
+      <c r="AV143" s="230" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AW143" s="285" t="s">
+        <v>1525</v>
+      </c>
       <c r="AX143" s="62" t="s">
-        <v>1279</v>
+        <v>1527</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="BB143" s="176" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="144" spans="2:54" ht="102" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:54" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" s="21" t="s">
         <v>207</v>
       </c>
@@ -46890,24 +47157,26 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AV144" s="138">
-        <v>20190130</v>
-      </c>
-      <c r="AW144" s="79"/>
+        <v>1523</v>
+      </c>
+      <c r="AV144" s="230" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AW144" s="285" t="s">
+        <v>1530</v>
+      </c>
       <c r="AX144" s="62" t="s">
-        <v>1237</v>
+        <v>1526</v>
       </c>
       <c r="AY144" s="62" t="s">
-        <v>1238</v>
+        <v>737</v>
       </c>
       <c r="AZ144" s="177"/>
       <c r="BB144" s="176" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="2:54" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B145" s="21" t="s">
         <v>207</v>
       </c>
@@ -47044,10 +47313,24 @@
         <v>371</v>
       </c>
       <c r="AU145" s="139"/>
-      <c r="AW145" s="79"/>
+      <c r="AV145" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW145" s="285" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AX145" s="62" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AY145" s="62" t="s">
+        <v>1528</v>
+      </c>
       <c r="AZ145" s="177"/>
+      <c r="BB145" s="246" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B146" s="21" t="s">
         <v>207</v>
       </c>
@@ -47142,8 +47425,22 @@
         <v>371</v>
       </c>
       <c r="AU146" s="139"/>
-      <c r="AW146" s="79"/>
+      <c r="AV146" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW146" s="285" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AX146" s="62" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AY146" s="62" t="s">
+        <v>1533</v>
+      </c>
       <c r="AZ146" s="177"/>
+      <c r="BB146" s="246" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="147" spans="2:54" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
@@ -47282,23 +47579,25 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AV147" s="138">
-        <v>20190130</v>
-      </c>
-      <c r="AW147" s="79"/>
+        <v>1534</v>
+      </c>
+      <c r="AV147" s="230" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AW147" s="63" t="s">
+        <v>1536</v>
+      </c>
       <c r="AX147" s="62" t="s">
-        <v>1280</v>
+        <v>1538</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="BB147" s="178" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>207</v>
       </c>
@@ -47393,11 +47692,17 @@
         <v>371</v>
       </c>
       <c r="AU148" s="139"/>
-      <c r="AW148" s="82" t="s">
-        <v>1017</v>
+      <c r="AV148" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW148" s="285" t="s">
+        <v>1539</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1042</v>
+        <v>1540</v>
+      </c>
+      <c r="AY148" s="62" t="s">
+        <v>1541</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -47498,14 +47803,17 @@
         <v>371</v>
       </c>
       <c r="AU149" s="139"/>
-      <c r="AW149" s="82" t="s">
-        <v>1043</v>
+      <c r="AV149" s="216">
+        <v>43720</v>
+      </c>
+      <c r="AW149" s="285" t="s">
+        <v>1543</v>
       </c>
       <c r="AX149" s="62" t="s">
-        <v>1044</v>
+        <v>1544</v>
       </c>
       <c r="AY149" s="62" t="s">
-        <v>1045</v>
+        <v>1542</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -47620,13 +47928,13 @@
         <v>369</v>
       </c>
       <c r="AU150" s="165" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="AV150" s="147">
         <v>20190328</v>
       </c>
       <c r="AW150" s="86" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="AX150" s="87"/>
       <c r="AY150" s="88"/>
@@ -47769,24 +48077,24 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="AV151" s="88">
         <v>20190122</v>
       </c>
       <c r="AW151" s="86" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX151" s="87" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="AY151" s="87" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="152" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -47886,18 +48194,18 @@
         <v>20190122</v>
       </c>
       <c r="AW152" s="86" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AX152" s="87" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AY152" s="87" t="s">
         <v>1043</v>
-      </c>
-      <c r="AX152" s="87" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AY152" s="87" t="s">
-        <v>1050</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="153" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -48299,10 +48607,10 @@
       <c r="AU155" s="139"/>
       <c r="AW155" s="82"/>
       <c r="AX155" s="80" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="AY155" s="80" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="BB155" s="58" t="s">
         <v>976</v>
@@ -48439,14 +48747,14 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="AV156" s="145">
         <v>20190228</v>
       </c>
       <c r="AW156" s="82"/>
       <c r="AX156" s="62" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="AY156" s="68" t="s">
         <v>1000</v>
@@ -48575,7 +48883,7 @@
       <c r="AT157" s="24"/>
       <c r="AU157" s="139"/>
       <c r="AW157" s="82" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="158" spans="2:54" x14ac:dyDescent="0.2">
@@ -48963,7 +49271,7 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="143" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="AV160" s="155">
         <v>20190326</v>
@@ -49089,7 +49397,7 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="AV161" s="70">
         <v>20190326</v>
@@ -49098,7 +49406,7 @@
         <v>1017</v>
       </c>
       <c r="AX161" s="65" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="AY161" s="70"/>
       <c r="AZ161" s="66"/>
@@ -49226,7 +49534,7 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="AV162" s="70">
         <v>20190326</v>
@@ -49235,7 +49543,7 @@
         <v>1017</v>
       </c>
       <c r="AX162" s="169" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="AY162" s="70"/>
       <c r="AZ162" s="66"/>
@@ -49363,7 +49671,7 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="AV163" s="70">
         <v>20190326</v>
@@ -49372,7 +49680,7 @@
         <v>1017</v>
       </c>
       <c r="AX163" s="70" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="AY163" s="70"/>
       <c r="AZ163" s="66"/>
@@ -50137,10 +50445,10 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="148" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="AV169" s="154" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="170" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -50281,10 +50589,10 @@
       </c>
       <c r="AU170" s="139"/>
       <c r="AW170" s="82" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="AX170" s="62" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="AY170" s="62"/>
       <c r="BB170" s="61" t="s">
@@ -50428,19 +50736,19 @@
         <v>369</v>
       </c>
       <c r="AU171" s="151" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="AV171" s="138" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="AW171" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX171" s="62" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="AY171" s="62" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
@@ -50583,10 +50891,10 @@
         <v>369</v>
       </c>
       <c r="AU172" s="151" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="AV172" s="154" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="AW172" s="79"/>
     </row>
@@ -50695,17 +51003,17 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="AV173" s="142">
         <v>20190402</v>
       </c>
       <c r="AW173" s="140"/>
       <c r="AX173" s="141" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="AY173" s="141" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="AZ173" s="66"/>
       <c r="BA173" s="66"/>
@@ -50850,19 +51158,19 @@
         <v>369</v>
       </c>
       <c r="AU174" s="152" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="AW174" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
@@ -50978,10 +51286,10 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="AY175" s="65" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
@@ -51126,7 +51434,7 @@
         <v>369</v>
       </c>
       <c r="AU176" s="156" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -51269,10 +51577,10 @@
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
       <c r="AU177" s="156" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -51691,10 +51999,10 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="AX180" s="81" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
@@ -51833,10 +52141,10 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AX181" s="62" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="BB181" s="61" t="s">
         <v>999</v>
@@ -52397,13 +52705,13 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AX185" s="62" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="BB185" s="61" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="186" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -52757,19 +53065,19 @@
         <v>369</v>
       </c>
       <c r="AU188" s="160" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="BB188" s="176" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="189" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -52909,17 +53217,17 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="AY189" s="62" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
@@ -53030,17 +53338,17 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="AY190" s="62" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
@@ -53183,16 +53491,16 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
@@ -53335,7 +53643,7 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
@@ -53479,7 +53787,7 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
@@ -53623,19 +53931,19 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
       </c>
       <c r="AW194" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="BB194" s="176" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="195" spans="2:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -53832,16 +54140,16 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="197" spans="2:54" ht="102" x14ac:dyDescent="0.2">
@@ -53981,14 +54289,14 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="AV197" s="145">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="AY197" s="180" t="s">
         <v>1000</v>
@@ -54134,14 +54442,14 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="AY198" s="180" t="s">
         <v>1000</v>
@@ -54243,7 +54551,7 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="144" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
@@ -54252,7 +54560,7 @@
         <v>1017</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -54538,7 +54846,7 @@
         <v>1017</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="BB201" s="178" t="s">
         <v>321</v>
@@ -54728,19 +55036,19 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
       </c>
       <c r="AW203" s="133" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="BB203" s="176" t="s">
         <v>328</v>
@@ -54883,16 +55191,16 @@
         <v>369</v>
       </c>
       <c r="AU204" s="150" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
@@ -55137,13 +55445,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="207" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -55365,16 +55673,16 @@
       </c>
       <c r="AU208" s="139"/>
       <c r="AW208" s="133" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="BB208" s="176" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="209" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -55515,16 +55823,16 @@
       </c>
       <c r="AU209" s="139"/>
       <c r="AW209" s="133" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="BB209" s="176" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="210" spans="2:54" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -55618,13 +55926,13 @@
       <c r="AU210" s="139"/>
       <c r="AV210" s="88"/>
       <c r="AW210" s="133" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
@@ -55769,19 +56077,19 @@
         <v>369</v>
       </c>
       <c r="AU211" s="152" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
       </c>
       <c r="AW211" s="133" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
@@ -55850,17 +56158,17 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="146" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="AV212" s="147">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
@@ -56005,22 +56313,22 @@
         <v>369</v>
       </c>
       <c r="AU213" s="144" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="AV213" s="144">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="AX213" s="62" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="AY213" s="62" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="BB213" s="61" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="214" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -56160,7 +56468,7 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
@@ -56169,7 +56477,7 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
@@ -56312,19 +56620,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="AX215" s="62" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="AY215" s="62" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -56804,13 +57112,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="220" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -56950,13 +57258,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="221" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -57097,7 +57405,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="222" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -57237,16 +57545,16 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
@@ -57389,19 +57697,19 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="224" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -57680,14 +57988,14 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="BB225" s="176" t="s">
         <v>320</v>
@@ -57824,19 +58132,19 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
       </c>
       <c r="AW226" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -57973,7 +58281,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -57982,7 +58290,7 @@
         <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="228" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -58516,7 +58824,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -58657,7 +58965,7 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
@@ -58798,7 +59106,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -58939,7 +59247,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -59080,7 +59388,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -59221,7 +59529,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -59363,16 +59671,16 @@
       </c>
       <c r="AU238" s="139"/>
       <c r="AW238" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX238" s="62" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="AY238" s="62" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="BB238" s="61" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="239" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -59508,17 +59816,17 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
@@ -59659,7 +59967,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -59802,7 +60110,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -59943,7 +60251,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -60084,7 +60392,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -60231,7 +60539,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -60322,7 +60630,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -60423,16 +60731,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -60575,7 +60883,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -60670,7 +60978,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -60767,16 +61075,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW249" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -60919,16 +61227,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW250" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -61071,10 +61379,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="252" spans="2:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -61632,13 +61940,13 @@
       </c>
       <c r="AU255" s="139"/>
       <c r="AW255" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -61785,7 +62093,7 @@
         <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -61921,13 +62229,13 @@
       </c>
       <c r="AU257" s="139"/>
       <c r="AW257" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -62008,7 +62316,7 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
@@ -62153,7 +62461,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -62365,10 +62673,10 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW261" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX261" s="62" t="s">
         <v>1018</v>
@@ -62483,14 +62791,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -62633,17 +62941,17 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="BB263" s="176" t="s">
         <v>976</v>
@@ -62793,7 +63101,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -62913,17 +63221,17 @@
         <v>371</v>
       </c>
       <c r="AU265" s="168" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="AV265" s="167">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="BB265" s="176" t="s">
         <v>976</v>
@@ -63054,14 +63362,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -63195,7 +63503,7 @@
         <v>371</v>
       </c>
       <c r="AU267" s="172" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="AV267" s="169">
         <v>20190404</v>
@@ -63204,7 +63512,7 @@
         <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -63338,7 +63646,7 @@
         <v>371</v>
       </c>
       <c r="AU268" s="173" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="AV268" s="174">
         <v>20190404</v>
@@ -63347,7 +63655,7 @@
         <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -63481,7 +63789,7 @@
         <v>371</v>
       </c>
       <c r="AU269" s="175" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="AV269" s="174">
         <v>20190404</v>
@@ -63490,7 +63798,7 @@
         <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -63570,7 +63878,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="170" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="AV270" s="171">
         <v>20190404</v>
@@ -63653,7 +63961,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="143" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="AV271" s="155">
         <v>20190404</v>
@@ -63736,7 +64044,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="143" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="AV272" s="155">
         <v>20190404</v>
@@ -63871,13 +64179,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="AW273" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -64006,13 +64314,13 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="AW274" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="BB274" s="61" t="s">
         <v>1030</v>
@@ -64155,7 +64463,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -64302,7 +64610,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -64443,7 +64751,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -64548,7 +64856,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -64690,13 +64998,13 @@
       </c>
       <c r="AU279" s="139"/>
       <c r="AW279" s="82" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -64769,7 +65077,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -64910,7 +65218,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -65051,7 +65359,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -65193,7 +65501,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -65334,7 +65642,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -65475,7 +65783,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -65616,7 +65924,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -65743,16 +66051,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW287" s="82" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="AX287" s="62" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="AY287" s="62" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -65823,7 +66131,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -65954,7 +66262,7 @@
         <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -66083,7 +66391,7 @@
         <v>370</v>
       </c>
       <c r="AU290" s="162" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="AV290" s="145">
         <v>20190305</v>
@@ -66092,7 +66400,7 @@
         <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="291" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
@@ -66218,13 +66526,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW291" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -66289,7 +66597,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -66352,7 +66660,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -66415,7 +66723,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -66484,7 +66792,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -66547,7 +66855,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -66610,7 +66918,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -66673,7 +66981,7 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="162" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="AV298" s="145">
         <v>20190305</v>
@@ -66682,7 +66990,7 @@
         <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="299" spans="2:54" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -66744,7 +67052,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -66795,17 +67103,13 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AU1:AU4"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AP3:AQ3"/>
@@ -66820,149 +67124,169 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AU1:AU4"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU142 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
-    <cfRule type="expression" dxfId="32" priority="86" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU141 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
+    <cfRule type="expression" dxfId="40" priority="90" stopIfTrue="1">
       <formula>LEFT($C1,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:AU19 H21:AU40 H20:AT20 H60:AU66 H59:AT59 H92:AU95 H91:AT91 H125:AU134 H124:AT124 H136:AU138 H135:AT135 H195:AU195 H198:AU198 H228:AU301 H200:AU202 H199:AT199 H204:AU205 H203:AT203 H207:AU210 H206:AT206 H216:AU218 H213:AT215 H221:AU221 H219:AT220 H224:AU224 H222:AT223 H225:AT227 H44:AU45 H43:AT43 H53:AU58 H52:AT52 H173:AU173 H175:AU175 H174:AT174 H212:AU212 H211:AT211 H140:AU142 H139:AT139 H178:AU187 H171:AT172 H145:AU146 H143:AT144 H148:AU170 H147:AT147 H176:AT177 H48:AU51 H46:AT47 H68:AU76 H67:AT67 H78:AU83 H77:AT77 H85:AU90 H84:AT84 H97:AU98 H96:AT96 H109:AT109 H196:AT197 H188:AT194 H42:AU42 H100:AU108 H110:AU123">
-    <cfRule type="cellIs" dxfId="31" priority="87" operator="equal">
+  <conditionalFormatting sqref="H6:AU19 H21:AU40 H20:AT20 H60:AU66 H59:AT59 H92:AU95 H91:AT91 H125:AU134 H124:AT124 H136:AU138 H135:AT135 H195:AU195 H198:AU198 H228:AU301 H200:AU202 H199:AT199 H204:AU205 H203:AT203 H207:AU210 H206:AT206 H216:AU218 H213:AT215 H221:AU221 H219:AT220 H224:AU224 H222:AT223 H225:AT227 H44:AU45 H43:AT43 H53:AU58 H52:AT52 H173:AU173 H175:AU175 H174:AT174 H212:AU212 H211:AT211 H140:AU141 H139:AT139 H178:AU187 H171:AT172 H145:AU146 H143:AT144 H148:AU170 H147:AT147 H176:AT177 H48:AU51 H46:AT47 H68:AU76 H67:AT67 H78:AU83 H77:AT77 H85:AU90 H84:AT84 H97:AU98 H96:AT96 H109:AT109 H196:AT197 H188:AT194 H42:AU42 H100:AU108 H110:AU123">
+    <cfRule type="cellIs" dxfId="39" priority="91" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="92" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="93" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="expression" dxfId="28" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="86" stopIfTrue="1">
       <formula>LEFT($C24,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="cellIs" dxfId="27" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="87" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="88" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="89" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="29" stopIfTrue="1">
       <formula>LEFT($C20,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU59">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
       <formula>LEFT($C59,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU91">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="27" stopIfTrue="1">
       <formula>LEFT($C91,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU124">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="26" stopIfTrue="1">
       <formula>LEFT($C124,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU135">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="25" stopIfTrue="1">
       <formula>LEFT($C135,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>LEFT($C43,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>LEFT($C52,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>LEFT($C197,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:AU41">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>LEFT($C41,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:AU41">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:AU99">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>LEFT($C99,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:AU99">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142:AU142">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>LEFT($C142,2)="BG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H142:AU142">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"CM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66989,16 +67313,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="281" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="279"/>
+      <c r="B1" s="282"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="283" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="283"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -67041,16 +67365,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="277" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="279" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="275"/>
-      <c r="B10" s="277"/>
+      <c r="A10" s="278"/>
+      <c r="B10" s="280"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -67330,31 +67654,31 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="164"/>
       <c r="B5" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
     </row>
   </sheetData>
@@ -67374,166 +67698,166 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B1" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="F1" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F2" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B3" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="F3" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="B4" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="F4" s="161" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="B5" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="B7" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="B8" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="B9" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="B10" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="B11" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="B12" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="B13" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="B14" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B15" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B16" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="B17" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="B18" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B19" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -67541,12 +67865,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -67555,8 +67879,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </AresNumber>
+    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </Unit_Dir0_tax>
+    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67743,31 +68078,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </AresNumber>
-    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </Unit_Dir0_tax>
-    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
   <xsnLocation/>
@@ -67777,10 +68092,29 @@
 </customXsn>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -67806,35 +68140,25 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Documents\GitHub\eprocurementontology\eprocurementontology\v2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12312" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12335" uniqueCount="1562">
   <si>
     <t>ID</t>
   </si>
@@ -5954,9 +5954,6 @@
 (WG Approval 2019-01-22)</t>
   </si>
   <si>
-    <t>SubcontractTerms?</t>
-  </si>
-  <si>
     <r>
       <t>AwardCriterionEvaluationDimension.</t>
     </r>
@@ -7493,6 +7490,83 @@
   </si>
   <si>
     <t>Procedure.Lot.ContractTerms.ePayment.Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubcontractTerms?
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has Contract Terms,
+Contract Terms has Subcontract Terms,
+Subontract Terms hasSubcontractRestriction Code</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has Contract Terms,
+Contract Terms has Subcontract Terms,
+SubcontractTerms hasMinimumShare</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has Contract Terms,
+Contract Terms has Subcontract Terms,
+Succontract Terms hasMaximumShare</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Award Criterion isUsedToAward Lot</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Award Criterion isUsedToAward Lot,
+Lot hasID Identifier</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot isReferredToIn Procurement Criterion Property,
+Procurement Criterion Property isa Property,
+Criterion has Information Criterion,
+Criterion has Award-Criterion-Property</t>
+  </si>
+  <si>
+    <t>Criterion hasName Text</t>
+  </si>
+  <si>
+    <t>Criterion hasDescription Text</t>
+  </si>
+  <si>
+    <t>AwardCriterion hasFixedValue Numeric</t>
+  </si>
+  <si>
+    <t>Criterion has weight-type</t>
+  </si>
+  <si>
+    <t>AwardCriterion has number-threshold</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Technique isUsedIn Lot</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Technique isUsedIn Lot,
+Lot hasID Identifier</t>
+  </si>
+  <si>
+    <t>Procedure uses Framework Agreement Terms,
+Framework Agreement Terms hasFrameworkAgreementType Code</t>
+  </si>
+  <si>
+    <t>Procedure uses Framework Agreement Terms,
+Framework Agreement Terms hasMaximumNumberofAwardedTenderers Amount</t>
+  </si>
+  <si>
+    <t>Procedure uses Framework Agreement Terms,
+Framework Agreement Terms hasDurationExtensionJustification Text</t>
+  </si>
+  <si>
+    <t>Everis mapping</t>
   </si>
 </sst>
 </file>
@@ -8742,7 +8816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9444,6 +9518,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9554,18 +9634,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -9584,34 +9661,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10026,7 +10075,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10315,14 +10364,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="41" customWidth="1"/>
@@ -10360,95 +10406,99 @@
     <col min="50" max="50" width="33.140625" style="80" customWidth="1"/>
     <col min="51" max="51" width="45" style="80" customWidth="1"/>
     <col min="52" max="54" width="9.140625" style="58"/>
+    <col min="55" max="55" width="14.5703125" style="286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="270" t="s">
+    <row r="1" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="272" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="262" t="s">
+      <c r="C1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="262" t="s">
+      <c r="D1" s="264" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="262" t="s">
+      <c r="E1" s="264" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="264" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="274" t="s">
+      <c r="G1" s="276" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="253" t="s">
+      <c r="H1" s="255" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="253" t="s">
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="275"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="255" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="254"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="254"/>
-      <c r="AD1" s="255"/>
-      <c r="AE1" s="253" t="s">
+      <c r="Q1" s="256"/>
+      <c r="R1" s="256"/>
+      <c r="S1" s="256"/>
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="256"/>
+      <c r="AA1" s="256"/>
+      <c r="AB1" s="256"/>
+      <c r="AC1" s="256"/>
+      <c r="AD1" s="257"/>
+      <c r="AE1" s="255" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="254"/>
-      <c r="AH1" s="255"/>
-      <c r="AI1" s="253" t="s">
+      <c r="AF1" s="256"/>
+      <c r="AG1" s="256"/>
+      <c r="AH1" s="257"/>
+      <c r="AI1" s="255" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="254"/>
-      <c r="AK1" s="254"/>
-      <c r="AL1" s="254"/>
-      <c r="AM1" s="254"/>
-      <c r="AN1" s="254"/>
-      <c r="AO1" s="254"/>
-      <c r="AP1" s="254"/>
-      <c r="AQ1" s="255"/>
-      <c r="AR1" s="253" t="s">
+      <c r="AJ1" s="256"/>
+      <c r="AK1" s="256"/>
+      <c r="AL1" s="256"/>
+      <c r="AM1" s="256"/>
+      <c r="AN1" s="256"/>
+      <c r="AO1" s="256"/>
+      <c r="AP1" s="256"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="255" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="254"/>
-      <c r="AT1" s="255"/>
-      <c r="AU1" s="258" t="s">
+      <c r="AS1" s="256"/>
+      <c r="AT1" s="257"/>
+      <c r="AU1" s="260" t="s">
         <v>1163</v>
       </c>
-      <c r="AV1" s="259" t="s">
+      <c r="AV1" s="261" t="s">
         <v>1149</v>
       </c>
-      <c r="AX1" s="260" t="s">
+      <c r="AX1" s="262" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="261"/>
-      <c r="AZ1" s="261"/>
+      <c r="AY1" s="263"/>
+      <c r="AZ1" s="263"/>
+      <c r="BC1" s="286" t="s">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="2" spans="2:54" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="271"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="275"/>
+    <row r="2" spans="2:55" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="273"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="277"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10566,115 +10616,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="258"/>
-      <c r="AV2" s="259"/>
+      <c r="AU2" s="260"/>
+      <c r="AV2" s="261"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="248" t="s">
+      <c r="AX2" s="250" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="248" t="s">
+      <c r="AY2" s="250" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="248" t="s">
+      <c r="AZ2" s="250" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="248" t="s">
+      <c r="BB2" s="250" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="2:54" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="271"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="266" t="s">
+    <row r="3" spans="2:55" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="273"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="268" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="257"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="268" t="s">
+      <c r="I3" s="259"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="270" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="257"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="268" t="s">
+      <c r="L3" s="259"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="270" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="265"/>
-      <c r="P3" s="266" t="s">
+      <c r="O3" s="267"/>
+      <c r="P3" s="268" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="268" t="s">
+      <c r="Q3" s="271"/>
+      <c r="R3" s="270" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="257"/>
-      <c r="T3" s="269"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="271"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="268" t="s">
+      <c r="V3" s="270" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="268" t="s">
+      <c r="W3" s="259"/>
+      <c r="X3" s="259"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="270" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="269"/>
+      <c r="AA3" s="271"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="268" t="s">
+      <c r="AC3" s="270" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="265"/>
-      <c r="AE3" s="266" t="s">
+      <c r="AD3" s="267"/>
+      <c r="AE3" s="268" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="257"/>
-      <c r="AG3" s="257"/>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266" t="s">
+      <c r="AF3" s="259"/>
+      <c r="AG3" s="259"/>
+      <c r="AH3" s="267"/>
+      <c r="AI3" s="268" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="257"/>
-      <c r="AK3" s="257"/>
-      <c r="AL3" s="267"/>
-      <c r="AM3" s="256" t="s">
+      <c r="AJ3" s="259"/>
+      <c r="AK3" s="259"/>
+      <c r="AL3" s="269"/>
+      <c r="AM3" s="258" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="257"/>
-      <c r="AO3" s="267"/>
-      <c r="AP3" s="256" t="s">
+      <c r="AN3" s="259"/>
+      <c r="AO3" s="269"/>
+      <c r="AP3" s="258" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="265"/>
-      <c r="AR3" s="256" t="s">
+      <c r="AQ3" s="267"/>
+      <c r="AR3" s="258" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="257"/>
-      <c r="AT3" s="257"/>
-      <c r="AU3" s="258"/>
-      <c r="AV3" s="259"/>
+      <c r="AS3" s="259"/>
+      <c r="AT3" s="259"/>
+      <c r="AU3" s="260"/>
+      <c r="AV3" s="261"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="249"/>
-      <c r="AY3" s="249"/>
-      <c r="AZ3" s="249"/>
+      <c r="AX3" s="251"/>
+      <c r="AY3" s="251"/>
+      <c r="AZ3" s="251"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="249"/>
+      <c r="BB3" s="251"/>
     </row>
-    <row r="4" spans="2:54" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="272"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="276"/>
+    <row r="4" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="274"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="278"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10792,18 +10842,18 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="258"/>
-      <c r="AV4" s="259"/>
+      <c r="AU4" s="260"/>
+      <c r="AV4" s="261"/>
       <c r="AW4" s="212" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AX4" s="249"/>
-      <c r="AY4" s="249"/>
-      <c r="AZ4" s="249"/>
+        <v>1316</v>
+      </c>
+      <c r="AX4" s="251"/>
+      <c r="AY4" s="251"/>
+      <c r="AZ4" s="251"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="249"/>
+      <c r="BB4" s="251"/>
     </row>
-    <row r="5" spans="2:54" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
       <c r="C5" s="202"/>
       <c r="D5" s="202"/>
@@ -10851,16 +10901,16 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="250" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AX5" s="251"/>
-      <c r="AY5" s="252"/>
+      <c r="AW5" s="252" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AX5" s="253"/>
+      <c r="AY5" s="254"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
     </row>
-    <row r="6" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>206</v>
       </c>
@@ -11004,7 +11054,7 @@
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -11013,7 +11063,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="7" spans="2:54" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:55" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
         <v>207</v>
       </c>
@@ -11151,7 +11201,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
         <v>207</v>
       </c>
@@ -11292,10 +11342,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11307,7 +11357,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="95" t="s">
         <v>207</v>
       </c>
@@ -11446,15 +11496,16 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
       <c r="AZ9" s="66"/>
       <c r="BA9" s="66"/>
       <c r="BB9" s="67"/>
+      <c r="BC9" s="286"/>
     </row>
-    <row r="10" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B10" s="181" t="s">
         <v>207</v>
       </c>
@@ -11597,7 +11648,7 @@
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AX10" s="219" t="s">
         <v>981</v>
@@ -11611,7 +11662,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B11" s="181" t="s">
         <v>207</v>
       </c>
@@ -11754,7 +11805,7 @@
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AX11" s="219" t="s">
         <v>983</v>
@@ -11768,7 +11819,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="181" t="s">
         <v>207</v>
       </c>
@@ -11909,7 +11960,7 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AX12" s="219" t="s">
         <v>985</v>
@@ -11923,7 +11974,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="181" t="s">
         <v>207</v>
       </c>
@@ -12064,17 +12115,17 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
       <c r="BA13" s="221"/>
       <c r="BB13" s="221"/>
     </row>
-    <row r="14" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B14" s="181" t="s">
         <v>207</v>
       </c>
@@ -12215,17 +12266,17 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
       <c r="BA14" s="221"/>
       <c r="BB14" s="221"/>
     </row>
-    <row r="15" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B15" s="181" t="s">
         <v>207</v>
       </c>
@@ -12366,17 +12417,17 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
       <c r="BA15" s="221"/>
       <c r="BB15" s="221"/>
     </row>
-    <row r="16" spans="2:54" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:55" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="181" t="s">
         <v>206</v>
       </c>
@@ -12512,7 +12563,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12654,16 +12705,16 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
       <c r="BA17" s="145"/>
       <c r="BB17" s="145"/>
-      <c r="BC17"/>
+      <c r="BC17" s="286"/>
       <c r="BD17"/>
       <c r="BE17"/>
       <c r="BF17"/>
@@ -29129,10 +29180,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -29275,7 +29326,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29583,6 +29634,7 @@
       <c r="AZ21" s="67"/>
       <c r="BA21" s="67"/>
       <c r="BB21" s="67"/>
+      <c r="BC21" s="286"/>
     </row>
     <row r="22" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
@@ -29722,7 +29774,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29868,7 +29920,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -30160,7 +30212,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -31189,7 +31241,7 @@
       <c r="BA32" s="73"/>
       <c r="BB32" s="73"/>
     </row>
-    <row r="33" spans="2:54" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:55" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>207</v>
       </c>
@@ -31335,7 +31387,7 @@
       <c r="BA33" s="73"/>
       <c r="BB33" s="73"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>207</v>
       </c>
@@ -31481,7 +31533,7 @@
       <c r="BA34" s="73"/>
       <c r="BB34" s="73"/>
     </row>
-    <row r="35" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>207</v>
       </c>
@@ -31619,7 +31671,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31627,7 +31679,7 @@
       <c r="BA35" s="73"/>
       <c r="BB35" s="73"/>
     </row>
-    <row r="36" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B36" s="181" t="s">
         <v>207</v>
       </c>
@@ -31765,17 +31817,17 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
       <c r="BA36" s="77"/>
       <c r="BB36" s="77"/>
     </row>
-    <row r="37" spans="2:54" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B37" s="95" t="s">
         <v>207</v>
       </c>
@@ -31923,8 +31975,9 @@
       <c r="BB37" s="66" t="s">
         <v>321</v>
       </c>
+      <c r="BC37" s="286"/>
     </row>
-    <row r="38" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>207</v>
       </c>
@@ -32060,7 +32113,7 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -32073,7 +32126,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="39" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="181" t="s">
         <v>208</v>
       </c>
@@ -32209,7 +32262,7 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -32218,7 +32271,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="2:54" s="197" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:55" s="197" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B40" s="182" t="s">
         <v>208</v>
       </c>
@@ -32356,7 +32409,7 @@
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32364,8 +32417,9 @@
       <c r="BB40" s="196" t="s">
         <v>321</v>
       </c>
+      <c r="BC40" s="286"/>
     </row>
-    <row r="41" spans="2:54" s="197" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:55" s="197" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="182" t="s">
         <v>208</v>
       </c>
@@ -32451,7 +32505,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32459,8 +32513,9 @@
       <c r="BB41" s="196" t="s">
         <v>328</v>
       </c>
+      <c r="BC41" s="286"/>
     </row>
-    <row r="42" spans="2:54" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:55" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="182" t="s">
         <v>208</v>
       </c>
@@ -32598,7 +32653,7 @@
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32606,8 +32661,9 @@
       <c r="BB42" s="196" t="s">
         <v>321</v>
       </c>
+      <c r="BC42" s="286"/>
     </row>
-    <row r="43" spans="2:54" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:55" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="182" t="s">
         <v>208</v>
       </c>
@@ -32745,7 +32801,7 @@
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32753,8 +32809,9 @@
       <c r="BB43" s="196" t="s">
         <v>321</v>
       </c>
+      <c r="BC43" s="286"/>
     </row>
-    <row r="44" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -32850,7 +32907,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="45" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
         <v>208</v>
       </c>
@@ -32995,7 +33052,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="2:54" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>208</v>
       </c>
@@ -33139,7 +33196,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="2:54" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>208</v>
       </c>
@@ -33236,7 +33293,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="2:54" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:55" ht="102" x14ac:dyDescent="0.2">
       <c r="B48" s="21" t="s">
         <v>206</v>
       </c>
@@ -33377,10 +33434,10 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -33531,7 +33588,7 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -33681,7 +33738,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33829,10 +33886,10 @@
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -33982,7 +34039,7 @@
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -34283,7 +34340,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34431,10 +34488,10 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -34580,7 +34637,7 @@
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34591,7 +34648,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34720,10 +34777,10 @@
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34863,10 +34920,10 @@
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -35009,10 +35066,10 @@
         <v>1153</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
@@ -35160,7 +35217,7 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
@@ -35310,13 +35367,13 @@
         <v>1180</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35460,13 +35517,13 @@
         <v>1179</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="AW62" s="218" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AX62" s="62" t="s">
         <v>1347</v>
-      </c>
-      <c r="AX62" s="62" t="s">
-        <v>1348</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35610,11 +35667,11 @@
         <v>1209</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35757,13 +35814,13 @@
         <v>1272</v>
       </c>
       <c r="AV64" s="167" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AW64" s="218" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AX64" s="62" t="s">
         <v>1349</v>
-      </c>
-      <c r="AW64" s="218" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AX64" s="62" t="s">
-        <v>1350</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35907,13 +35964,13 @@
         <v>1209</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="AY65" s="80" t="s">
         <v>1262</v>
@@ -36215,13 +36272,13 @@
         <v>1273</v>
       </c>
       <c r="AV67" s="227" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AW67" s="229" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AX67" s="62" t="s">
         <v>1355</v>
-      </c>
-      <c r="AW67" s="229" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AX67" s="62" t="s">
-        <v>1356</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36367,13 +36424,13 @@
         <v>1212</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AY68" s="80" t="s">
         <v>1224</v>
@@ -36520,10 +36577,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AW69" s="229" t="s">
         <v>1374</v>
-      </c>
-      <c r="AW69" s="229" t="s">
-        <v>1375</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36669,10 +36726,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AX70" s="63" t="s">
         <v>1376</v>
-      </c>
-      <c r="AX70" s="63" t="s">
-        <v>1377</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36819,10 +36876,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -36969,10 +37026,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -37119,10 +37176,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -37269,10 +37326,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37416,10 +37473,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37562,16 +37619,16 @@
         <v>1209</v>
       </c>
       <c r="AV76" s="228" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AW76" s="229" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AX76" s="62" t="s">
         <v>1365</v>
       </c>
-      <c r="AW76" s="229" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AX76" s="62" t="s">
-        <v>1366</v>
-      </c>
       <c r="AY76" s="62" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37717,13 +37774,13 @@
         <v>1268</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="AY77" s="62" t="s">
         <v>1269</v>
@@ -37868,7 +37925,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -38016,10 +38073,10 @@
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AY79" s="62" t="s">
         <v>1380</v>
-      </c>
-      <c r="AY79" s="62" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -38159,16 +38216,16 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AX80" s="62" t="s">
         <v>1383</v>
-      </c>
-      <c r="AX80" s="62" t="s">
-        <v>1384</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
@@ -38314,16 +38371,16 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AX81" s="62" t="s">
         <v>1385</v>
-      </c>
-      <c r="AX81" s="62" t="s">
-        <v>1386</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
@@ -38473,10 +38530,10 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AX82" s="62" t="s">
         <v>1387</v>
-      </c>
-      <c r="AX82" s="62" t="s">
-        <v>1388</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
@@ -38625,16 +38682,16 @@
         <v>1191</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="AW83" s="218" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AX83" s="62" t="s">
         <v>1389</v>
       </c>
-      <c r="AX83" s="62" t="s">
+      <c r="AY83" s="62" t="s">
         <v>1390</v>
-      </c>
-      <c r="AY83" s="62" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38774,19 +38831,19 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AV84" s="230" t="s">
         <v>1393</v>
       </c>
-      <c r="AV84" s="230" t="s">
+      <c r="AW84" s="218" t="s">
         <v>1394</v>
       </c>
-      <c r="AW84" s="218" t="s">
+      <c r="AX84" s="62" t="s">
         <v>1395</v>
       </c>
-      <c r="AX84" s="62" t="s">
+      <c r="AY84" s="62" t="s">
         <v>1396</v>
-      </c>
-      <c r="AY84" s="62" t="s">
-        <v>1397</v>
       </c>
       <c r="BB84" s="178" t="s">
         <v>1025</v>
@@ -38932,13 +38989,13 @@
         <v>1209</v>
       </c>
       <c r="AV85" s="230" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="AW85" s="218" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AX85" s="62" t="s">
         <v>1398</v>
-      </c>
-      <c r="AX85" s="62" t="s">
-        <v>1399</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -39227,10 +39284,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39370,19 +39427,19 @@
         <v>371</v>
       </c>
       <c r="AU88" s="239" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AV88" s="240" t="s">
         <v>1446</v>
       </c>
-      <c r="AV88" s="240" t="s">
-        <v>1447</v>
-      </c>
       <c r="AW88" s="236" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AX88" s="62" t="s">
         <v>1444</v>
       </c>
-      <c r="AX88" s="62" t="s">
-        <v>1445</v>
-      </c>
       <c r="AY88" s="80" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39525,7 +39582,7 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
@@ -39662,16 +39719,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39812,19 +39869,19 @@
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AX91" s="62" t="s">
         <v>1406</v>
       </c>
-      <c r="AX91" s="62" t="s">
+      <c r="AY91" s="179" t="s">
         <v>1407</v>
-      </c>
-      <c r="AY91" s="179" t="s">
-        <v>1408</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:54" ht="153" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>207</v>
       </c>
@@ -39959,13 +40016,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -40112,13 +40169,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -40199,7 +40256,7 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="AX94" s="62" t="s">
         <v>1225</v>
@@ -40351,10 +40408,10 @@
         <v>1213</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40500,10 +40557,10 @@
         <v>1194</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40647,10 +40704,10 @@
         <v>1210</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40799,7 +40856,7 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -40906,13 +40963,13 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AX99" s="62" t="s">
         <v>1418</v>
       </c>
-      <c r="AX99" s="62" t="s">
+      <c r="AY99" s="62" t="s">
         <v>1419</v>
-      </c>
-      <c r="AY99" s="62" t="s">
-        <v>1420</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
@@ -41061,10 +41118,10 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -41355,10 +41412,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AX102" s="62" t="s">
         <v>1423</v>
-      </c>
-      <c r="AX102" s="62" t="s">
-        <v>1424</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41506,10 +41563,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41658,10 +41715,10 @@
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AX104" s="62" t="s">
         <v>1428</v>
-      </c>
-      <c r="AX104" s="62" t="s">
-        <v>1429</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -41811,10 +41868,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -41958,10 +42015,10 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AX106" s="62" t="s">
         <v>1431</v>
-      </c>
-      <c r="AX106" s="62" t="s">
-        <v>1432</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -42111,10 +42168,10 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -42266,13 +42323,13 @@
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AX108" s="80" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AY108" s="80" t="s">
         <v>1436</v>
-      </c>
-      <c r="AX108" s="80" t="s">
-        <v>1435</v>
-      </c>
-      <c r="AY108" s="80" t="s">
-        <v>1437</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42416,13 +42473,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="AW109" s="219" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AX109" s="80" t="s">
         <v>1438</v>
-      </c>
-      <c r="AX109" s="80" t="s">
-        <v>1439</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42565,16 +42622,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42718,10 +42775,10 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="218" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42868,10 +42925,10 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="218" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BB112" s="61" t="s">
         <v>1029</v>
@@ -43018,13 +43075,13 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="218" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="AY113" s="80" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
@@ -43171,13 +43228,13 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="218" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="AX114" s="80" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="AY114" s="80" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="BB114" s="58" t="s">
         <v>1025</v>
@@ -43324,13 +43381,13 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="218" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
@@ -43477,13 +43534,13 @@
         <v>43711</v>
       </c>
       <c r="AW116" s="218" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AX116" s="62" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AY116" s="62" t="s">
         <v>1461</v>
-      </c>
-      <c r="AX116" s="62" t="s">
-        <v>1459</v>
-      </c>
-      <c r="AY116" s="62" t="s">
-        <v>1462</v>
       </c>
       <c r="BB116" s="176" t="s">
         <v>324</v>
@@ -43630,10 +43687,10 @@
         <v>43711</v>
       </c>
       <c r="AW117" s="218" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
@@ -43776,16 +43833,16 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AV118" s="216">
         <v>43711</v>
       </c>
       <c r="AW118" s="218" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="BB118" s="242" t="s">
         <v>321</v>
@@ -43928,16 +43985,16 @@
         <v>369</v>
       </c>
       <c r="AU119" s="241" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="AV119" s="216">
         <v>43711</v>
       </c>
       <c r="AW119" s="218" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -44080,16 +44137,16 @@
         <v>369</v>
       </c>
       <c r="AU120" s="243" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AV120" s="216">
         <v>43713</v>
       </c>
       <c r="AW120" s="218" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AX120" s="80" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="BB120" s="244" t="s">
         <v>1031</v>
@@ -44232,7 +44289,7 @@
         <v>369</v>
       </c>
       <c r="AU121" s="139" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="AV121" s="216">
         <v>43713</v>
@@ -44240,7 +44297,7 @@
       <c r="AW121" s="231"/>
       <c r="AX121" s="62"/>
       <c r="AY121" s="62" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="BB121" s="61" t="s">
         <v>1030</v>
@@ -44377,16 +44434,16 @@
         <v>369</v>
       </c>
       <c r="AU122" s="139" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AV122" s="216">
         <v>43713</v>
       </c>
       <c r="AW122" s="218" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AX122" s="62" t="s">
         <v>1475</v>
-      </c>
-      <c r="AX122" s="62" t="s">
-        <v>1476</v>
       </c>
       <c r="AY122" s="62" t="s">
         <v>1033</v>
@@ -44536,13 +44593,13 @@
         <v>43713</v>
       </c>
       <c r="AW123" s="218" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AX123" s="62" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AY123" s="62" t="s">
         <v>1478</v>
-      </c>
-      <c r="AX123" s="62" t="s">
-        <v>1477</v>
-      </c>
-      <c r="AY123" s="62" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -44644,13 +44701,13 @@
         <v>43713</v>
       </c>
       <c r="AW124" s="218" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AX124" s="62" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AY124" s="62" t="s">
         <v>1481</v>
-      </c>
-      <c r="AX124" s="62" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AY124" s="62" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -44746,7 +44803,7 @@
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="139" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AV125" s="216">
         <v>43713</v>
@@ -44859,10 +44916,10 @@
         <v>43713</v>
       </c>
       <c r="AW126" s="218" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AX126" s="62" t="s">
         <v>1483</v>
-      </c>
-      <c r="AX126" s="62" t="s">
-        <v>1484</v>
       </c>
       <c r="BB126" s="61" t="s">
         <v>324</v>
@@ -44965,10 +45022,10 @@
         <v>43713</v>
       </c>
       <c r="AW127" s="218" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AX127" s="62" t="s">
         <v>1485</v>
-      </c>
-      <c r="AX127" s="62" t="s">
-        <v>1486</v>
       </c>
       <c r="AY127" s="80" t="s">
         <v>1035</v>
@@ -45114,7 +45171,7 @@
       <c r="AU128" s="139"/>
       <c r="AW128" s="79"/>
     </row>
-    <row r="129" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
         <v>207</v>
       </c>
@@ -45203,11 +45260,11 @@
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="139" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AW129" s="79"/>
     </row>
-    <row r="130" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
         <v>208</v>
       </c>
@@ -45308,11 +45365,11 @@
       <c r="AS130" s="23"/>
       <c r="AT130" s="24"/>
       <c r="AU130" s="139" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AW130" s="79"/>
     </row>
-    <row r="131" spans="2:54" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B131" s="95" t="s">
         <v>208</v>
       </c>
@@ -45402,13 +45459,13 @@
       <c r="AT131" s="101"/>
       <c r="AU131" s="139"/>
       <c r="AV131" s="225" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AW131" s="154" t="s">
+        <v>1488</v>
+      </c>
+      <c r="AX131" s="69" t="s">
         <v>1489</v>
-      </c>
-      <c r="AX131" s="69" t="s">
-        <v>1490</v>
       </c>
       <c r="AY131" s="70"/>
       <c r="AZ131" s="66"/>
@@ -45416,8 +45473,9 @@
       <c r="BB131" s="66" t="s">
         <v>321</v>
       </c>
+      <c r="BC131" s="286"/>
     </row>
-    <row r="132" spans="2:54" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:55" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="95" t="s">
         <v>208</v>
       </c>
@@ -45507,13 +45565,13 @@
       <c r="AT132" s="101"/>
       <c r="AU132" s="139"/>
       <c r="AV132" s="225" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AW132" s="167" t="s">
         <v>1491</v>
       </c>
-      <c r="AW132" s="167" t="s">
+      <c r="AX132" s="69" t="s">
         <v>1492</v>
-      </c>
-      <c r="AX132" s="69" t="s">
-        <v>1493</v>
       </c>
       <c r="AY132" s="70"/>
       <c r="AZ132" s="66"/>
@@ -45521,8 +45579,9 @@
       <c r="BB132" s="66" t="s">
         <v>321</v>
       </c>
+      <c r="BC132" s="286"/>
     </row>
-    <row r="133" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
         <v>206</v>
       </c>
@@ -45661,7 +45720,7 @@
       <c r="AU133" s="139"/>
       <c r="AW133" s="79"/>
     </row>
-    <row r="134" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>207</v>
       </c>
@@ -45800,7 +45859,7 @@
       <c r="AU134" s="139"/>
       <c r="AW134" s="79"/>
     </row>
-    <row r="135" spans="2:54" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:55" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="21" t="s">
         <v>207</v>
       </c>
@@ -45937,22 +45996,22 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AV135" s="235" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AW135" s="218" t="s">
         <v>1496</v>
       </c>
-      <c r="AW135" s="218" t="s">
+      <c r="AX135" s="62" t="s">
         <v>1497</v>
-      </c>
-      <c r="AX135" s="62" t="s">
-        <v>1498</v>
       </c>
       <c r="BB135" s="61" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B136" s="21" t="s">
         <v>207</v>
       </c>
@@ -46089,25 +46148,25 @@
         <v>369</v>
       </c>
       <c r="AU136" s="139" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AV136" s="216">
         <v>43718</v>
       </c>
       <c r="AW136" s="63" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AX136" s="62" t="s">
         <v>1502</v>
       </c>
-      <c r="AX136" s="62" t="s">
-        <v>1503</v>
-      </c>
       <c r="AY136" s="62" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="BB136" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="137" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
         <v>207</v>
       </c>
@@ -46244,25 +46303,25 @@
         <v>369</v>
       </c>
       <c r="AU137" s="139" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AV137" s="216">
         <v>43720</v>
       </c>
-      <c r="AW137" s="284" t="s">
-        <v>1504</v>
+      <c r="AW137" s="248" t="s">
+        <v>1503</v>
       </c>
       <c r="AX137" s="80" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AY137" s="80" t="s">
         <v>1506</v>
-      </c>
-      <c r="AY137" s="80" t="s">
-        <v>1507</v>
       </c>
       <c r="BB137" s="58" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="138" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B138" s="21" t="s">
         <v>207</v>
       </c>
@@ -46399,25 +46458,25 @@
         <v>369</v>
       </c>
       <c r="AU138" s="139" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AV138" s="216">
         <v>43720</v>
       </c>
-      <c r="AW138" s="284" t="s">
+      <c r="AW138" s="248" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AX138" s="80" t="s">
         <v>1508</v>
       </c>
-      <c r="AX138" s="80" t="s">
+      <c r="AY138" s="80" t="s">
         <v>1509</v>
-      </c>
-      <c r="AY138" s="80" t="s">
-        <v>1510</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="139" spans="2:54" ht="105" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:55" ht="105" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
         <v>207</v>
       </c>
@@ -46509,22 +46568,22 @@
         <v>1274</v>
       </c>
       <c r="AV139" s="230" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AW139" s="249" t="s">
         <v>1512</v>
       </c>
-      <c r="AW139" s="285" t="s">
+      <c r="AX139" s="62" t="s">
         <v>1513</v>
       </c>
-      <c r="AX139" s="62" t="s">
+      <c r="AY139" s="62" t="s">
         <v>1514</v>
-      </c>
-      <c r="AY139" s="62" t="s">
-        <v>1515</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="140" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B140" s="21" t="s">
         <v>206</v>
       </c>
@@ -46636,7 +46695,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="141" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>207</v>
       </c>
@@ -46776,17 +46835,17 @@
       <c r="AV141" s="216">
         <v>43720</v>
       </c>
-      <c r="AW141" s="285" t="s">
-        <v>1516</v>
+      <c r="AW141" s="249" t="s">
+        <v>1515</v>
       </c>
       <c r="AX141" s="62" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="BB141" s="246" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B142" s="21" t="s">
         <v>207</v>
       </c>
@@ -46887,19 +46946,19 @@
         <v>371</v>
       </c>
       <c r="AU142" s="245" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="AV142" s="216">
         <v>43720</v>
       </c>
-      <c r="AW142" s="285" t="s">
+      <c r="AW142" s="249" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AX142" s="62" t="s">
         <v>1518</v>
       </c>
-      <c r="AX142" s="62" t="s">
+      <c r="AY142" s="80" t="s">
         <v>1519</v>
-      </c>
-      <c r="AY142" s="80" t="s">
-        <v>1520</v>
       </c>
       <c r="AZ142" s="247"/>
       <c r="BA142" s="247"/>
@@ -46907,7 +46966,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="2:54" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:55" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B143" s="21" t="s">
         <v>207</v>
       </c>
@@ -47002,16 +47061,16 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AV143" s="230" t="s">
         <v>1521</v>
       </c>
-      <c r="AV143" s="230" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AW143" s="285" t="s">
-        <v>1525</v>
+      <c r="AW143" s="249" t="s">
+        <v>1524</v>
       </c>
       <c r="AX143" s="62" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="AY143" s="62" t="s">
         <v>1266</v>
@@ -47020,7 +47079,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="144" spans="2:54" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:55" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" s="21" t="s">
         <v>207</v>
       </c>
@@ -47157,16 +47216,16 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AV144" s="230" t="s">
         <v>1523</v>
       </c>
-      <c r="AV144" s="230" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AW144" s="285" t="s">
-        <v>1530</v>
+      <c r="AW144" s="249" t="s">
+        <v>1529</v>
       </c>
       <c r="AX144" s="62" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="AY144" s="62" t="s">
         <v>737</v>
@@ -47176,7 +47235,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B145" s="21" t="s">
         <v>207</v>
       </c>
@@ -47316,21 +47375,21 @@
       <c r="AV145" s="216">
         <v>43720</v>
       </c>
-      <c r="AW145" s="285" t="s">
-        <v>1529</v>
+      <c r="AW145" s="249" t="s">
+        <v>1528</v>
       </c>
       <c r="AX145" s="62" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="AY145" s="62" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="AZ145" s="177"/>
       <c r="BB145" s="246" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B146" s="21" t="s">
         <v>207</v>
       </c>
@@ -47428,21 +47487,21 @@
       <c r="AV146" s="216">
         <v>43720</v>
       </c>
-      <c r="AW146" s="285" t="s">
+      <c r="AW146" s="249" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AX146" s="62" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AY146" s="62" t="s">
         <v>1532</v>
-      </c>
-      <c r="AX146" s="62" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AY146" s="62" t="s">
-        <v>1533</v>
       </c>
       <c r="AZ146" s="177"/>
       <c r="BB146" s="246" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="2:54" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:55" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
         <v>207</v>
       </c>
@@ -47579,16 +47638,16 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AV147" s="230" t="s">
         <v>1534</v>
       </c>
-      <c r="AV147" s="230" t="s">
+      <c r="AW147" s="63" t="s">
         <v>1535</v>
       </c>
-      <c r="AW147" s="63" t="s">
-        <v>1536</v>
-      </c>
       <c r="AX147" s="62" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="AY147" s="62" t="s">
         <v>1267</v>
@@ -47597,7 +47656,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>207</v>
       </c>
@@ -47695,20 +47754,20 @@
       <c r="AV148" s="216">
         <v>43720</v>
       </c>
-      <c r="AW148" s="285" t="s">
+      <c r="AW148" s="249" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AX148" s="62" t="s">
         <v>1539</v>
       </c>
-      <c r="AX148" s="62" t="s">
+      <c r="AY148" s="62" t="s">
         <v>1540</v>
-      </c>
-      <c r="AY148" s="62" t="s">
-        <v>1541</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B149" s="21" t="s">
         <v>207</v>
       </c>
@@ -47806,20 +47865,20 @@
       <c r="AV149" s="216">
         <v>43720</v>
       </c>
-      <c r="AW149" s="285" t="s">
+      <c r="AW149" s="249" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AX149" s="62" t="s">
         <v>1543</v>
       </c>
-      <c r="AX149" s="62" t="s">
-        <v>1544</v>
-      </c>
       <c r="AY149" s="62" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="150" spans="2:54" s="116" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:55" s="116" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="B150" s="106" t="s">
         <v>207</v>
       </c>
@@ -47934,15 +47993,18 @@
         <v>20190328</v>
       </c>
       <c r="AW150" s="86" t="s">
-        <v>1276</v>
+        <v>1544</v>
       </c>
       <c r="AX150" s="87"/>
       <c r="AY150" s="88"/>
       <c r="AZ150" s="89"/>
       <c r="BA150" s="89"/>
       <c r="BB150" s="90"/>
+      <c r="BC150" s="286" t="s">
+        <v>1545</v>
+      </c>
     </row>
-    <row r="151" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B151" s="106" t="s">
         <v>207</v>
       </c>
@@ -48096,8 +48158,11 @@
       <c r="BB151" s="90" t="s">
         <v>1041</v>
       </c>
+      <c r="BC151" s="286" t="s">
+        <v>1546</v>
+      </c>
     </row>
-    <row r="152" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B152" s="106" t="s">
         <v>207</v>
       </c>
@@ -48207,8 +48272,11 @@
       <c r="BB152" s="90" t="s">
         <v>1041</v>
       </c>
+      <c r="BC152" s="286" t="s">
+        <v>1547</v>
+      </c>
     </row>
-    <row r="153" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B153" s="21" t="s">
         <v>206</v>
       </c>
@@ -48340,8 +48408,11 @@
       <c r="AT153" s="24"/>
       <c r="AU153" s="139"/>
       <c r="AW153" s="79"/>
+      <c r="BC153" s="286" t="s">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="154" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B154" s="21" t="s">
         <v>207</v>
       </c>
@@ -48473,8 +48544,11 @@
       <c r="AT154" s="24"/>
       <c r="AU154" s="139"/>
       <c r="AW154" s="79"/>
+      <c r="BC154" s="286" t="s">
+        <v>1549</v>
+      </c>
     </row>
-    <row r="155" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>207</v>
       </c>
@@ -48615,8 +48689,11 @@
       <c r="BB155" s="58" t="s">
         <v>976</v>
       </c>
+      <c r="BC155" s="286" t="s">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="156" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B156" s="21" t="s">
         <v>208</v>
       </c>
@@ -48754,7 +48831,7 @@
       </c>
       <c r="AW156" s="82"/>
       <c r="AX156" s="62" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AY156" s="68" t="s">
         <v>1000</v>
@@ -48762,8 +48839,11 @@
       <c r="BB156" s="61" t="s">
         <v>1030</v>
       </c>
+      <c r="BC156" s="286" t="s">
+        <v>1550</v>
+      </c>
     </row>
-    <row r="157" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B157" s="21" t="s">
         <v>208</v>
       </c>
@@ -48885,8 +48965,11 @@
       <c r="AW157" s="82" t="s">
         <v>1046</v>
       </c>
+      <c r="BC157" s="286" t="s">
+        <v>1551</v>
+      </c>
     </row>
-    <row r="158" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B158" s="21" t="s">
         <v>208</v>
       </c>
@@ -49018,8 +49101,11 @@
       <c r="AT158" s="24"/>
       <c r="AU158" s="139"/>
       <c r="AW158" s="79"/>
+      <c r="BC158" s="286" t="s">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="159" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B159" s="21" t="s">
         <v>208</v>
       </c>
@@ -49139,8 +49225,11 @@
       <c r="AT159" s="24"/>
       <c r="AU159" s="139"/>
       <c r="AW159" s="79"/>
+      <c r="BC159" s="286" t="s">
+        <v>1553</v>
+      </c>
     </row>
-    <row r="160" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B160" s="21" t="s">
         <v>209</v>
       </c>
@@ -49277,8 +49366,11 @@
         <v>20190326</v>
       </c>
       <c r="AW160" s="79"/>
+      <c r="BC160" s="286" t="s">
+        <v>1553</v>
+      </c>
     </row>
-    <row r="161" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B161" s="95" t="s">
         <v>209</v>
       </c>
@@ -49414,8 +49506,11 @@
       <c r="BB161" s="66" t="s">
         <v>321</v>
       </c>
+      <c r="BC161" s="286" t="s">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="162" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B162" s="95" t="s">
         <v>209</v>
       </c>
@@ -49551,8 +49646,11 @@
       <c r="BB162" s="66" t="s">
         <v>321</v>
       </c>
+      <c r="BC162" s="286" t="s">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="163" spans="2:54" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B163" s="95" t="s">
         <v>209</v>
       </c>
@@ -49688,8 +49786,11 @@
       <c r="BB163" s="66" t="s">
         <v>321</v>
       </c>
+      <c r="BC163" s="286" t="s">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="164" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B164" s="21" t="s">
         <v>207</v>
       </c>
@@ -49821,8 +49922,11 @@
       <c r="AT164" s="24"/>
       <c r="AU164" s="139"/>
       <c r="AW164" s="79"/>
+      <c r="BC164" s="286" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="165" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B165" s="21" t="s">
         <v>207</v>
       </c>
@@ -49942,8 +50046,11 @@
       <c r="AT165" s="24"/>
       <c r="AU165" s="139"/>
       <c r="AW165" s="79"/>
+      <c r="BC165" s="286" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="166" spans="2:54" ht="153" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:55" ht="153" x14ac:dyDescent="0.2">
       <c r="B166" s="21" t="s">
         <v>206</v>
       </c>
@@ -50081,8 +50188,11 @@
       </c>
       <c r="AU166" s="139"/>
       <c r="AW166" s="79"/>
+      <c r="BC166" s="286" t="s">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="167" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B167" s="21" t="s">
         <v>207</v>
       </c>
@@ -50218,8 +50328,11 @@
       </c>
       <c r="AU167" s="139"/>
       <c r="AW167" s="79"/>
+      <c r="BC167" s="286" t="s">
+        <v>1557</v>
+      </c>
     </row>
-    <row r="168" spans="2:54" s="105" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:55" s="105" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="95" t="s">
         <v>207</v>
       </c>
@@ -50355,8 +50468,11 @@
       <c r="AZ168" s="66"/>
       <c r="BA168" s="66"/>
       <c r="BB168" s="66"/>
+      <c r="BC168" s="286" t="s">
+        <v>1558</v>
+      </c>
     </row>
-    <row r="169" spans="2:54" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:55" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>207</v>
       </c>
@@ -50450,8 +50566,11 @@
       <c r="AV169" s="154" t="s">
         <v>1186</v>
       </c>
+      <c r="BC169" s="286" t="s">
+        <v>1559</v>
+      </c>
     </row>
-    <row r="170" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B170" s="21" t="s">
         <v>207</v>
       </c>
@@ -50598,8 +50717,11 @@
       <c r="BB170" s="61" t="s">
         <v>1012</v>
       </c>
+      <c r="BC170" s="286" t="s">
+        <v>1559</v>
+      </c>
     </row>
-    <row r="171" spans="2:54" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:55" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B171" s="21" t="s">
         <v>207</v>
       </c>
@@ -50753,8 +50875,11 @@
       <c r="BB171" s="61" t="s">
         <v>324</v>
       </c>
+      <c r="BC171" s="286" t="s">
+        <v>1560</v>
+      </c>
     </row>
-    <row r="172" spans="2:54" ht="240" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:55" ht="240" x14ac:dyDescent="0.25">
       <c r="B172" s="21" t="s">
         <v>207</v>
       </c>
@@ -50898,7 +51023,7 @@
       </c>
       <c r="AW172" s="79"/>
     </row>
-    <row r="173" spans="2:54" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B173" s="95" t="s">
         <v>207</v>
       </c>
@@ -51020,8 +51145,9 @@
       <c r="BB173" s="67" t="s">
         <v>976</v>
       </c>
+      <c r="BC173" s="286"/>
     </row>
-    <row r="174" spans="2:54" ht="195" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:55" ht="195" x14ac:dyDescent="0.2">
       <c r="B174" s="21" t="s">
         <v>207</v>
       </c>
@@ -51176,7 +51302,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="2:54" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B175" s="95" t="s">
         <v>207</v>
       </c>
@@ -51296,8 +51422,9 @@
       <c r="BB175" s="67" t="s">
         <v>976</v>
       </c>
+      <c r="BC175" s="286"/>
     </row>
-    <row r="176" spans="2:54" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:55" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="106" t="s">
         <v>207</v>
       </c>
@@ -51445,8 +51572,9 @@
       <c r="AZ176" s="89"/>
       <c r="BA176" s="89"/>
       <c r="BB176" s="89"/>
+      <c r="BC176" s="286"/>
     </row>
-    <row r="177" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B177" s="106" t="s">
         <v>207</v>
       </c>
@@ -51588,8 +51716,9 @@
       <c r="AZ177" s="89"/>
       <c r="BA177" s="89"/>
       <c r="BB177" s="89"/>
+      <c r="BC177" s="286"/>
     </row>
-    <row r="178" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B178" s="21" t="s">
         <v>206</v>
       </c>
@@ -51728,7 +51857,7 @@
       <c r="AU178" s="139"/>
       <c r="AW178" s="79"/>
     </row>
-    <row r="179" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>207</v>
       </c>
@@ -51867,7 +51996,7 @@
       <c r="AU179" s="139"/>
       <c r="AW179" s="79"/>
     </row>
-    <row r="180" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B180" s="21" t="s">
         <v>207</v>
       </c>
@@ -52009,7 +52138,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="181" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B181" s="21" t="s">
         <v>207</v>
       </c>
@@ -52150,7 +52279,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="182" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>207</v>
       </c>
@@ -52289,7 +52418,7 @@
       <c r="AU182" s="139"/>
       <c r="AW182" s="79"/>
     </row>
-    <row r="183" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B183" s="21" t="s">
         <v>207</v>
       </c>
@@ -52428,7 +52557,7 @@
       <c r="AU183" s="139"/>
       <c r="AW183" s="79"/>
     </row>
-    <row r="184" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B184" s="21" t="s">
         <v>207</v>
       </c>
@@ -52567,7 +52696,7 @@
       <c r="AU184" s="139"/>
       <c r="AW184" s="79"/>
     </row>
-    <row r="185" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B185" s="21" t="s">
         <v>207</v>
       </c>
@@ -52714,7 +52843,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="186" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B186" s="21" t="s">
         <v>206</v>
       </c>
@@ -52821,7 +52950,7 @@
       <c r="AU186" s="139"/>
       <c r="AW186" s="79"/>
     </row>
-    <row r="187" spans="2:54" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:55" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="21" t="s">
         <v>207</v>
       </c>
@@ -52928,7 +53057,7 @@
       <c r="AU187" s="139"/>
       <c r="AW187" s="79"/>
     </row>
-    <row r="188" spans="2:54" ht="153" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:55" ht="153" x14ac:dyDescent="0.25">
       <c r="B188" s="21" t="s">
         <v>207</v>
       </c>
@@ -53080,7 +53209,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="189" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>207</v>
       </c>
@@ -53233,7 +53362,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="190" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="21" t="s">
         <v>207</v>
       </c>
@@ -53354,7 +53483,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="191" spans="2:54" ht="150" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:55" ht="150" x14ac:dyDescent="0.2">
       <c r="B191" s="21" t="s">
         <v>207</v>
       </c>
@@ -53506,7 +53635,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="192" spans="2:54" ht="270" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:55" ht="270" x14ac:dyDescent="0.2">
       <c r="B192" s="21" t="s">
         <v>207</v>
       </c>
@@ -53650,7 +53779,7 @@
       </c>
       <c r="AW192" s="79"/>
     </row>
-    <row r="193" spans="2:54" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:55" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="21" t="s">
         <v>207</v>
       </c>
@@ -53787,14 +53916,14 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
       </c>
       <c r="AW193" s="79"/>
     </row>
-    <row r="194" spans="2:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21" t="s">
         <v>207</v>
       </c>
@@ -53946,7 +54075,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="195" spans="2:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="21" t="s">
         <v>206</v>
       </c>
@@ -54041,7 +54170,7 @@
       <c r="AU195" s="139"/>
       <c r="AW195" s="79"/>
     </row>
-    <row r="196" spans="2:54" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:55" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="21" t="s">
         <v>207</v>
       </c>
@@ -54152,7 +54281,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="197" spans="2:54" ht="102" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:55" ht="102" x14ac:dyDescent="0.2">
       <c r="B197" s="21" t="s">
         <v>207</v>
       </c>
@@ -54296,7 +54425,7 @@
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AY197" s="180" t="s">
         <v>1000</v>
@@ -54305,7 +54434,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="198" spans="2:54" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:55" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>207</v>
       </c>
@@ -54449,7 +54578,7 @@
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AY198" s="180" t="s">
         <v>1000</v>
@@ -54458,7 +54587,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B199" s="21" t="s">
         <v>207</v>
       </c>
@@ -54566,7 +54695,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B200" s="21" t="s">
         <v>207</v>
       </c>
@@ -54705,7 +54834,7 @@
       <c r="AU200" s="139"/>
       <c r="AW200" s="79"/>
     </row>
-    <row r="201" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B201" s="21" t="s">
         <v>207</v>
       </c>
@@ -54852,7 +54981,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="202" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B202" s="95" t="s">
         <v>207</v>
       </c>
@@ -54942,8 +55071,9 @@
       <c r="AZ202" s="66"/>
       <c r="BA202" s="66"/>
       <c r="BB202" s="66"/>
+      <c r="BC202" s="286"/>
     </row>
-    <row r="203" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B203" s="21" t="s">
         <v>207</v>
       </c>
@@ -55054,7 +55184,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="204" spans="2:54" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:55" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B204" s="106" t="s">
         <v>207</v>
       </c>
@@ -55200,7 +55330,7 @@
         <v>1237</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
@@ -55208,8 +55338,9 @@
       <c r="BB204" s="90" t="s">
         <v>1030</v>
       </c>
+      <c r="BC204" s="286"/>
     </row>
-    <row r="205" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B205" s="95" t="s">
         <v>207</v>
       </c>
@@ -55307,8 +55438,9 @@
       <c r="AZ205" s="66"/>
       <c r="BA205" s="66"/>
       <c r="BB205" s="67"/>
+      <c r="BC205" s="286"/>
     </row>
-    <row r="206" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B206" s="21" t="s">
         <v>207</v>
       </c>
@@ -55454,7 +55586,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="207" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B207" s="21" t="s">
         <v>207</v>
       </c>
@@ -55535,7 +55667,7 @@
       <c r="AU207" s="139"/>
       <c r="AW207" s="79"/>
     </row>
-    <row r="208" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B208" s="21" t="s">
         <v>207</v>
       </c>
@@ -55685,7 +55817,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="209" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B209" s="21" t="s">
         <v>207</v>
       </c>
@@ -55835,7 +55967,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="210" spans="2:54" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:55" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B210" s="106" t="s">
         <v>207</v>
       </c>
@@ -55939,8 +56071,9 @@
       <c r="BB210" s="90" t="s">
         <v>328</v>
       </c>
+      <c r="BC210" s="286"/>
     </row>
-    <row r="211" spans="2:54" s="116" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:55" s="116" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="B211" s="106" t="s">
         <v>207</v>
       </c>
@@ -56096,8 +56229,9 @@
       <c r="BB211" s="90" t="s">
         <v>324</v>
       </c>
+      <c r="BC211" s="286"/>
     </row>
-    <row r="212" spans="2:54" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B212" s="95" t="s">
         <v>207</v>
       </c>
@@ -56175,8 +56309,9 @@
       <c r="BB212" s="67" t="s">
         <v>976</v>
       </c>
+      <c r="BC212" s="286"/>
     </row>
-    <row r="213" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B213" s="21" t="s">
         <v>207</v>
       </c>
@@ -56331,7 +56466,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="214" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B214" s="21" t="s">
         <v>207</v>
       </c>
@@ -56477,13 +56612,13 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="215" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B215" s="21" t="s">
         <v>207</v>
       </c>
@@ -56638,7 +56773,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="216" spans="2:54" s="105" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:55" s="105" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="95" t="s">
         <v>207</v>
       </c>
@@ -56736,8 +56871,9 @@
       <c r="AZ216" s="66"/>
       <c r="BA216" s="66"/>
       <c r="BB216" s="67"/>
+      <c r="BC216" s="286"/>
     </row>
-    <row r="217" spans="2:54" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B217" s="95" t="s">
         <v>207</v>
       </c>
@@ -56835,8 +56971,9 @@
       <c r="AZ217" s="66"/>
       <c r="BA217" s="66"/>
       <c r="BB217" s="67"/>
+      <c r="BC217" s="286"/>
     </row>
-    <row r="218" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B218" s="21" t="s">
         <v>206</v>
       </c>
@@ -56975,7 +57112,7 @@
       <c r="AU218" s="139"/>
       <c r="AW218" s="79"/>
     </row>
-    <row r="219" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>207</v>
       </c>
@@ -57121,7 +57258,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="220" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B220" s="21" t="s">
         <v>207</v>
       </c>
@@ -57267,7 +57404,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="221" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B221" s="21" t="s">
         <v>207</v>
       </c>
@@ -57408,7 +57545,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="222" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B222" s="21" t="s">
         <v>208</v>
       </c>
@@ -57545,22 +57682,22 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="223" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B223" s="21" t="s">
         <v>208</v>
       </c>
@@ -57697,22 +57834,22 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
-    <row r="224" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
         <v>207</v>
       </c>
@@ -57851,7 +57988,7 @@
       <c r="AU224" s="139"/>
       <c r="AW224" s="79"/>
     </row>
-    <row r="225" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B225" s="21" t="s">
         <v>208</v>
       </c>
@@ -57988,7 +58125,7 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
@@ -58001,7 +58138,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>208</v>
       </c>
@@ -58144,13 +58281,13 @@
         <v>1249</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="227" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:55" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B227" s="21" t="s">
         <v>208</v>
       </c>
@@ -58281,7 +58418,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -58293,7 +58430,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="228" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B228" s="21" t="s">
         <v>208</v>
       </c>
@@ -58432,7 +58569,7 @@
       <c r="AU228" s="139"/>
       <c r="AW228" s="79"/>
     </row>
-    <row r="229" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B229" s="95" t="s">
         <v>208</v>
       </c>
@@ -58516,8 +58653,9 @@
       <c r="AZ229" s="66"/>
       <c r="BA229" s="66"/>
       <c r="BB229" s="66"/>
+      <c r="BC229" s="286"/>
     </row>
-    <row r="230" spans="2:54" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B230" s="95" t="s">
         <v>209</v>
       </c>
@@ -58601,8 +58739,9 @@
       <c r="AZ230" s="66"/>
       <c r="BA230" s="66"/>
       <c r="BB230" s="66"/>
+      <c r="BC230" s="286"/>
     </row>
-    <row r="231" spans="2:54" s="105" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:55" s="105" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B231" s="95" t="s">
         <v>209</v>
       </c>
@@ -58686,8 +58825,9 @@
       <c r="AZ231" s="66"/>
       <c r="BA231" s="66"/>
       <c r="BB231" s="66"/>
+      <c r="BC231" s="286"/>
     </row>
-    <row r="232" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B232" s="21" t="s">
         <v>208</v>
       </c>
@@ -58828,7 +58968,7 @@
       </c>
       <c r="AW232" s="79"/>
     </row>
-    <row r="233" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>208</v>
       </c>
@@ -58969,7 +59109,7 @@
       </c>
       <c r="AW233" s="79"/>
     </row>
-    <row r="234" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:55" ht="102" x14ac:dyDescent="0.2">
       <c r="B234" s="21" t="s">
         <v>207</v>
       </c>
@@ -59110,7 +59250,7 @@
       </c>
       <c r="AW234" s="79"/>
     </row>
-    <row r="235" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B235" s="21" t="s">
         <v>208</v>
       </c>
@@ -59251,7 +59391,7 @@
       </c>
       <c r="AW235" s="79"/>
     </row>
-    <row r="236" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B236" s="21" t="s">
         <v>208</v>
       </c>
@@ -59392,7 +59532,7 @@
       </c>
       <c r="AW236" s="79"/>
     </row>
-    <row r="237" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="21" t="s">
         <v>208</v>
       </c>
@@ -59533,7 +59673,7 @@
       </c>
       <c r="AW237" s="79"/>
     </row>
-    <row r="238" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B238" s="21" t="s">
         <v>208</v>
       </c>
@@ -59683,7 +59823,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="239" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B239" s="106" t="s">
         <v>208</v>
       </c>
@@ -59833,8 +59973,9 @@
       <c r="BB239" s="90" t="s">
         <v>1012</v>
       </c>
+      <c r="BC239" s="286"/>
     </row>
-    <row r="240" spans="2:54" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:55" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B240" s="106" t="s">
         <v>208</v>
       </c>
@@ -59976,8 +60117,9 @@
       <c r="AZ240" s="89"/>
       <c r="BA240" s="89"/>
       <c r="BB240" s="89"/>
+      <c r="BC240" s="286"/>
     </row>
-    <row r="241" spans="2:54" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:55" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B241" s="106" t="s">
         <v>208</v>
       </c>
@@ -60119,8 +60261,9 @@
       <c r="AZ241" s="89"/>
       <c r="BA241" s="89"/>
       <c r="BB241" s="89"/>
+      <c r="BC241" s="286"/>
     </row>
-    <row r="242" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
         <v>208</v>
       </c>
@@ -60255,7 +60398,7 @@
       </c>
       <c r="AW242" s="79"/>
     </row>
-    <row r="243" spans="2:54" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B243" s="106" t="s">
         <v>208</v>
       </c>
@@ -60401,8 +60544,9 @@
       <c r="AZ243" s="89"/>
       <c r="BA243" s="89"/>
       <c r="BB243" s="89"/>
+      <c r="BC243" s="286"/>
     </row>
-    <row r="244" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B244" s="21" t="s">
         <v>208</v>
       </c>
@@ -60543,7 +60687,7 @@
       </c>
       <c r="AW244" s="79"/>
     </row>
-    <row r="245" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B245" s="95" t="s">
         <v>209</v>
       </c>
@@ -60639,8 +60783,9 @@
       <c r="AZ245" s="66"/>
       <c r="BA245" s="66"/>
       <c r="BB245" s="66"/>
+      <c r="BC245" s="286"/>
     </row>
-    <row r="246" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B246" s="21" t="s">
         <v>209</v>
       </c>
@@ -60746,7 +60891,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="247" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>209</v>
       </c>
@@ -60887,7 +61032,7 @@
       </c>
       <c r="AW247" s="79"/>
     </row>
-    <row r="248" spans="2:54" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B248" s="95" t="s">
         <v>209</v>
       </c>
@@ -60987,8 +61132,9 @@
       <c r="AZ248" s="66"/>
       <c r="BA248" s="66"/>
       <c r="BB248" s="66"/>
+      <c r="BC248" s="286"/>
     </row>
-    <row r="249" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B249" s="21" t="s">
         <v>209</v>
       </c>
@@ -61090,7 +61236,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B250" s="21" t="s">
         <v>209</v>
       </c>
@@ -61242,7 +61388,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="251" spans="2:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="21" t="s">
         <v>209</v>
       </c>
@@ -61385,7 +61531,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="252" spans="2:54" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:55" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="21" t="s">
         <v>207</v>
       </c>
@@ -61524,7 +61670,7 @@
       <c r="AU252" s="139"/>
       <c r="AW252" s="79"/>
     </row>
-    <row r="253" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B253" s="21" t="s">
         <v>208</v>
       </c>
@@ -61663,7 +61809,7 @@
       <c r="AU253" s="139"/>
       <c r="AW253" s="79"/>
     </row>
-    <row r="254" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>208</v>
       </c>
@@ -61802,7 +61948,7 @@
       <c r="AU254" s="139"/>
       <c r="AW254" s="79"/>
     </row>
-    <row r="255" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B255" s="21" t="s">
         <v>208</v>
       </c>
@@ -61952,7 +62098,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="256" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B256" s="21" t="s">
         <v>208</v>
       </c>
@@ -62099,7 +62245,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="257" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B257" s="21" t="s">
         <v>208</v>
       </c>
@@ -62241,7 +62387,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="258" spans="2:54" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B258" s="95" t="s">
         <v>208</v>
       </c>
@@ -62323,8 +62469,9 @@
       <c r="AZ258" s="66"/>
       <c r="BA258" s="66"/>
       <c r="BB258" s="67"/>
+      <c r="BC258" s="286"/>
     </row>
-    <row r="259" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B259" s="21" t="s">
         <v>208</v>
       </c>
@@ -62465,7 +62612,7 @@
       </c>
       <c r="AW259" s="79"/>
     </row>
-    <row r="260" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B260" s="21" t="s">
         <v>208</v>
       </c>
@@ -62570,7 +62717,7 @@
       <c r="AU260" s="139"/>
       <c r="AW260" s="79"/>
     </row>
-    <row r="261" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>209</v>
       </c>
@@ -62688,7 +62835,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="262" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B262" s="21" t="s">
         <v>209</v>
       </c>
@@ -62804,7 +62951,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="263" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B263" s="21" t="s">
         <v>206</v>
       </c>
@@ -62957,7 +63104,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="264" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B264" s="21" t="s">
         <v>207</v>
       </c>
@@ -63084,7 +63231,7 @@
       <c r="AU264" s="139"/>
       <c r="AW264" s="79"/>
     </row>
-    <row r="265" spans="2:54" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:55" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="21" t="s">
         <v>207</v>
       </c>
@@ -63237,7 +63384,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="266" spans="2:54" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B266" s="95" t="s">
         <v>207</v>
       </c>
@@ -63377,8 +63524,9 @@
       <c r="BB266" s="67" t="s">
         <v>324</v>
       </c>
+      <c r="BC266" s="286"/>
     </row>
-    <row r="267" spans="2:54" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B267" s="95" t="s">
         <v>207</v>
       </c>
@@ -63520,8 +63668,9 @@
       <c r="BB267" s="67" t="s">
         <v>976</v>
       </c>
+      <c r="BC267" s="286"/>
     </row>
-    <row r="268" spans="2:54" s="105" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:55" s="105" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="B268" s="95" t="s">
         <v>207</v>
       </c>
@@ -63663,8 +63812,9 @@
       <c r="BB268" s="67" t="s">
         <v>976</v>
       </c>
+      <c r="BC268" s="286"/>
     </row>
-    <row r="269" spans="2:54" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B269" s="95" t="s">
         <v>207</v>
       </c>
@@ -63806,8 +63956,9 @@
       <c r="BB269" s="67" t="s">
         <v>976</v>
       </c>
+      <c r="BC269" s="286"/>
     </row>
-    <row r="270" spans="2:54" s="105" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:55" s="105" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B270" s="95" t="s">
         <v>207</v>
       </c>
@@ -63889,8 +64040,9 @@
       <c r="AZ270" s="66"/>
       <c r="BA270" s="66"/>
       <c r="BB270" s="66"/>
+      <c r="BC270" s="286"/>
     </row>
-    <row r="271" spans="2:54" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B271" s="95" t="s">
         <v>207</v>
       </c>
@@ -63972,8 +64124,9 @@
       <c r="AZ271" s="66"/>
       <c r="BA271" s="66"/>
       <c r="BB271" s="66"/>
+      <c r="BC271" s="286"/>
     </row>
-    <row r="272" spans="2:54" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B272" s="95" t="s">
         <v>207</v>
       </c>
@@ -64055,8 +64208,9 @@
       <c r="AZ272" s="66"/>
       <c r="BA272" s="66"/>
       <c r="BB272" s="66"/>
+      <c r="BC272" s="286"/>
     </row>
-    <row r="273" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B273" s="21" t="s">
         <v>207</v>
       </c>
@@ -64191,7 +64345,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="274" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B274" s="21" t="s">
         <v>207</v>
       </c>
@@ -64326,7 +64480,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="275" spans="2:54" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B275" s="95" t="s">
         <v>206</v>
       </c>
@@ -64472,8 +64626,9 @@
       <c r="AZ275" s="66"/>
       <c r="BA275" s="66"/>
       <c r="BB275" s="67"/>
+      <c r="BC275" s="286"/>
     </row>
-    <row r="276" spans="2:54" s="105" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:55" s="105" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="95" t="s">
         <v>207</v>
       </c>
@@ -64619,8 +64774,9 @@
       <c r="AZ276" s="66"/>
       <c r="BA276" s="66"/>
       <c r="BB276" s="67"/>
+      <c r="BC276" s="286"/>
     </row>
-    <row r="277" spans="2:54" s="116" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:55" s="116" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B277" s="106" t="s">
         <v>207</v>
       </c>
@@ -64760,8 +64916,9 @@
       <c r="AZ277" s="89"/>
       <c r="BA277" s="89"/>
       <c r="BB277" s="90"/>
+      <c r="BC277" s="286"/>
     </row>
-    <row r="278" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B278" s="21" t="s">
         <v>207</v>
       </c>
@@ -64860,7 +65017,7 @@
       </c>
       <c r="AW278" s="79"/>
     </row>
-    <row r="279" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B279" s="21" t="s">
         <v>207</v>
       </c>
@@ -65010,7 +65167,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B280" s="21" t="s">
         <v>207</v>
       </c>
@@ -65081,7 +65238,7 @@
       </c>
       <c r="AW280" s="79"/>
     </row>
-    <row r="281" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B281" s="21" t="s">
         <v>207</v>
       </c>
@@ -65222,7 +65379,7 @@
       </c>
       <c r="AW281" s="79"/>
     </row>
-    <row r="282" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B282" s="21" t="s">
         <v>206</v>
       </c>
@@ -65364,7 +65521,7 @@
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
     </row>
-    <row r="283" spans="2:54" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:55" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>207</v>
       </c>
@@ -65505,7 +65662,7 @@
       </c>
       <c r="AW283" s="79"/>
     </row>
-    <row r="284" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B284" s="21" t="s">
         <v>207</v>
       </c>
@@ -65646,7 +65803,7 @@
       </c>
       <c r="AW284" s="79"/>
     </row>
-    <row r="285" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B285" s="21" t="s">
         <v>207</v>
       </c>
@@ -65787,7 +65944,7 @@
       </c>
       <c r="AW285" s="79"/>
     </row>
-    <row r="286" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B286" s="21" t="s">
         <v>207</v>
       </c>
@@ -65928,7 +66085,7 @@
       </c>
       <c r="AW286" s="79"/>
     </row>
-    <row r="287" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B287" s="21" t="s">
         <v>206</v>
       </c>
@@ -66066,7 +66223,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="288" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>207</v>
       </c>
@@ -66135,7 +66292,7 @@
       </c>
       <c r="AW288" s="79"/>
     </row>
-    <row r="289" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B289" s="21" t="s">
         <v>207</v>
       </c>
@@ -66268,7 +66425,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="290" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B290" s="21" t="s">
         <v>207</v>
       </c>
@@ -66403,7 +66560,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="291" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B291" s="21" t="s">
         <v>207</v>
       </c>
@@ -66538,7 +66695,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="292" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B292" s="21" t="s">
         <v>206</v>
       </c>
@@ -66601,7 +66758,7 @@
       </c>
       <c r="AW292" s="79"/>
     </row>
-    <row r="293" spans="2:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B293" s="21" t="s">
         <v>207</v>
       </c>
@@ -66664,7 +66821,7 @@
       </c>
       <c r="AW293" s="79"/>
     </row>
-    <row r="294" spans="2:54" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B294" s="95" t="s">
         <v>207</v>
       </c>
@@ -66732,8 +66889,9 @@
       <c r="AZ294" s="66"/>
       <c r="BA294" s="66"/>
       <c r="BB294" s="66"/>
+      <c r="BC294" s="286"/>
     </row>
-    <row r="295" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>207</v>
       </c>
@@ -66796,7 +66954,7 @@
       </c>
       <c r="AW295" s="79"/>
     </row>
-    <row r="296" spans="2:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="21" t="s">
         <v>207</v>
       </c>
@@ -66859,7 +67017,7 @@
       </c>
       <c r="AW296" s="79"/>
     </row>
-    <row r="297" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B297" s="21" t="s">
         <v>207</v>
       </c>
@@ -66922,7 +67080,7 @@
       </c>
       <c r="AW297" s="79"/>
     </row>
-    <row r="298" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B298" s="21" t="s">
         <v>207</v>
       </c>
@@ -66993,7 +67151,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="299" spans="2:54" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:55" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B299" s="117" t="s">
         <v>207</v>
       </c>
@@ -67061,8 +67219,9 @@
       <c r="AZ299" s="66"/>
       <c r="BA299" s="66"/>
       <c r="BB299" s="66"/>
+      <c r="BC299" s="286"/>
     </row>
-    <row r="300" spans="2:54" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="300" spans="2:55" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="B1:BB302">
     <filterColumn colId="6" showButton="0"/>
@@ -67138,155 +67297,155 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU141 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
-    <cfRule type="expression" dxfId="40" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="90" stopIfTrue="1">
       <formula>LEFT($C1,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AU19 H21:AU40 H20:AT20 H60:AU66 H59:AT59 H92:AU95 H91:AT91 H125:AU134 H124:AT124 H136:AU138 H135:AT135 H195:AU195 H198:AU198 H228:AU301 H200:AU202 H199:AT199 H204:AU205 H203:AT203 H207:AU210 H206:AT206 H216:AU218 H213:AT215 H221:AU221 H219:AT220 H224:AU224 H222:AT223 H225:AT227 H44:AU45 H43:AT43 H53:AU58 H52:AT52 H173:AU173 H175:AU175 H174:AT174 H212:AU212 H211:AT211 H140:AU141 H139:AT139 H178:AU187 H171:AT172 H145:AU146 H143:AT144 H148:AU170 H147:AT147 H176:AT177 H48:AU51 H46:AT47 H68:AU76 H67:AT67 H78:AU83 H77:AT77 H85:AU90 H84:AT84 H97:AU98 H96:AT96 H109:AT109 H196:AT197 H188:AT194 H42:AU42 H100:AU108 H110:AU123">
-    <cfRule type="cellIs" dxfId="39" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="91" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="92" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="93" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="expression" dxfId="36" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="86" stopIfTrue="1">
       <formula>LEFT($C24,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW24:BB24">
-    <cfRule type="cellIs" dxfId="35" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="87" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="88" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="89" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20">
-    <cfRule type="expression" dxfId="32" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>LEFT($C20,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU59">
-    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>LEFT($C59,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU91">
-    <cfRule type="expression" dxfId="30" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>LEFT($C91,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU124">
-    <cfRule type="expression" dxfId="29" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>LEFT($C124,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU135">
-    <cfRule type="expression" dxfId="28" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>LEFT($C135,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>LEFT($C43,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU43">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>LEFT($C52,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU52">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>LEFT($C197,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU197">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:AU41">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>LEFT($C41,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:AU41">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:AU99">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>LEFT($C99,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:AU99">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:AU142">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>LEFT($C142,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:AU142">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"CM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67306,23 +67465,23 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="140.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="283" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="282"/>
+      <c r="B1" s="284"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="285" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="283"/>
+      <c r="B2" s="285"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -67365,16 +67524,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="277" t="s">
+      <c r="A9" s="279" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="279" t="s">
+      <c r="B9" s="281" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="278"/>
-      <c r="B10" s="280"/>
+      <c r="A10" s="280"/>
+      <c r="B10" s="282"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -67649,7 +67808,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
@@ -67694,7 +67853,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12335" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="1604">
   <si>
     <t>ID</t>
   </si>
@@ -4701,23 +4701,7 @@
     <t>Note, not definition</t>
   </si>
   <si>
-    <t>SuncontractTerms.MinimumShare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The minimum percentage allowed to be subcontracted.
-(Not included in the Glossary. Pending to review by the WG)
-</t>
-  </si>
-  <si>
     <t>Percent</t>
-  </si>
-  <si>
-    <t>SuncontractTerms.MaximumShare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum percentage foreseen to be subcontracted.
-(Not included in the Glossary. Pending to review by the WG)
-</t>
   </si>
   <si>
     <t>AwardCriterion</t>
@@ -4725,9 +4709,6 @@
   <si>
     <t>Describes a rule or a condition to be taken into account for the award decision.
 (WG approval 27/04/2018)</t>
-  </si>
-  <si>
-    <t>What's the difference between "award criterion type" and "award criterion name"?</t>
   </si>
   <si>
     <t>FrameworkAgreementTerms. MaximumNumberOfAwardedTenderers</t>
@@ -5320,10 +5301,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Code list: evaluation-dimension
-Following earlier discussions evaluation-dimension is already modelled.  Award criterion type would not fit with the modelling as award criteria are already modelled in the same way as exclusion grounds, selection criteria and participation criteria.  The evaluation dimension is composed of several award criteria of an individual criterion type ie quality, price cost.</t>
   </si>
   <si>
     <t>See also notes on BT-65</t>
@@ -5533,21 +5510,6 @@
     <t xml:space="preserve">WG 20190321 We have added a property named "has General Environment Communication" between "Submission Terms" and "Electronic Means of Communication". As the "Submission Terms" class in linked to each Lot, the Lot is also transitively linked to "Electronic Means of </t>
   </si>
   <si>
-    <t>Code list: weight type
-Created  and associated to the class criterion</t>
-  </si>
-  <si>
-    <t>Code list: price-cost-threshold type
-Associated to award criterioncriterion</t>
-  </si>
-  <si>
-    <t>code list: threshold-type
-Associated to classes award criterion and selection criterion</t>
-  </si>
-  <si>
-    <t>This needs to be multiple to cover ranges</t>
-  </si>
-  <si>
     <t>To check</t>
   </si>
   <si>
@@ -5626,12 +5588,6 @@
   <si>
     <t>Explanation about why the choice of an accelerated procedure is lawful.
 (Not included in the Glossary. Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>AwardCriterion.threshold-type</t>
-  </si>
-  <si>
-    <t>AwardCriterion.price-cost-threshold-type</t>
   </si>
   <si>
     <t>Concept changed, definition missing</t>
@@ -5821,9 +5777,6 @@
       </rPr>
       <t>notice-corrigendum-justification</t>
     </r>
-  </si>
-  <si>
-    <t>AwardCriterion.weight-type</t>
   </si>
   <si>
     <r>
@@ -5952,28 +5905,6 @@
   The solution found by the group was to provide separate indicators for the different terms.  A subcontracting terms class was linked to submission terms and contract terms.  The subcontracting term class provides for the maximum and minimum amounts of subcontracting and whether the subcontractors need to be listed it not and provides.  A subcontracting restriction code to cover Title III of Directive 2009/81/EC has been included.  See attached diagram – however please note the subcontracting-requirement code list should be removed and the  "subcontractors involved needs to be provided as a property of submission class.
 The wg discussion of 20190122: the decision was made by the WG that a new Participation Criterion will be created (see also row just above) that may be instantiated to express these Subcontracting Terms (Subcontracting Requirements Code, Subcontratction Obligation Minimum and Subcontracting Obligation Maximum).  See Conceptual Model Diagram Procurement Criterion and Selection Criteria Diagram. The fact that one set of subcontracting terms is linked to specific Lots can be establishe because Criteria can be linked to Lots. 
 (WG Approval 2019-01-22)</t>
-  </si>
-  <si>
-    <r>
-      <t>AwardCriterionEvaluationDimension.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>has dimension type.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>evaluation-dimension</t>
-    </r>
   </si>
   <si>
     <r>
@@ -7492,10 +7423,6 @@
     <t>Procedure.Lot.ContractTerms.ePayment.Indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">SubcontractTerms?
-</t>
-  </si>
-  <si>
     <t>Procedure has Lot,
 Lot has Contract Terms,
 Contract Terms has Subcontract Terms,
@@ -7567,6 +7494,361 @@
   </si>
   <si>
     <t>Everis mapping</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has Contract Terms,
+Contract Terms has Subcontract Terms,
+Subontract Terms hasSubcontractingObligation Code</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.SubcontractTerms.SubcontractingObligation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codes and values used to show the obligation of the economic operator to subcontract parts of the original contract to third parties. 
+WG Approval 17/09/2019 
+</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.SubcontractTerms.MinimumShare</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ContractTerms.SubcontractTerms.MaximumShare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The minimum proportion of something to be distributed.
+Additional Information:
+In the case of subcontracting the share may refer to the proportion of works, services or supplies being subcontracted.
+WG Approval 17/09/2019
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum proportion of something to be distributed.
+Additional Information:
+In the case of subcontracting the share may refer to the proportion of works, services or supplies being subcontracted.
+WG Approval 17/09/2019 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procedure has Lot,
+Award Criterion isUsedToAward Lot,
+Lot hasID Identifier,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Award Criterion isUsedToAward GroupLot,
+GroupLot hasID Identifier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procedure has Lot,
+Award Criterion isUsedToAward Lot,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Award Criterion isUsedToAward GroupLot
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion
+OR
+AwardCriterion.GroupLot</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.Lot.ID
+OR
+AwardCriterion.GroupLot.ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes a rule or a condition to be taken into account for the award decision.
+</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.award-criterion-type</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion has award-criterion-type which is inherited from Procurement Criterion and Criterion</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasName Text which inherited from Criterion</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwarCriterion.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short text representing an instance of the class.
+WG Approval 17/09/2019
+</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasDescription Text which inherited from Criterion</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwarCriterion.Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A narrative text explaining the content of an instance of the class.
+WG Decision 17/09/2019 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code list: evaluation-dimension
+Following earlier discussions evaluation-dimension is already modelled.  Award criterion type would not fit with the modelling as award criteria are already modelled in the same way as exclusion grounds, selection criteria and participation criteria.  The evaluation dimension is composed of several award criteria of an individual criterion type ie quality, price cost.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a previous decision which has been updated. See comments and inheritances.</t>
+    </r>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasValue Numeric</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A numerical quantity.
+WG Approval 17/09/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The method to interpret the value as a numerical coefficient expressing the relative importance of the item. 
+WG Approval 17/09/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The method to interpret the fixed value as pertaining to a total or unit.
+WG Approval 17/09/2019
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The method to interpret the threshold value as minimum or a maximum.
+WG Approval 17/09/2019 </t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.WeightValue.number-weight</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.ThresholdValue.number-threshold</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.FixedValue.number-fixed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">code list: threshold-type
+Associated to classes award criterion and selection criterion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a previous decision which has been updated. See comments and inheritances.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code list: price-cost-threshold type
+Associated to award criterioncriterion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a previous decision which has been updated. See comments and inheritances.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code list: weight type
+Created  and associated to the class criterion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>This is a previous decision which has been updated. See comments and inheritances.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This needs to be multiple to cover ranges
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+This is a previous decision which has been updated. See comments and inheritances.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasWeightValue which is inherited from Procurement Criterion and Criterion, and uses the code list number-weight </t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasFixedValue Code and uses the code list number-fixed</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasThresholdValue and uses the code list number-threshold</t>
+  </si>
+  <si>
+    <t>Procedure uses FrameworkAgreementTerms,
+FrameworkAgreementTerms hasBuyerCoverage Text</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+Technique uses DynamicPurchaseSystem</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+Technique uses DynamicPurchaseSystem,
+DynamicPurchaseSystem hasDPSTermination Indicator</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+Technique uses eAuction</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+Technique uses eAuction,
+Technique madeAvailableVia ElectronicMeansofCommunication,
+ElectronicMeansofCommunication hasURL URI</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+Technique uses eAuction,
+Technique hasDescription Text</t>
+  </si>
+  <si>
+    <t>Electronic means of Communicaton ha a Communicaton Type code list. However, the Electronic Means of Communication is not linked directly to Lot</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+Technique uses eAuction,
+Technique madeAvailableVia ElectronicMeansofCommunication,</t>
+  </si>
+  <si>
+    <t>Procedure isAnnouncedTrhough Contract Notice,
+ContractNotice isA Notice,
+Notice has PreferredPublicationDate</t>
+  </si>
+  <si>
+    <t>InvitationtoTender class??</t>
+  </si>
+  <si>
+    <t>ReviewTerms class</t>
+  </si>
+  <si>
+    <t>Procedure refersTo Document,
+Document hasID Identifier</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Procedure refersTo Document,
+Document hasOfficalLanguage Code</t>
+  </si>
+  <si>
+    <t>Procedure refersTo Document,
+Document hasUnofficialLanguage Code</t>
+  </si>
+  <si>
+    <t>Procedure has eAccessTerms,
+eAccessTerms hasAccessRestriction Indicator</t>
+  </si>
+  <si>
+    <t>Procedure has eAccessTerms,
+eAccessTerms definesAccessTo Document,
+Document madeAvailableVia ElectronicMeansofCommunication,
+ElectronicMeansofCommunication hasURL URI</t>
+  </si>
+  <si>
+    <t>Procedure has eAccessTerms,
+eAccessTerms hasAdditionalInformationDeadline dateTime</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+SubmissionTerms appliesTo Lot,
+Lot hasID Identifier</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applied SubmissionTerms,
+SubmissionTerms haseSubmissionCommunication</t>
   </si>
 </sst>
 </file>
@@ -8816,7 +9098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9524,6 +9806,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9633,9 +9921,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10364,8 +10649,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="AU161" sqref="AU161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10376,7 +10663,7 @@
     <col min="5" max="5" width="9" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="43" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="50" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="3.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3.7109375" style="4" hidden="1" customWidth="1"/>
@@ -10406,99 +10693,99 @@
     <col min="50" max="50" width="33.140625" style="80" customWidth="1"/>
     <col min="51" max="51" width="45" style="80" customWidth="1"/>
     <col min="52" max="54" width="9.140625" style="58"/>
-    <col min="55" max="55" width="14.5703125" style="286" customWidth="1"/>
+    <col min="55" max="55" width="14.5703125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="264" t="s">
+      <c r="C1" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="264" t="s">
+      <c r="D1" s="266" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="264" t="s">
+      <c r="E1" s="266" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="266" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="276" t="s">
+      <c r="G1" s="278" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="255" t="s">
+      <c r="H1" s="257" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="255" t="s">
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="257" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="256"/>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="256"/>
-      <c r="AA1" s="256"/>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="256"/>
-      <c r="AD1" s="257"/>
-      <c r="AE1" s="255" t="s">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="258"/>
+      <c r="AB1" s="258"/>
+      <c r="AC1" s="258"/>
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="257" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="256"/>
-      <c r="AG1" s="256"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="255" t="s">
+      <c r="AF1" s="258"/>
+      <c r="AG1" s="258"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="257" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="256"/>
-      <c r="AK1" s="256"/>
-      <c r="AL1" s="256"/>
-      <c r="AM1" s="256"/>
-      <c r="AN1" s="256"/>
-      <c r="AO1" s="256"/>
-      <c r="AP1" s="256"/>
-      <c r="AQ1" s="257"/>
-      <c r="AR1" s="255" t="s">
+      <c r="AJ1" s="258"/>
+      <c r="AK1" s="258"/>
+      <c r="AL1" s="258"/>
+      <c r="AM1" s="258"/>
+      <c r="AN1" s="258"/>
+      <c r="AO1" s="258"/>
+      <c r="AP1" s="258"/>
+      <c r="AQ1" s="259"/>
+      <c r="AR1" s="257" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="256"/>
-      <c r="AT1" s="257"/>
-      <c r="AU1" s="260" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AV1" s="261" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AX1" s="262" t="s">
+      <c r="AS1" s="258"/>
+      <c r="AT1" s="259"/>
+      <c r="AU1" s="262" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AV1" s="263" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AX1" s="264" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="263"/>
-      <c r="AZ1" s="263"/>
-      <c r="BC1" s="286" t="s">
-        <v>1561</v>
+      <c r="AY1" s="265"/>
+      <c r="AZ1" s="265"/>
+      <c r="BC1" s="250" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="2" spans="2:55" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="273"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="277"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="279"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10616,115 +10903,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="260"/>
-      <c r="AV2" s="261"/>
+      <c r="AU2" s="262"/>
+      <c r="AV2" s="263"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="250" t="s">
+      <c r="AX2" s="252" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="250" t="s">
+      <c r="AY2" s="252" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="250" t="s">
+      <c r="AZ2" s="252" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="250" t="s">
+      <c r="BB2" s="252" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:55" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="273"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="268" t="s">
+      <c r="B3" s="275"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="270" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="259"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="270" t="s">
+      <c r="I3" s="261"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="259"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="270" t="s">
+      <c r="L3" s="261"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268" t="s">
+      <c r="O3" s="269"/>
+      <c r="P3" s="270" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="270" t="s">
+      <c r="Q3" s="273"/>
+      <c r="R3" s="272" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="259"/>
-      <c r="T3" s="271"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="273"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="270" t="s">
+      <c r="V3" s="272" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="270" t="s">
+      <c r="W3" s="261"/>
+      <c r="X3" s="261"/>
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="272" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="271"/>
+      <c r="AA3" s="273"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="270" t="s">
+      <c r="AC3" s="272" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="268" t="s">
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="270" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="259"/>
-      <c r="AG3" s="259"/>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="268" t="s">
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="261"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="259"/>
-      <c r="AK3" s="259"/>
-      <c r="AL3" s="269"/>
-      <c r="AM3" s="258" t="s">
+      <c r="AJ3" s="261"/>
+      <c r="AK3" s="261"/>
+      <c r="AL3" s="271"/>
+      <c r="AM3" s="260" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="259"/>
-      <c r="AO3" s="269"/>
-      <c r="AP3" s="258" t="s">
+      <c r="AN3" s="261"/>
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="260" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="267"/>
-      <c r="AR3" s="258" t="s">
+      <c r="AQ3" s="269"/>
+      <c r="AR3" s="260" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="259"/>
-      <c r="AT3" s="259"/>
-      <c r="AU3" s="260"/>
-      <c r="AV3" s="261"/>
+      <c r="AS3" s="261"/>
+      <c r="AT3" s="261"/>
+      <c r="AU3" s="262"/>
+      <c r="AV3" s="263"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="251"/>
-      <c r="AY3" s="251"/>
-      <c r="AZ3" s="251"/>
+      <c r="AX3" s="253"/>
+      <c r="AY3" s="253"/>
+      <c r="AZ3" s="253"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="251"/>
+      <c r="BB3" s="253"/>
     </row>
     <row r="4" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="274"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="278"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="280"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -10842,16 +11129,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="260"/>
-      <c r="AV4" s="261"/>
+      <c r="AU4" s="262"/>
+      <c r="AV4" s="263"/>
       <c r="AW4" s="212" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AX4" s="251"/>
-      <c r="AY4" s="251"/>
-      <c r="AZ4" s="251"/>
+        <v>1302</v>
+      </c>
+      <c r="AX4" s="253"/>
+      <c r="AY4" s="253"/>
+      <c r="AZ4" s="253"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="251"/>
+      <c r="BB4" s="253"/>
     </row>
     <row r="5" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -10901,11 +11188,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="252" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AX5" s="253"/>
-      <c r="AY5" s="254"/>
+      <c r="AW5" s="254" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AX5" s="255"/>
+      <c r="AY5" s="256"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -11047,14 +11334,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="AV6" s="216">
         <v>43662</v>
       </c>
       <c r="AW6" s="214"/>
       <c r="AX6" s="215" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="AY6" s="215" t="s">
         <v>975</v>
@@ -11342,10 +11629,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11496,14 +11783,14 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="200" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
       <c r="AZ9" s="66"/>
       <c r="BA9" s="66"/>
       <c r="BB9" s="67"/>
-      <c r="BC9" s="286"/>
+      <c r="BC9" s="250"/>
     </row>
     <row r="10" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B10" s="181" t="s">
@@ -11642,13 +11929,13 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="AV10" s="217">
         <v>43662</v>
       </c>
       <c r="AW10" s="218" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="AX10" s="219" t="s">
         <v>981</v>
@@ -11799,13 +12086,13 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="AV11" s="216">
         <v>43662</v>
       </c>
       <c r="AW11" s="218" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="AX11" s="219" t="s">
         <v>983</v>
@@ -11960,7 +12247,7 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="218" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="AX12" s="219" t="s">
         <v>985</v>
@@ -12115,10 +12402,10 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="218" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="AX13" s="219" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
       <c r="AY13" s="145"/>
       <c r="AZ13" s="221"/>
@@ -12266,10 +12553,10 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="218" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="AX14" s="145" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="AY14" s="145"/>
       <c r="AZ14" s="221"/>
@@ -12417,10 +12704,10 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="218" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="AX15" s="145" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="AY15" s="145"/>
       <c r="AZ15" s="221"/>
@@ -12563,7 +12850,7 @@
       </c>
       <c r="AW16" s="218"/>
       <c r="AX16" s="145" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="AY16" s="145"/>
       <c r="AZ16" s="145"/>
@@ -12705,16 +12992,16 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="218" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="AX17" s="145" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="AY17" s="145"/>
       <c r="AZ17" s="145"/>
       <c r="BA17" s="145"/>
       <c r="BB17" s="145"/>
-      <c r="BC17" s="286"/>
+      <c r="BC17" s="250"/>
       <c r="BD17"/>
       <c r="BE17"/>
       <c r="BF17"/>
@@ -29180,10 +29467,10 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="218" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="AX18" s="145" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
       <c r="AY18" s="145"/>
       <c r="AZ18" s="145"/>
@@ -29326,7 +29613,7 @@
       </c>
       <c r="AW19" s="218"/>
       <c r="AX19" s="145" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="AY19" s="145"/>
       <c r="AZ19" s="145"/>
@@ -29470,7 +29757,7 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
@@ -29634,7 +29921,7 @@
       <c r="AZ21" s="67"/>
       <c r="BA21" s="67"/>
       <c r="BB21" s="67"/>
-      <c r="BC21" s="286"/>
+      <c r="BC21" s="250"/>
     </row>
     <row r="22" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
@@ -29774,7 +30061,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -29920,7 +30207,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -30212,7 +30499,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -31671,7 +31958,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -31817,10 +32104,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -31967,7 +32254,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -31975,7 +32262,7 @@
       <c r="BB37" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC37" s="286"/>
+      <c r="BC37" s="250"/>
     </row>
     <row r="38" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
@@ -32113,7 +32400,7 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -32262,7 +32549,7 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -32402,14 +32689,14 @@
       <c r="AS40" s="187"/>
       <c r="AT40" s="188"/>
       <c r="AU40" s="192" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="AV40" s="223">
         <v>43664</v>
       </c>
       <c r="AW40" s="218"/>
       <c r="AX40" s="193" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
       <c r="AY40" s="194"/>
       <c r="AZ40" s="195"/>
@@ -32417,7 +32704,7 @@
       <c r="BB40" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="BC40" s="286"/>
+      <c r="BC40" s="250"/>
     </row>
     <row r="41" spans="2:55" s="197" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="182" t="s">
@@ -32505,7 +32792,7 @@
       </c>
       <c r="AW41" s="218"/>
       <c r="AX41" s="193" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="AY41" s="194"/>
       <c r="AZ41" s="195"/>
@@ -32513,7 +32800,7 @@
       <c r="BB41" s="196" t="s">
         <v>328</v>
       </c>
-      <c r="BC41" s="286"/>
+      <c r="BC41" s="250"/>
     </row>
     <row r="42" spans="2:55" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="182" t="s">
@@ -32646,14 +32933,14 @@
       <c r="AS42" s="187"/>
       <c r="AT42" s="188"/>
       <c r="AU42" s="192" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="AV42" s="223">
         <v>43664</v>
       </c>
       <c r="AW42" s="218"/>
       <c r="AX42" s="193" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="AY42" s="194"/>
       <c r="AZ42" s="195"/>
@@ -32661,7 +32948,7 @@
       <c r="BB42" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="BC42" s="286"/>
+      <c r="BC42" s="250"/>
     </row>
     <row r="43" spans="2:55" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="182" t="s">
@@ -32794,14 +33081,14 @@
       <c r="AS43" s="187"/>
       <c r="AT43" s="188"/>
       <c r="AU43" s="192" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="AV43" s="223">
         <v>43664</v>
       </c>
       <c r="AW43" s="218"/>
       <c r="AX43" s="193" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="AY43" s="194"/>
       <c r="AZ43" s="195"/>
@@ -32809,7 +33096,7 @@
       <c r="BB43" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="BC43" s="286"/>
+      <c r="BC43" s="250"/>
     </row>
     <row r="44" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
@@ -33038,12 +33325,12 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="146" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="AV45" s="147"/>
       <c r="AW45" s="218"/>
       <c r="AX45" s="62" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="AY45" s="78" t="s">
         <v>1000</v>
@@ -33183,7 +33470,7 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="157" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="AW46" s="218"/>
       <c r="AX46" s="62" t="s">
@@ -33281,7 +33568,7 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="157" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="AW47" s="132" t="s">
         <v>1004</v>
@@ -33434,10 +33721,10 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="218" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -33588,7 +33875,7 @@
       </c>
       <c r="AW49" s="218"/>
       <c r="AX49" s="62" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -33738,7 +34025,7 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="218" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
@@ -33880,16 +34167,16 @@
         <v>371</v>
       </c>
       <c r="AU51" s="146" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="AV51" s="216">
         <v>43669</v>
       </c>
       <c r="AW51" s="218" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -34033,13 +34320,13 @@
         <v>371</v>
       </c>
       <c r="AU52" s="146" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="AV52" s="216">
         <v>43669</v>
       </c>
       <c r="AW52" s="218" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -34340,7 +34627,7 @@
       </c>
       <c r="AW54" s="218"/>
       <c r="AX54" s="62" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34488,10 +34775,10 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="218" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -34631,13 +34918,13 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV56" s="216">
         <v>43671</v>
       </c>
       <c r="AW56" s="218" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -34648,7 +34935,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -34771,16 +35058,16 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV57" s="216">
         <v>43671</v>
       </c>
       <c r="AW57" s="218" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
@@ -34914,16 +35201,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV58" s="216">
         <v>43671</v>
       </c>
       <c r="AW58" s="218" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -35063,13 +35350,13 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="AV59" s="225" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="AW59" s="218" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
@@ -35217,11 +35504,11 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="218" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="BB60" s="178" t="s">
         <v>321</v>
@@ -35364,16 +35651,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="AW61" s="218" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35514,16 +35801,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="AW62" s="218" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35664,14 +35951,14 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV63" s="167" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="AW63" s="218"/>
       <c r="AX63" s="62" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -35811,16 +36098,16 @@
         <v>371</v>
       </c>
       <c r="AU64" s="146" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="AV64" s="167" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="AW64" s="218" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -35961,19 +36248,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV65" s="226" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="AW65" s="198" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -36116,17 +36403,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="AV66" s="216">
         <v>43671</v>
       </c>
       <c r="AW66" s="229"/>
       <c r="AX66" s="62" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -36269,16 +36556,16 @@
         <v>371</v>
       </c>
       <c r="AU67" s="166" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="AV67" s="227" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="AW67" s="229" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="AX67" s="62" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36421,19 +36708,19 @@
         <v>371</v>
       </c>
       <c r="AU68" s="146" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="AV68" s="227" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="AW68" s="229" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36577,10 +36864,10 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="154" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="AW69" s="229" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36726,10 +37013,10 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="229" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="BB70" s="224" t="s">
         <v>320</v>
@@ -36876,10 +37163,10 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="229" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -37026,10 +37313,10 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="229" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -37176,10 +37463,10 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="229" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -37326,10 +37613,10 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="229" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -37473,10 +37760,10 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="229" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
@@ -37616,19 +37903,19 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV76" s="228" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="AW76" s="229" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="BB76" s="178" t="s">
         <v>321</v>
@@ -37771,19 +38058,19 @@
         <v>371</v>
       </c>
       <c r="AU77" s="151" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="AV77" s="230" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="AW77" s="218" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -37925,7 +38212,7 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="218"/>
       <c r="AX78" s="62" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -38069,14 +38356,14 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW79" s="231"/>
       <c r="AX79" s="62" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
@@ -38216,22 +38503,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="AV80" s="216">
         <v>43678</v>
       </c>
       <c r="AW80" s="218" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
       </c>
       <c r="BB80" s="178" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38371,22 +38658,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="AV81" s="216">
         <v>43678</v>
       </c>
       <c r="AW81" s="218" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
       </c>
       <c r="BB81" s="178" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38530,16 +38817,16 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="218" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
       </c>
       <c r="BB82" s="178" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -38679,19 +38966,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="AV83" s="235" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="AW83" s="218" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -38831,19 +39118,19 @@
         <v>371</v>
       </c>
       <c r="AU84" s="151" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="AV84" s="230" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="AW84" s="218" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="AX84" s="62" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="AY84" s="62" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="BB84" s="178" t="s">
         <v>1025</v>
@@ -38986,16 +39273,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV85" s="230" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="AW85" s="218" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="AX85" s="62" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -39284,10 +39571,10 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="236" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39427,19 +39714,19 @@
         <v>371</v>
       </c>
       <c r="AU88" s="239" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="AV88" s="240" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="AW88" s="236" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39582,7 +39869,7 @@
         <v>229</v>
       </c>
       <c r="AY89" s="179" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
@@ -39719,16 +40006,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="AV90" s="216">
         <v>43697</v>
       </c>
       <c r="AW90" s="236" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -39863,19 +40150,19 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="AV91" s="216">
         <v>43697</v>
       </c>
       <c r="AW91" s="236" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="AY91" s="179" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
@@ -40016,13 +40303,13 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="216" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
       <c r="AY92" s="179" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -40169,13 +40456,13 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="145" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -40256,13 +40543,13 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="145" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -40405,13 +40692,13 @@
         <v>369</v>
       </c>
       <c r="AU95" s="146" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="AV95" s="237" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="AW95" s="218" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
@@ -40554,13 +40841,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="151" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="AV96" s="237" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="AW96" s="218" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -40701,13 +40988,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="AV97" s="237" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="AW97" s="218" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -40856,7 +41143,7 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="219" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -40963,13 +41250,13 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="219" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="AZ99" s="234"/>
       <c r="BA99" s="234"/>
@@ -41118,10 +41405,10 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="219" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -41267,7 +41554,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -41412,10 +41699,10 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="219" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41563,10 +41850,10 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="219" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -41709,16 +41996,16 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV104" s="216">
         <v>43699</v>
       </c>
       <c r="AW104" s="219" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -41868,10 +42155,10 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="219" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -42015,10 +42302,10 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="219" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -42168,10 +42455,10 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="219" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -42317,19 +42604,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV108" s="216">
         <v>43699</v>
       </c>
       <c r="AW108" s="219" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42473,13 +42760,13 @@
       </c>
       <c r="AU109" s="159"/>
       <c r="AV109" s="167" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="AW109" s="219" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42622,16 +42909,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="AV110" s="216">
         <v>43704</v>
       </c>
       <c r="AW110" s="218" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -42775,10 +43062,10 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="218" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="BB111" s="238" t="s">
         <v>320</v>
@@ -42925,10 +43212,10 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="218" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="BB112" s="61" t="s">
         <v>1029</v>
@@ -43075,13 +43362,13 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="218" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="AY113" s="80" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
@@ -43228,13 +43515,13 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="218" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="AX114" s="80" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="AY114" s="80" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="BB114" s="58" t="s">
         <v>1025</v>
@@ -43381,13 +43668,13 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="218" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="BB115" s="176" t="s">
         <v>328</v>
@@ -43534,13 +43821,13 @@
         <v>43711</v>
       </c>
       <c r="AW116" s="218" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="AY116" s="62" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="BB116" s="176" t="s">
         <v>324</v>
@@ -43687,10 +43974,10 @@
         <v>43711</v>
       </c>
       <c r="AW117" s="218" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
       <c r="BB117" s="176" t="s">
         <v>328</v>
@@ -43833,16 +44120,16 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="AV118" s="216">
         <v>43711</v>
       </c>
       <c r="AW118" s="218" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="BB118" s="242" t="s">
         <v>321</v>
@@ -43985,16 +44272,16 @@
         <v>369</v>
       </c>
       <c r="AU119" s="241" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="AV119" s="216">
         <v>43711</v>
       </c>
       <c r="AW119" s="218" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>324</v>
@@ -44137,16 +44424,16 @@
         <v>369</v>
       </c>
       <c r="AU120" s="243" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
       <c r="AV120" s="216">
         <v>43713</v>
       </c>
       <c r="AW120" s="218" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="AX120" s="80" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
       <c r="BB120" s="244" t="s">
         <v>1031</v>
@@ -44289,7 +44576,7 @@
         <v>369</v>
       </c>
       <c r="AU121" s="139" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="AV121" s="216">
         <v>43713</v>
@@ -44297,7 +44584,7 @@
       <c r="AW121" s="231"/>
       <c r="AX121" s="62"/>
       <c r="AY121" s="62" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
       <c r="BB121" s="61" t="s">
         <v>1030</v>
@@ -44434,16 +44721,16 @@
         <v>369</v>
       </c>
       <c r="AU122" s="139" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
       <c r="AV122" s="216">
         <v>43713</v>
       </c>
       <c r="AW122" s="218" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="AX122" s="62" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="AY122" s="62" t="s">
         <v>1033</v>
@@ -44593,13 +44880,13 @@
         <v>43713</v>
       </c>
       <c r="AW123" s="218" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="AX123" s="62" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="AY123" s="62" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -44695,19 +44982,19 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="AV124" s="216">
         <v>43713</v>
       </c>
       <c r="AW124" s="218" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="AX124" s="62" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="AY124" s="62" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -44803,7 +45090,7 @@
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="139" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
       <c r="AV125" s="216">
         <v>43713</v>
@@ -44916,10 +45203,10 @@
         <v>43713</v>
       </c>
       <c r="AW126" s="218" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
       <c r="BB126" s="61" t="s">
         <v>324</v>
@@ -45022,10 +45309,10 @@
         <v>43713</v>
       </c>
       <c r="AW127" s="218" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="AY127" s="80" t="s">
         <v>1035</v>
@@ -45260,7 +45547,7 @@
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="139" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
       <c r="AW129" s="79"/>
     </row>
@@ -45365,7 +45652,7 @@
       <c r="AS130" s="23"/>
       <c r="AT130" s="24"/>
       <c r="AU130" s="139" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
       <c r="AW130" s="79"/>
     </row>
@@ -45459,13 +45746,13 @@
       <c r="AT131" s="101"/>
       <c r="AU131" s="139"/>
       <c r="AV131" s="225" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="AW131" s="154" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="AX131" s="69" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="AY131" s="70"/>
       <c r="AZ131" s="66"/>
@@ -45473,7 +45760,7 @@
       <c r="BB131" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC131" s="286"/>
+      <c r="BC131" s="250"/>
     </row>
     <row r="132" spans="2:55" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="95" t="s">
@@ -45565,13 +45852,13 @@
       <c r="AT132" s="101"/>
       <c r="AU132" s="139"/>
       <c r="AV132" s="225" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="AW132" s="167" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
       <c r="AX132" s="69" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
       <c r="AY132" s="70"/>
       <c r="AZ132" s="66"/>
@@ -45579,7 +45866,7 @@
       <c r="BB132" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC132" s="286"/>
+      <c r="BC132" s="250"/>
     </row>
     <row r="133" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
@@ -45996,16 +46283,16 @@
         <v>369</v>
       </c>
       <c r="AU135" s="153" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="AV135" s="235" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
       <c r="AW135" s="218" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="BB135" s="61" t="s">
         <v>321</v>
@@ -46148,19 +46435,19 @@
         <v>369</v>
       </c>
       <c r="AU136" s="139" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="AV136" s="216">
         <v>43718</v>
       </c>
       <c r="AW136" s="63" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="AX136" s="62" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="AY136" s="62" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="BB136" s="61" t="s">
         <v>976</v>
@@ -46303,19 +46590,19 @@
         <v>369</v>
       </c>
       <c r="AU137" s="139" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="AV137" s="216">
         <v>43720</v>
       </c>
       <c r="AW137" s="248" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="AX137" s="80" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="AY137" s="80" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
       <c r="BB137" s="58" t="s">
         <v>976</v>
@@ -46458,19 +46745,19 @@
         <v>369</v>
       </c>
       <c r="AU138" s="139" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="AV138" s="216">
         <v>43720</v>
       </c>
       <c r="AW138" s="248" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="AX138" s="80" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="AY138" s="80" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -46565,19 +46852,19 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="151" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="AV139" s="230" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="AW139" s="249" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="AY139" s="62" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -46836,10 +47123,10 @@
         <v>43720</v>
       </c>
       <c r="AW141" s="249" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="AX141" s="62" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="BB141" s="246" t="s">
         <v>320</v>
@@ -46946,19 +47233,19 @@
         <v>371</v>
       </c>
       <c r="AU142" s="245" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="AV142" s="216">
         <v>43720</v>
       </c>
       <c r="AW142" s="249" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="AX142" s="62" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="AY142" s="80" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="AZ142" s="247"/>
       <c r="BA142" s="247"/>
@@ -47061,19 +47348,19 @@
         <v>371</v>
       </c>
       <c r="AU143" s="151" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
       <c r="AV143" s="230" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="AW143" s="249" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="AX143" s="62" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="BB143" s="176" t="s">
         <v>328</v>
@@ -47216,16 +47503,16 @@
         <v>371</v>
       </c>
       <c r="AU144" s="151" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="AV144" s="230" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="AW144" s="249" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="AX144" s="62" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="AY144" s="62" t="s">
         <v>737</v>
@@ -47376,13 +47663,13 @@
         <v>43720</v>
       </c>
       <c r="AW145" s="249" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
       <c r="AX145" s="62" t="s">
-        <v>1530</v>
+        <v>1516</v>
       </c>
       <c r="AY145" s="62" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="AZ145" s="177"/>
       <c r="BB145" s="246" t="s">
@@ -47488,13 +47775,13 @@
         <v>43720</v>
       </c>
       <c r="AW146" s="249" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="AX146" s="62" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
       <c r="AY146" s="62" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="AZ146" s="177"/>
       <c r="BB146" s="246" t="s">
@@ -47638,19 +47925,19 @@
         <v>371</v>
       </c>
       <c r="AU147" s="151" t="s">
-        <v>1533</v>
+        <v>1519</v>
       </c>
       <c r="AV147" s="230" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="AW147" s="63" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
       <c r="AX147" s="62" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="BB147" s="178" t="s">
         <v>324</v>
@@ -47755,13 +48042,13 @@
         <v>43720</v>
       </c>
       <c r="AW148" s="249" t="s">
-        <v>1538</v>
+        <v>1524</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
       <c r="AY148" s="62" t="s">
-        <v>1540</v>
+        <v>1526</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -47866,13 +48153,13 @@
         <v>43720</v>
       </c>
       <c r="AW149" s="249" t="s">
-        <v>1542</v>
+        <v>1528</v>
       </c>
       <c r="AX149" s="62" t="s">
-        <v>1543</v>
+        <v>1529</v>
       </c>
       <c r="AY149" s="62" t="s">
-        <v>1541</v>
+        <v>1527</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -47987,21 +48274,27 @@
         <v>369</v>
       </c>
       <c r="AU150" s="165" t="s">
-        <v>1275</v>
-      </c>
-      <c r="AV150" s="147">
-        <v>20190328</v>
-      </c>
-      <c r="AW150" s="86" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AX150" s="87"/>
-      <c r="AY150" s="88"/>
+        <v>1262</v>
+      </c>
+      <c r="AV150" s="216">
+        <v>43725</v>
+      </c>
+      <c r="AW150" s="249" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AX150" s="62" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AY150" s="88" t="s">
+        <v>1549</v>
+      </c>
       <c r="AZ150" s="89"/>
       <c r="BA150" s="89"/>
-      <c r="BB150" s="90"/>
-      <c r="BC150" s="286" t="s">
-        <v>1545</v>
+      <c r="BB150" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="BC150" s="250" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="151" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -48139,27 +48432,27 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="AV151" s="88">
-        <v>20190122</v>
-      </c>
-      <c r="AW151" s="86" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AX151" s="87" t="s">
-        <v>1039</v>
+        <v>20190917</v>
+      </c>
+      <c r="AW151" s="249" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AX151" s="62" t="s">
+        <v>1550</v>
       </c>
       <c r="AY151" s="87" t="s">
-        <v>1040</v>
+        <v>1552</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
-        <v>1041</v>
-      </c>
-      <c r="BC151" s="286" t="s">
-        <v>1546</v>
+        <v>1039</v>
+      </c>
+      <c r="BC151" s="250" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="152" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -48256,27 +48549,27 @@
       <c r="AT152" s="112"/>
       <c r="AU152" s="139"/>
       <c r="AV152" s="88">
-        <v>20190122</v>
-      </c>
-      <c r="AW152" s="86" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AX152" s="87" t="s">
-        <v>1042</v>
+        <v>20190917</v>
+      </c>
+      <c r="AW152" s="249" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AX152" s="62" t="s">
+        <v>1551</v>
       </c>
       <c r="AY152" s="87" t="s">
-        <v>1043</v>
+        <v>1553</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
-        <v>1041</v>
-      </c>
-      <c r="BC152" s="286" t="s">
-        <v>1547</v>
+        <v>1039</v>
+      </c>
+      <c r="BC152" s="250" t="s">
+        <v>1532</v>
       </c>
     </row>
-    <row r="153" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:55" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="21" t="s">
         <v>206</v>
       </c>
@@ -48407,12 +48700,23 @@
       <c r="AS153" s="23"/>
       <c r="AT153" s="24"/>
       <c r="AU153" s="139"/>
-      <c r="AW153" s="79"/>
-      <c r="BC153" s="286" t="s">
-        <v>1548</v>
+      <c r="AV153" s="138">
+        <v>20190917</v>
+      </c>
+      <c r="AW153" s="249" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AX153" s="62" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AY153" s="62" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BC153" s="250" t="s">
+        <v>1533</v>
       </c>
     </row>
-    <row r="154" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:55" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="21" t="s">
         <v>207</v>
       </c>
@@ -48543,9 +48847,18 @@
       <c r="AS154" s="23"/>
       <c r="AT154" s="24"/>
       <c r="AU154" s="139"/>
-      <c r="AW154" s="79"/>
-      <c r="BC154" s="286" t="s">
-        <v>1549</v>
+      <c r="AV154" s="138">
+        <v>20190917</v>
+      </c>
+      <c r="AW154" s="249" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AX154" s="62" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AY154" s="62"/>
+      <c r="BC154" s="250" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="155" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
@@ -48681,16 +48994,16 @@
       <c r="AU155" s="139"/>
       <c r="AW155" s="82"/>
       <c r="AX155" s="80" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AY155" s="80" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="BB155" s="58" t="s">
         <v>976</v>
       </c>
-      <c r="BC155" s="286" t="s">
-        <v>1548</v>
+      <c r="BC155" s="250" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="156" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
@@ -48824,26 +49137,26 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1170</v>
+        <v>1567</v>
       </c>
       <c r="AV156" s="145">
-        <v>20190228</v>
-      </c>
-      <c r="AW156" s="82"/>
+        <v>20190917</v>
+      </c>
+      <c r="AW156" s="249" t="s">
+        <v>1560</v>
+      </c>
       <c r="AX156" s="62" t="s">
-        <v>1276</v>
-      </c>
-      <c r="AY156" s="68" t="s">
-        <v>1000</v>
-      </c>
+        <v>1559</v>
+      </c>
+      <c r="AY156" s="68"/>
       <c r="BB156" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="BC156" s="286" t="s">
-        <v>1550</v>
+      <c r="BC156" s="251" t="s">
+        <v>1535</v>
       </c>
     </row>
-    <row r="157" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B157" s="21" t="s">
         <v>208</v>
       </c>
@@ -48962,14 +49275,23 @@
       <c r="AS157" s="23"/>
       <c r="AT157" s="24"/>
       <c r="AU157" s="139"/>
-      <c r="AW157" s="82" t="s">
-        <v>1046</v>
-      </c>
-      <c r="BC157" s="286" t="s">
-        <v>1551</v>
+      <c r="AV157" s="138">
+        <v>20190917</v>
+      </c>
+      <c r="AW157" s="249" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AX157" s="62" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AY157" s="62" t="s">
+        <v>1563</v>
+      </c>
+      <c r="BC157" s="250" t="s">
+        <v>1536</v>
       </c>
     </row>
-    <row r="158" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B158" s="21" t="s">
         <v>208</v>
       </c>
@@ -49100,9 +49422,20 @@
       <c r="AS158" s="23"/>
       <c r="AT158" s="24"/>
       <c r="AU158" s="139"/>
-      <c r="AW158" s="79"/>
-      <c r="BC158" s="286" t="s">
-        <v>1552</v>
+      <c r="AV158" s="167">
+        <v>20190917</v>
+      </c>
+      <c r="AW158" s="249" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AX158" s="62" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AY158" s="80" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BC158" s="250" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="159" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -49225,11 +49558,11 @@
       <c r="AT159" s="24"/>
       <c r="AU159" s="139"/>
       <c r="AW159" s="79"/>
-      <c r="BC159" s="286" t="s">
-        <v>1553</v>
+      <c r="BC159" s="250" t="s">
+        <v>1538</v>
       </c>
     </row>
-    <row r="160" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:55" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="21" t="s">
         <v>209</v>
       </c>
@@ -49360,17 +49693,25 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="143" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AV160" s="155">
-        <v>20190326</v>
-      </c>
-      <c r="AW160" s="79"/>
-      <c r="BC160" s="286" t="s">
-        <v>1553</v>
+        <v>1580</v>
+      </c>
+      <c r="AV160" s="167">
+        <v>20190917</v>
+      </c>
+      <c r="AW160" s="63" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AX160" s="62" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AY160" s="80" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BC160" s="250" t="s">
+        <v>1538</v>
       </c>
     </row>
-    <row r="161" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B161" s="95" t="s">
         <v>209</v>
       </c>
@@ -49489,28 +49830,30 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AV161" s="70">
-        <v>20190326</v>
-      </c>
-      <c r="AW161" s="85" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AX161" s="65" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AY161" s="70"/>
+        <v>1579</v>
+      </c>
+      <c r="AV161" s="167">
+        <v>20190917</v>
+      </c>
+      <c r="AW161" s="63" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AX161" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AY161" s="80" t="s">
+        <v>1571</v>
+      </c>
       <c r="AZ161" s="66"/>
       <c r="BA161" s="66"/>
       <c r="BB161" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC161" s="286" t="s">
-        <v>1554</v>
+      <c r="BC161" s="250" t="s">
+        <v>1539</v>
       </c>
     </row>
-    <row r="162" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:55" s="105" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="95" t="s">
         <v>209</v>
       </c>
@@ -49629,28 +49972,30 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AV162" s="70">
-        <v>20190326</v>
-      </c>
-      <c r="AW162" s="85" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AX162" s="169" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AY162" s="70"/>
+        <v>1578</v>
+      </c>
+      <c r="AV162" s="167">
+        <v>20190917</v>
+      </c>
+      <c r="AW162" s="63" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AX162" s="62" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AY162" s="62" t="s">
+        <v>1572</v>
+      </c>
       <c r="AZ162" s="66"/>
       <c r="BA162" s="66"/>
       <c r="BB162" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC162" s="286" t="s">
-        <v>1555</v>
+      <c r="BC162" s="250" t="s">
+        <v>1540</v>
       </c>
     </row>
-    <row r="163" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:55" s="105" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="95" t="s">
         <v>209</v>
       </c>
@@ -49769,25 +50114,27 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AV163" s="70">
-        <v>20190326</v>
-      </c>
-      <c r="AW163" s="85" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AX163" s="70" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AY163" s="70"/>
+        <v>1577</v>
+      </c>
+      <c r="AV163" s="167">
+        <v>20190917</v>
+      </c>
+      <c r="AW163" s="63" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AX163" s="62" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AY163" s="62" t="s">
+        <v>1573</v>
+      </c>
       <c r="AZ163" s="66"/>
       <c r="BA163" s="66"/>
       <c r="BB163" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC163" s="286" t="s">
-        <v>1555</v>
+      <c r="BC163" s="250" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="164" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
@@ -49922,7 +50269,7 @@
       <c r="AT164" s="24"/>
       <c r="AU164" s="139"/>
       <c r="AW164" s="79"/>
-      <c r="BC164" s="286" t="s">
+      <c r="BC164" s="250" t="s">
         <v>323</v>
       </c>
     </row>
@@ -50046,7 +50393,7 @@
       <c r="AT165" s="24"/>
       <c r="AU165" s="139"/>
       <c r="AW165" s="79"/>
-      <c r="BC165" s="286" t="s">
+      <c r="BC165" s="250" t="s">
         <v>323</v>
       </c>
     </row>
@@ -50188,8 +50535,8 @@
       </c>
       <c r="AU166" s="139"/>
       <c r="AW166" s="79"/>
-      <c r="BC166" s="286" t="s">
-        <v>1556</v>
+      <c r="BC166" s="250" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="167" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -50328,8 +50675,8 @@
       </c>
       <c r="AU167" s="139"/>
       <c r="AW167" s="79"/>
-      <c r="BC167" s="286" t="s">
-        <v>1557</v>
+      <c r="BC167" s="250" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="168" spans="2:55" s="105" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
@@ -50468,8 +50815,8 @@
       <c r="AZ168" s="66"/>
       <c r="BA168" s="66"/>
       <c r="BB168" s="66"/>
-      <c r="BC168" s="286" t="s">
-        <v>1558</v>
+      <c r="BC168" s="250" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="169" spans="2:55" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50561,13 +50908,13 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="148" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="AV169" s="154" t="s">
-        <v>1186</v>
-      </c>
-      <c r="BC169" s="286" t="s">
-        <v>1559</v>
+        <v>1180</v>
+      </c>
+      <c r="BC169" s="250" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="170" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
@@ -50708,17 +51055,17 @@
       </c>
       <c r="AU170" s="139"/>
       <c r="AW170" s="82" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="AX170" s="62" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="AY170" s="62"/>
       <c r="BB170" s="61" t="s">
         <v>1012</v>
       </c>
-      <c r="BC170" s="286" t="s">
-        <v>1559</v>
+      <c r="BC170" s="250" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="171" spans="2:55" ht="127.5" x14ac:dyDescent="0.25">
@@ -50858,25 +51205,25 @@
         <v>369</v>
       </c>
       <c r="AU171" s="151" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="AV171" s="138" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="AW171" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX171" s="62" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="AY171" s="62" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="BC171" s="286" t="s">
-        <v>1560</v>
+      <c r="BC171" s="250" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="172" spans="2:55" ht="240" x14ac:dyDescent="0.25">
@@ -51016,12 +51363,15 @@
         <v>369</v>
       </c>
       <c r="AU172" s="151" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="AV172" s="154" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="AW172" s="79"/>
+      <c r="BC172" s="250" t="s">
+        <v>1584</v>
+      </c>
     </row>
     <row r="173" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B173" s="95" t="s">
@@ -51128,24 +51478,26 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="AV173" s="142">
         <v>20190402</v>
       </c>
       <c r="AW173" s="140"/>
       <c r="AX173" s="141" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="AY173" s="141" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="AZ173" s="66"/>
       <c r="BA173" s="66"/>
       <c r="BB173" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC173" s="286"/>
+      <c r="BC173" s="250" t="s">
+        <v>1585</v>
+      </c>
     </row>
     <row r="174" spans="2:55" ht="195" x14ac:dyDescent="0.2">
       <c r="B174" s="21" t="s">
@@ -51284,25 +51636,28 @@
         <v>369</v>
       </c>
       <c r="AU174" s="152" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="AW174" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
       </c>
+      <c r="BC174" s="250" t="s">
+        <v>1586</v>
+      </c>
     </row>
-    <row r="175" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B175" s="95" t="s">
         <v>207</v>
       </c>
@@ -51412,19 +51767,21 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="AY175" s="65" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
       <c r="BB175" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC175" s="286"/>
+      <c r="BC175" s="250" t="s">
+        <v>1587</v>
+      </c>
     </row>
-    <row r="176" spans="2:55" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:55" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
       <c r="B176" s="106" t="s">
         <v>207</v>
       </c>
@@ -51561,7 +51918,7 @@
         <v>369</v>
       </c>
       <c r="AU176" s="156" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -51572,9 +51929,11 @@
       <c r="AZ176" s="89"/>
       <c r="BA176" s="89"/>
       <c r="BB176" s="89"/>
-      <c r="BC176" s="286"/>
+      <c r="BC176" s="250" t="s">
+        <v>1588</v>
+      </c>
     </row>
-    <row r="177" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:55" s="116" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B177" s="106" t="s">
         <v>207</v>
       </c>
@@ -51705,10 +52064,10 @@
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
       <c r="AU177" s="156" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -51716,7 +52075,9 @@
       <c r="AZ177" s="89"/>
       <c r="BA177" s="89"/>
       <c r="BB177" s="89"/>
-      <c r="BC177" s="286"/>
+      <c r="BC177" s="250" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="178" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B178" s="21" t="s">
@@ -51857,7 +52218,7 @@
       <c r="AU178" s="139"/>
       <c r="AW178" s="79"/>
     </row>
-    <row r="179" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:55" ht="153" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>207</v>
       </c>
@@ -51995,8 +52356,11 @@
       </c>
       <c r="AU179" s="139"/>
       <c r="AW179" s="79"/>
+      <c r="BC179" s="250" t="s">
+        <v>1590</v>
+      </c>
     </row>
-    <row r="180" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:55" ht="153" x14ac:dyDescent="0.2">
       <c r="B180" s="21" t="s">
         <v>207</v>
       </c>
@@ -52128,17 +52492,20 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AX180" s="81" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
         <v>976</v>
       </c>
+      <c r="BC180" s="250" t="s">
+        <v>1591</v>
+      </c>
     </row>
-    <row r="181" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:55" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B181" s="21" t="s">
         <v>207</v>
       </c>
@@ -52270,16 +52637,19 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AX181" s="62" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="BB181" s="61" t="s">
         <v>999</v>
       </c>
+      <c r="BC181" s="250" t="s">
+        <v>1588</v>
+      </c>
     </row>
-    <row r="182" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>207</v>
       </c>
@@ -52417,6 +52787,9 @@
       </c>
       <c r="AU182" s="139"/>
       <c r="AW182" s="79"/>
+      <c r="BC182" s="250" t="s">
+        <v>1592</v>
+      </c>
     </row>
     <row r="183" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B183" s="21" t="s">
@@ -52556,6 +52929,9 @@
       </c>
       <c r="AU183" s="139"/>
       <c r="AW183" s="79"/>
+      <c r="BC183" s="250" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="184" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B184" s="21" t="s">
@@ -52695,6 +53071,9 @@
       </c>
       <c r="AU184" s="139"/>
       <c r="AW184" s="79"/>
+      <c r="BC184" s="250" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="185" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B185" s="21" t="s">
@@ -52834,13 +53213,16 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AX185" s="62" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="BB185" s="61" t="s">
-        <v>1060</v>
+        <v>1055</v>
+      </c>
+      <c r="BC185" s="250" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="186" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -52950,7 +53332,7 @@
       <c r="AU186" s="139"/>
       <c r="AW186" s="79"/>
     </row>
-    <row r="187" spans="2:55" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:55" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="21" t="s">
         <v>207</v>
       </c>
@@ -53056,6 +53438,9 @@
       <c r="AT187" s="24"/>
       <c r="AU187" s="139"/>
       <c r="AW187" s="79"/>
+      <c r="BC187" s="250" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="188" spans="2:55" ht="153" x14ac:dyDescent="0.25">
       <c r="B188" s="21" t="s">
@@ -53194,22 +53579,25 @@
         <v>369</v>
       </c>
       <c r="AU188" s="160" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="BB188" s="176" t="s">
-        <v>1232</v>
+        <v>1220</v>
+      </c>
+      <c r="BC188" s="250" t="s">
+        <v>1596</v>
       </c>
     </row>
-    <row r="189" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:55" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>207</v>
       </c>
@@ -53346,23 +53734,26 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="AY189" s="62" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
       </c>
+      <c r="BC189" s="250" t="s">
+        <v>1597</v>
+      </c>
     </row>
-    <row r="190" spans="2:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:55" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="21" t="s">
         <v>207</v>
       </c>
@@ -53467,20 +53858,23 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="AY190" s="62" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
+      </c>
+      <c r="BC190" s="250" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="191" spans="2:55" ht="150" x14ac:dyDescent="0.2">
@@ -53620,19 +54014,22 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
+      </c>
+      <c r="BC191" s="250" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="192" spans="2:55" ht="270" x14ac:dyDescent="0.2">
@@ -53772,12 +54169,15 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
       </c>
       <c r="AW192" s="79"/>
+      <c r="BC192" s="250" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="193" spans="2:55" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="21" t="s">
@@ -53916,14 +54316,17 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
       </c>
       <c r="AW193" s="79"/>
+      <c r="BC193" s="250" t="s">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="194" spans="2:55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:55" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21" t="s">
         <v>207</v>
       </c>
@@ -54060,7 +54463,7 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
@@ -54069,13 +54472,16 @@
         <v>1038</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="BB194" s="176" t="s">
-        <v>1060</v>
+        <v>1055</v>
+      </c>
+      <c r="BC194" s="250" t="s">
+        <v>1601</v>
       </c>
     </row>
-    <row r="195" spans="2:55" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:55" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="21" t="s">
         <v>206</v>
       </c>
@@ -54269,19 +54675,22 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1066</v>
+        <v>1061</v>
+      </c>
+      <c r="BC196" s="250" t="s">
+        <v>1602</v>
       </c>
     </row>
-    <row r="197" spans="2:55" ht="102" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B197" s="21" t="s">
         <v>207</v>
       </c>
@@ -54418,20 +54827,23 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="AV197" s="145">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="AY197" s="180" t="s">
         <v>1000</v>
       </c>
       <c r="BB197" s="178" t="s">
         <v>1030</v>
+      </c>
+      <c r="BC197" s="250" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="198" spans="2:55" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54571,14 +54983,14 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="AY198" s="180" t="s">
         <v>1000</v>
@@ -54680,7 +55092,7 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="144" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
@@ -54689,7 +55101,7 @@
         <v>1017</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -54975,7 +55387,7 @@
         <v>1017</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="BB201" s="178" t="s">
         <v>321</v>
@@ -55071,7 +55483,7 @@
       <c r="AZ202" s="66"/>
       <c r="BA202" s="66"/>
       <c r="BB202" s="66"/>
-      <c r="BC202" s="286"/>
+      <c r="BC202" s="250"/>
     </row>
     <row r="203" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B203" s="21" t="s">
@@ -55166,7 +55578,7 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
@@ -55175,10 +55587,10 @@
         <v>1038</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="BB203" s="176" t="s">
         <v>328</v>
@@ -55321,16 +55733,16 @@
         <v>369</v>
       </c>
       <c r="AU204" s="150" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
@@ -55338,7 +55750,7 @@
       <c r="BB204" s="90" t="s">
         <v>1030</v>
       </c>
-      <c r="BC204" s="286"/>
+      <c r="BC204" s="250"/>
     </row>
     <row r="205" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B205" s="95" t="s">
@@ -55438,7 +55850,7 @@
       <c r="AZ205" s="66"/>
       <c r="BA205" s="66"/>
       <c r="BB205" s="67"/>
-      <c r="BC205" s="286"/>
+      <c r="BC205" s="250"/>
     </row>
     <row r="206" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B206" s="21" t="s">
@@ -55577,13 +55989,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="207" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
@@ -55808,13 +56220,13 @@
         <v>1038</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="BB208" s="176" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="209" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
@@ -55958,13 +56370,13 @@
         <v>1038</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="BB209" s="176" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="210" spans="2:55" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -56061,17 +56473,17 @@
         <v>1038</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
       <c r="BB210" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="BC210" s="286"/>
+      <c r="BC210" s="250"/>
     </row>
     <row r="211" spans="2:55" s="116" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="B211" s="106" t="s">
@@ -56210,7 +56622,7 @@
         <v>369</v>
       </c>
       <c r="AU211" s="152" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
@@ -56219,17 +56631,17 @@
         <v>1038</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
       <c r="BB211" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="BC211" s="286"/>
+      <c r="BC211" s="250"/>
     </row>
     <row r="212" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B212" s="95" t="s">
@@ -56292,24 +56704,24 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="146" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="AV212" s="147">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
       <c r="BB212" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC212" s="286"/>
+      <c r="BC212" s="250"/>
     </row>
     <row r="213" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B213" s="21" t="s">
@@ -56448,22 +56860,22 @@
         <v>369</v>
       </c>
       <c r="AU213" s="144" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="AV213" s="144">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="AX213" s="62" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="AY213" s="62" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="BB213" s="61" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="214" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
@@ -56603,7 +57015,7 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
@@ -56612,7 +57024,7 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="BB214" s="178" t="s">
         <v>976</v>
@@ -56755,19 +57167,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AX215" s="62" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AY215" s="62" t="s">
         <v>1072</v>
-      </c>
-      <c r="AX215" s="62" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AY215" s="62" t="s">
-        <v>1077</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -56871,7 +57283,7 @@
       <c r="AZ216" s="66"/>
       <c r="BA216" s="66"/>
       <c r="BB216" s="67"/>
-      <c r="BC216" s="286"/>
+      <c r="BC216" s="250"/>
     </row>
     <row r="217" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B217" s="95" t="s">
@@ -56971,7 +57383,7 @@
       <c r="AZ217" s="66"/>
       <c r="BA217" s="66"/>
       <c r="BB217" s="67"/>
-      <c r="BC217" s="286"/>
+      <c r="BC217" s="250"/>
     </row>
     <row r="218" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B218" s="21" t="s">
@@ -57249,13 +57661,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="220" spans="2:55" ht="51" x14ac:dyDescent="0.2">
@@ -57395,13 +57807,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="221" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -57542,7 +57954,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="222" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
@@ -57682,16 +58094,16 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="BB222" s="176" t="s">
         <v>320</v>
@@ -57834,19 +58246,19 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="224" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -58125,14 +58537,14 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="BB225" s="176" t="s">
         <v>320</v>
@@ -58269,7 +58681,7 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
@@ -58278,10 +58690,10 @@
         <v>1038</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -58418,7 +58830,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -58427,7 +58839,7 @@
         <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="228" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -58653,7 +59065,7 @@
       <c r="AZ229" s="66"/>
       <c r="BA229" s="66"/>
       <c r="BB229" s="66"/>
-      <c r="BC229" s="286"/>
+      <c r="BC229" s="250"/>
     </row>
     <row r="230" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B230" s="95" t="s">
@@ -58739,7 +59151,7 @@
       <c r="AZ230" s="66"/>
       <c r="BA230" s="66"/>
       <c r="BB230" s="66"/>
-      <c r="BC230" s="286"/>
+      <c r="BC230" s="250"/>
     </row>
     <row r="231" spans="2:55" s="105" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B231" s="95" t="s">
@@ -58825,7 +59237,7 @@
       <c r="AZ231" s="66"/>
       <c r="BA231" s="66"/>
       <c r="BB231" s="66"/>
-      <c r="BC231" s="286"/>
+      <c r="BC231" s="250"/>
     </row>
     <row r="232" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B232" s="21" t="s">
@@ -58964,7 +59376,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -59105,7 +59517,7 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
@@ -59246,7 +59658,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -59387,7 +59799,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -59528,7 +59940,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -59669,7 +60081,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -59814,13 +60226,13 @@
         <v>1038</v>
       </c>
       <c r="AX238" s="62" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="AY238" s="62" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="BB238" s="61" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="239" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -59956,24 +60368,24 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
         <v>1038</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
       <c r="BB239" s="90" t="s">
         <v>1012</v>
       </c>
-      <c r="BC239" s="286"/>
+      <c r="BC239" s="250"/>
     </row>
     <row r="240" spans="2:55" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B240" s="106" t="s">
@@ -60108,7 +60520,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -60117,7 +60529,7 @@
       <c r="AZ240" s="89"/>
       <c r="BA240" s="89"/>
       <c r="BB240" s="89"/>
-      <c r="BC240" s="286"/>
+      <c r="BC240" s="250"/>
     </row>
     <row r="241" spans="2:55" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B241" s="106" t="s">
@@ -60252,7 +60664,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -60261,7 +60673,7 @@
       <c r="AZ241" s="89"/>
       <c r="BA241" s="89"/>
       <c r="BB241" s="89"/>
-      <c r="BC241" s="286"/>
+      <c r="BC241" s="250"/>
     </row>
     <row r="242" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
@@ -60394,7 +60806,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -60535,7 +60947,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -60544,7 +60956,7 @@
       <c r="AZ243" s="89"/>
       <c r="BA243" s="89"/>
       <c r="BB243" s="89"/>
-      <c r="BC243" s="286"/>
+      <c r="BC243" s="250"/>
     </row>
     <row r="244" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B244" s="21" t="s">
@@ -60683,7 +61095,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -60774,7 +61186,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -60783,7 +61195,7 @@
       <c r="AZ245" s="66"/>
       <c r="BA245" s="66"/>
       <c r="BB245" s="66"/>
-      <c r="BC245" s="286"/>
+      <c r="BC245" s="250"/>
     </row>
     <row r="246" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B246" s="21" t="s">
@@ -60876,16 +61288,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -61028,7 +61440,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -61123,7 +61535,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -61132,7 +61544,7 @@
       <c r="AZ248" s="66"/>
       <c r="BA248" s="66"/>
       <c r="BB248" s="66"/>
-      <c r="BC248" s="286"/>
+      <c r="BC248" s="250"/>
     </row>
     <row r="249" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B249" s="21" t="s">
@@ -61221,16 +61633,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW249" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -61373,16 +61785,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW250" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -61525,10 +61937,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="252" spans="2:55" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62089,10 +62501,10 @@
         <v>1038</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -62239,7 +62651,7 @@
         <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -62378,10 +62790,10 @@
         <v>1038</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -62462,14 +62874,14 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
       <c r="AZ258" s="66"/>
       <c r="BA258" s="66"/>
       <c r="BB258" s="67"/>
-      <c r="BC258" s="286"/>
+      <c r="BC258" s="250"/>
     </row>
     <row r="259" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B259" s="21" t="s">
@@ -62608,7 +63020,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -62820,7 +63232,7 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW261" s="82" t="s">
         <v>1038</v>
@@ -62938,14 +63350,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -63088,17 +63500,17 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="BB263" s="176" t="s">
         <v>976</v>
@@ -63248,7 +63660,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -63368,17 +63780,17 @@
         <v>371</v>
       </c>
       <c r="AU265" s="168" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="AV265" s="167">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="BB265" s="176" t="s">
         <v>976</v>
@@ -63509,14 +63921,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -63524,7 +63936,7 @@
       <c r="BB266" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="BC266" s="286"/>
+      <c r="BC266" s="250"/>
     </row>
     <row r="267" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B267" s="95" t="s">
@@ -63651,7 +64063,7 @@
         <v>371</v>
       </c>
       <c r="AU267" s="172" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="AV267" s="169">
         <v>20190404</v>
@@ -63660,7 +64072,7 @@
         <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -63668,7 +64080,7 @@
       <c r="BB267" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC267" s="286"/>
+      <c r="BC267" s="250"/>
     </row>
     <row r="268" spans="2:55" s="105" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="B268" s="95" t="s">
@@ -63795,7 +64207,7 @@
         <v>371</v>
       </c>
       <c r="AU268" s="173" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="AV268" s="174">
         <v>20190404</v>
@@ -63804,7 +64216,7 @@
         <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -63812,7 +64224,7 @@
       <c r="BB268" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC268" s="286"/>
+      <c r="BC268" s="250"/>
     </row>
     <row r="269" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B269" s="95" t="s">
@@ -63939,7 +64351,7 @@
         <v>371</v>
       </c>
       <c r="AU269" s="175" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="AV269" s="174">
         <v>20190404</v>
@@ -63948,7 +64360,7 @@
         <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -63956,7 +64368,7 @@
       <c r="BB269" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC269" s="286"/>
+      <c r="BC269" s="250"/>
     </row>
     <row r="270" spans="2:55" s="105" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B270" s="95" t="s">
@@ -64029,7 +64441,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="170" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="AV270" s="171">
         <v>20190404</v>
@@ -64040,7 +64452,7 @@
       <c r="AZ270" s="66"/>
       <c r="BA270" s="66"/>
       <c r="BB270" s="66"/>
-      <c r="BC270" s="286"/>
+      <c r="BC270" s="250"/>
     </row>
     <row r="271" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B271" s="95" t="s">
@@ -64113,7 +64525,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="143" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AV271" s="155">
         <v>20190404</v>
@@ -64124,7 +64536,7 @@
       <c r="AZ271" s="66"/>
       <c r="BA271" s="66"/>
       <c r="BB271" s="66"/>
-      <c r="BC271" s="286"/>
+      <c r="BC271" s="250"/>
     </row>
     <row r="272" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B272" s="95" t="s">
@@ -64197,7 +64609,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="143" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="AV272" s="155">
         <v>20190404</v>
@@ -64208,7 +64620,7 @@
       <c r="AZ272" s="66"/>
       <c r="BA272" s="66"/>
       <c r="BB272" s="66"/>
-      <c r="BC272" s="286"/>
+      <c r="BC272" s="250"/>
     </row>
     <row r="273" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B273" s="21" t="s">
@@ -64333,13 +64745,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="AW273" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -64468,13 +64880,13 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="AW274" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="BB274" s="61" t="s">
         <v>1030</v>
@@ -64617,7 +65029,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -64626,7 +65038,7 @@
       <c r="AZ275" s="66"/>
       <c r="BA275" s="66"/>
       <c r="BB275" s="67"/>
-      <c r="BC275" s="286"/>
+      <c r="BC275" s="250"/>
     </row>
     <row r="276" spans="2:55" s="105" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="95" t="s">
@@ -64765,7 +65177,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -64774,7 +65186,7 @@
       <c r="AZ276" s="66"/>
       <c r="BA276" s="66"/>
       <c r="BB276" s="67"/>
-      <c r="BC276" s="286"/>
+      <c r="BC276" s="250"/>
     </row>
     <row r="277" spans="2:55" s="116" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B277" s="106" t="s">
@@ -64907,7 +65319,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -64916,7 +65328,7 @@
       <c r="AZ277" s="89"/>
       <c r="BA277" s="89"/>
       <c r="BB277" s="90"/>
-      <c r="BC277" s="286"/>
+      <c r="BC277" s="250"/>
     </row>
     <row r="278" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B278" s="21" t="s">
@@ -65013,7 +65425,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -65158,10 +65570,10 @@
         <v>1038</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -65234,7 +65646,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -65375,7 +65787,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -65516,7 +65928,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -65658,7 +66070,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -65799,7 +66211,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -65940,7 +66352,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -66081,7 +66493,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -66208,16 +66620,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW287" s="82" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="AX287" s="62" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="AY287" s="62" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -66288,7 +66700,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -66419,7 +66831,7 @@
         <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -66548,7 +66960,7 @@
         <v>370</v>
       </c>
       <c r="AU290" s="162" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="AV290" s="145">
         <v>20190305</v>
@@ -66557,7 +66969,7 @@
         <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="291" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
@@ -66683,13 +67095,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW291" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -66754,7 +67166,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -66817,7 +67229,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -66880,7 +67292,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -66889,7 +67301,7 @@
       <c r="AZ294" s="66"/>
       <c r="BA294" s="66"/>
       <c r="BB294" s="66"/>
-      <c r="BC294" s="286"/>
+      <c r="BC294" s="250"/>
     </row>
     <row r="295" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
@@ -66950,7 +67362,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -67013,7 +67425,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -67076,7 +67488,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -67139,7 +67551,7 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="162" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="AV298" s="145">
         <v>20190305</v>
@@ -67148,7 +67560,7 @@
         <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="299" spans="2:55" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -67210,7 +67622,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -67219,7 +67631,7 @@
       <c r="AZ299" s="66"/>
       <c r="BA299" s="66"/>
       <c r="BB299" s="66"/>
-      <c r="BC299" s="286"/>
+      <c r="BC299" s="250"/>
     </row>
     <row r="300" spans="2:55" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -67472,16 +67884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="285" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="284"/>
+      <c r="B1" s="286"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="287" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="285"/>
+      <c r="B2" s="287"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -67524,16 +67936,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="279" t="s">
+      <c r="A9" s="281" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="283" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="280"/>
-      <c r="B10" s="282"/>
+      <c r="A10" s="282"/>
+      <c r="B10" s="284"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -67813,31 +68225,31 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="149"/>
       <c r="B4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="164"/>
       <c r="B5" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -67857,166 +68269,166 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="F1" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B2" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B3" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="F3" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B4" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="F4" s="161" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B5" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B6" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B7" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B8" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="B9" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="B10" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B11" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B12" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="B14" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B15" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B16" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="B17" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B18" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="B19" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -68024,12 +68436,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12393" uniqueCount="1617">
   <si>
     <t>ID</t>
   </si>
@@ -7849,6 +7849,77 @@
     <t>Procedure has Lot,
 Lot applied SubmissionTerms,
 SubmissionTerms haseSubmissionCommunication</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasFormula which is inherited from Criterion</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.Formula</t>
+  </si>
+  <si>
+    <t>The expression used to find a result.
+Additional information: 
+This expression is usually a mathematical formula, but it can be an informal description of the way in which the result will be calculated.
+WG Approval 19/09/2019</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.AwardCriterion.WeightingJustification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation about why the actual weighting model is chosen. 
+Additional information: 
+In eNotification: This property is specifically used to describe why the order of importance is used over another weighting model.
+In ESPD: This is used to explain other complex models of weighting for transparency reasons. 
+WG Approval 19/09/2019 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procedure has Lot,
+Lot has AwardCriterion,
+AwardCriterion hasWeightingJustification which is inherited from Criterion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>See recital 90 Directive 24</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Methods used for conducting procurement procedure.
+Addtional information:
+Several techniques can be combined in one single procurement procedure (e.g. eAuction can be carried out in a Framework Agreement or DPS).
+WG Approval 19/09/2019 </t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Techniques,
+Lot hasID Identifier</t>
+  </si>
+  <si>
+    <t>Procedure.Lot.ID,
+Lot.Techniques</t>
+  </si>
+  <si>
+    <t>Procedure.FrameworkAgreementTerms.FrameworkAgreementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The form of framework agreement used in a procurement procedure.
+WG Approval 19/09/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure uses Framework Agreement Terms,
+Framework Agreement Terms hasFrameworkAgreementType Code
+</t>
+  </si>
+  <si>
+    <t>Although eForms uses the code none, the ontology does not use this code as the design approach in the ontology is base in the existance or absence of specific property and associated class (e.g. Procedure has Technique, Technique is of type of Framework Agreement. So if the class does not exist, it can not be represented).</t>
   </si>
 </sst>
 </file>
@@ -9098,7 +9169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9812,6 +9883,69 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9827,21 +9961,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9852,51 +9971,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10649,10 +10723,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AU161" sqref="AU161"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="A169:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10697,95 +10771,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="274" t="s">
+      <c r="B1" s="253" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="266" t="s">
+      <c r="C1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="266" t="s">
+      <c r="D1" s="256" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="266" t="s">
+      <c r="E1" s="256" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="266" t="s">
+      <c r="F1" s="256" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="278" t="s">
+      <c r="G1" s="263" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="257" t="s">
+      <c r="H1" s="259" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="277"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="257" t="s">
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="259" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="258"/>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
-      <c r="Y1" s="258"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="258"/>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="258"/>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="257" t="s">
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="260"/>
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="260"/>
+      <c r="AD1" s="262"/>
+      <c r="AE1" s="259" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="258"/>
-      <c r="AG1" s="258"/>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="257" t="s">
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="260"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="259" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="258"/>
-      <c r="AK1" s="258"/>
-      <c r="AL1" s="258"/>
-      <c r="AM1" s="258"/>
-      <c r="AN1" s="258"/>
-      <c r="AO1" s="258"/>
-      <c r="AP1" s="258"/>
-      <c r="AQ1" s="259"/>
-      <c r="AR1" s="257" t="s">
+      <c r="AJ1" s="260"/>
+      <c r="AK1" s="260"/>
+      <c r="AL1" s="260"/>
+      <c r="AM1" s="260"/>
+      <c r="AN1" s="260"/>
+      <c r="AO1" s="260"/>
+      <c r="AP1" s="260"/>
+      <c r="AQ1" s="262"/>
+      <c r="AR1" s="259" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="258"/>
-      <c r="AT1" s="259"/>
-      <c r="AU1" s="262" t="s">
+      <c r="AS1" s="260"/>
+      <c r="AT1" s="262"/>
+      <c r="AU1" s="278" t="s">
         <v>1158</v>
       </c>
-      <c r="AV1" s="263" t="s">
+      <c r="AV1" s="279" t="s">
         <v>1144</v>
       </c>
-      <c r="AX1" s="264" t="s">
+      <c r="AX1" s="280" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="265"/>
-      <c r="AZ1" s="265"/>
+      <c r="AY1" s="281"/>
+      <c r="AZ1" s="281"/>
       <c r="BC1" s="250" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="2" spans="2:55" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="275"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="279"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="264"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10903,115 +10977,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="262"/>
-      <c r="AV2" s="263"/>
+      <c r="AU2" s="278"/>
+      <c r="AV2" s="279"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="252" t="s">
+      <c r="AX2" s="273" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="252" t="s">
+      <c r="AY2" s="273" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="252" t="s">
+      <c r="AZ2" s="273" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="252" t="s">
+      <c r="BB2" s="273" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:55" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="275"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="270" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="268" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="261"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="272" t="s">
+      <c r="I3" s="269"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="271" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="272" t="s">
+      <c r="L3" s="269"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="271" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270" t="s">
+      <c r="O3" s="267"/>
+      <c r="P3" s="268" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="272" t="s">
+      <c r="Q3" s="272"/>
+      <c r="R3" s="271" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="261"/>
-      <c r="T3" s="273"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="272"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="272" t="s">
+      <c r="V3" s="271" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="272" t="s">
+      <c r="W3" s="269"/>
+      <c r="X3" s="269"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="271" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="273"/>
+      <c r="AA3" s="272"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="272" t="s">
+      <c r="AC3" s="271" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="269"/>
-      <c r="AE3" s="270" t="s">
+      <c r="AD3" s="267"/>
+      <c r="AE3" s="268" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="261"/>
-      <c r="AG3" s="261"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270" t="s">
+      <c r="AF3" s="269"/>
+      <c r="AG3" s="269"/>
+      <c r="AH3" s="267"/>
+      <c r="AI3" s="268" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="261"/>
-      <c r="AK3" s="261"/>
-      <c r="AL3" s="271"/>
-      <c r="AM3" s="260" t="s">
+      <c r="AJ3" s="269"/>
+      <c r="AK3" s="269"/>
+      <c r="AL3" s="270"/>
+      <c r="AM3" s="266" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="261"/>
-      <c r="AO3" s="271"/>
-      <c r="AP3" s="260" t="s">
+      <c r="AN3" s="269"/>
+      <c r="AO3" s="270"/>
+      <c r="AP3" s="266" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="269"/>
-      <c r="AR3" s="260" t="s">
+      <c r="AQ3" s="267"/>
+      <c r="AR3" s="266" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="261"/>
-      <c r="AT3" s="261"/>
-      <c r="AU3" s="262"/>
-      <c r="AV3" s="263"/>
+      <c r="AS3" s="269"/>
+      <c r="AT3" s="269"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="279"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="253"/>
-      <c r="AY3" s="253"/>
-      <c r="AZ3" s="253"/>
+      <c r="AX3" s="274"/>
+      <c r="AY3" s="274"/>
+      <c r="AZ3" s="274"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="253"/>
+      <c r="BB3" s="274"/>
     </row>
     <row r="4" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="276"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="280"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="265"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -11129,16 +11203,16 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="262"/>
-      <c r="AV4" s="263"/>
+      <c r="AU4" s="278"/>
+      <c r="AV4" s="279"/>
       <c r="AW4" s="212" t="s">
         <v>1302</v>
       </c>
-      <c r="AX4" s="253"/>
-      <c r="AY4" s="253"/>
-      <c r="AZ4" s="253"/>
+      <c r="AX4" s="274"/>
+      <c r="AY4" s="274"/>
+      <c r="AZ4" s="274"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="253"/>
+      <c r="BB4" s="274"/>
     </row>
     <row r="5" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="201"/>
@@ -11188,11 +11262,11 @@
       <c r="AT5" s="208"/>
       <c r="AU5" s="204"/>
       <c r="AV5" s="213"/>
-      <c r="AW5" s="254" t="s">
+      <c r="AW5" s="275" t="s">
         <v>1299</v>
       </c>
-      <c r="AX5" s="255"/>
-      <c r="AY5" s="256"/>
+      <c r="AX5" s="276"/>
+      <c r="AY5" s="277"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="205"/>
       <c r="BB5" s="205"/>
@@ -50137,7 +50211,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="164" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B164" s="21" t="s">
         <v>207</v>
       </c>
@@ -50268,12 +50342,23 @@
       <c r="AS164" s="23"/>
       <c r="AT164" s="24"/>
       <c r="AU164" s="139"/>
-      <c r="AW164" s="79"/>
+      <c r="AV164" s="167">
+        <v>20190919</v>
+      </c>
+      <c r="AW164" s="79" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AX164" s="80" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AY164" s="80" t="s">
+        <v>1606</v>
+      </c>
       <c r="BC164" s="250" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B165" s="21" t="s">
         <v>207</v>
       </c>
@@ -50392,7 +50477,21 @@
       <c r="AS165" s="23"/>
       <c r="AT165" s="24"/>
       <c r="AU165" s="139"/>
-      <c r="AW165" s="79"/>
+      <c r="AV165" s="167">
+        <v>20190919</v>
+      </c>
+      <c r="AW165" s="63" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AX165" s="80" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AY165" s="80" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BB165" s="58" t="s">
+        <v>324</v>
+      </c>
       <c r="BC165" s="250" t="s">
         <v>323</v>
       </c>
@@ -50534,7 +50633,13 @@
         <v>369</v>
       </c>
       <c r="AU166" s="139"/>
+      <c r="AV166" s="138">
+        <v>20190919</v>
+      </c>
       <c r="AW166" s="79"/>
+      <c r="AY166" s="62" t="s">
+        <v>1610</v>
+      </c>
       <c r="BC166" s="250" t="s">
         <v>1541</v>
       </c>
@@ -50674,7 +50779,18 @@
         <v>369</v>
       </c>
       <c r="AU167" s="139"/>
-      <c r="AW167" s="79"/>
+      <c r="AV167" s="138">
+        <v>20190919</v>
+      </c>
+      <c r="AW167" s="63" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AX167" s="62" t="s">
+        <v>1612</v>
+      </c>
+      <c r="BB167" s="252" t="s">
+        <v>320</v>
+      </c>
       <c r="BC167" s="250" t="s">
         <v>1542</v>
       </c>
@@ -50805,17 +50921,27 @@
       <c r="AT168" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="AU168" s="139"/>
-      <c r="AV168" s="70">
-        <v>20190305</v>
-      </c>
-      <c r="AW168" s="69"/>
-      <c r="AX168" s="70"/>
-      <c r="AY168" s="70"/>
+      <c r="AU168" s="139" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AV168" s="167">
+        <v>20190919</v>
+      </c>
+      <c r="AW168" s="64" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AX168" s="65" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AY168" s="65" t="s">
+        <v>1614</v>
+      </c>
       <c r="AZ168" s="66"/>
       <c r="BA168" s="66"/>
-      <c r="BB168" s="66"/>
-      <c r="BC168" s="250" t="s">
+      <c r="BB168" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="BC168" s="251" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -67674,13 +67800,17 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AU1:AU4"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AP3:AQ3"/>
@@ -67695,17 +67825,13 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AU1:AU4"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU141 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
@@ -67884,16 +68010,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="286" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="286"/>
+      <c r="B1" s="287"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="288" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="287"/>
+      <c r="B2" s="288"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -67936,16 +68062,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="281" t="s">
+      <c r="A9" s="282" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="283" t="s">
+      <c r="B9" s="284" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="282"/>
-      <c r="B10" s="284"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="285"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -68450,22 +68576,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </AresNumber>
-    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </Unit_Dir0_tax>
-    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -68648,9 +68758,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </AresNumber>
+    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </Unit_Dir0_tax>
+    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68665,32 +68795,10 @@
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68710,10 +68818,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -68727,9 +68853,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12393" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12399" uniqueCount="1626">
   <si>
     <t>ID</t>
   </si>
@@ -4714,14 +4714,8 @@
     <t>FrameworkAgreementTerms. MaximumNumberOfAwardedTenderers</t>
   </si>
   <si>
-    <t>FrameworkAgreementTerms.DurationExtensionJustification</t>
-  </si>
-  <si>
     <t xml:space="preserve"> In the case of a framework agreement, the reasons for any duration exceeding four years.
 (Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>DynamicPurchaseSystem</t>
   </si>
   <si>
     <t>An electronic system that is set up by a procuring entity which lists the economic operators that satisfy the selection and exclusion criteria.   This technique then allows the purchase via consultation of the listed tenderers using award criteria.
@@ -5195,11 +5189,6 @@
 </t>
   </si>
   <si>
-    <t>dps has buyer scope (predicate)
-dps-usage (code name)
- type: dps-list, dps-nlist, none</t>
-  </si>
-  <si>
     <t>Use of a technical specification, selection criterion, award criterion, or contract performance condition aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
 However it would be better to put it at lot level as policy information</t>
   </si>
@@ -5382,42 +5371,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Already exists as an attribute of the Framework agreement class, as "Max Number Participants" (a numeric value, not an indicator). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-We do not understand why this is an Indicator and not a number. Giampaolo or Danielle will create an issue in eForms explaining that we have it as a numeric.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Decisions made: 
-1. We changed the name of the property from "Max Number Participants" to "Max Number of Awarded Tenderers"
-2. We changed the definition "Maximum quantity of economic operators participating in a framework agreement." to this other one "The terms governing contracts, reached between one more buyers and one or more economic operators during a given period.".
-3. BEWARE THAT the intended use of "Max Number Participants" is already covered by two other properties in Evaluation Result/Candidate Short List class (Maximum Number of Candidates).</t>
-    </r>
-  </si>
-  <si>
     <t>20190205_06</t>
   </si>
   <si>
@@ -5588,9 +5541,6 @@
   <si>
     <t>Explanation about why the choice of an accelerated procedure is lawful.
 (Not included in the Glossary. Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Concept changed, definition missing</t>
   </si>
   <si>
     <t>DynamicPurchaseSystem.DPSTermination</t>
@@ -7892,12 +7842,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Methods used for conducting procurement procedure.
-Addtional information:
-Several techniques can be combined in one single procurement procedure (e.g. eAuction can be carried out in a Framework Agreement or DPS).
-WG Approval 19/09/2019 </t>
-  </si>
-  <si>
     <t>Procedure has Lot,
 Lot uses Techniques,
 Lot hasID Identifier</t>
@@ -7920,6 +7864,111 @@
   </si>
   <si>
     <t>Although eForms uses the code none, the ontology does not use this code as the design approach in the ontology is base in the existance or absence of specific property and associated class (e.g. Procedure has Technique, Technique is of type of Framework Agreement. So if the class does not exist, it can not be represented).</t>
+  </si>
+  <si>
+    <t>Methods used for conducting procurement procedure.
+Addtional information:
+Several techniques can be combined in one single procurement procedure (e.g. eAuction can be carried out in a Framework Agreement or DPS).
+WG Approval 19/09/2019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Already exists as an attribute of the Framework agreement class, as "Max Number Participants" (a numeric value, not an indicator). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+We do not understand why this is an Indicator and not a number. Giampaolo or Danielle will create an issue in eForms explaining that we have it as a numeric.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Decisions made: 
+1. We changed the name of the property from "Max Number Participants" to "Max Number of Awarded Tenderers"
+2. We changed the definition "Maximum quantity of economic operators participating in a framework agreement." to this other one "The terms governing contracts, reached between one more buyers and one or more economic operators during a given period.".
+3. BEWARE THAT the intended use of "Max Number Participants" is already covered by two other properties in Evaluation Result/Candidate Short List class (Maximum Number of Candidates).
+DECISION MADE (26/09/2019):
+WG decides that it make sense to map this BT to our Framework Agreement Terms Maximum Number of Awarded Tenderers". </t>
+    </r>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Procedure.FrameworkAgreementTersm.MaximumNumberOfAwardedTenderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of tenderers who may be awarded a contract within the framework agreement.
+Additional Information: the number is a positive integer.
+WG Approval 2019-02-05
+</t>
+  </si>
+  <si>
+    <t>In the Ontology the existence of the property hasMaximumNumberOfAwardTenderers supersedes the need for an indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure uses FrameworkAgreementTerms,
+FrameworkAgreementTerms has MaximumNumberOfAwardedTenderers 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure uses FrameworkAgreementTerms,
+FrameworkAgreementTerms has DurationExtensionJustification
+</t>
+  </si>
+  <si>
+    <t>Procedure.FrameworkAgreementTerms,
+FrameworkAgreementTerms.DurationExtensionJustification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure uses FrameworkAgreementTerms,
+FrameworkAgreementTerms has BuyerCoverage
+</t>
+  </si>
+  <si>
+    <t>Procedure.FrameworkAgreementTerms,
+FrameworkAgreementTerms.BuyerCoverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyers that can use the Framework Agreement not mentioned by name.
+Additional Information: 
+For example,  "all hospitals in the Tuscany region
+WG Approval 2019-05-06
+</t>
+  </si>
+  <si>
+    <t>Procedure.Lot
+Lot.DynamicPurchaseSystem</t>
+  </si>
+  <si>
+    <t>dps has buyer scope (predicate)
+dps-usage (code name)
+ type: dps-list, dps-nlist, none
+AN ISSUE HAS BEEN CREATED IN EPO TO CHECK WITH EFORMS HOW TO DEAL WITH THE COMBINATION OF HETEROGENOUS ELEMENTS IN ONE CODE LIST SUCH AS DPS, CPB, LISTS OF BUYERS (see Issue #223).</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot uses Technique,
+DynamicPurchaseSystem is Technique,
+DPS hasDPSUsage Code</t>
   </si>
 </sst>
 </file>
@@ -8157,7 +8206,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8227,12 +8276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9169,7 +9212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9557,16 +9600,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9600,7 +9634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9623,7 +9657,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9639,22 +9673,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9672,59 +9706,59 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9877,74 +9911,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9961,6 +9941,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9971,6 +9966,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10723,10 +10763,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:XFD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="A169:XFD169"/>
+      <selection pane="bottomLeft" activeCell="AU173" sqref="AU173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10761,105 +10801,105 @@
     <col min="44" max="44" width="5.42578125" style="56" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="5.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="5.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" style="158" customWidth="1"/>
-    <col min="48" max="48" width="32.5703125" style="138" customWidth="1"/>
+    <col min="47" max="47" width="84.7109375" style="155" customWidth="1"/>
+    <col min="48" max="48" width="35.85546875" style="138" customWidth="1"/>
     <col min="49" max="49" width="33.28515625" style="129" customWidth="1"/>
     <col min="50" max="50" width="33.140625" style="80" customWidth="1"/>
     <col min="51" max="51" width="45" style="80" customWidth="1"/>
     <col min="52" max="54" width="9.140625" style="58"/>
-    <col min="55" max="55" width="14.5703125" style="250" customWidth="1"/>
+    <col min="55" max="55" width="14.5703125" style="247" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="274" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="256" t="s">
+      <c r="D1" s="266" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="266" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="256" t="s">
+      <c r="F1" s="266" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="263" t="s">
+      <c r="G1" s="278" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="259" t="s">
+      <c r="H1" s="257" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="259" t="s">
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="257" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="260"/>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="260"/>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="260"/>
-      <c r="AD1" s="262"/>
-      <c r="AE1" s="259" t="s">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="258"/>
+      <c r="AB1" s="258"/>
+      <c r="AC1" s="258"/>
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="257" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="260"/>
-      <c r="AG1" s="260"/>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="259" t="s">
+      <c r="AF1" s="258"/>
+      <c r="AG1" s="258"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="257" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="260"/>
-      <c r="AK1" s="260"/>
-      <c r="AL1" s="260"/>
-      <c r="AM1" s="260"/>
-      <c r="AN1" s="260"/>
-      <c r="AO1" s="260"/>
-      <c r="AP1" s="260"/>
-      <c r="AQ1" s="262"/>
-      <c r="AR1" s="259" t="s">
+      <c r="AJ1" s="258"/>
+      <c r="AK1" s="258"/>
+      <c r="AL1" s="258"/>
+      <c r="AM1" s="258"/>
+      <c r="AN1" s="258"/>
+      <c r="AO1" s="258"/>
+      <c r="AP1" s="258"/>
+      <c r="AQ1" s="259"/>
+      <c r="AR1" s="257" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="260"/>
-      <c r="AT1" s="262"/>
-      <c r="AU1" s="278" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AV1" s="279" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AX1" s="280" t="s">
+      <c r="AS1" s="258"/>
+      <c r="AT1" s="259"/>
+      <c r="AU1" s="262" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AV1" s="263" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AX1" s="264" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="281"/>
-      <c r="AZ1" s="281"/>
-      <c r="BC1" s="250" t="s">
-        <v>1546</v>
+      <c r="AY1" s="265"/>
+      <c r="AZ1" s="265"/>
+      <c r="BC1" s="247" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="2" spans="2:55" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="254"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="264"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="279"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -10977,115 +11017,115 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="278"/>
-      <c r="AV2" s="279"/>
+      <c r="AU2" s="262"/>
+      <c r="AV2" s="263"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="273" t="s">
+      <c r="AX2" s="252" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="273" t="s">
+      <c r="AY2" s="252" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="273" t="s">
+      <c r="AZ2" s="252" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="273" t="s">
+      <c r="BB2" s="252" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:55" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="254"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="268" t="s">
+      <c r="B3" s="275"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="270" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="269"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="271" t="s">
+      <c r="I3" s="261"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="269"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="271" t="s">
+      <c r="L3" s="261"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268" t="s">
+      <c r="O3" s="269"/>
+      <c r="P3" s="270" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="271" t="s">
+      <c r="Q3" s="273"/>
+      <c r="R3" s="272" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="269"/>
-      <c r="T3" s="272"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="273"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="271" t="s">
+      <c r="V3" s="272" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="269"/>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="271" t="s">
+      <c r="W3" s="261"/>
+      <c r="X3" s="261"/>
+      <c r="Y3" s="273"/>
+      <c r="Z3" s="272" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="272"/>
+      <c r="AA3" s="273"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="271" t="s">
+      <c r="AC3" s="272" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="268" t="s">
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="270" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="269"/>
-      <c r="AG3" s="269"/>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="268" t="s">
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="261"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="269"/>
-      <c r="AK3" s="269"/>
-      <c r="AL3" s="270"/>
-      <c r="AM3" s="266" t="s">
+      <c r="AJ3" s="261"/>
+      <c r="AK3" s="261"/>
+      <c r="AL3" s="271"/>
+      <c r="AM3" s="260" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="269"/>
-      <c r="AO3" s="270"/>
-      <c r="AP3" s="266" t="s">
+      <c r="AN3" s="261"/>
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="260" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="267"/>
-      <c r="AR3" s="266" t="s">
+      <c r="AQ3" s="269"/>
+      <c r="AR3" s="260" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="269"/>
-      <c r="AT3" s="269"/>
-      <c r="AU3" s="278"/>
-      <c r="AV3" s="279"/>
+      <c r="AS3" s="261"/>
+      <c r="AT3" s="261"/>
+      <c r="AU3" s="262"/>
+      <c r="AV3" s="263"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="274"/>
-      <c r="AY3" s="274"/>
-      <c r="AZ3" s="274"/>
+      <c r="AX3" s="253"/>
+      <c r="AY3" s="253"/>
+      <c r="AZ3" s="253"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="274"/>
+      <c r="BB3" s="253"/>
     </row>
     <row r="4" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="255"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="265"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="280"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -11203,73 +11243,73 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="278"/>
-      <c r="AV4" s="279"/>
-      <c r="AW4" s="212" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AX4" s="274"/>
-      <c r="AY4" s="274"/>
-      <c r="AZ4" s="274"/>
+      <c r="AU4" s="262"/>
+      <c r="AV4" s="263"/>
+      <c r="AW4" s="209" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AX4" s="253"/>
+      <c r="AY4" s="253"/>
+      <c r="AZ4" s="253"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="274"/>
+      <c r="BB4" s="253"/>
     </row>
     <row r="5" spans="2:55" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="208"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="208"/>
-      <c r="U5" s="208"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="208"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="208"/>
-      <c r="AB5" s="208"/>
-      <c r="AC5" s="207"/>
-      <c r="AD5" s="209"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="207"/>
-      <c r="AG5" s="207"/>
-      <c r="AH5" s="211"/>
-      <c r="AI5" s="207"/>
-      <c r="AJ5" s="207"/>
-      <c r="AK5" s="207"/>
-      <c r="AL5" s="208"/>
-      <c r="AM5" s="207"/>
-      <c r="AN5" s="207"/>
-      <c r="AO5" s="208"/>
-      <c r="AP5" s="207"/>
-      <c r="AQ5" s="209"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="207"/>
-      <c r="AT5" s="208"/>
-      <c r="AU5" s="204"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="275" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AX5" s="276"/>
-      <c r="AY5" s="277"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="205"/>
+      <c r="AB5" s="205"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="204"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="208"/>
+      <c r="AI5" s="204"/>
+      <c r="AJ5" s="204"/>
+      <c r="AK5" s="204"/>
+      <c r="AL5" s="205"/>
+      <c r="AM5" s="204"/>
+      <c r="AN5" s="204"/>
+      <c r="AO5" s="205"/>
+      <c r="AP5" s="204"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="207"/>
+      <c r="AS5" s="204"/>
+      <c r="AT5" s="205"/>
+      <c r="AU5" s="201"/>
+      <c r="AV5" s="210"/>
+      <c r="AW5" s="254" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AX5" s="255"/>
+      <c r="AY5" s="256"/>
       <c r="AZ5" s="131"/>
-      <c r="BA5" s="205"/>
-      <c r="BB5" s="205"/>
+      <c r="BA5" s="202"/>
+      <c r="BB5" s="202"/>
     </row>
     <row r="6" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
@@ -11408,16 +11448,16 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AV6" s="216">
+        <v>1143</v>
+      </c>
+      <c r="AV6" s="213">
         <v>43662</v>
       </c>
-      <c r="AW6" s="214"/>
-      <c r="AX6" s="215" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AY6" s="215" t="s">
+      <c r="AW6" s="211"/>
+      <c r="AX6" s="212" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AY6" s="212" t="s">
         <v>975</v>
       </c>
       <c r="BB6" s="61" t="s">
@@ -11431,7 +11471,7 @@
       <c r="C7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="160" t="s">
         <v>613</v>
       </c>
       <c r="E7" s="44" t="s">
@@ -11545,7 +11585,7 @@
         <v>370</v>
       </c>
       <c r="AU7" s="139"/>
-      <c r="AV7" s="216">
+      <c r="AV7" s="213">
         <v>43662</v>
       </c>
       <c r="AW7" s="63"/>
@@ -11699,14 +11739,14 @@
         <v>370</v>
       </c>
       <c r="AU8" s="139"/>
-      <c r="AV8" s="216">
+      <c r="AV8" s="213">
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -11856,18 +11896,18 @@
       </c>
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
-      <c r="AW9" s="200" t="s">
-        <v>1280</v>
+      <c r="AW9" s="197" t="s">
+        <v>1275</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
       <c r="AZ9" s="66"/>
       <c r="BA9" s="66"/>
       <c r="BB9" s="67"/>
-      <c r="BC9" s="250"/>
+      <c r="BC9" s="247"/>
     </row>
     <row r="10" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -12003,28 +12043,28 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AV10" s="217">
+        <v>1163</v>
+      </c>
+      <c r="AV10" s="214">
         <v>43662</v>
       </c>
-      <c r="AW10" s="218" t="s">
-        <v>1305</v>
-      </c>
-      <c r="AX10" s="219" t="s">
+      <c r="AW10" s="215" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AX10" s="216" t="s">
         <v>981</v>
       </c>
-      <c r="AY10" s="220" t="s">
+      <c r="AY10" s="217" t="s">
         <v>982</v>
       </c>
-      <c r="AZ10" s="221"/>
-      <c r="BA10" s="221"/>
-      <c r="BB10" s="222" t="s">
+      <c r="AZ10" s="218"/>
+      <c r="BA10" s="218"/>
+      <c r="BB10" s="219" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="11" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C11" s="40" t="s">
@@ -12160,28 +12200,28 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AV11" s="216">
+        <v>1144</v>
+      </c>
+      <c r="AV11" s="213">
         <v>43662</v>
       </c>
-      <c r="AW11" s="218" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AX11" s="219" t="s">
+      <c r="AW11" s="215" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AX11" s="216" t="s">
         <v>983</v>
       </c>
-      <c r="AY11" s="220" t="s">
+      <c r="AY11" s="217" t="s">
         <v>984</v>
       </c>
-      <c r="AZ11" s="221"/>
-      <c r="BA11" s="221"/>
-      <c r="BB11" s="222" t="s">
+      <c r="AZ11" s="218"/>
+      <c r="BA11" s="218"/>
+      <c r="BB11" s="219" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="12" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -12317,26 +12357,26 @@
         <v>370</v>
       </c>
       <c r="AU12" s="139"/>
-      <c r="AV12" s="216">
+      <c r="AV12" s="213">
         <v>43662</v>
       </c>
-      <c r="AW12" s="218" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AX12" s="219" t="s">
+      <c r="AW12" s="215" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AX12" s="216" t="s">
         <v>985</v>
       </c>
-      <c r="AY12" s="220" t="s">
+      <c r="AY12" s="217" t="s">
         <v>986</v>
       </c>
-      <c r="AZ12" s="221"/>
-      <c r="BA12" s="221"/>
-      <c r="BB12" s="222" t="s">
+      <c r="AZ12" s="218"/>
+      <c r="BA12" s="218"/>
+      <c r="BB12" s="219" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -12472,22 +12512,22 @@
         <v>370</v>
       </c>
       <c r="AU13" s="139"/>
-      <c r="AV13" s="216">
+      <c r="AV13" s="213">
         <v>43662</v>
       </c>
-      <c r="AW13" s="218" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AX13" s="219" t="s">
-        <v>1281</v>
-      </c>
-      <c r="AY13" s="145"/>
-      <c r="AZ13" s="221"/>
-      <c r="BA13" s="221"/>
-      <c r="BB13" s="221"/>
+      <c r="AW13" s="215" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AX13" s="216" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AY13" s="142"/>
+      <c r="AZ13" s="218"/>
+      <c r="BA13" s="218"/>
+      <c r="BB13" s="218"/>
     </row>
     <row r="14" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -12623,22 +12663,22 @@
         <v>371</v>
       </c>
       <c r="AU14" s="139"/>
-      <c r="AV14" s="216">
+      <c r="AV14" s="213">
         <v>43662</v>
       </c>
-      <c r="AW14" s="218" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AX14" s="145" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AY14" s="145"/>
-      <c r="AZ14" s="221"/>
-      <c r="BA14" s="221"/>
-      <c r="BB14" s="221"/>
+      <c r="AW14" s="215" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AX14" s="142" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AY14" s="142"/>
+      <c r="AZ14" s="218"/>
+      <c r="BA14" s="218"/>
+      <c r="BB14" s="218"/>
     </row>
     <row r="15" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -12774,22 +12814,22 @@
         <v>370</v>
       </c>
       <c r="AU15" s="139"/>
-      <c r="AV15" s="216">
+      <c r="AV15" s="213">
         <v>43662</v>
       </c>
-      <c r="AW15" s="218" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AX15" s="145" t="s">
-        <v>1282</v>
-      </c>
-      <c r="AY15" s="145"/>
-      <c r="AZ15" s="221"/>
-      <c r="BA15" s="221"/>
-      <c r="BB15" s="221"/>
+      <c r="AW15" s="215" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AX15" s="142" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AY15" s="142"/>
+      <c r="AZ15" s="218"/>
+      <c r="BA15" s="218"/>
+      <c r="BB15" s="218"/>
     </row>
     <row r="16" spans="2:55" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="178" t="s">
         <v>206</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -12919,20 +12959,20 @@
       <c r="AS16" s="23"/>
       <c r="AT16" s="24"/>
       <c r="AU16" s="139"/>
-      <c r="AV16" s="216">
+      <c r="AV16" s="213">
         <v>43662</v>
       </c>
-      <c r="AW16" s="218"/>
-      <c r="AX16" s="145" t="s">
-        <v>1307</v>
-      </c>
-      <c r="AY16" s="145"/>
-      <c r="AZ16" s="145"/>
-      <c r="BA16" s="145"/>
-      <c r="BB16" s="145"/>
+      <c r="AW16" s="215"/>
+      <c r="AX16" s="142" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AY16" s="142"/>
+      <c r="AZ16" s="142"/>
+      <c r="BA16" s="142"/>
+      <c r="BB16" s="142"/>
     </row>
     <row r="17" spans="2:16384" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C17" s="96" t="s">
@@ -13062,20 +13102,20 @@
       <c r="AS17" s="100"/>
       <c r="AT17" s="101"/>
       <c r="AU17" s="139"/>
-      <c r="AV17" s="216">
+      <c r="AV17" s="213">
         <v>43662</v>
       </c>
-      <c r="AW17" s="218" t="s">
+      <c r="AW17" s="215" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AX17" s="142" t="s">
         <v>1303</v>
       </c>
-      <c r="AX17" s="145" t="s">
-        <v>1308</v>
-      </c>
-      <c r="AY17" s="145"/>
-      <c r="AZ17" s="145"/>
-      <c r="BA17" s="145"/>
-      <c r="BB17" s="145"/>
-      <c r="BC17" s="250"/>
+      <c r="AY17" s="142"/>
+      <c r="AZ17" s="142"/>
+      <c r="BA17" s="142"/>
+      <c r="BB17" s="142"/>
+      <c r="BC17" s="247"/>
       <c r="BD17"/>
       <c r="BE17"/>
       <c r="BF17"/>
@@ -29407,7 +29447,7 @@
       <c r="XFD17"/>
     </row>
     <row r="18" spans="2:16384" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="181" t="s">
+      <c r="B18" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C18" s="40" t="s">
@@ -29537,22 +29577,22 @@
       <c r="AS18" s="23"/>
       <c r="AT18" s="24"/>
       <c r="AU18" s="139"/>
-      <c r="AV18" s="216">
+      <c r="AV18" s="213">
         <v>43662</v>
       </c>
-      <c r="AW18" s="218" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AX18" s="145" t="s">
+      <c r="AW18" s="215" t="s">
         <v>1304</v>
       </c>
-      <c r="AY18" s="145"/>
-      <c r="AZ18" s="145"/>
-      <c r="BA18" s="145"/>
-      <c r="BB18" s="145"/>
+      <c r="AX18" s="142" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AY18" s="142"/>
+      <c r="AZ18" s="142"/>
+      <c r="BA18" s="142"/>
+      <c r="BB18" s="142"/>
     </row>
     <row r="19" spans="2:16384" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -29682,17 +29722,17 @@
       <c r="AS19" s="23"/>
       <c r="AT19" s="24"/>
       <c r="AU19" s="139"/>
-      <c r="AV19" s="216">
+      <c r="AV19" s="213">
         <v>43662</v>
       </c>
-      <c r="AW19" s="218"/>
-      <c r="AX19" s="145" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AY19" s="145"/>
-      <c r="AZ19" s="145"/>
-      <c r="BA19" s="145"/>
-      <c r="BB19" s="145"/>
+      <c r="AW19" s="215"/>
+      <c r="AX19" s="142" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AY19" s="142"/>
+      <c r="AZ19" s="142"/>
+      <c r="BA19" s="142"/>
+      <c r="BB19" s="142"/>
     </row>
     <row r="20" spans="2:16384" ht="102" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
@@ -29831,7 +29871,7 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
@@ -29995,7 +30035,7 @@
       <c r="AZ21" s="67"/>
       <c r="BA21" s="67"/>
       <c r="BB21" s="67"/>
-      <c r="BC21" s="250"/>
+      <c r="BC21" s="247"/>
     </row>
     <row r="22" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
@@ -30135,7 +30175,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -30281,7 +30321,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -30435,7 +30475,7 @@
       <c r="BB24" s="75"/>
     </row>
     <row r="25" spans="2:16384" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C25" s="40" t="s">
@@ -30573,7 +30613,7 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
@@ -30581,7 +30621,7 @@
       <c r="BB25" s="73"/>
     </row>
     <row r="26" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C26" s="40" t="s">
@@ -30727,7 +30767,7 @@
       <c r="BB26" s="73"/>
     </row>
     <row r="27" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C27" s="40" t="s">
@@ -30873,7 +30913,7 @@
       <c r="BB27" s="73"/>
     </row>
     <row r="28" spans="2:16384" ht="51" x14ac:dyDescent="0.2">
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C28" s="40" t="s">
@@ -31019,7 +31059,7 @@
       <c r="BB28" s="73"/>
     </row>
     <row r="29" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C29" s="40" t="s">
@@ -31165,7 +31205,7 @@
       <c r="BB29" s="73"/>
     </row>
     <row r="30" spans="2:16384" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C30" s="40" t="s">
@@ -31311,7 +31351,7 @@
       <c r="BB30" s="73"/>
     </row>
     <row r="31" spans="2:16384" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C31" s="40" t="s">
@@ -32032,7 +32072,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -32041,7 +32081,7 @@
       <c r="BB35" s="73"/>
     </row>
     <row r="36" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="181" t="s">
+      <c r="B36" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C36" s="40" t="s">
@@ -32178,10 +32218,10 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
@@ -32328,7 +32368,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -32336,7 +32376,7 @@
       <c r="BB37" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC37" s="250"/>
+      <c r="BC37" s="247"/>
     </row>
     <row r="38" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
@@ -32469,12 +32509,12 @@
       <c r="AS38" s="23"/>
       <c r="AT38" s="24"/>
       <c r="AU38" s="139"/>
-      <c r="AV38" s="216">
+      <c r="AV38" s="213">
         <v>43662</v>
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -32488,7 +32528,7 @@
       </c>
     </row>
     <row r="39" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="178" t="s">
         <v>208</v>
       </c>
       <c r="C39" s="40" t="s">
@@ -32618,12 +32658,12 @@
       <c r="AS39" s="23"/>
       <c r="AT39" s="24"/>
       <c r="AU39" s="139"/>
-      <c r="AV39" s="216">
+      <c r="AV39" s="213">
         <v>43662</v>
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -32632,545 +32672,545 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="2:55" s="197" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B40" s="182" t="s">
+    <row r="40" spans="2:55" s="194" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B40" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="183" t="s">
+      <c r="C40" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="184" t="s">
+      <c r="D40" s="181" t="s">
         <v>606</v>
       </c>
-      <c r="E40" s="183" t="s">
+      <c r="E40" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="183" t="s">
+      <c r="F40" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="G40" s="185" t="s">
+      <c r="G40" s="182" t="s">
         <v>712</v>
       </c>
-      <c r="H40" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="I40" s="186" t="s">
-        <v>370</v>
-      </c>
-      <c r="J40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="K40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="L40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="M40" s="188" t="s">
-        <v>370</v>
-      </c>
-      <c r="N40" s="186" t="s">
-        <v>370</v>
-      </c>
-      <c r="O40" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="P40" s="190" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="R40" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="S40" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="T40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="U40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="V40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="W40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="X40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z40" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA40" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD40" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE40" s="190" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH40" s="191" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM40" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN40" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AP40" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AQ40" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR40" s="190"/>
-      <c r="AS40" s="187"/>
-      <c r="AT40" s="188"/>
-      <c r="AU40" s="192" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AV40" s="223">
+      <c r="H40" s="179" t="s">
+        <v>370</v>
+      </c>
+      <c r="I40" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="J40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="L40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="M40" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="N40" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="O40" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="P40" s="187" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="R40" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="S40" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="T40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="U40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="V40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="W40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="X40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z40" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA40" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD40" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE40" s="187" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH40" s="188" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM40" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN40" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP40" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ40" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR40" s="187"/>
+      <c r="AS40" s="184"/>
+      <c r="AT40" s="185"/>
+      <c r="AU40" s="189" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AV40" s="220">
         <v>43664</v>
       </c>
-      <c r="AW40" s="218"/>
-      <c r="AX40" s="193" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AY40" s="194"/>
-      <c r="AZ40" s="195"/>
-      <c r="BA40" s="195"/>
-      <c r="BB40" s="196" t="s">
+      <c r="AW40" s="215"/>
+      <c r="AX40" s="190" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AY40" s="191"/>
+      <c r="AZ40" s="192"/>
+      <c r="BA40" s="192"/>
+      <c r="BB40" s="193" t="s">
         <v>321</v>
       </c>
-      <c r="BC40" s="250"/>
+      <c r="BC40" s="247"/>
     </row>
-    <row r="41" spans="2:55" s="197" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="182" t="s">
+    <row r="41" spans="2:55" s="194" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="183" t="s">
+      <c r="C41" s="180" t="s">
         <v>513</v>
       </c>
-      <c r="D41" s="184" t="s">
+      <c r="D41" s="181" t="s">
         <v>607</v>
       </c>
-      <c r="E41" s="183" t="s">
+      <c r="E41" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="F41" s="183" t="s">
+      <c r="F41" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="G41" s="185" t="s">
+      <c r="G41" s="182" t="s">
         <v>514</v>
       </c>
-      <c r="H41" s="182"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="188" t="s">
-        <v>372</v>
-      </c>
-      <c r="N41" s="186"/>
-      <c r="O41" s="189" t="s">
-        <v>372</v>
-      </c>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="187"/>
-      <c r="S41" s="187"/>
-      <c r="T41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="U41" s="187"/>
-      <c r="V41" s="187"/>
-      <c r="W41" s="187"/>
-      <c r="X41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z41" s="187"/>
-      <c r="AA41" s="187"/>
-      <c r="AB41" s="187"/>
-      <c r="AC41" s="187"/>
-      <c r="AD41" s="189"/>
-      <c r="AE41" s="190"/>
-      <c r="AF41" s="187"/>
-      <c r="AG41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH41" s="191" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI41" s="187"/>
-      <c r="AJ41" s="187"/>
-      <c r="AK41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="AM41" s="187"/>
-      <c r="AN41" s="187"/>
-      <c r="AO41" s="187" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP41" s="187"/>
-      <c r="AQ41" s="189"/>
-      <c r="AR41" s="190"/>
-      <c r="AS41" s="187"/>
-      <c r="AT41" s="188"/>
-      <c r="AU41" s="192"/>
-      <c r="AV41" s="223">
+      <c r="H41" s="179"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" s="184"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="185" t="s">
+        <v>372</v>
+      </c>
+      <c r="N41" s="183"/>
+      <c r="O41" s="186" t="s">
+        <v>372</v>
+      </c>
+      <c r="P41" s="187"/>
+      <c r="Q41" s="184"/>
+      <c r="R41" s="184"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="U41" s="184"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="184"/>
+      <c r="X41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z41" s="184"/>
+      <c r="AA41" s="184"/>
+      <c r="AB41" s="184"/>
+      <c r="AC41" s="184"/>
+      <c r="AD41" s="186"/>
+      <c r="AE41" s="187"/>
+      <c r="AF41" s="184"/>
+      <c r="AG41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH41" s="188" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI41" s="184"/>
+      <c r="AJ41" s="184"/>
+      <c r="AK41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM41" s="184"/>
+      <c r="AN41" s="184"/>
+      <c r="AO41" s="184" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP41" s="184"/>
+      <c r="AQ41" s="186"/>
+      <c r="AR41" s="187"/>
+      <c r="AS41" s="184"/>
+      <c r="AT41" s="185"/>
+      <c r="AU41" s="189"/>
+      <c r="AV41" s="220">
         <v>43664</v>
       </c>
-      <c r="AW41" s="218"/>
-      <c r="AX41" s="193" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AY41" s="194"/>
-      <c r="AZ41" s="195"/>
-      <c r="BA41" s="195"/>
-      <c r="BB41" s="196" t="s">
+      <c r="AW41" s="215"/>
+      <c r="AX41" s="190" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AY41" s="191"/>
+      <c r="AZ41" s="192"/>
+      <c r="BA41" s="192"/>
+      <c r="BB41" s="193" t="s">
         <v>328</v>
       </c>
-      <c r="BC41" s="250"/>
+      <c r="BC41" s="247"/>
     </row>
-    <row r="42" spans="2:55" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="182" t="s">
+    <row r="42" spans="2:55" s="194" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="183" t="s">
+      <c r="C42" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="181" t="s">
         <v>667</v>
       </c>
-      <c r="E42" s="183" t="s">
+      <c r="E42" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="F42" s="183" t="s">
+      <c r="F42" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="G42" s="185" t="s">
+      <c r="G42" s="182" t="s">
         <v>338</v>
       </c>
-      <c r="H42" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="I42" s="186" t="s">
-        <v>370</v>
-      </c>
-      <c r="J42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="K42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="L42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="M42" s="188" t="s">
-        <v>370</v>
-      </c>
-      <c r="N42" s="186" t="s">
-        <v>370</v>
-      </c>
-      <c r="O42" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="P42" s="190" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="R42" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="S42" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="T42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="U42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="V42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="W42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="X42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z42" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA42" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB42" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD42" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE42" s="190" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH42" s="191" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM42" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN42" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AP42" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AQ42" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR42" s="190"/>
-      <c r="AS42" s="187"/>
-      <c r="AT42" s="188"/>
-      <c r="AU42" s="192" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AV42" s="223">
+      <c r="H42" s="179" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="N42" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="O42" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="P42" s="187" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="R42" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="S42" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="T42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="U42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="V42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="W42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z42" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA42" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB42" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD42" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE42" s="187" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH42" s="188" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM42" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN42" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP42" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ42" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR42" s="187"/>
+      <c r="AS42" s="184"/>
+      <c r="AT42" s="185"/>
+      <c r="AU42" s="189" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AV42" s="220">
         <v>43664</v>
       </c>
-      <c r="AW42" s="218"/>
-      <c r="AX42" s="193" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AY42" s="194"/>
-      <c r="AZ42" s="195"/>
-      <c r="BA42" s="195"/>
-      <c r="BB42" s="196" t="s">
+      <c r="AW42" s="215"/>
+      <c r="AX42" s="190" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AY42" s="191"/>
+      <c r="AZ42" s="192"/>
+      <c r="BA42" s="192"/>
+      <c r="BB42" s="193" t="s">
         <v>321</v>
       </c>
-      <c r="BC42" s="250"/>
+      <c r="BC42" s="247"/>
     </row>
-    <row r="43" spans="2:55" s="197" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="182" t="s">
+    <row r="43" spans="2:55" s="194" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="183" t="s">
+      <c r="C43" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="184" t="s">
+      <c r="D43" s="181" t="s">
         <v>668</v>
       </c>
-      <c r="E43" s="183" t="s">
+      <c r="E43" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="F43" s="183" t="s">
+      <c r="F43" s="180" t="s">
         <v>331</v>
       </c>
-      <c r="G43" s="185" t="s">
+      <c r="G43" s="182" t="s">
         <v>339</v>
       </c>
-      <c r="H43" s="182" t="s">
-        <v>369</v>
-      </c>
-      <c r="I43" s="186" t="s">
-        <v>370</v>
-      </c>
-      <c r="J43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="K43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="L43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="M43" s="188" t="s">
-        <v>370</v>
-      </c>
-      <c r="N43" s="186" t="s">
-        <v>369</v>
-      </c>
-      <c r="O43" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="P43" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="R43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="S43" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="T43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="U43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="V43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="W43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="X43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA43" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD43" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE43" s="190" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH43" s="191" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AN43" s="187" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO43" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="AP43" s="187" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ43" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="AR43" s="190"/>
-      <c r="AS43" s="187"/>
-      <c r="AT43" s="188"/>
-      <c r="AU43" s="192" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AV43" s="223">
+      <c r="H43" s="179" t="s">
+        <v>369</v>
+      </c>
+      <c r="I43" s="183" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="N43" s="183" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="P43" s="187" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="R43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="S43" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="T43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="U43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="V43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="W43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="X43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA43" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD43" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE43" s="187" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH43" s="188" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN43" s="184" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO43" s="184" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP43" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ43" s="186" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR43" s="187"/>
+      <c r="AS43" s="184"/>
+      <c r="AT43" s="185"/>
+      <c r="AU43" s="189" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AV43" s="220">
         <v>43664</v>
       </c>
-      <c r="AW43" s="218"/>
-      <c r="AX43" s="193" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AY43" s="194"/>
-      <c r="AZ43" s="195"/>
-      <c r="BA43" s="195"/>
-      <c r="BB43" s="196" t="s">
+      <c r="AW43" s="215"/>
+      <c r="AX43" s="190" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AY43" s="191"/>
+      <c r="AZ43" s="192"/>
+      <c r="BA43" s="192"/>
+      <c r="BB43" s="193" t="s">
         <v>321</v>
       </c>
-      <c r="BC43" s="250"/>
+      <c r="BC43" s="247"/>
     </row>
     <row r="44" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
@@ -33257,7 +33297,7 @@
       <c r="AS44" s="23"/>
       <c r="AT44" s="24"/>
       <c r="AU44" s="139"/>
-      <c r="AW44" s="218"/>
+      <c r="AW44" s="215"/>
       <c r="AX44" s="80" t="s">
         <v>602</v>
       </c>
@@ -33398,13 +33438,13 @@
       <c r="AR45" s="55"/>
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
-      <c r="AU45" s="146" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AV45" s="147"/>
-      <c r="AW45" s="218"/>
+      <c r="AU45" s="143" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AV45" s="144"/>
+      <c r="AW45" s="215"/>
       <c r="AX45" s="62" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="AY45" s="78" t="s">
         <v>1000</v>
@@ -33543,10 +33583,10 @@
       <c r="AR46" s="55"/>
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
-      <c r="AU46" s="157" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AW46" s="218"/>
+      <c r="AU46" s="154" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AW46" s="215"/>
       <c r="AX46" s="62" t="s">
         <v>1002</v>
       </c>
@@ -33641,8 +33681,8 @@
       <c r="AR47" s="55"/>
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
-      <c r="AU47" s="157" t="s">
-        <v>1187</v>
+      <c r="AU47" s="154" t="s">
+        <v>1183</v>
       </c>
       <c r="AW47" s="132" t="s">
         <v>1004</v>
@@ -33791,14 +33831,14 @@
         <v>370</v>
       </c>
       <c r="AU48" s="139"/>
-      <c r="AV48" s="216">
+      <c r="AV48" s="213">
         <v>43662</v>
       </c>
-      <c r="AW48" s="218" t="s">
-        <v>1315</v>
+      <c r="AW48" s="215" t="s">
+        <v>1310</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -33808,7 +33848,7 @@
       </c>
     </row>
     <row r="49" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="181" t="s">
+      <c r="B49" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -33944,12 +33984,12 @@
         <v>372</v>
       </c>
       <c r="AU49" s="139"/>
-      <c r="AV49" s="216">
+      <c r="AV49" s="213">
         <v>43662</v>
       </c>
-      <c r="AW49" s="218"/>
+      <c r="AW49" s="215"/>
       <c r="AX49" s="62" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -33959,7 +33999,7 @@
       </c>
     </row>
     <row r="50" spans="2:54" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C50" s="40" t="s">
@@ -34095,17 +34135,17 @@
         <v>371</v>
       </c>
       <c r="AU50" s="139"/>
-      <c r="AV50" s="216">
+      <c r="AV50" s="213">
         <v>43664</v>
       </c>
-      <c r="AW50" s="218" t="s">
-        <v>1317</v>
+      <c r="AW50" s="215" t="s">
+        <v>1312</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
     </row>
     <row r="51" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C51" s="40" t="s">
@@ -34240,17 +34280,17 @@
       <c r="AT51" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU51" s="146" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AV51" s="216">
+      <c r="AU51" s="143" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AV51" s="213">
         <v>43669</v>
       </c>
-      <c r="AW51" s="218" t="s">
-        <v>1320</v>
+      <c r="AW51" s="215" t="s">
+        <v>1315</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
@@ -34258,7 +34298,7 @@
       </c>
     </row>
     <row r="52" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="181" t="s">
+      <c r="B52" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -34393,14 +34433,14 @@
       <c r="AT52" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU52" s="146" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AV52" s="216">
+      <c r="AU52" s="143" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AV52" s="213">
         <v>43669</v>
       </c>
-      <c r="AW52" s="218" t="s">
-        <v>1319</v>
+      <c r="AW52" s="215" t="s">
+        <v>1314</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -34411,7 +34451,7 @@
       </c>
     </row>
     <row r="53" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -34547,10 +34587,10 @@
         <v>371</v>
       </c>
       <c r="AU53" s="139"/>
-      <c r="AV53" s="216">
+      <c r="AV53" s="213">
         <v>43669</v>
       </c>
-      <c r="AW53" s="218"/>
+      <c r="AW53" s="215"/>
       <c r="AX53" s="62" t="s">
         <v>1010</v>
       </c>
@@ -34560,7 +34600,7 @@
       </c>
     </row>
     <row r="54" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B54" s="181" t="s">
+      <c r="B54" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="40" t="s">
@@ -34696,12 +34736,12 @@
         <v>370</v>
       </c>
       <c r="AU54" s="139"/>
-      <c r="AV54" s="216">
+      <c r="AV54" s="213">
         <v>43669</v>
       </c>
-      <c r="AW54" s="218"/>
+      <c r="AW54" s="215"/>
       <c r="AX54" s="62" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
@@ -34709,7 +34749,7 @@
       </c>
     </row>
     <row r="55" spans="2:54" ht="102" x14ac:dyDescent="0.2">
-      <c r="B55" s="181" t="s">
+      <c r="B55" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -34845,14 +34885,14 @@
         <v>369</v>
       </c>
       <c r="AU55" s="139"/>
-      <c r="AV55" s="216">
+      <c r="AV55" s="213">
         <v>43669</v>
       </c>
-      <c r="AW55" s="218" t="s">
-        <v>1322</v>
+      <c r="AW55" s="215" t="s">
+        <v>1317</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -34992,24 +35032,24 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV56" s="216">
+        <v>1195</v>
+      </c>
+      <c r="AV56" s="213">
         <v>43671</v>
       </c>
-      <c r="AW56" s="218" t="s">
-        <v>1325</v>
+      <c r="AW56" s="215" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="199" t="s">
+      <c r="C57" s="196" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -35132,23 +35172,23 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV57" s="216">
+        <v>1195</v>
+      </c>
+      <c r="AV57" s="213">
         <v>43671</v>
       </c>
-      <c r="AW57" s="218" t="s">
-        <v>1326</v>
+      <c r="AW57" s="215" t="s">
+        <v>1321</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="199" t="s">
+      <c r="C58" s="196" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="42" t="s">
@@ -35275,16 +35315,16 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV58" s="216">
+        <v>1195</v>
+      </c>
+      <c r="AV58" s="213">
         <v>43671</v>
       </c>
-      <c r="AW58" s="218" t="s">
-        <v>1327</v>
+      <c r="AW58" s="215" t="s">
+        <v>1322</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
@@ -35424,13 +35464,13 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AV59" s="225" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AW59" s="218" t="s">
-        <v>1328</v>
+        <v>1146</v>
+      </c>
+      <c r="AV59" s="222" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AW59" s="215" t="s">
+        <v>1323</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
@@ -35441,7 +35481,7 @@
       <c r="B60" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C60" s="199" t="s">
+      <c r="C60" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="42" t="s">
@@ -35574,17 +35614,17 @@
         <v>371</v>
       </c>
       <c r="AU60" s="139"/>
-      <c r="AV60" s="216">
+      <c r="AV60" s="213">
         <v>43671</v>
       </c>
-      <c r="AW60" s="218" t="s">
-        <v>1287</v>
+      <c r="AW60" s="215" t="s">
+        <v>1282</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1258</v>
-      </c>
-      <c r="BB60" s="178" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BB60" s="175" t="s">
         <v>321</v>
       </c>
     </row>
@@ -35592,7 +35632,7 @@
       <c r="B61" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="199" t="s">
+      <c r="C61" s="196" t="s">
         <v>40</v>
       </c>
       <c r="D61" s="42" t="s">
@@ -35725,16 +35765,16 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AW61" s="218" t="s">
-        <v>1331</v>
+        <v>1329</v>
+      </c>
+      <c r="AW61" s="215" t="s">
+        <v>1326</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
@@ -35742,7 +35782,7 @@
       <c r="B62" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="199" t="s">
+      <c r="C62" s="196" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="42" t="s">
@@ -35875,16 +35915,16 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AW62" s="218" t="s">
-        <v>1332</v>
+        <v>1329</v>
+      </c>
+      <c r="AW62" s="215" t="s">
+        <v>1327</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
@@ -35892,7 +35932,7 @@
       <c r="B63" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="199" t="s">
+      <c r="C63" s="196" t="s">
         <v>42</v>
       </c>
       <c r="D63" s="42" t="s">
@@ -36025,21 +36065,21 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV63" s="167" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AW63" s="218"/>
+        <v>1195</v>
+      </c>
+      <c r="AV63" s="164" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AW63" s="215"/>
       <c r="AX63" s="62" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B64" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="199" t="s">
+      <c r="C64" s="196" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="42" t="s">
@@ -36171,17 +36211,17 @@
       <c r="AT64" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU64" s="146" t="s">
-        <v>1259</v>
-      </c>
-      <c r="AV64" s="167" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AW64" s="218" t="s">
-        <v>1336</v>
+      <c r="AU64" s="143" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AV64" s="164" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AW64" s="215" t="s">
+        <v>1331</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
@@ -36189,7 +36229,7 @@
       <c r="B65" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="199" t="s">
+      <c r="C65" s="196" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="42" t="s">
@@ -36322,19 +36362,19 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV65" s="226" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AW65" s="198" t="s">
-        <v>1338</v>
+        <v>1195</v>
+      </c>
+      <c r="AV65" s="223" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AW65" s="195" t="s">
+        <v>1333</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
@@ -36344,7 +36384,7 @@
       <c r="B66" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="199" t="s">
+      <c r="C66" s="196" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="42" t="s">
@@ -36477,17 +36517,17 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AV66" s="216">
+        <v>1197</v>
+      </c>
+      <c r="AV66" s="213">
         <v>43671</v>
       </c>
-      <c r="AW66" s="229"/>
+      <c r="AW66" s="226"/>
       <c r="AX66" s="62" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
@@ -36497,7 +36537,7 @@
       <c r="B67" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="199" t="s">
+      <c r="C67" s="196" t="s">
         <v>47</v>
       </c>
       <c r="D67" s="42" t="s">
@@ -36629,17 +36669,17 @@
       <c r="AT67" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU67" s="166" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AV67" s="227" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AW67" s="229" t="s">
-        <v>1344</v>
+      <c r="AU67" s="163" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AV67" s="224" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AW67" s="226" t="s">
+        <v>1339</v>
       </c>
       <c r="AX67" s="62" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
@@ -36649,7 +36689,7 @@
       <c r="B68" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="199" t="s">
+      <c r="C68" s="196" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="42" t="s">
@@ -36781,20 +36821,20 @@
       <c r="AT68" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU68" s="146" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AV68" s="227" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AW68" s="229" t="s">
-        <v>1343</v>
+      <c r="AU68" s="143" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AV68" s="224" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AW68" s="226" t="s">
+        <v>1338</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
@@ -36937,11 +36977,11 @@
         <v>371</v>
       </c>
       <c r="AU69" s="139"/>
-      <c r="AV69" s="154" t="s">
-        <v>1359</v>
-      </c>
-      <c r="AW69" s="229" t="s">
-        <v>1360</v>
+      <c r="AV69" s="151" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AW69" s="226" t="s">
+        <v>1355</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
@@ -36950,7 +36990,7 @@
       <c r="B70" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="199" t="s">
+      <c r="C70" s="196" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="42" t="s">
@@ -37083,16 +37123,16 @@
         <v>372</v>
       </c>
       <c r="AU70" s="139"/>
-      <c r="AV70" s="216">
+      <c r="AV70" s="213">
         <v>43671</v>
       </c>
-      <c r="AW70" s="229" t="s">
-        <v>1361</v>
+      <c r="AW70" s="226" t="s">
+        <v>1356</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1362</v>
-      </c>
-      <c r="BB70" s="224" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BB70" s="221" t="s">
         <v>320</v>
       </c>
     </row>
@@ -37100,7 +37140,7 @@
       <c r="B71" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="199" t="s">
+      <c r="C71" s="196" t="s">
         <v>51</v>
       </c>
       <c r="D71" s="42" t="s">
@@ -37233,14 +37273,14 @@
         <v>371</v>
       </c>
       <c r="AU71" s="139"/>
-      <c r="AV71" s="216">
+      <c r="AV71" s="213">
         <v>43671</v>
       </c>
-      <c r="AW71" s="229" t="s">
-        <v>1353</v>
+      <c r="AW71" s="226" t="s">
+        <v>1348</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
@@ -37250,7 +37290,7 @@
       <c r="B72" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="199" t="s">
+      <c r="C72" s="196" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="42" t="s">
@@ -37383,14 +37423,14 @@
         <v>371</v>
       </c>
       <c r="AU72" s="139"/>
-      <c r="AV72" s="216">
+      <c r="AV72" s="213">
         <v>43671</v>
       </c>
-      <c r="AW72" s="229" t="s">
-        <v>1354</v>
+      <c r="AW72" s="226" t="s">
+        <v>1349</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
@@ -37400,7 +37440,7 @@
       <c r="B73" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="199" t="s">
+      <c r="C73" s="196" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="42" t="s">
@@ -37533,14 +37573,14 @@
         <v>371</v>
       </c>
       <c r="AU73" s="139"/>
-      <c r="AV73" s="216">
+      <c r="AV73" s="213">
         <v>43671</v>
       </c>
-      <c r="AW73" s="229" t="s">
-        <v>1355</v>
+      <c r="AW73" s="226" t="s">
+        <v>1350</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
@@ -37550,7 +37590,7 @@
       <c r="B74" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="199" t="s">
+      <c r="C74" s="196" t="s">
         <v>442</v>
       </c>
       <c r="D74" s="42" t="s">
@@ -37683,21 +37723,21 @@
         <v>371</v>
       </c>
       <c r="AU74" s="139"/>
-      <c r="AV74" s="216">
+      <c r="AV74" s="213">
         <v>43671</v>
       </c>
-      <c r="AW74" s="229" t="s">
-        <v>1356</v>
+      <c r="AW74" s="226" t="s">
+        <v>1351</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="199" t="s">
+      <c r="C75" s="196" t="s">
         <v>54</v>
       </c>
       <c r="D75" s="42" t="s">
@@ -37830,21 +37870,21 @@
         <v>371</v>
       </c>
       <c r="AU75" s="139"/>
-      <c r="AV75" s="216">
+      <c r="AV75" s="213">
         <v>43671</v>
       </c>
-      <c r="AW75" s="229" t="s">
-        <v>1357</v>
+      <c r="AW75" s="226" t="s">
+        <v>1352</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="199" t="s">
+      <c r="C76" s="196" t="s">
         <v>445</v>
       </c>
       <c r="D76" s="42" t="s">
@@ -37977,21 +38017,21 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV76" s="228" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AW76" s="229" t="s">
-        <v>1352</v>
+        <v>1195</v>
+      </c>
+      <c r="AV76" s="225" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AW76" s="226" t="s">
+        <v>1347</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1349</v>
-      </c>
-      <c r="BB76" s="178" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BB76" s="175" t="s">
         <v>321</v>
       </c>
     </row>
@@ -37999,7 +38039,7 @@
       <c r="B77" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="199" t="s">
+      <c r="C77" s="196" t="s">
         <v>446</v>
       </c>
       <c r="D77" s="42" t="s">
@@ -38131,27 +38171,27 @@
       <c r="AT77" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU77" s="151" t="s">
-        <v>1255</v>
-      </c>
-      <c r="AV77" s="230" t="s">
+      <c r="AU77" s="148" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AV77" s="227" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AW77" s="215" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AX77" s="62" t="s">
         <v>1358</v>
       </c>
-      <c r="AW77" s="218" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AX77" s="62" t="s">
-        <v>1363</v>
-      </c>
       <c r="AY77" s="62" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="199" t="s">
+      <c r="C78" s="196" t="s">
         <v>55</v>
       </c>
       <c r="D78" s="42" t="s">
@@ -38284,9 +38324,9 @@
         <v>371</v>
       </c>
       <c r="AU78" s="139"/>
-      <c r="AW78" s="218"/>
+      <c r="AW78" s="215"/>
       <c r="AX78" s="62" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
@@ -38297,7 +38337,7 @@
       <c r="B79" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="199" t="s">
+      <c r="C79" s="196" t="s">
         <v>56</v>
       </c>
       <c r="D79" s="42" t="s">
@@ -38430,21 +38470,21 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AW79" s="231"/>
+        <v>1195</v>
+      </c>
+      <c r="AW79" s="228"/>
       <c r="AX79" s="62" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="199" t="s">
+      <c r="C80" s="196" t="s">
         <v>57</v>
       </c>
       <c r="D80" s="42" t="s">
@@ -38577,22 +38617,22 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AV80" s="216">
+        <v>1362</v>
+      </c>
+      <c r="AV80" s="213">
         <v>43678</v>
       </c>
-      <c r="AW80" s="218" t="s">
-        <v>1368</v>
+      <c r="AW80" s="215" t="s">
+        <v>1363</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
       </c>
-      <c r="BB80" s="178" t="s">
-        <v>1055</v>
+      <c r="BB80" s="175" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38732,22 +38772,22 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1289</v>
-      </c>
-      <c r="AV81" s="216">
+        <v>1284</v>
+      </c>
+      <c r="AV81" s="213">
         <v>43678</v>
       </c>
-      <c r="AW81" s="218" t="s">
-        <v>1370</v>
+      <c r="AW81" s="215" t="s">
+        <v>1365</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
       </c>
-      <c r="BB81" s="178" t="s">
-        <v>1252</v>
+      <c r="BB81" s="175" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
@@ -38887,20 +38927,20 @@
         <v>371</v>
       </c>
       <c r="AU82" s="139"/>
-      <c r="AV82" s="216">
+      <c r="AV82" s="213">
         <v>43678</v>
       </c>
-      <c r="AW82" s="218" t="s">
-        <v>1372</v>
+      <c r="AW82" s="215" t="s">
+        <v>1367</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
       </c>
-      <c r="BB82" s="178" t="s">
-        <v>1055</v>
+      <c r="BB82" s="175" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -39040,19 +39080,19 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AV83" s="235" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AW83" s="218" t="s">
-        <v>1374</v>
+        <v>1181</v>
+      </c>
+      <c r="AV83" s="232" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AW83" s="215" t="s">
+        <v>1369</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
@@ -39191,22 +39231,22 @@
       <c r="AT84" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU84" s="151" t="s">
-        <v>1378</v>
-      </c>
-      <c r="AV84" s="230" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AW84" s="218" t="s">
-        <v>1380</v>
+      <c r="AU84" s="148" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AV84" s="227" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AW84" s="215" t="s">
+        <v>1375</v>
       </c>
       <c r="AX84" s="62" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="AY84" s="62" t="s">
-        <v>1382</v>
-      </c>
-      <c r="BB84" s="178" t="s">
+        <v>1377</v>
+      </c>
+      <c r="BB84" s="175" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -39347,16 +39387,16 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV85" s="230" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AV85" s="227" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AW85" s="215" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AX85" s="62" t="s">
         <v>1379</v>
-      </c>
-      <c r="AW85" s="218" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AX85" s="62" t="s">
-        <v>1384</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
@@ -39499,8 +39539,8 @@
         <v>371</v>
       </c>
       <c r="AU86" s="139"/>
-      <c r="AV86" s="167"/>
-      <c r="AW86" s="231"/>
+      <c r="AV86" s="164"/>
+      <c r="AW86" s="228"/>
       <c r="AX86" s="62"/>
       <c r="BB86" s="61"/>
     </row>
@@ -39641,14 +39681,14 @@
         <v>371</v>
       </c>
       <c r="AU87" s="139"/>
-      <c r="AV87" s="216">
+      <c r="AV87" s="213">
         <v>43697</v>
       </c>
-      <c r="AW87" s="236" t="s">
-        <v>1387</v>
+      <c r="AW87" s="233" t="s">
+        <v>1382</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
@@ -39787,20 +39827,20 @@
       <c r="AT88" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU88" s="239" t="s">
-        <v>1431</v>
-      </c>
-      <c r="AV88" s="240" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AW88" s="236" t="s">
-        <v>1429</v>
+      <c r="AU88" s="236" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AV88" s="237" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AW88" s="233" t="s">
+        <v>1424</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
@@ -39937,13 +39977,13 @@
       <c r="AS89" s="23"/>
       <c r="AT89" s="24"/>
       <c r="AU89" s="139"/>
-      <c r="AV89" s="167"/>
+      <c r="AV89" s="164"/>
       <c r="AW89" s="63"/>
       <c r="AX89" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="AY89" s="179" t="s">
-        <v>1394</v>
+      <c r="AY89" s="176" t="s">
+        <v>1389</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
@@ -40080,16 +40120,16 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AV90" s="216">
+        <v>1385</v>
+      </c>
+      <c r="AV90" s="213">
         <v>43697</v>
       </c>
-      <c r="AW90" s="236" t="s">
-        <v>1389</v>
+      <c r="AW90" s="233" t="s">
+        <v>1384</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
@@ -40224,19 +40264,19 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AV91" s="216">
+        <v>1147</v>
+      </c>
+      <c r="AV91" s="213">
         <v>43697</v>
       </c>
-      <c r="AW91" s="236" t="s">
-        <v>1391</v>
+      <c r="AW91" s="233" t="s">
+        <v>1386</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AY91" s="179" t="s">
-        <v>1393</v>
+        <v>1387</v>
+      </c>
+      <c r="AY91" s="176" t="s">
+        <v>1388</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
@@ -40373,17 +40413,17 @@
       <c r="AS92" s="23"/>
       <c r="AT92" s="24"/>
       <c r="AU92" s="139"/>
-      <c r="AV92" s="216">
+      <c r="AV92" s="213">
         <v>43697</v>
       </c>
-      <c r="AW92" s="216" t="s">
-        <v>1395</v>
+      <c r="AW92" s="213" t="s">
+        <v>1390</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
-      <c r="AY92" s="179" t="s">
-        <v>1396</v>
+      <c r="AY92" s="176" t="s">
+        <v>1391</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
@@ -40526,17 +40566,17 @@
         <v>369</v>
       </c>
       <c r="AU93" s="139"/>
-      <c r="AV93" s="216">
+      <c r="AV93" s="213">
         <v>43697</v>
       </c>
-      <c r="AW93" s="145" t="s">
-        <v>1399</v>
+      <c r="AW93" s="142" t="s">
+        <v>1394</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
@@ -40613,17 +40653,17 @@
       <c r="AS94" s="23"/>
       <c r="AT94" s="24"/>
       <c r="AU94" s="139"/>
-      <c r="AV94" s="217">
+      <c r="AV94" s="214">
         <v>43697</v>
       </c>
-      <c r="AW94" s="145" t="s">
-        <v>1398</v>
+      <c r="AW94" s="142" t="s">
+        <v>1393</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
@@ -40765,18 +40805,18 @@
       <c r="AT95" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU95" s="146" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AV95" s="237" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AW95" s="218" t="s">
-        <v>1400</v>
+      <c r="AU95" s="143" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AV95" s="234" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AW95" s="215" t="s">
+        <v>1395</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
-      <c r="BB95" s="178"/>
+      <c r="BB95" s="175"/>
     </row>
     <row r="96" spans="2:54" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B96" s="21" t="s">
@@ -40914,20 +40954,20 @@
       <c r="AT96" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU96" s="151" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AV96" s="237" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AW96" s="218" t="s">
-        <v>1400</v>
+      <c r="AU96" s="148" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AV96" s="234" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AW96" s="215" t="s">
+        <v>1395</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
-      <c r="AZ96" s="234"/>
-      <c r="BA96" s="234"/>
-      <c r="BB96" s="233"/>
+      <c r="AZ96" s="231"/>
+      <c r="BA96" s="231"/>
+      <c r="BB96" s="230"/>
     </row>
     <row r="97" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
@@ -41062,19 +41102,19 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AV97" s="237" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AW97" s="218" t="s">
-        <v>1400</v>
+        <v>1196</v>
+      </c>
+      <c r="AV97" s="234" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AW97" s="215" t="s">
+        <v>1395</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
-      <c r="AZ97" s="234"/>
-      <c r="BA97" s="234"/>
-      <c r="BB97" s="233"/>
+      <c r="AZ97" s="231"/>
+      <c r="BA97" s="231"/>
+      <c r="BB97" s="230"/>
     </row>
     <row r="98" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B98" s="21" t="s">
@@ -41213,11 +41253,11 @@
         <v>369</v>
       </c>
       <c r="AU98" s="139"/>
-      <c r="AV98" s="217">
+      <c r="AV98" s="214">
         <v>43697</v>
       </c>
-      <c r="AW98" s="219" t="s">
-        <v>1402</v>
+      <c r="AW98" s="216" t="s">
+        <v>1397</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -41319,22 +41359,22 @@
       <c r="AR99" s="55"/>
       <c r="AS99" s="23"/>
       <c r="AT99" s="24"/>
-      <c r="AU99" s="232"/>
-      <c r="AV99" s="217">
+      <c r="AU99" s="229"/>
+      <c r="AV99" s="214">
         <v>43697</v>
       </c>
-      <c r="AW99" s="219" t="s">
-        <v>1403</v>
+      <c r="AW99" s="216" t="s">
+        <v>1398</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1405</v>
-      </c>
-      <c r="AZ99" s="234"/>
-      <c r="BA99" s="234"/>
-      <c r="BB99" s="233" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AZ99" s="231"/>
+      <c r="BA99" s="231"/>
+      <c r="BB99" s="230" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -41475,14 +41515,14 @@
         <v>369</v>
       </c>
       <c r="AU100" s="139"/>
-      <c r="AV100" s="216">
+      <c r="AV100" s="213">
         <v>43699</v>
       </c>
-      <c r="AW100" s="219" t="s">
-        <v>1407</v>
+      <c r="AW100" s="216" t="s">
+        <v>1402</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -41628,7 +41668,7 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
@@ -41769,14 +41809,14 @@
         <v>369</v>
       </c>
       <c r="AU102" s="139"/>
-      <c r="AV102" s="216">
+      <c r="AV102" s="213">
         <v>43699</v>
       </c>
-      <c r="AW102" s="219" t="s">
-        <v>1408</v>
+      <c r="AW102" s="216" t="s">
+        <v>1403</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
@@ -41920,14 +41960,14 @@
         <v>369</v>
       </c>
       <c r="AU103" s="139"/>
-      <c r="AV103" s="216">
+      <c r="AV103" s="213">
         <v>43699</v>
       </c>
-      <c r="AW103" s="219" t="s">
-        <v>1411</v>
+      <c r="AW103" s="216" t="s">
+        <v>1406</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
@@ -42070,16 +42110,16 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV104" s="216">
+        <v>1195</v>
+      </c>
+      <c r="AV104" s="213">
         <v>43699</v>
       </c>
-      <c r="AW104" s="219" t="s">
-        <v>1413</v>
+      <c r="AW104" s="216" t="s">
+        <v>1408</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -42225,14 +42265,14 @@
         <v>369</v>
       </c>
       <c r="AU105" s="139"/>
-      <c r="AV105" s="216">
+      <c r="AV105" s="213">
         <v>43699</v>
       </c>
-      <c r="AW105" s="219" t="s">
-        <v>1412</v>
+      <c r="AW105" s="216" t="s">
+        <v>1407</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
@@ -42372,14 +42412,14 @@
         <v>369</v>
       </c>
       <c r="AU106" s="139"/>
-      <c r="AV106" s="216">
+      <c r="AV106" s="213">
         <v>43699</v>
       </c>
-      <c r="AW106" s="219" t="s">
-        <v>1416</v>
+      <c r="AW106" s="216" t="s">
+        <v>1411</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -42525,14 +42565,14 @@
         <v>369</v>
       </c>
       <c r="AU107" s="139"/>
-      <c r="AV107" s="216">
+      <c r="AV107" s="213">
         <v>43699</v>
       </c>
-      <c r="AW107" s="219" t="s">
-        <v>1419</v>
+      <c r="AW107" s="216" t="s">
+        <v>1414</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -42678,19 +42718,19 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV108" s="216">
+        <v>1195</v>
+      </c>
+      <c r="AV108" s="213">
         <v>43699</v>
       </c>
-      <c r="AW108" s="219" t="s">
-        <v>1421</v>
+      <c r="AW108" s="216" t="s">
+        <v>1416</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
@@ -42832,15 +42872,15 @@
       <c r="AT109" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU109" s="159"/>
-      <c r="AV109" s="167" t="s">
-        <v>1425</v>
-      </c>
-      <c r="AW109" s="219" t="s">
-        <v>1423</v>
+      <c r="AU109" s="156"/>
+      <c r="AV109" s="164" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AW109" s="216" t="s">
+        <v>1418</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
@@ -42983,16 +43023,16 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1427</v>
-      </c>
-      <c r="AV110" s="216">
+        <v>1422</v>
+      </c>
+      <c r="AV110" s="213">
         <v>43704</v>
       </c>
-      <c r="AW110" s="218" t="s">
-        <v>1426</v>
+      <c r="AW110" s="215" t="s">
+        <v>1421</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
@@ -43132,16 +43172,16 @@
         <v>369</v>
       </c>
       <c r="AU111" s="139"/>
-      <c r="AV111" s="216">
+      <c r="AV111" s="213">
         <v>43704</v>
       </c>
-      <c r="AW111" s="218" t="s">
-        <v>1443</v>
+      <c r="AW111" s="215" t="s">
+        <v>1438</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1385</v>
-      </c>
-      <c r="BB111" s="238" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BB111" s="235" t="s">
         <v>320</v>
       </c>
     </row>
@@ -43282,14 +43322,14 @@
         <v>369</v>
       </c>
       <c r="AU112" s="139"/>
-      <c r="AV112" s="216">
+      <c r="AV112" s="213">
         <v>43706</v>
       </c>
-      <c r="AW112" s="218" t="s">
-        <v>1434</v>
+      <c r="AW112" s="215" t="s">
+        <v>1429</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="BB112" s="61" t="s">
         <v>1029</v>
@@ -43432,17 +43472,17 @@
         <v>369</v>
       </c>
       <c r="AU113" s="139"/>
-      <c r="AV113" s="216">
+      <c r="AV113" s="213">
         <v>43706</v>
       </c>
-      <c r="AW113" s="218" t="s">
-        <v>1439</v>
+      <c r="AW113" s="215" t="s">
+        <v>1434</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="AY113" s="80" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
@@ -43585,17 +43625,17 @@
         <v>369</v>
       </c>
       <c r="AU114" s="139"/>
-      <c r="AV114" s="216">
+      <c r="AV114" s="213">
         <v>43706</v>
       </c>
-      <c r="AW114" s="218" t="s">
-        <v>1438</v>
+      <c r="AW114" s="215" t="s">
+        <v>1433</v>
       </c>
       <c r="AX114" s="80" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="AY114" s="80" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="BB114" s="58" t="s">
         <v>1025</v>
@@ -43738,19 +43778,19 @@
         <v>369</v>
       </c>
       <c r="AU115" s="139"/>
-      <c r="AV115" s="216">
+      <c r="AV115" s="213">
         <v>43706</v>
       </c>
-      <c r="AW115" s="218" t="s">
+      <c r="AW115" s="215" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AX115" s="62" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AY115" s="80" t="s">
         <v>1437</v>
       </c>
-      <c r="AX115" s="62" t="s">
-        <v>1445</v>
-      </c>
-      <c r="AY115" s="80" t="s">
-        <v>1442</v>
-      </c>
-      <c r="BB115" s="176" t="s">
+      <c r="BB115" s="173" t="s">
         <v>328</v>
       </c>
     </row>
@@ -43891,19 +43931,19 @@
         <v>369</v>
       </c>
       <c r="AU116" s="139"/>
-      <c r="AV116" s="216">
+      <c r="AV116" s="213">
         <v>43711</v>
       </c>
-      <c r="AW116" s="218" t="s">
-        <v>1446</v>
+      <c r="AW116" s="215" t="s">
+        <v>1441</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="AY116" s="62" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BB116" s="176" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BB116" s="173" t="s">
         <v>324</v>
       </c>
     </row>
@@ -44044,16 +44084,16 @@
         <v>369</v>
       </c>
       <c r="AU117" s="139"/>
-      <c r="AV117" s="216">
+      <c r="AV117" s="213">
         <v>43711</v>
       </c>
-      <c r="AW117" s="218" t="s">
+      <c r="AW117" s="215" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AX117" s="62" t="s">
         <v>1448</v>
       </c>
-      <c r="AX117" s="62" t="s">
-        <v>1453</v>
-      </c>
-      <c r="BB117" s="176" t="s">
+      <c r="BB117" s="173" t="s">
         <v>328</v>
       </c>
     </row>
@@ -44194,18 +44234,18 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AV118" s="216">
+        <v>1445</v>
+      </c>
+      <c r="AV118" s="213">
         <v>43711</v>
       </c>
-      <c r="AW118" s="218" t="s">
-        <v>1449</v>
+      <c r="AW118" s="215" t="s">
+        <v>1444</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BB118" s="242" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BB118" s="239" t="s">
         <v>321</v>
       </c>
     </row>
@@ -44345,19 +44385,19 @@
       <c r="AT119" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU119" s="241" t="s">
-        <v>1457</v>
-      </c>
-      <c r="AV119" s="216">
+      <c r="AU119" s="238" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AV119" s="213">
         <v>43711</v>
       </c>
-      <c r="AW119" s="218" t="s">
-        <v>1451</v>
+      <c r="AW119" s="215" t="s">
+        <v>1446</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1454</v>
-      </c>
-      <c r="BB119" s="176" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BB119" s="173" t="s">
         <v>324</v>
       </c>
     </row>
@@ -44497,19 +44537,19 @@
       <c r="AT120" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU120" s="243" t="s">
-        <v>1472</v>
-      </c>
-      <c r="AV120" s="216">
+      <c r="AU120" s="240" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AV120" s="213">
         <v>43713</v>
       </c>
-      <c r="AW120" s="218" t="s">
-        <v>1456</v>
+      <c r="AW120" s="215" t="s">
+        <v>1451</v>
       </c>
       <c r="AX120" s="80" t="s">
-        <v>1455</v>
-      </c>
-      <c r="BB120" s="244" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BB120" s="241" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -44650,15 +44690,15 @@
         <v>369</v>
       </c>
       <c r="AU121" s="139" t="s">
-        <v>1458</v>
-      </c>
-      <c r="AV121" s="216">
+        <v>1453</v>
+      </c>
+      <c r="AV121" s="213">
         <v>43713</v>
       </c>
-      <c r="AW121" s="231"/>
+      <c r="AW121" s="228"/>
       <c r="AX121" s="62"/>
       <c r="AY121" s="62" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="BB121" s="61" t="s">
         <v>1030</v>
@@ -44795,16 +44835,16 @@
         <v>369</v>
       </c>
       <c r="AU122" s="139" t="s">
-        <v>1472</v>
-      </c>
-      <c r="AV122" s="216">
+        <v>1467</v>
+      </c>
+      <c r="AV122" s="213">
         <v>43713</v>
       </c>
-      <c r="AW122" s="218" t="s">
-        <v>1460</v>
+      <c r="AW122" s="215" t="s">
+        <v>1455</v>
       </c>
       <c r="AX122" s="62" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="AY122" s="62" t="s">
         <v>1033</v>
@@ -44950,17 +44990,17 @@
         <v>369</v>
       </c>
       <c r="AU123" s="139"/>
-      <c r="AV123" s="216">
+      <c r="AV123" s="213">
         <v>43713</v>
       </c>
-      <c r="AW123" s="218" t="s">
-        <v>1463</v>
+      <c r="AW123" s="215" t="s">
+        <v>1458</v>
       </c>
       <c r="AX123" s="62" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="AY123" s="62" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
@@ -45056,19 +45096,19 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AV124" s="216">
+        <v>1148</v>
+      </c>
+      <c r="AV124" s="213">
         <v>43713</v>
       </c>
-      <c r="AW124" s="218" t="s">
-        <v>1466</v>
+      <c r="AW124" s="215" t="s">
+        <v>1461</v>
       </c>
       <c r="AX124" s="62" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="AY124" s="62" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
@@ -45164,12 +45204,12 @@
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="139" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AV125" s="216">
+        <v>1475</v>
+      </c>
+      <c r="AV125" s="213">
         <v>43713</v>
       </c>
-      <c r="AW125" s="236"/>
+      <c r="AW125" s="233"/>
       <c r="AX125" s="62" t="s">
         <v>1032</v>
       </c>
@@ -45273,14 +45313,14 @@
       <c r="AS126" s="23"/>
       <c r="AT126" s="24"/>
       <c r="AU126" s="139"/>
-      <c r="AV126" s="216">
+      <c r="AV126" s="213">
         <v>43713</v>
       </c>
-      <c r="AW126" s="218" t="s">
-        <v>1468</v>
+      <c r="AW126" s="215" t="s">
+        <v>1463</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="BB126" s="61" t="s">
         <v>324</v>
@@ -45379,14 +45419,14 @@
       <c r="AS127" s="23"/>
       <c r="AT127" s="24"/>
       <c r="AU127" s="139"/>
-      <c r="AV127" s="216">
+      <c r="AV127" s="213">
         <v>43713</v>
       </c>
-      <c r="AW127" s="218" t="s">
-        <v>1470</v>
+      <c r="AW127" s="215" t="s">
+        <v>1465</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="AY127" s="80" t="s">
         <v>1035</v>
@@ -45621,7 +45661,7 @@
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="139" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="AW129" s="79"/>
     </row>
@@ -45726,7 +45766,7 @@
       <c r="AS130" s="23"/>
       <c r="AT130" s="24"/>
       <c r="AU130" s="139" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="AW130" s="79"/>
     </row>
@@ -45819,14 +45859,14 @@
       <c r="AS131" s="100"/>
       <c r="AT131" s="101"/>
       <c r="AU131" s="139"/>
-      <c r="AV131" s="225" t="s">
-        <v>1476</v>
-      </c>
-      <c r="AW131" s="154" t="s">
-        <v>1474</v>
+      <c r="AV131" s="222" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AW131" s="151" t="s">
+        <v>1469</v>
       </c>
       <c r="AX131" s="69" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="AY131" s="70"/>
       <c r="AZ131" s="66"/>
@@ -45834,7 +45874,7 @@
       <c r="BB131" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC131" s="250"/>
+      <c r="BC131" s="247"/>
     </row>
     <row r="132" spans="2:55" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="95" t="s">
@@ -45925,14 +45965,14 @@
       <c r="AS132" s="100"/>
       <c r="AT132" s="101"/>
       <c r="AU132" s="139"/>
-      <c r="AV132" s="225" t="s">
-        <v>1476</v>
-      </c>
-      <c r="AW132" s="167" t="s">
-        <v>1477</v>
+      <c r="AV132" s="222" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AW132" s="164" t="s">
+        <v>1472</v>
       </c>
       <c r="AX132" s="69" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="AY132" s="70"/>
       <c r="AZ132" s="66"/>
@@ -45940,7 +45980,7 @@
       <c r="BB132" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC132" s="250"/>
+      <c r="BC132" s="247"/>
     </row>
     <row r="133" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
@@ -46356,17 +46396,17 @@
       <c r="AT135" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU135" s="153" t="s">
-        <v>1484</v>
-      </c>
-      <c r="AV135" s="235" t="s">
-        <v>1481</v>
-      </c>
-      <c r="AW135" s="218" t="s">
-        <v>1482</v>
+      <c r="AU135" s="150" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AV135" s="232" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AW135" s="215" t="s">
+        <v>1477</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="BB135" s="61" t="s">
         <v>321</v>
@@ -46509,19 +46549,19 @@
         <v>369</v>
       </c>
       <c r="AU136" s="139" t="s">
-        <v>1486</v>
-      </c>
-      <c r="AV136" s="216">
+        <v>1481</v>
+      </c>
+      <c r="AV136" s="213">
         <v>43718</v>
       </c>
       <c r="AW136" s="63" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="AX136" s="62" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="AY136" s="62" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="BB136" s="61" t="s">
         <v>976</v>
@@ -46664,19 +46704,19 @@
         <v>369</v>
       </c>
       <c r="AU137" s="139" t="s">
-        <v>1490</v>
-      </c>
-      <c r="AV137" s="216">
+        <v>1485</v>
+      </c>
+      <c r="AV137" s="213">
         <v>43720</v>
       </c>
-      <c r="AW137" s="248" t="s">
-        <v>1489</v>
+      <c r="AW137" s="245" t="s">
+        <v>1484</v>
       </c>
       <c r="AX137" s="80" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="AY137" s="80" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="BB137" s="58" t="s">
         <v>976</v>
@@ -46819,19 +46859,19 @@
         <v>369</v>
       </c>
       <c r="AU138" s="139" t="s">
-        <v>1496</v>
-      </c>
-      <c r="AV138" s="216">
+        <v>1491</v>
+      </c>
+      <c r="AV138" s="213">
         <v>43720</v>
       </c>
-      <c r="AW138" s="248" t="s">
-        <v>1493</v>
+      <c r="AW138" s="245" t="s">
+        <v>1488</v>
       </c>
       <c r="AX138" s="80" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="AY138" s="80" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
@@ -46925,20 +46965,20 @@
       <c r="AR139" s="55"/>
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
-      <c r="AU139" s="151" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AV139" s="230" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AW139" s="249" t="s">
-        <v>1498</v>
+      <c r="AU139" s="148" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AV139" s="227" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AW139" s="246" t="s">
+        <v>1493</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="AY139" s="62" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
@@ -47193,16 +47233,16 @@
         <v>372</v>
       </c>
       <c r="AU141" s="139"/>
-      <c r="AV141" s="216">
+      <c r="AV141" s="213">
         <v>43720</v>
       </c>
-      <c r="AW141" s="249" t="s">
-        <v>1501</v>
+      <c r="AW141" s="246" t="s">
+        <v>1496</v>
       </c>
       <c r="AX141" s="62" t="s">
-        <v>1385</v>
-      </c>
-      <c r="BB141" s="246" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BB141" s="243" t="s">
         <v>320</v>
       </c>
     </row>
@@ -47306,24 +47346,24 @@
       <c r="AT142" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU142" s="245" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AV142" s="216">
+      <c r="AU142" s="242" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AV142" s="213">
         <v>43720</v>
       </c>
-      <c r="AW142" s="249" t="s">
-        <v>1503</v>
+      <c r="AW142" s="246" t="s">
+        <v>1498</v>
       </c>
       <c r="AX142" s="62" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="AY142" s="80" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AZ142" s="247"/>
-      <c r="BA142" s="247"/>
-      <c r="BB142" s="246" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AZ142" s="244"/>
+      <c r="BA142" s="244"/>
+      <c r="BB142" s="243" t="s">
         <v>321</v>
       </c>
     </row>
@@ -47421,22 +47461,22 @@
       <c r="AT143" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU143" s="151" t="s">
-        <v>1506</v>
-      </c>
-      <c r="AV143" s="230" t="s">
+      <c r="AU143" s="148" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AV143" s="227" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AW143" s="246" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AX143" s="62" t="s">
         <v>1507</v>
       </c>
-      <c r="AW143" s="249" t="s">
-        <v>1510</v>
-      </c>
-      <c r="AX143" s="62" t="s">
-        <v>1512</v>
-      </c>
       <c r="AY143" s="62" t="s">
-        <v>1253</v>
-      </c>
-      <c r="BB143" s="176" t="s">
+        <v>1248</v>
+      </c>
+      <c r="BB143" s="173" t="s">
         <v>328</v>
       </c>
     </row>
@@ -47576,23 +47616,23 @@
       <c r="AT144" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU144" s="151" t="s">
-        <v>1508</v>
-      </c>
-      <c r="AV144" s="230" t="s">
-        <v>1509</v>
-      </c>
-      <c r="AW144" s="249" t="s">
-        <v>1515</v>
+      <c r="AU144" s="148" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AV144" s="227" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AW144" s="246" t="s">
+        <v>1510</v>
       </c>
       <c r="AX144" s="62" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="AY144" s="62" t="s">
         <v>737</v>
       </c>
-      <c r="AZ144" s="177"/>
-      <c r="BB144" s="176" t="s">
+      <c r="AZ144" s="174"/>
+      <c r="BB144" s="173" t="s">
         <v>324</v>
       </c>
     </row>
@@ -47733,20 +47773,20 @@
         <v>371</v>
       </c>
       <c r="AU145" s="139"/>
-      <c r="AV145" s="216">
+      <c r="AV145" s="213">
         <v>43720</v>
       </c>
-      <c r="AW145" s="249" t="s">
-        <v>1514</v>
+      <c r="AW145" s="246" t="s">
+        <v>1509</v>
       </c>
       <c r="AX145" s="62" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="AY145" s="62" t="s">
-        <v>1513</v>
-      </c>
-      <c r="AZ145" s="177"/>
-      <c r="BB145" s="246" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AZ145" s="174"/>
+      <c r="BB145" s="243" t="s">
         <v>324</v>
       </c>
     </row>
@@ -47845,20 +47885,20 @@
         <v>371</v>
       </c>
       <c r="AU146" s="139"/>
-      <c r="AV146" s="216">
+      <c r="AV146" s="213">
         <v>43720</v>
       </c>
-      <c r="AW146" s="249" t="s">
+      <c r="AW146" s="246" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AX146" s="62" t="s">
         <v>1517</v>
       </c>
-      <c r="AX146" s="62" t="s">
-        <v>1522</v>
-      </c>
       <c r="AY146" s="62" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AZ146" s="177"/>
-      <c r="BB146" s="246" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AZ146" s="174"/>
+      <c r="BB146" s="243" t="s">
         <v>328</v>
       </c>
     </row>
@@ -47998,22 +48038,22 @@
       <c r="AT147" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU147" s="151" t="s">
-        <v>1519</v>
-      </c>
-      <c r="AV147" s="230" t="s">
-        <v>1520</v>
+      <c r="AU147" s="148" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AV147" s="227" t="s">
+        <v>1515</v>
       </c>
       <c r="AW147" s="63" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="AX147" s="62" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="AY147" s="62" t="s">
-        <v>1254</v>
-      </c>
-      <c r="BB147" s="178" t="s">
+        <v>1249</v>
+      </c>
+      <c r="BB147" s="175" t="s">
         <v>324</v>
       </c>
     </row>
@@ -48112,17 +48152,17 @@
         <v>371</v>
       </c>
       <c r="AU148" s="139"/>
-      <c r="AV148" s="216">
+      <c r="AV148" s="213">
         <v>43720</v>
       </c>
-      <c r="AW148" s="249" t="s">
-        <v>1524</v>
+      <c r="AW148" s="246" t="s">
+        <v>1519</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="AY148" s="62" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
@@ -48223,17 +48263,17 @@
         <v>371</v>
       </c>
       <c r="AU149" s="139"/>
-      <c r="AV149" s="216">
+      <c r="AV149" s="213">
         <v>43720</v>
       </c>
-      <c r="AW149" s="249" t="s">
-        <v>1528</v>
+      <c r="AW149" s="246" t="s">
+        <v>1523</v>
       </c>
       <c r="AX149" s="62" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="AY149" s="62" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
@@ -48347,28 +48387,28 @@
       <c r="AT150" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="AU150" s="165" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AV150" s="216">
+      <c r="AU150" s="162" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AV150" s="213">
         <v>43725</v>
       </c>
-      <c r="AW150" s="249" t="s">
-        <v>1547</v>
+      <c r="AW150" s="246" t="s">
+        <v>1542</v>
       </c>
       <c r="AX150" s="62" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="AY150" s="88" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="AZ150" s="89"/>
       <c r="BA150" s="89"/>
       <c r="BB150" s="90" t="s">
         <v>321</v>
       </c>
-      <c r="BC150" s="250" t="s">
-        <v>1530</v>
+      <c r="BC150" s="247" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="151" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -48506,27 +48546,27 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="AV151" s="88">
         <v>20190917</v>
       </c>
-      <c r="AW151" s="249" t="s">
-        <v>1531</v>
+      <c r="AW151" s="246" t="s">
+        <v>1526</v>
       </c>
       <c r="AX151" s="62" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="AY151" s="87" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
       <c r="BB151" s="90" t="s">
         <v>1039</v>
       </c>
-      <c r="BC151" s="250" t="s">
-        <v>1531</v>
+      <c r="BC151" s="247" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="152" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -48625,22 +48665,22 @@
       <c r="AV152" s="88">
         <v>20190917</v>
       </c>
-      <c r="AW152" s="249" t="s">
-        <v>1532</v>
+      <c r="AW152" s="246" t="s">
+        <v>1527</v>
       </c>
       <c r="AX152" s="62" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="AY152" s="87" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
       <c r="BB152" s="90" t="s">
         <v>1039</v>
       </c>
-      <c r="BC152" s="250" t="s">
-        <v>1532</v>
+      <c r="BC152" s="247" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="153" spans="2:55" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -48777,17 +48817,17 @@
       <c r="AV153" s="138">
         <v>20190917</v>
       </c>
-      <c r="AW153" s="249" t="s">
-        <v>1555</v>
+      <c r="AW153" s="246" t="s">
+        <v>1550</v>
       </c>
       <c r="AX153" s="62" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="AY153" s="62" t="s">
-        <v>1558</v>
-      </c>
-      <c r="BC153" s="250" t="s">
-        <v>1533</v>
+        <v>1553</v>
+      </c>
+      <c r="BC153" s="247" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="154" spans="2:55" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -48924,15 +48964,15 @@
       <c r="AV154" s="138">
         <v>20190917</v>
       </c>
-      <c r="AW154" s="249" t="s">
-        <v>1554</v>
+      <c r="AW154" s="246" t="s">
+        <v>1549</v>
       </c>
       <c r="AX154" s="62" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="AY154" s="62"/>
-      <c r="BC154" s="250" t="s">
-        <v>1534</v>
+      <c r="BC154" s="247" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="155" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
@@ -49076,8 +49116,8 @@
       <c r="BB155" s="58" t="s">
         <v>976</v>
       </c>
-      <c r="BC155" s="250" t="s">
-        <v>1533</v>
+      <c r="BC155" s="247" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="156" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
@@ -49211,23 +49251,23 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AV156" s="145">
+        <v>1562</v>
+      </c>
+      <c r="AV156" s="142">
         <v>20190917</v>
       </c>
-      <c r="AW156" s="249" t="s">
-        <v>1560</v>
+      <c r="AW156" s="246" t="s">
+        <v>1555</v>
       </c>
       <c r="AX156" s="62" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="AY156" s="68"/>
       <c r="BB156" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="BC156" s="251" t="s">
-        <v>1535</v>
+      <c r="BC156" s="248" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="157" spans="2:55" ht="51" x14ac:dyDescent="0.2">
@@ -49352,17 +49392,17 @@
       <c r="AV157" s="138">
         <v>20190917</v>
       </c>
-      <c r="AW157" s="249" t="s">
-        <v>1561</v>
+      <c r="AW157" s="246" t="s">
+        <v>1556</v>
       </c>
       <c r="AX157" s="62" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="AY157" s="62" t="s">
-        <v>1563</v>
-      </c>
-      <c r="BC157" s="250" t="s">
-        <v>1536</v>
+        <v>1558</v>
+      </c>
+      <c r="BC157" s="247" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="158" spans="2:55" ht="51" x14ac:dyDescent="0.2">
@@ -49496,20 +49536,20 @@
       <c r="AS158" s="23"/>
       <c r="AT158" s="24"/>
       <c r="AU158" s="139"/>
-      <c r="AV158" s="167">
+      <c r="AV158" s="164">
         <v>20190917</v>
       </c>
-      <c r="AW158" s="249" t="s">
-        <v>1564</v>
+      <c r="AW158" s="246" t="s">
+        <v>1559</v>
       </c>
       <c r="AX158" s="62" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="AY158" s="80" t="s">
-        <v>1566</v>
-      </c>
-      <c r="BC158" s="250" t="s">
-        <v>1537</v>
+        <v>1561</v>
+      </c>
+      <c r="BC158" s="247" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="159" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -49632,8 +49672,8 @@
       <c r="AT159" s="24"/>
       <c r="AU159" s="139"/>
       <c r="AW159" s="79"/>
-      <c r="BC159" s="250" t="s">
-        <v>1538</v>
+      <c r="BC159" s="247" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="160" spans="2:55" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -49766,23 +49806,23 @@
       <c r="AR160" s="55"/>
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
-      <c r="AU160" s="143" t="s">
-        <v>1580</v>
-      </c>
-      <c r="AV160" s="167">
+      <c r="AU160" s="140" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AV160" s="164">
         <v>20190917</v>
       </c>
       <c r="AW160" s="63" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="AX160" s="62" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="AY160" s="80" t="s">
-        <v>1570</v>
-      </c>
-      <c r="BC160" s="250" t="s">
-        <v>1538</v>
+        <v>1565</v>
+      </c>
+      <c r="BC160" s="247" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="161" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -49904,27 +49944,27 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1579</v>
-      </c>
-      <c r="AV161" s="167">
+        <v>1574</v>
+      </c>
+      <c r="AV161" s="164">
         <v>20190917</v>
       </c>
       <c r="AW161" s="63" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="AX161" s="62" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="AY161" s="80" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="AZ161" s="66"/>
       <c r="BA161" s="66"/>
       <c r="BB161" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC161" s="250" t="s">
-        <v>1539</v>
+      <c r="BC161" s="247" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="162" spans="2:55" s="105" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50046,27 +50086,27 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1578</v>
-      </c>
-      <c r="AV162" s="167">
+        <v>1573</v>
+      </c>
+      <c r="AV162" s="164">
         <v>20190917</v>
       </c>
       <c r="AW162" s="63" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="AX162" s="62" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="AY162" s="62" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="AZ162" s="66"/>
       <c r="BA162" s="66"/>
       <c r="BB162" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC162" s="250" t="s">
-        <v>1540</v>
+      <c r="BC162" s="247" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="163" spans="2:55" s="105" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50188,27 +50228,27 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1577</v>
-      </c>
-      <c r="AV163" s="167">
+        <v>1572</v>
+      </c>
+      <c r="AV163" s="164">
         <v>20190917</v>
       </c>
       <c r="AW163" s="63" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="AX163" s="62" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="AY163" s="62" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="AZ163" s="66"/>
       <c r="BA163" s="66"/>
       <c r="BB163" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="BC163" s="250" t="s">
-        <v>1540</v>
+      <c r="BC163" s="247" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="164" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
@@ -50342,19 +50382,19 @@
       <c r="AS164" s="23"/>
       <c r="AT164" s="24"/>
       <c r="AU164" s="139"/>
-      <c r="AV164" s="167">
+      <c r="AV164" s="164">
         <v>20190919</v>
       </c>
       <c r="AW164" s="79" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="AX164" s="80" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="AY164" s="80" t="s">
-        <v>1606</v>
-      </c>
-      <c r="BC164" s="250" t="s">
+        <v>1601</v>
+      </c>
+      <c r="BC164" s="247" t="s">
         <v>323</v>
       </c>
     </row>
@@ -50477,22 +50517,22 @@
       <c r="AS165" s="23"/>
       <c r="AT165" s="24"/>
       <c r="AU165" s="139"/>
-      <c r="AV165" s="167">
+      <c r="AV165" s="164">
         <v>20190919</v>
       </c>
       <c r="AW165" s="63" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="AX165" s="80" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="AY165" s="80" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="BB165" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="BC165" s="250" t="s">
+      <c r="BC165" s="247" t="s">
         <v>323</v>
       </c>
     </row>
@@ -50638,10 +50678,10 @@
       </c>
       <c r="AW166" s="79"/>
       <c r="AY166" s="62" t="s">
-        <v>1610</v>
-      </c>
-      <c r="BC166" s="250" t="s">
-        <v>1541</v>
+        <v>1611</v>
+      </c>
+      <c r="BC166" s="247" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="167" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -50783,16 +50823,16 @@
         <v>20190919</v>
       </c>
       <c r="AW167" s="63" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="AX167" s="62" t="s">
-        <v>1612</v>
-      </c>
-      <c r="BB167" s="252" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BB167" s="249" t="s">
         <v>320</v>
       </c>
-      <c r="BC167" s="250" t="s">
-        <v>1542</v>
+      <c r="BC167" s="247" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="168" spans="2:55" s="105" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
@@ -50922,27 +50962,27 @@
         <v>369</v>
       </c>
       <c r="AU168" s="139" t="s">
-        <v>1616</v>
-      </c>
-      <c r="AV168" s="167">
+        <v>1610</v>
+      </c>
+      <c r="AV168" s="164">
         <v>20190919</v>
       </c>
       <c r="AW168" s="64" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="AX168" s="65" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="AY168" s="65" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="AZ168" s="66"/>
       <c r="BA168" s="66"/>
       <c r="BB168" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="BC168" s="251" t="s">
-        <v>1543</v>
+      <c r="BC168" s="248" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="169" spans="2:55" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51033,14 +51073,22 @@
       <c r="AR169" s="55"/>
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
-      <c r="AU169" s="148" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AV169" s="154" t="s">
-        <v>1180</v>
-      </c>
-      <c r="BC169" s="250" t="s">
-        <v>1544</v>
+      <c r="AU169" s="145" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AV169" s="151">
+        <v>20190926</v>
+      </c>
+      <c r="AW169" s="215" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AX169" s="62" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AY169" s="62"/>
+      <c r="BB169" s="250"/>
+      <c r="BC169" s="247" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="170" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
@@ -51179,19 +51227,26 @@
       <c r="AT170" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU170" s="139"/>
-      <c r="AW170" s="82" t="s">
-        <v>1217</v>
+      <c r="AU170" s="139" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AV170" s="151">
+        <v>20190926</v>
+      </c>
+      <c r="AW170" s="215" t="s">
+        <v>1617</v>
       </c>
       <c r="AX170" s="62" t="s">
         <v>1042</v>
       </c>
-      <c r="AY170" s="62"/>
-      <c r="BB170" s="61" t="s">
-        <v>1012</v>
-      </c>
-      <c r="BC170" s="250" t="s">
-        <v>1544</v>
+      <c r="AY170" s="62" t="s">
+        <v>1615</v>
+      </c>
+      <c r="BB170" s="250" t="s">
+        <v>1613</v>
+      </c>
+      <c r="BC170" s="247" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="171" spans="2:55" ht="127.5" x14ac:dyDescent="0.25">
@@ -51330,26 +51385,26 @@
       <c r="AT171" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU171" s="151" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AV171" s="138" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AW171" s="82" t="s">
-        <v>1038</v>
+      <c r="AU171" s="148" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AV171" s="151">
+        <v>20190926</v>
+      </c>
+      <c r="AW171" s="215" t="s">
+        <v>1618</v>
       </c>
       <c r="AX171" s="62" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AY171" s="62" t="s">
         <v>1043</v>
-      </c>
-      <c r="AY171" s="62" t="s">
-        <v>1044</v>
       </c>
       <c r="BB171" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="BC171" s="250" t="s">
-        <v>1545</v>
+      <c r="BC171" s="247" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="172" spans="2:55" ht="240" x14ac:dyDescent="0.25">
@@ -51488,15 +51543,26 @@
       <c r="AT172" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU172" s="151" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AV172" s="154" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AW172" s="79"/>
-      <c r="BC172" s="250" t="s">
-        <v>1584</v>
+      <c r="AU172" s="148" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AV172" s="151">
+        <v>20190926</v>
+      </c>
+      <c r="AW172" s="215" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AX172" s="62" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AY172" s="62" t="s">
+        <v>1622</v>
+      </c>
+      <c r="BB172" s="250" t="s">
+        <v>324</v>
+      </c>
+      <c r="BC172" s="247" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="173" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -51604,25 +51670,27 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AV173" s="142">
-        <v>20190402</v>
-      </c>
-      <c r="AW173" s="140"/>
-      <c r="AX173" s="141" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AY173" s="141" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AZ173" s="66"/>
-      <c r="BA173" s="66"/>
-      <c r="BB173" s="67" t="s">
-        <v>976</v>
-      </c>
-      <c r="BC173" s="250" t="s">
-        <v>1585</v>
+        <v>1624</v>
+      </c>
+      <c r="AV173" s="251">
+        <v>20190926</v>
+      </c>
+      <c r="AW173" s="63" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AX173" s="62" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY173" s="80" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AZ173" s="80"/>
+      <c r="BA173" s="80"/>
+      <c r="BB173" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="BC173" s="248" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="174" spans="2:55" ht="195" x14ac:dyDescent="0.2">
@@ -51761,26 +51829,26 @@
       <c r="AT174" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU174" s="152" t="s">
-        <v>1177</v>
+      <c r="AU174" s="149" t="s">
+        <v>1174</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="AW174" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="AY174" s="80" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="BB174" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="BC174" s="250" t="s">
-        <v>1586</v>
+      <c r="BC174" s="247" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="175" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -51893,18 +51961,18 @@
       <c r="AV175" s="70"/>
       <c r="AW175" s="85"/>
       <c r="AX175" s="65" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AY175" s="65" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AZ175" s="66"/>
       <c r="BA175" s="66"/>
       <c r="BB175" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC175" s="250" t="s">
-        <v>1587</v>
+      <c r="BC175" s="247" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="176" spans="2:55" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
@@ -52043,8 +52111,8 @@
       <c r="AT176" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="AU176" s="156" t="s">
-        <v>1183</v>
+      <c r="AU176" s="153" t="s">
+        <v>1179</v>
       </c>
       <c r="AV176" s="88">
         <v>20190130</v>
@@ -52055,8 +52123,8 @@
       <c r="AZ176" s="89"/>
       <c r="BA176" s="89"/>
       <c r="BB176" s="89"/>
-      <c r="BC176" s="250" t="s">
-        <v>1588</v>
+      <c r="BC176" s="247" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="177" spans="2:55" s="116" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
@@ -52189,11 +52257,11 @@
       <c r="AR177" s="114"/>
       <c r="AS177" s="111"/>
       <c r="AT177" s="112"/>
-      <c r="AU177" s="156" t="s">
-        <v>1181</v>
+      <c r="AU177" s="153" t="s">
+        <v>1177</v>
       </c>
       <c r="AV177" s="87" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AW177" s="91"/>
       <c r="AX177" s="88"/>
@@ -52201,8 +52269,8 @@
       <c r="AZ177" s="89"/>
       <c r="BA177" s="89"/>
       <c r="BB177" s="89"/>
-      <c r="BC177" s="250" t="s">
-        <v>1589</v>
+      <c r="BC177" s="247" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="178" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -52482,8 +52550,8 @@
       </c>
       <c r="AU179" s="139"/>
       <c r="AW179" s="79"/>
-      <c r="BC179" s="250" t="s">
-        <v>1590</v>
+      <c r="BC179" s="247" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="180" spans="2:55" ht="153" x14ac:dyDescent="0.2">
@@ -52618,17 +52686,17 @@
       <c r="AT180" s="24"/>
       <c r="AU180" s="139"/>
       <c r="AW180" s="82" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AX180" s="81" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
         <v>976</v>
       </c>
-      <c r="BC180" s="250" t="s">
-        <v>1591</v>
+      <c r="BC180" s="247" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="181" spans="2:55" ht="191.25" x14ac:dyDescent="0.2">
@@ -52763,16 +52831,16 @@
       <c r="AT181" s="24"/>
       <c r="AU181" s="139"/>
       <c r="AW181" s="82" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AX181" s="62" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="BB181" s="61" t="s">
         <v>999</v>
       </c>
-      <c r="BC181" s="250" t="s">
-        <v>1588</v>
+      <c r="BC181" s="247" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="182" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
@@ -52913,8 +52981,8 @@
       </c>
       <c r="AU182" s="139"/>
       <c r="AW182" s="79"/>
-      <c r="BC182" s="250" t="s">
-        <v>1592</v>
+      <c r="BC182" s="247" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="183" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
@@ -53055,8 +53123,8 @@
       </c>
       <c r="AU183" s="139"/>
       <c r="AW183" s="79"/>
-      <c r="BC183" s="250" t="s">
-        <v>1593</v>
+      <c r="BC183" s="247" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="184" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -53197,8 +53265,8 @@
       </c>
       <c r="AU184" s="139"/>
       <c r="AW184" s="79"/>
-      <c r="BC184" s="250" t="s">
-        <v>1593</v>
+      <c r="BC184" s="247" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="185" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
@@ -53339,16 +53407,16 @@
       </c>
       <c r="AU185" s="139"/>
       <c r="AW185" s="82" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AX185" s="62" t="s">
         <v>1052</v>
       </c>
-      <c r="AX185" s="62" t="s">
-        <v>1054</v>
-      </c>
       <c r="BB185" s="61" t="s">
-        <v>1055</v>
-      </c>
-      <c r="BC185" s="250" t="s">
-        <v>1594</v>
+        <v>1053</v>
+      </c>
+      <c r="BC185" s="247" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="186" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -53564,8 +53632,8 @@
       <c r="AT187" s="24"/>
       <c r="AU187" s="139"/>
       <c r="AW187" s="79"/>
-      <c r="BC187" s="250" t="s">
-        <v>1595</v>
+      <c r="BC187" s="247" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="188" spans="2:55" ht="153" x14ac:dyDescent="0.25">
@@ -53704,23 +53772,23 @@
       <c r="AT188" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU188" s="160" t="s">
-        <v>1193</v>
+      <c r="AU188" s="157" t="s">
+        <v>1189</v>
       </c>
       <c r="AV188" s="138">
         <v>20190307</v>
       </c>
       <c r="AW188" s="82" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1219</v>
-      </c>
-      <c r="BB188" s="176" t="s">
-        <v>1220</v>
-      </c>
-      <c r="BC188" s="250" t="s">
-        <v>1596</v>
+        <v>1214</v>
+      </c>
+      <c r="BB188" s="173" t="s">
+        <v>1215</v>
+      </c>
+      <c r="BC188" s="247" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="189" spans="2:55" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -53860,23 +53928,23 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
       <c r="AW189" s="79"/>
       <c r="AX189" s="62" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AY189" s="62" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
       </c>
-      <c r="BC189" s="250" t="s">
-        <v>1597</v>
+      <c r="BC189" s="247" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="190" spans="2:55" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -53984,23 +54052,23 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
       <c r="AW190" s="79"/>
       <c r="AX190" s="62" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AY190" s="62" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
       </c>
-      <c r="BC190" s="250" t="s">
-        <v>1598</v>
+      <c r="BC190" s="247" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="191" spans="2:55" ht="150" x14ac:dyDescent="0.2">
@@ -54140,22 +54208,22 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
       <c r="AW191" s="82" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="BC191" s="250" t="s">
-        <v>1599</v>
+      <c r="BC191" s="247" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="192" spans="2:55" ht="270" x14ac:dyDescent="0.2">
@@ -54295,13 +54363,13 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
       </c>
       <c r="AW192" s="79"/>
-      <c r="BC192" s="250" t="s">
+      <c r="BC192" s="247" t="s">
         <v>323</v>
       </c>
     </row>
@@ -54442,14 +54510,14 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
       </c>
       <c r="AW193" s="79"/>
-      <c r="BC193" s="250" t="s">
-        <v>1600</v>
+      <c r="BC193" s="247" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="194" spans="2:55" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -54589,7 +54657,7 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
@@ -54598,13 +54666,13 @@
         <v>1038</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1221</v>
-      </c>
-      <c r="BB194" s="176" t="s">
-        <v>1055</v>
-      </c>
-      <c r="BC194" s="250" t="s">
-        <v>1601</v>
+        <v>1216</v>
+      </c>
+      <c r="BB194" s="173" t="s">
+        <v>1053</v>
+      </c>
+      <c r="BC194" s="247" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="195" spans="2:55" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -54801,19 +54869,19 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
       <c r="AW196" s="82" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1061</v>
-      </c>
-      <c r="BC196" s="250" t="s">
-        <v>1602</v>
+        <v>1059</v>
+      </c>
+      <c r="BC196" s="247" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="197" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
@@ -54953,23 +55021,23 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AV197" s="145">
+        <v>1187</v>
+      </c>
+      <c r="AV197" s="142">
         <v>20190307</v>
       </c>
       <c r="AW197" s="82"/>
       <c r="AX197" s="62" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AY197" s="180" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AY197" s="177" t="s">
         <v>1000</v>
       </c>
-      <c r="BB197" s="178" t="s">
+      <c r="BB197" s="175" t="s">
         <v>1030</v>
       </c>
-      <c r="BC197" s="250" t="s">
-        <v>1603</v>
+      <c r="BC197" s="247" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="198" spans="2:55" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55109,16 +55177,16 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
       <c r="AW198" s="82"/>
       <c r="AX198" s="62" t="s">
-        <v>1265</v>
-      </c>
-      <c r="AY198" s="180" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AY198" s="177" t="s">
         <v>1000</v>
       </c>
       <c r="BB198" s="61" t="s">
@@ -55217,8 +55285,8 @@
       <c r="AR199" s="55"/>
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
-      <c r="AU199" s="144" t="s">
-        <v>1160</v>
+      <c r="AU199" s="141" t="s">
+        <v>1157</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
@@ -55227,7 +55295,7 @@
         <v>1017</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
@@ -55513,9 +55581,9 @@
         <v>1017</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1063</v>
-      </c>
-      <c r="BB201" s="178" t="s">
+        <v>1061</v>
+      </c>
+      <c r="BB201" s="175" t="s">
         <v>321</v>
       </c>
     </row>
@@ -55609,7 +55677,7 @@
       <c r="AZ202" s="66"/>
       <c r="BA202" s="66"/>
       <c r="BB202" s="66"/>
-      <c r="BC202" s="250"/>
+      <c r="BC202" s="247"/>
     </row>
     <row r="203" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B203" s="21" t="s">
@@ -55704,7 +55772,7 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
@@ -55713,12 +55781,12 @@
         <v>1038</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1224</v>
-      </c>
-      <c r="BB203" s="176" t="s">
+        <v>1219</v>
+      </c>
+      <c r="BB203" s="173" t="s">
         <v>328</v>
       </c>
     </row>
@@ -55858,17 +55926,17 @@
       <c r="AT204" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="AU204" s="150" t="s">
-        <v>1175</v>
+      <c r="AU204" s="147" t="s">
+        <v>1172</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="AW204" s="86" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
@@ -55876,7 +55944,7 @@
       <c r="BB204" s="90" t="s">
         <v>1030</v>
       </c>
-      <c r="BC204" s="250"/>
+      <c r="BC204" s="247"/>
     </row>
     <row r="205" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B205" s="95" t="s">
@@ -55976,7 +56044,7 @@
       <c r="AZ205" s="66"/>
       <c r="BA205" s="66"/>
       <c r="BB205" s="67"/>
-      <c r="BC205" s="250"/>
+      <c r="BC205" s="247"/>
     </row>
     <row r="206" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B206" s="21" t="s">
@@ -56115,13 +56183,13 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
       <c r="AW206" s="82" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="207" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
@@ -56346,13 +56414,13 @@
         <v>1038</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1227</v>
-      </c>
-      <c r="BB208" s="176" t="s">
-        <v>1055</v>
+        <v>1222</v>
+      </c>
+      <c r="BB208" s="173" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="209" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
@@ -56496,13 +56564,13 @@
         <v>1038</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1229</v>
-      </c>
-      <c r="BB209" s="176" t="s">
-        <v>1055</v>
+        <v>1224</v>
+      </c>
+      <c r="BB209" s="173" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="210" spans="2:55" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
@@ -56599,17 +56667,17 @@
         <v>1038</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
       <c r="BB210" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="BC210" s="250"/>
+      <c r="BC210" s="247"/>
     </row>
     <row r="211" spans="2:55" s="116" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="B211" s="106" t="s">
@@ -56747,8 +56815,8 @@
       <c r="AT211" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="AU211" s="152" t="s">
-        <v>1178</v>
+      <c r="AU211" s="149" t="s">
+        <v>1175</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
@@ -56757,17 +56825,17 @@
         <v>1038</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
       <c r="BB211" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="BC211" s="250"/>
+      <c r="BC211" s="247"/>
     </row>
     <row r="212" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B212" s="95" t="s">
@@ -56829,25 +56897,25 @@
       <c r="AR212" s="103"/>
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
-      <c r="AU212" s="146" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AV212" s="147">
+      <c r="AU212" s="143" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AV212" s="144">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
       <c r="BB212" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC212" s="250"/>
+      <c r="BC212" s="247"/>
     </row>
     <row r="213" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B213" s="21" t="s">
@@ -56985,23 +57053,23 @@
       <c r="AT213" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AU213" s="144" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AV213" s="144">
+      <c r="AU213" s="141" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AV213" s="141">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AX213" s="62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AY213" s="62" t="s">
         <v>1067</v>
       </c>
-      <c r="AX213" s="62" t="s">
+      <c r="BB213" s="61" t="s">
         <v>1068</v>
-      </c>
-      <c r="AY213" s="62" t="s">
-        <v>1069</v>
-      </c>
-      <c r="BB213" s="61" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="214" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
@@ -57141,7 +57209,7 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
@@ -57150,9 +57218,9 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1267</v>
-      </c>
-      <c r="BB214" s="178" t="s">
+        <v>1262</v>
+      </c>
+      <c r="BB214" s="175" t="s">
         <v>976</v>
       </c>
     </row>
@@ -57293,19 +57361,19 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AX215" s="62" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AY215" s="62" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
@@ -57409,7 +57477,7 @@
       <c r="AZ216" s="66"/>
       <c r="BA216" s="66"/>
       <c r="BB216" s="67"/>
-      <c r="BC216" s="250"/>
+      <c r="BC216" s="247"/>
     </row>
     <row r="217" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B217" s="95" t="s">
@@ -57509,7 +57577,7 @@
       <c r="AZ217" s="66"/>
       <c r="BA217" s="66"/>
       <c r="BB217" s="67"/>
-      <c r="BC217" s="250"/>
+      <c r="BC217" s="247"/>
     </row>
     <row r="218" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B218" s="21" t="s">
@@ -57787,13 +57855,13 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="220" spans="2:55" ht="51" x14ac:dyDescent="0.2">
@@ -57933,13 +58001,13 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="221" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
@@ -58080,7 +58148,7 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="222" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
@@ -58220,18 +58288,18 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1268</v>
-      </c>
-      <c r="BB222" s="176" t="s">
+        <v>1263</v>
+      </c>
+      <c r="BB222" s="173" t="s">
         <v>320</v>
       </c>
     </row>
@@ -58372,19 +58440,19 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="224" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -58663,16 +58731,16 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1236</v>
-      </c>
-      <c r="BB225" s="176" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BB225" s="173" t="s">
         <v>320</v>
       </c>
     </row>
@@ -58807,7 +58875,7 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
@@ -58816,10 +58884,10 @@
         <v>1038</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
@@ -58956,7 +59024,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -58965,7 +59033,7 @@
         <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="228" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
@@ -59191,7 +59259,7 @@
       <c r="AZ229" s="66"/>
       <c r="BA229" s="66"/>
       <c r="BB229" s="66"/>
-      <c r="BC229" s="250"/>
+      <c r="BC229" s="247"/>
     </row>
     <row r="230" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B230" s="95" t="s">
@@ -59277,7 +59345,7 @@
       <c r="AZ230" s="66"/>
       <c r="BA230" s="66"/>
       <c r="BB230" s="66"/>
-      <c r="BC230" s="250"/>
+      <c r="BC230" s="247"/>
     </row>
     <row r="231" spans="2:55" s="105" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B231" s="95" t="s">
@@ -59363,7 +59431,7 @@
       <c r="AZ231" s="66"/>
       <c r="BA231" s="66"/>
       <c r="BB231" s="66"/>
-      <c r="BC231" s="250"/>
+      <c r="BC231" s="247"/>
     </row>
     <row r="232" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B232" s="21" t="s">
@@ -59502,7 +59570,7 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
@@ -59643,7 +59711,7 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
@@ -59784,7 +59852,7 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
@@ -59925,7 +59993,7 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
@@ -60066,7 +60134,7 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
@@ -60207,7 +60275,7 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
@@ -60352,13 +60420,13 @@
         <v>1038</v>
       </c>
       <c r="AX238" s="62" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AY238" s="62" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BB238" s="61" t="s">
         <v>1074</v>
-      </c>
-      <c r="AY238" s="62" t="s">
-        <v>1075</v>
-      </c>
-      <c r="BB238" s="61" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="239" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -60494,24 +60562,24 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
         <v>1038</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
       <c r="BB239" s="90" t="s">
         <v>1012</v>
       </c>
-      <c r="BC239" s="250"/>
+      <c r="BC239" s="247"/>
     </row>
     <row r="240" spans="2:55" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B240" s="106" t="s">
@@ -60646,7 +60714,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -60655,7 +60723,7 @@
       <c r="AZ240" s="89"/>
       <c r="BA240" s="89"/>
       <c r="BB240" s="89"/>
-      <c r="BC240" s="250"/>
+      <c r="BC240" s="247"/>
     </row>
     <row r="241" spans="2:55" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B241" s="106" t="s">
@@ -60790,7 +60858,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -60799,7 +60867,7 @@
       <c r="AZ241" s="89"/>
       <c r="BA241" s="89"/>
       <c r="BB241" s="89"/>
-      <c r="BC241" s="250"/>
+      <c r="BC241" s="247"/>
     </row>
     <row r="242" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
@@ -60932,7 +61000,7 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
@@ -61073,7 +61141,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -61082,7 +61150,7 @@
       <c r="AZ243" s="89"/>
       <c r="BA243" s="89"/>
       <c r="BB243" s="89"/>
-      <c r="BC243" s="250"/>
+      <c r="BC243" s="247"/>
     </row>
     <row r="244" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B244" s="21" t="s">
@@ -61221,7 +61289,7 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
@@ -61312,7 +61380,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -61321,7 +61389,7 @@
       <c r="AZ245" s="66"/>
       <c r="BA245" s="66"/>
       <c r="BB245" s="66"/>
-      <c r="BC245" s="250"/>
+      <c r="BC245" s="247"/>
     </row>
     <row r="246" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B246" s="21" t="s">
@@ -61414,16 +61482,16 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
@@ -61566,7 +61634,7 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
@@ -61661,7 +61729,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -61670,7 +61738,7 @@
       <c r="AZ248" s="66"/>
       <c r="BA248" s="66"/>
       <c r="BB248" s="66"/>
-      <c r="BC248" s="250"/>
+      <c r="BC248" s="247"/>
     </row>
     <row r="249" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B249" s="21" t="s">
@@ -61759,16 +61827,16 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW249" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
@@ -61911,16 +61979,16 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW250" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
@@ -62063,10 +62131,10 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="252" spans="2:55" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -62627,10 +62695,10 @@
         <v>1038</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
@@ -62777,7 +62845,7 @@
         <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
@@ -62916,10 +62984,10 @@
         <v>1038</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
@@ -63000,14 +63068,14 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
       <c r="AZ258" s="66"/>
       <c r="BA258" s="66"/>
       <c r="BB258" s="67"/>
-      <c r="BC258" s="250"/>
+      <c r="BC258" s="247"/>
     </row>
     <row r="259" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B259" s="21" t="s">
@@ -63146,7 +63214,7 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
@@ -63358,7 +63426,7 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW261" s="82" t="s">
         <v>1038</v>
@@ -63476,14 +63544,14 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
@@ -63626,19 +63694,19 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1239</v>
-      </c>
-      <c r="BB263" s="176" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BB263" s="173" t="s">
         <v>976</v>
       </c>
     </row>
@@ -63786,7 +63854,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -63905,20 +63973,20 @@
       <c r="AT265" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AU265" s="168" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AV265" s="167">
+      <c r="AU265" s="165" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AV265" s="164">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1239</v>
-      </c>
-      <c r="BB265" s="176" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BB265" s="173" t="s">
         <v>976</v>
       </c>
     </row>
@@ -64047,14 +64115,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -64062,7 +64130,7 @@
       <c r="BB266" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="BC266" s="250"/>
+      <c r="BC266" s="247"/>
     </row>
     <row r="267" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B267" s="95" t="s">
@@ -64188,17 +64256,17 @@
       <c r="AT267" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AU267" s="172" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AV267" s="169">
+      <c r="AU267" s="169" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AV267" s="166">
         <v>20190404</v>
       </c>
       <c r="AW267" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -64206,7 +64274,7 @@
       <c r="BB267" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC267" s="250"/>
+      <c r="BC267" s="247"/>
     </row>
     <row r="268" spans="2:55" s="105" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="B268" s="95" t="s">
@@ -64332,17 +64400,17 @@
       <c r="AT268" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AU268" s="173" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AV268" s="174">
+      <c r="AU268" s="170" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AV268" s="171">
         <v>20190404</v>
       </c>
       <c r="AW268" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -64350,7 +64418,7 @@
       <c r="BB268" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC268" s="250"/>
+      <c r="BC268" s="247"/>
     </row>
     <row r="269" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B269" s="95" t="s">
@@ -64476,17 +64544,17 @@
       <c r="AT269" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AU269" s="175" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AV269" s="174">
+      <c r="AU269" s="172" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AV269" s="171">
         <v>20190404</v>
       </c>
       <c r="AW269" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -64494,7 +64562,7 @@
       <c r="BB269" s="67" t="s">
         <v>976</v>
       </c>
-      <c r="BC269" s="250"/>
+      <c r="BC269" s="247"/>
     </row>
     <row r="270" spans="2:55" s="105" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B270" s="95" t="s">
@@ -64566,10 +64634,10 @@
       <c r="AT270" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AU270" s="170" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AV270" s="171">
+      <c r="AU270" s="167" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AV270" s="168">
         <v>20190404</v>
       </c>
       <c r="AW270" s="69"/>
@@ -64578,7 +64646,7 @@
       <c r="AZ270" s="66"/>
       <c r="BA270" s="66"/>
       <c r="BB270" s="66"/>
-      <c r="BC270" s="250"/>
+      <c r="BC270" s="247"/>
     </row>
     <row r="271" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B271" s="95" t="s">
@@ -64650,10 +64718,10 @@
       <c r="AT271" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AU271" s="143" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AV271" s="155">
+      <c r="AU271" s="140" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AV271" s="152">
         <v>20190404</v>
       </c>
       <c r="AW271" s="69"/>
@@ -64662,7 +64730,7 @@
       <c r="AZ271" s="66"/>
       <c r="BA271" s="66"/>
       <c r="BB271" s="66"/>
-      <c r="BC271" s="250"/>
+      <c r="BC271" s="247"/>
     </row>
     <row r="272" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B272" s="95" t="s">
@@ -64734,10 +64802,10 @@
       <c r="AT272" s="101" t="s">
         <v>371</v>
       </c>
-      <c r="AU272" s="143" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AV272" s="155">
+      <c r="AU272" s="140" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AV272" s="152">
         <v>20190404</v>
       </c>
       <c r="AW272" s="69"/>
@@ -64746,7 +64814,7 @@
       <c r="AZ272" s="66"/>
       <c r="BA272" s="66"/>
       <c r="BB272" s="66"/>
-      <c r="BC272" s="250"/>
+      <c r="BC272" s="247"/>
     </row>
     <row r="273" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B273" s="21" t="s">
@@ -64871,13 +64939,13 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="AW273" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
@@ -65006,13 +65074,13 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="AW274" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="BB274" s="61" t="s">
         <v>1030</v>
@@ -65155,7 +65223,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -65164,7 +65232,7 @@
       <c r="AZ275" s="66"/>
       <c r="BA275" s="66"/>
       <c r="BB275" s="67"/>
-      <c r="BC275" s="250"/>
+      <c r="BC275" s="247"/>
     </row>
     <row r="276" spans="2:55" s="105" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="95" t="s">
@@ -65303,7 +65371,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -65312,7 +65380,7 @@
       <c r="AZ276" s="66"/>
       <c r="BA276" s="66"/>
       <c r="BB276" s="67"/>
-      <c r="BC276" s="250"/>
+      <c r="BC276" s="247"/>
     </row>
     <row r="277" spans="2:55" s="116" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B277" s="106" t="s">
@@ -65445,7 +65513,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -65454,7 +65522,7 @@
       <c r="AZ277" s="89"/>
       <c r="BA277" s="89"/>
       <c r="BB277" s="90"/>
-      <c r="BC277" s="250"/>
+      <c r="BC277" s="247"/>
     </row>
     <row r="278" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B278" s="21" t="s">
@@ -65551,7 +65619,7 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
@@ -65696,10 +65764,10 @@
         <v>1038</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
@@ -65772,7 +65840,7 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
@@ -65913,7 +65981,7 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
@@ -66054,7 +66122,7 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
@@ -66196,7 +66264,7 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
@@ -66337,7 +66405,7 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
@@ -66478,7 +66546,7 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
@@ -66619,7 +66687,7 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
@@ -66746,16 +66814,16 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW287" s="82" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AX287" s="62" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AY287" s="62" t="s">
         <v>1096</v>
-      </c>
-      <c r="AX287" s="62" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AY287" s="62" t="s">
-        <v>1098</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
@@ -66826,7 +66894,7 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
@@ -66957,7 +67025,7 @@
         <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
@@ -67085,17 +67153,17 @@
       <c r="AT290" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="AU290" s="162" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AV290" s="145">
+      <c r="AU290" s="159" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AV290" s="142">
         <v>20190305</v>
       </c>
       <c r="AW290" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="291" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
@@ -67221,13 +67289,13 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW291" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
@@ -67292,7 +67360,7 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
@@ -67355,7 +67423,7 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
@@ -67418,7 +67486,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -67427,7 +67495,7 @@
       <c r="AZ294" s="66"/>
       <c r="BA294" s="66"/>
       <c r="BB294" s="66"/>
-      <c r="BC294" s="250"/>
+      <c r="BC294" s="247"/>
     </row>
     <row r="295" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
@@ -67488,7 +67556,7 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
@@ -67551,7 +67619,7 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
@@ -67614,7 +67682,7 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
@@ -67676,17 +67744,17 @@
       <c r="AR298" s="55"/>
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
-      <c r="AU298" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AV298" s="145">
+      <c r="AU298" s="159" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AV298" s="142">
         <v>20190305</v>
       </c>
       <c r="AW298" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="299" spans="2:55" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -67748,7 +67816,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -67757,7 +67825,7 @@
       <c r="AZ299" s="66"/>
       <c r="BA299" s="66"/>
       <c r="BB299" s="66"/>
-      <c r="BC299" s="250"/>
+      <c r="BC299" s="247"/>
     </row>
     <row r="300" spans="2:55" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -67800,17 +67868,13 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AU1:AU4"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AP3:AQ3"/>
@@ -67825,13 +67889,17 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AU1:AU4"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B175:AU175 B174:AT174 B212:AU212 B211:AT211 B140:AU141 B139:AT139 B178:AU187 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B176:AT177 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123">
@@ -68010,16 +68078,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="285" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="287"/>
+      <c r="B1" s="286"/>
     </row>
     <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="287" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="288"/>
+      <c r="B2" s="287"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
@@ -68062,16 +68130,16 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="282" t="s">
+      <c r="A9" s="281" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="284" t="s">
+      <c r="B9" s="283" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="283"/>
-      <c r="B10" s="285"/>
+      <c r="A10" s="282"/>
+      <c r="B10" s="284"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -68351,31 +68419,31 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="149"/>
+      <c r="A4" s="146"/>
       <c r="B4" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="164"/>
+      <c r="A5" s="161"/>
       <c r="B5" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -68395,166 +68463,166 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F2" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F4" s="161" t="s">
-        <v>1195</v>
+        <v>1109</v>
+      </c>
+      <c r="F4" s="158" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B7" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B9" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B10" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B12" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B13" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B15" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B16" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B17" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B19" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -68562,12 +68630,12 @@
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -68759,6 +68827,30 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
@@ -68772,30 +68864,6 @@
     <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68819,24 +68887,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -68844,18 +68910,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/v2.0.1/Ontology_eForms_Mapping.xlsx
+++ b/v2.0.1/Ontology_eForms_Mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseguraf\Documents\GitHub\eprocurementontology\eprocurementontology\v2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Annex" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12419" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12429" uniqueCount="1650">
   <si>
     <t>ID</t>
   </si>
@@ -4727,9 +4727,6 @@
 (WG approval 20/07/2018)</t>
   </si>
   <si>
-    <t>Missing definition</t>
-  </si>
-  <si>
     <t>dateTime</t>
   </si>
   <si>
@@ -4795,9 +4792,6 @@
       </rPr>
       <t>LanguageType</t>
     </r>
-  </si>
-  <si>
-    <t>I see "call for expression of interest" but no deadline</t>
   </si>
   <si>
     <t>SubcontractTerms</t>
@@ -5509,9 +5503,6 @@
     <t>eAccessTerms.AdditionalInformationDeadline</t>
   </si>
   <si>
-    <t>Missing definition - definition "applies to" still not updated</t>
-  </si>
-  <si>
     <t>SubmissionTerms.eSubmissionElectronicSignature</t>
   </si>
   <si>
@@ -5521,9 +5512,6 @@
 Signature can be defined as "data in electronic form which is attached to or logically associated with other data in electronic form and which is used by the signatory to sign. 
 For more details on the meaning and uses of electronic signature you may consult different authoritative sources, a relevant one being for instance the Regulation (EU) 910/2014 on electronic identification and trust services for electronic transactions in the internal market.
 WG Approval 12/03/2019 15:46:34</t>
-  </si>
-  <si>
-    <t>definition is missing - code list?</t>
   </si>
   <si>
     <t>SubmissionTerms.ReceiptDeadline</t>
@@ -8079,12 +8067,60 @@
   <si>
     <t>Currently under discussion whether we'll adopt the IFLA LRM or the UBL model to extender our Document base class. Depending on  the discussion this URL would be map differently.</t>
   </si>
+  <si>
+    <t>Should it be through a new attribute of the Procurement Document class?
+The mapphing would be:
+Procedure has Lot,
+Lot is referredToIn ProcurmenDocument</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applies SubmissionTerms,
+SubmissionTerms haseSubmissionCommunication Code (communication-justification)</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applies SubmissionTerms,
+SubmissionTerms hasnon-ElectronicSubmissionDescription Text</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applies SubmissionTerms,
+SubmissionTerms hasDocumentLanguage Code (LanguageType)</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applies SubmissionTerms,
+SubmissionTerms haseSubmissionElectronicSignature Indicator</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot hasVariantPermissions Code</t>
+  </si>
+  <si>
+    <t>Procedure has ProcedureTerms,
+ProcedureTerms hasReceiptExpressionsDeadline DateTime</t>
+  </si>
+  <si>
+    <t>Procedure has ProcedureTerms,
+ProcedureTerms hasRequestforParticipationDeadline DateTime</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applies SubmissionTerms,
+SubmissionTerms hasReceiptDeadline DateTime</t>
+  </si>
+  <si>
+    <t>Procedure has Lot,
+Lot applies SubmissionTerms,
+SubmissionTerms hasTenderValidityDeadline DateTime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8313,6 +8349,12 @@
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -9321,7 +9363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10053,6 +10095,76 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10068,21 +10180,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10093,51 +10190,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10163,22 +10215,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="49">
     <dxf>
       <fill>
         <patternFill>
@@ -10497,34 +10560,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11013,143 +11048,143 @@
   <dimension ref="A1:XFD300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="43" customWidth="1"/>
     <col min="5" max="5" width="9" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="43" customWidth="1"/>
     <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="50" customWidth="1"/>
-    <col min="10" max="12" width="3.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" style="50" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7" style="56" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" customWidth="1"/>
-    <col min="18" max="20" width="4" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="2" customWidth="1"/>
-    <col min="22" max="25" width="3.6640625" style="2" customWidth="1"/>
-    <col min="26" max="27" width="4.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.6640625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="4.6640625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" style="56" customWidth="1"/>
-    <col min="32" max="33" width="3.6640625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="5" customWidth="1"/>
-    <col min="35" max="41" width="3.6640625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="5.6640625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="5.6640625" style="4" customWidth="1"/>
-    <col min="44" max="44" width="5.44140625" style="56" customWidth="1"/>
-    <col min="45" max="45" width="5.44140625" style="2" customWidth="1"/>
-    <col min="46" max="46" width="5.44140625" style="3" customWidth="1"/>
-    <col min="47" max="47" width="84.6640625" style="154" customWidth="1"/>
-    <col min="48" max="48" width="35.88671875" style="138" customWidth="1"/>
-    <col min="49" max="49" width="33.33203125" style="129" customWidth="1"/>
-    <col min="50" max="50" width="33.109375" style="80" customWidth="1"/>
+    <col min="8" max="8" width="7" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="50" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="50" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="56" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="4" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="4.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="56" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="35" max="41" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="5.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="5.42578125" style="56" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="5.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="84.7109375" style="154" customWidth="1"/>
+    <col min="48" max="48" width="35.85546875" style="138" customWidth="1"/>
+    <col min="49" max="49" width="33.28515625" style="129" customWidth="1"/>
+    <col min="50" max="50" width="33.140625" style="80" customWidth="1"/>
     <col min="51" max="51" width="45" style="80" customWidth="1"/>
-    <col min="52" max="54" width="9.109375" style="58"/>
-    <col min="55" max="55" width="14.5546875" style="246" customWidth="1"/>
+    <col min="52" max="54" width="9.140625" style="58"/>
+    <col min="55" max="55" width="14.5703125" style="246" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:61" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="280" t="s">
+    <row r="1" spans="2:61" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="262" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="272" t="s">
+      <c r="C1" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="272" t="s">
+      <c r="D1" s="265" t="s">
         <v>577</v>
       </c>
-      <c r="E1" s="272" t="s">
+      <c r="E1" s="265" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="272" t="s">
+      <c r="F1" s="265" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="284" t="s">
+      <c r="G1" s="272" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="263" t="s">
+      <c r="H1" s="268" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="264"/>
-      <c r="M1" s="264"/>
-      <c r="N1" s="283"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="263" t="s">
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="268" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="264"/>
-      <c r="S1" s="264"/>
-      <c r="T1" s="264"/>
-      <c r="U1" s="264"/>
-      <c r="V1" s="264"/>
-      <c r="W1" s="264"/>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="263" t="s">
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="271"/>
+      <c r="AE1" s="268" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="264"/>
-      <c r="AG1" s="264"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="263" t="s">
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="268" t="s">
         <v>543</v>
       </c>
-      <c r="AJ1" s="264"/>
-      <c r="AK1" s="264"/>
-      <c r="AL1" s="264"/>
-      <c r="AM1" s="264"/>
-      <c r="AN1" s="264"/>
-      <c r="AO1" s="264"/>
-      <c r="AP1" s="264"/>
-      <c r="AQ1" s="265"/>
-      <c r="AR1" s="263" t="s">
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="269"/>
+      <c r="AL1" s="269"/>
+      <c r="AM1" s="269"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="271"/>
+      <c r="AR1" s="268" t="s">
         <v>963</v>
       </c>
-      <c r="AS1" s="264"/>
-      <c r="AT1" s="265"/>
-      <c r="AU1" s="268" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AV1" s="269" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX1" s="270" t="s">
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="271"/>
+      <c r="AU1" s="287" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AV1" s="288" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AX1" s="289" t="s">
         <v>971</v>
       </c>
-      <c r="AY1" s="271"/>
-      <c r="AZ1" s="271"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="290"/>
       <c r="BC1" s="246" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="BD1" s="157"/>
     </row>
-    <row r="2" spans="2:61" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="281"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="285"/>
+    <row r="2" spans="2:61" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="263"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="273"/>
       <c r="H2" s="38">
         <v>1</v>
       </c>
@@ -11267,135 +11302,135 @@
       <c r="AT2" s="127">
         <v>39</v>
       </c>
-      <c r="AU2" s="268"/>
-      <c r="AV2" s="269"/>
+      <c r="AU2" s="287"/>
+      <c r="AV2" s="288"/>
       <c r="AW2" s="130"/>
-      <c r="AX2" s="258" t="s">
+      <c r="AX2" s="282" t="s">
         <v>972</v>
       </c>
-      <c r="AY2" s="258" t="s">
+      <c r="AY2" s="282" t="s">
         <v>973</v>
       </c>
-      <c r="AZ2" s="258" t="s">
+      <c r="AZ2" s="282" t="s">
         <v>974</v>
       </c>
       <c r="BA2" s="59"/>
-      <c r="BB2" s="258" t="s">
+      <c r="BB2" s="282" t="s">
         <v>319</v>
       </c>
       <c r="BD2" s="130"/>
-      <c r="BE2" s="258" t="s">
+      <c r="BE2" s="282" t="s">
         <v>972</v>
       </c>
-      <c r="BF2" s="258" t="s">
+      <c r="BF2" s="282" t="s">
         <v>973</v>
       </c>
-      <c r="BG2" s="258" t="s">
+      <c r="BG2" s="282" t="s">
         <v>974</v>
       </c>
       <c r="BH2" s="251"/>
-      <c r="BI2" s="258" t="s">
+      <c r="BI2" s="282" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="2:61" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="281"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="276" t="s">
+    <row r="3" spans="2:61" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="263"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="277" t="s">
         <v>373</v>
       </c>
-      <c r="I3" s="267"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="278" t="s">
+      <c r="I3" s="278"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="280" t="s">
         <v>374</v>
       </c>
-      <c r="L3" s="267"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="278" t="s">
+      <c r="L3" s="278"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="280" t="s">
         <v>375</v>
       </c>
-      <c r="O3" s="275"/>
-      <c r="P3" s="276" t="s">
+      <c r="O3" s="276"/>
+      <c r="P3" s="277" t="s">
         <v>376</v>
       </c>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="278" t="s">
+      <c r="Q3" s="281"/>
+      <c r="R3" s="280" t="s">
         <v>377</v>
       </c>
-      <c r="S3" s="267"/>
-      <c r="T3" s="279"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="281"/>
       <c r="U3" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="V3" s="278" t="s">
+      <c r="V3" s="280" t="s">
         <v>378</v>
       </c>
-      <c r="W3" s="267"/>
-      <c r="X3" s="267"/>
-      <c r="Y3" s="279"/>
-      <c r="Z3" s="278" t="s">
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="280" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="279"/>
+      <c r="AA3" s="281"/>
       <c r="AB3" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="AC3" s="278" t="s">
+      <c r="AC3" s="280" t="s">
         <v>681</v>
       </c>
-      <c r="AD3" s="275"/>
-      <c r="AE3" s="276" t="s">
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="277" t="s">
         <v>682</v>
       </c>
-      <c r="AF3" s="267"/>
-      <c r="AG3" s="267"/>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="276" t="s">
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="276"/>
+      <c r="AI3" s="277" t="s">
         <v>382</v>
       </c>
-      <c r="AJ3" s="267"/>
-      <c r="AK3" s="267"/>
-      <c r="AL3" s="277"/>
-      <c r="AM3" s="266" t="s">
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="279"/>
+      <c r="AM3" s="275" t="s">
         <v>383</v>
       </c>
-      <c r="AN3" s="267"/>
-      <c r="AO3" s="277"/>
-      <c r="AP3" s="266" t="s">
+      <c r="AN3" s="278"/>
+      <c r="AO3" s="279"/>
+      <c r="AP3" s="275" t="s">
         <v>681</v>
       </c>
-      <c r="AQ3" s="275"/>
-      <c r="AR3" s="266" t="s">
+      <c r="AQ3" s="276"/>
+      <c r="AR3" s="275" t="s">
         <v>963</v>
       </c>
-      <c r="AS3" s="267"/>
-      <c r="AT3" s="267"/>
-      <c r="AU3" s="268"/>
-      <c r="AV3" s="269"/>
+      <c r="AS3" s="278"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="287"/>
+      <c r="AV3" s="288"/>
       <c r="AW3" s="131"/>
-      <c r="AX3" s="259"/>
-      <c r="AY3" s="259"/>
-      <c r="AZ3" s="259"/>
+      <c r="AX3" s="283"/>
+      <c r="AY3" s="283"/>
+      <c r="AZ3" s="283"/>
       <c r="BA3" s="60"/>
-      <c r="BB3" s="259"/>
+      <c r="BB3" s="283"/>
       <c r="BD3" s="131"/>
-      <c r="BE3" s="259"/>
-      <c r="BF3" s="259"/>
-      <c r="BG3" s="259"/>
+      <c r="BE3" s="283"/>
+      <c r="BF3" s="283"/>
+      <c r="BG3" s="283"/>
       <c r="BH3" s="252"/>
-      <c r="BI3" s="259"/>
+      <c r="BI3" s="283"/>
     </row>
-    <row r="4" spans="2:61" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="282"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="286"/>
+    <row r="4" spans="2:61" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="264"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="274"/>
       <c r="H4" s="28" t="s">
         <v>386</v>
       </c>
@@ -11513,26 +11548,26 @@
       <c r="AT4" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="AU4" s="268"/>
-      <c r="AV4" s="269"/>
+      <c r="AU4" s="287"/>
+      <c r="AV4" s="288"/>
       <c r="AW4" s="208" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AX4" s="259"/>
-      <c r="AY4" s="259"/>
-      <c r="AZ4" s="259"/>
+        <v>1282</v>
+      </c>
+      <c r="AX4" s="283"/>
+      <c r="AY4" s="283"/>
+      <c r="AZ4" s="283"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="259"/>
+      <c r="BB4" s="283"/>
       <c r="BD4" s="208" t="s">
-        <v>1286</v>
-      </c>
-      <c r="BE4" s="259"/>
-      <c r="BF4" s="259"/>
-      <c r="BG4" s="259"/>
+        <v>1282</v>
+      </c>
+      <c r="BE4" s="283"/>
+      <c r="BF4" s="283"/>
+      <c r="BG4" s="283"/>
       <c r="BH4" s="252"/>
-      <c r="BI4" s="259"/>
+      <c r="BI4" s="283"/>
     </row>
-    <row r="5" spans="2:61" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:61" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="197"/>
       <c r="C5" s="198"/>
       <c r="D5" s="198"/>
@@ -11580,24 +11615,24 @@
       <c r="AT5" s="204"/>
       <c r="AU5" s="200"/>
       <c r="AV5" s="209"/>
-      <c r="AW5" s="260" t="s">
-        <v>1283</v>
-      </c>
-      <c r="AX5" s="261"/>
-      <c r="AY5" s="262"/>
+      <c r="AW5" s="284" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AX5" s="285"/>
+      <c r="AY5" s="286"/>
       <c r="AZ5" s="131"/>
       <c r="BA5" s="201"/>
       <c r="BB5" s="201"/>
-      <c r="BD5" s="260" t="s">
-        <v>1618</v>
-      </c>
-      <c r="BE5" s="261"/>
-      <c r="BF5" s="262"/>
+      <c r="BD5" s="284" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BE5" s="285"/>
+      <c r="BF5" s="286"/>
       <c r="BG5" s="131"/>
       <c r="BH5" s="252"/>
       <c r="BI5" s="252"/>
     </row>
-    <row r="6" spans="2:61" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:61" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>206</v>
       </c>
@@ -11734,14 +11769,14 @@
         <v>370</v>
       </c>
       <c r="AU6" s="139" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AV6" s="212">
         <v>43662</v>
       </c>
       <c r="AW6" s="210"/>
       <c r="AX6" s="211" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="AY6" s="211" t="s">
         <v>975</v>
@@ -11750,7 +11785,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="7" spans="2:61" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:61" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
         <v>207</v>
       </c>
@@ -11888,7 +11923,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="2:61" ht="132" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:61" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
         <v>207</v>
       </c>
@@ -12029,10 +12064,10 @@
         <v>43662</v>
       </c>
       <c r="AW8" s="63" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="AX8" s="62" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="AY8" s="62" t="s">
         <v>979</v>
@@ -12044,7 +12079,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="2:61" s="105" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:61" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="95" t="s">
         <v>207</v>
       </c>
@@ -12183,7 +12218,7 @@
       <c r="AU9" s="139"/>
       <c r="AV9" s="70"/>
       <c r="AW9" s="196" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="AX9" s="65"/>
       <c r="AY9" s="65"/>
@@ -12192,7 +12227,7 @@
       <c r="BB9" s="67"/>
       <c r="BC9" s="246"/>
     </row>
-    <row r="10" spans="2:61" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:61" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B10" s="177" t="s">
         <v>207</v>
       </c>
@@ -12329,13 +12364,13 @@
         <v>370</v>
       </c>
       <c r="AU10" s="139" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AV10" s="213">
         <v>43662</v>
       </c>
       <c r="AW10" s="214" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="AX10" s="215" t="s">
         <v>981</v>
@@ -12349,7 +12384,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="2:61" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:61" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B11" s="177" t="s">
         <v>207</v>
       </c>
@@ -12486,13 +12521,13 @@
         <v>370</v>
       </c>
       <c r="AU11" s="139" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AV11" s="212">
         <v>43662</v>
       </c>
       <c r="AW11" s="214" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AX11" s="215" t="s">
         <v>983</v>
@@ -12506,7 +12541,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="2:61" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:61" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="177" t="s">
         <v>207</v>
       </c>
@@ -12647,7 +12682,7 @@
         <v>43662</v>
       </c>
       <c r="AW12" s="214" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AX12" s="215" t="s">
         <v>985</v>
@@ -12661,7 +12696,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="2:61" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:61" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="177" t="s">
         <v>207</v>
       </c>
@@ -12802,17 +12837,17 @@
         <v>43662</v>
       </c>
       <c r="AW13" s="214" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="AX13" s="215" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="AY13" s="142"/>
       <c r="AZ13" s="217"/>
       <c r="BA13" s="217"/>
       <c r="BB13" s="217"/>
     </row>
-    <row r="14" spans="2:61" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:61" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B14" s="177" t="s">
         <v>207</v>
       </c>
@@ -12953,17 +12988,17 @@
         <v>43662</v>
       </c>
       <c r="AW14" s="214" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AX14" s="142" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="AY14" s="142"/>
       <c r="AZ14" s="217"/>
       <c r="BA14" s="217"/>
       <c r="BB14" s="217"/>
     </row>
-    <row r="15" spans="2:61" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:61" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B15" s="177" t="s">
         <v>207</v>
       </c>
@@ -13104,17 +13139,17 @@
         <v>43662</v>
       </c>
       <c r="AW15" s="214" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="AX15" s="142" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="AY15" s="142"/>
       <c r="AZ15" s="217"/>
       <c r="BA15" s="217"/>
       <c r="BB15" s="217"/>
     </row>
-    <row r="16" spans="2:61" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:61" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="177" t="s">
         <v>206</v>
       </c>
@@ -13250,14 +13285,14 @@
       </c>
       <c r="AW16" s="214"/>
       <c r="AX16" s="142" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="AY16" s="142"/>
       <c r="AZ16" s="142"/>
       <c r="BA16" s="142"/>
       <c r="BB16" s="142"/>
     </row>
-    <row r="17" spans="2:16384" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16384" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="177" t="s">
         <v>207</v>
       </c>
@@ -13392,10 +13427,10 @@
         <v>43662</v>
       </c>
       <c r="AW17" s="214" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="AX17" s="142" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="AY17" s="142"/>
       <c r="AZ17" s="142"/>
@@ -29732,7 +29767,7 @@
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
-    <row r="18" spans="2:16384" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16384" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B18" s="177" t="s">
         <v>207</v>
       </c>
@@ -29867,17 +29902,17 @@
         <v>43662</v>
       </c>
       <c r="AW18" s="214" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="AX18" s="142" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="AY18" s="142"/>
       <c r="AZ18" s="142"/>
       <c r="BA18" s="142"/>
       <c r="BB18" s="142"/>
     </row>
-    <row r="19" spans="2:16384" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16384" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B19" s="177" t="s">
         <v>207</v>
       </c>
@@ -30013,14 +30048,14 @@
       </c>
       <c r="AW19" s="214"/>
       <c r="AX19" s="142" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AY19" s="142"/>
       <c r="AZ19" s="142"/>
       <c r="BA19" s="142"/>
       <c r="BB19" s="142"/>
     </row>
-    <row r="20" spans="2:16384" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16384" ht="102" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
         <v>206</v>
       </c>
@@ -30157,7 +30192,7 @@
         <v>370</v>
       </c>
       <c r="AU20" s="134" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AV20" s="138">
         <v>20190314</v>
@@ -30177,7 +30212,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="21" spans="2:16384" s="105" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16384" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B21" s="95" t="s">
         <v>207</v>
       </c>
@@ -30323,7 +30358,7 @@
       <c r="BB21" s="67"/>
       <c r="BC21" s="246"/>
     </row>
-    <row r="22" spans="2:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
         <v>207</v>
       </c>
@@ -30461,7 +30496,7 @@
       </c>
       <c r="AU22" s="139"/>
       <c r="AW22" s="91" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="AX22" s="72"/>
       <c r="AY22" s="72"/>
@@ -30469,7 +30504,7 @@
       <c r="BA22" s="73"/>
       <c r="BB22" s="73"/>
     </row>
-    <row r="23" spans="2:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="s">
         <v>207</v>
       </c>
@@ -30607,7 +30642,7 @@
       </c>
       <c r="AU23" s="139"/>
       <c r="AW23" s="91" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="AX23" s="72"/>
       <c r="AY23" s="72"/>
@@ -30615,7 +30650,7 @@
       <c r="BA23" s="73"/>
       <c r="BB23" s="73"/>
     </row>
-    <row r="24" spans="2:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>207</v>
       </c>
@@ -30760,7 +30795,7 @@
       <c r="BA24" s="75"/>
       <c r="BB24" s="75"/>
     </row>
-    <row r="25" spans="2:16384" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16384" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B25" s="177" t="s">
         <v>207</v>
       </c>
@@ -30899,14 +30934,14 @@
       <c r="AU25" s="139"/>
       <c r="AW25" s="71"/>
       <c r="AX25" s="72" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="AY25" s="72"/>
       <c r="AZ25" s="73"/>
       <c r="BA25" s="73"/>
       <c r="BB25" s="73"/>
     </row>
-    <row r="26" spans="2:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="177" t="s">
         <v>207</v>
       </c>
@@ -31052,7 +31087,7 @@
       <c r="BA26" s="73"/>
       <c r="BB26" s="73"/>
     </row>
-    <row r="27" spans="2:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B27" s="177" t="s">
         <v>207</v>
       </c>
@@ -31198,7 +31233,7 @@
       <c r="BA27" s="73"/>
       <c r="BB27" s="73"/>
     </row>
-    <row r="28" spans="2:16384" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16384" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="177" t="s">
         <v>207</v>
       </c>
@@ -31344,7 +31379,7 @@
       <c r="BA28" s="73"/>
       <c r="BB28" s="73"/>
     </row>
-    <row r="29" spans="2:16384" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16384" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B29" s="177" t="s">
         <v>207</v>
       </c>
@@ -31490,7 +31525,7 @@
       <c r="BA29" s="73"/>
       <c r="BB29" s="73"/>
     </row>
-    <row r="30" spans="2:16384" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16384" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B30" s="177" t="s">
         <v>207</v>
       </c>
@@ -31506,7 +31541,7 @@
       <c r="F30" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="G30" s="294" t="s">
+      <c r="G30" s="258" t="s">
         <v>487</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -31636,7 +31671,7 @@
       <c r="BA30" s="73"/>
       <c r="BB30" s="73"/>
     </row>
-    <row r="31" spans="2:16384" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16384" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B31" s="177" t="s">
         <v>207</v>
       </c>
@@ -31782,7 +31817,7 @@
       <c r="BA31" s="73"/>
       <c r="BB31" s="73"/>
     </row>
-    <row r="32" spans="2:16384" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16384" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>207</v>
       </c>
@@ -31928,8 +31963,8 @@
       <c r="BA32" s="73"/>
       <c r="BB32" s="73"/>
     </row>
-    <row r="33" spans="2:55" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="297" t="s">
+    <row r="33" spans="2:55" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="261" t="s">
         <v>207</v>
       </c>
       <c r="C33" s="40" t="s">
@@ -32074,7 +32109,7 @@
       <c r="BA33" s="73"/>
       <c r="BB33" s="73"/>
     </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>207</v>
       </c>
@@ -32220,7 +32255,7 @@
       <c r="BA34" s="73"/>
       <c r="BB34" s="73"/>
     </row>
-    <row r="35" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>207</v>
       </c>
@@ -32358,7 +32393,7 @@
       </c>
       <c r="AU35" s="139"/>
       <c r="AW35" s="91" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AX35" s="72"/>
       <c r="AY35" s="72"/>
@@ -32366,7 +32401,7 @@
       <c r="BA35" s="73"/>
       <c r="BB35" s="73"/>
     </row>
-    <row r="36" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B36" s="177" t="s">
         <v>207</v>
       </c>
@@ -32504,17 +32539,17 @@
       </c>
       <c r="AU36" s="139"/>
       <c r="AW36" s="71" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="AX36" s="72" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="77"/>
       <c r="BA36" s="77"/>
       <c r="BB36" s="77"/>
     </row>
-    <row r="37" spans="2:55" s="105" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B37" s="95" t="s">
         <v>207</v>
       </c>
@@ -32654,7 +32689,7 @@
       <c r="AV37" s="70"/>
       <c r="AW37" s="85"/>
       <c r="AX37" s="70" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AY37" s="70"/>
       <c r="AZ37" s="66"/>
@@ -32664,7 +32699,7 @@
       </c>
       <c r="BC37" s="246"/>
     </row>
-    <row r="38" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>207</v>
       </c>
@@ -32800,7 +32835,7 @@
       </c>
       <c r="AW38" s="63"/>
       <c r="AX38" s="62" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="AY38" s="62" t="s">
         <v>996</v>
@@ -32813,7 +32848,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="39" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="177" t="s">
         <v>208</v>
       </c>
@@ -32949,7 +32984,7 @@
       </c>
       <c r="AW39" s="63"/>
       <c r="AX39" s="62" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="AY39" s="62" t="s">
         <v>998</v>
@@ -32958,7 +32993,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="40" spans="2:55" s="193" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" s="193" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B40" s="178" t="s">
         <v>208</v>
       </c>
@@ -33089,14 +33124,14 @@
       <c r="AS40" s="183"/>
       <c r="AT40" s="184"/>
       <c r="AU40" s="188" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AV40" s="219">
         <v>43664</v>
       </c>
       <c r="AW40" s="214"/>
       <c r="AX40" s="189" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="AY40" s="190"/>
       <c r="AZ40" s="191"/>
@@ -33106,7 +33141,7 @@
       </c>
       <c r="BC40" s="246"/>
     </row>
-    <row r="41" spans="2:55" s="193" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" s="193" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="178" t="s">
         <v>208</v>
       </c>
@@ -33192,7 +33227,7 @@
       </c>
       <c r="AW41" s="214"/>
       <c r="AX41" s="189" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="AY41" s="190"/>
       <c r="AZ41" s="191"/>
@@ -33202,7 +33237,7 @@
       </c>
       <c r="BC41" s="246"/>
     </row>
-    <row r="42" spans="2:55" s="193" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" s="193" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="178" t="s">
         <v>208</v>
       </c>
@@ -33333,14 +33368,14 @@
       <c r="AS42" s="183"/>
       <c r="AT42" s="184"/>
       <c r="AU42" s="188" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AV42" s="219">
         <v>43664</v>
       </c>
       <c r="AW42" s="214"/>
       <c r="AX42" s="189" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AY42" s="190"/>
       <c r="AZ42" s="191"/>
@@ -33350,7 +33385,7 @@
       </c>
       <c r="BC42" s="246"/>
     </row>
-    <row r="43" spans="2:55" s="193" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" s="193" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="178" t="s">
         <v>208</v>
       </c>
@@ -33481,14 +33516,14 @@
       <c r="AS43" s="183"/>
       <c r="AT43" s="184"/>
       <c r="AU43" s="188" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AV43" s="219">
         <v>43664</v>
       </c>
       <c r="AW43" s="214"/>
       <c r="AX43" s="189" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AY43" s="190"/>
       <c r="AZ43" s="191"/>
@@ -33498,7 +33533,7 @@
       </c>
       <c r="BC43" s="246"/>
     </row>
-    <row r="44" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -33594,7 +33629,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="45" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
         <v>208</v>
       </c>
@@ -33725,12 +33760,12 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="24"/>
       <c r="AU45" s="143" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AV45" s="144"/>
       <c r="AW45" s="214"/>
       <c r="AX45" s="62" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AY45" s="78" t="s">
         <v>1000</v>
@@ -33739,7 +33774,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="2:55" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:55" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
         <v>208</v>
       </c>
@@ -33870,7 +33905,7 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="24"/>
       <c r="AU46" s="153" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AW46" s="214"/>
       <c r="AX46" s="62" t="s">
@@ -33883,7 +33918,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="2:55" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:55" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>208</v>
       </c>
@@ -33968,7 +34003,7 @@
       <c r="AS47" s="23"/>
       <c r="AT47" s="24"/>
       <c r="AU47" s="153" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AW47" s="132" t="s">
         <v>1004</v>
@@ -33980,7 +34015,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="2:55" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" ht="102" x14ac:dyDescent="0.2">
       <c r="B48" s="21" t="s">
         <v>206</v>
       </c>
@@ -34121,10 +34156,10 @@
         <v>43662</v>
       </c>
       <c r="AW48" s="214" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AX48" s="62" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AY48" s="62" t="s">
         <v>1006</v>
@@ -34133,7 +34168,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="49" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B49" s="177" t="s">
         <v>207</v>
       </c>
@@ -34275,7 +34310,7 @@
       </c>
       <c r="AW49" s="214"/>
       <c r="AX49" s="62" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="AY49" s="62" t="s">
         <v>1007</v>
@@ -34284,7 +34319,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="50" spans="2:54" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" ht="293.25" x14ac:dyDescent="0.2">
       <c r="B50" s="177" t="s">
         <v>207</v>
       </c>
@@ -34425,12 +34460,12 @@
         <v>43664</v>
       </c>
       <c r="AW50" s="214" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="AX50" s="62"/>
       <c r="BB50" s="61"/>
     </row>
-    <row r="51" spans="2:54" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B51" s="177" t="s">
         <v>207</v>
       </c>
@@ -34567,23 +34602,23 @@
         <v>371</v>
       </c>
       <c r="AU51" s="143" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AV51" s="212">
         <v>43669</v>
       </c>
       <c r="AW51" s="214" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="AX51" s="62" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="AY51" s="78"/>
       <c r="BB51" s="58" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="2:54" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B52" s="177" t="s">
         <v>207</v>
       </c>
@@ -34720,13 +34755,13 @@
         <v>371</v>
       </c>
       <c r="AU52" s="143" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AV52" s="212">
         <v>43669</v>
       </c>
       <c r="AW52" s="214" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="AX52" s="62" t="s">
         <v>1009</v>
@@ -34736,7 +34771,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="2:54" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B53" s="177" t="s">
         <v>207</v>
       </c>
@@ -34885,7 +34920,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B54" s="177" t="s">
         <v>207</v>
       </c>
@@ -35027,14 +35062,14 @@
       </c>
       <c r="AW54" s="214"/>
       <c r="AX54" s="62" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="AY54" s="70"/>
       <c r="BB54" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="2:54" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" ht="102" x14ac:dyDescent="0.2">
       <c r="B55" s="177" t="s">
         <v>207</v>
       </c>
@@ -35175,10 +35210,10 @@
         <v>43669</v>
       </c>
       <c r="AW55" s="214" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="AX55" s="62" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="AY55" s="65" t="s">
         <v>1011</v>
@@ -35187,7 +35222,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="56" spans="2:54" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" ht="102" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>207</v>
       </c>
@@ -35318,16 +35353,16 @@
         <v>369</v>
       </c>
       <c r="AU56" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV56" s="212">
         <v>43671</v>
       </c>
       <c r="AW56" s="214" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
-    <row r="57" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
         <v>208</v>
       </c>
@@ -35335,7 +35370,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E57" s="44" t="s">
         <v>320</v>
@@ -35458,19 +35493,19 @@
         <v>369</v>
       </c>
       <c r="AU57" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV57" s="212">
         <v>43671</v>
       </c>
       <c r="AW57" s="214" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="AX57" s="62" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
-    <row r="58" spans="2:54" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
         <v>208</v>
       </c>
@@ -35601,19 +35636,19 @@
         <v>369</v>
       </c>
       <c r="AU58" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV58" s="212">
         <v>43671</v>
       </c>
       <c r="AW58" s="214" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="AX58" s="62" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
-    <row r="59" spans="2:54" ht="132" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
         <v>207</v>
       </c>
@@ -35750,20 +35785,20 @@
         <v>371</v>
       </c>
       <c r="AU59" s="134" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AV59" s="221" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="AW59" s="214" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="AX59" s="62"/>
       <c r="AY59" s="62" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="60" spans="2:54" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" ht="102" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
         <v>208</v>
       </c>
@@ -35904,17 +35939,17 @@
         <v>43671</v>
       </c>
       <c r="AW60" s="214" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="AX60" s="62"/>
       <c r="AY60" s="62" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="BB60" s="174" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B61" s="21" t="s">
         <v>208</v>
       </c>
@@ -36051,20 +36086,20 @@
         <v>371</v>
       </c>
       <c r="AU61" s="139" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AV61" s="138" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AW61" s="214" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="AX61" s="62" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="AY61" s="78"/>
     </row>
-    <row r="62" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B62" s="21" t="s">
         <v>208</v>
       </c>
@@ -36201,20 +36236,20 @@
         <v>371</v>
       </c>
       <c r="AU62" s="139" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AV62" s="138" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AW62" s="214" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="AX62" s="62" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="AY62" s="78"/>
     </row>
-    <row r="63" spans="2:54" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>207</v>
       </c>
@@ -36351,17 +36386,17 @@
         <v>371</v>
       </c>
       <c r="AU63" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV63" s="163" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AW63" s="214"/>
       <c r="AX63" s="62" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
-    <row r="64" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B64" s="21" t="s">
         <v>207</v>
       </c>
@@ -36498,20 +36533,20 @@
         <v>371</v>
       </c>
       <c r="AU64" s="143" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="AV64" s="163" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AW64" s="214" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="AX64" s="62" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="AY64" s="78"/>
     </row>
-    <row r="65" spans="2:54" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B65" s="21" t="s">
         <v>207</v>
       </c>
@@ -36648,25 +36683,25 @@
         <v>371</v>
       </c>
       <c r="AU65" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV65" s="222" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="AW65" s="194" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="AX65" s="62" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="AY65" s="80" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="BB65" s="58" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B66" s="21" t="s">
         <v>207</v>
       </c>
@@ -36803,23 +36838,23 @@
         <v>371</v>
       </c>
       <c r="AU66" s="139" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AV66" s="212">
         <v>43671</v>
       </c>
       <c r="AW66" s="225"/>
       <c r="AX66" s="62" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="AY66" s="80" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="BB66" s="58" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="2:54" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>207</v>
       </c>
@@ -36956,22 +36991,22 @@
         <v>371</v>
       </c>
       <c r="AU67" s="162" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AV67" s="223" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AW67" s="225" t="s">
         <v>1324</v>
       </c>
-      <c r="AW67" s="225" t="s">
-        <v>1328</v>
-      </c>
       <c r="AX67" s="62" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="BB67" s="58" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B68" s="21" t="s">
         <v>207</v>
       </c>
@@ -37108,25 +37143,25 @@
         <v>371</v>
       </c>
       <c r="AU68" s="143" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AV68" s="223" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="AW68" s="225" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="AX68" s="62" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="AY68" s="80" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="BB68" s="58" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="2:54" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" ht="153" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>206</v>
       </c>
@@ -37264,15 +37299,15 @@
       </c>
       <c r="AU69" s="139"/>
       <c r="AV69" s="151" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="AW69" s="225" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
     </row>
-    <row r="70" spans="2:54" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="21" t="s">
         <v>207</v>
       </c>
@@ -37413,16 +37448,16 @@
         <v>43671</v>
       </c>
       <c r="AW70" s="225" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="AX70" s="63" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="BB70" s="220" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B71" s="21" t="s">
         <v>207</v>
       </c>
@@ -37563,16 +37598,16 @@
         <v>43671</v>
       </c>
       <c r="AW71" s="225" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="AX71" s="62" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="BB71" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
         <v>207</v>
       </c>
@@ -37713,16 +37748,16 @@
         <v>43671</v>
       </c>
       <c r="AW72" s="225" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="AX72" s="62" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="BB72" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
         <v>207</v>
       </c>
@@ -37863,16 +37898,16 @@
         <v>43671</v>
       </c>
       <c r="AW73" s="225" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="AX73" s="62" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="BB73" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B74" s="21" t="s">
         <v>207</v>
       </c>
@@ -38013,13 +38048,13 @@
         <v>43671</v>
       </c>
       <c r="AW74" s="225" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="AX74" s="62" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
-    <row r="75" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
         <v>207</v>
       </c>
@@ -38160,13 +38195,13 @@
         <v>43671</v>
       </c>
       <c r="AW75" s="225" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="AX75" s="62" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
-    <row r="76" spans="2:54" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>207</v>
       </c>
@@ -38303,25 +38338,25 @@
         <v>371</v>
       </c>
       <c r="AU76" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV76" s="224" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AW76" s="225" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="AX76" s="62" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="AY76" s="62" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="BB76" s="174" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="2:54" ht="132" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>207</v>
       </c>
@@ -38458,22 +38493,22 @@
         <v>371</v>
       </c>
       <c r="AU77" s="148" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="AV77" s="226" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="AW77" s="214" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="AX77" s="62" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="AY77" s="62" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
-    <row r="78" spans="2:54" ht="132" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B78" s="177" t="s">
         <v>206</v>
       </c>
@@ -38612,14 +38647,14 @@
       <c r="AU78" s="139"/>
       <c r="AW78" s="214"/>
       <c r="AX78" s="62" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="AY78" s="62"/>
       <c r="BB78" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="79" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B79" s="21" t="s">
         <v>207</v>
       </c>
@@ -38756,17 +38791,17 @@
         <v>371</v>
       </c>
       <c r="AU79" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW79" s="227"/>
       <c r="AX79" s="62" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="AY79" s="62" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
-    <row r="80" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
         <v>207</v>
       </c>
@@ -38903,25 +38938,25 @@
         <v>371</v>
       </c>
       <c r="AU80" s="139" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="AV80" s="212">
         <v>43678</v>
       </c>
       <c r="AW80" s="214" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="AX80" s="62" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="AY80" s="62" t="s">
         <v>1014</v>
       </c>
       <c r="BB80" s="174" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
-    <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="21" t="s">
         <v>207</v>
       </c>
@@ -39058,25 +39093,25 @@
         <v>371</v>
       </c>
       <c r="AU81" s="139" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="AV81" s="212">
         <v>43678</v>
       </c>
       <c r="AW81" s="214" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="AX81" s="62" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="AY81" s="62" t="s">
         <v>1015</v>
       </c>
       <c r="BB81" s="174" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
-    <row r="82" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B82" s="21" t="s">
         <v>207</v>
       </c>
@@ -39217,19 +39252,19 @@
         <v>43678</v>
       </c>
       <c r="AW82" s="214" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="AX82" s="62" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="AY82" s="83" t="s">
         <v>1016</v>
       </c>
       <c r="BB82" s="174" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
-    <row r="83" spans="2:54" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>207</v>
       </c>
@@ -39366,22 +39401,22 @@
         <v>371</v>
       </c>
       <c r="AU83" s="139" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AV83" s="231" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="AW83" s="214" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="AX83" s="62" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="AY83" s="62" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
-    <row r="84" spans="2:54" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" ht="229.5" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
         <v>207</v>
       </c>
@@ -39518,25 +39553,25 @@
         <v>371</v>
       </c>
       <c r="AU84" s="148" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AV84" s="226" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AW84" s="214" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AX84" s="62" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AY84" s="62" t="s">
         <v>1362</v>
-      </c>
-      <c r="AV84" s="226" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AW84" s="214" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AX84" s="62" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AY84" s="62" t="s">
-        <v>1366</v>
       </c>
       <c r="BB84" s="174" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="85" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
         <v>207</v>
       </c>
@@ -39673,22 +39708,22 @@
         <v>371</v>
       </c>
       <c r="AU85" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV85" s="226" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AW85" s="214" t="s">
         <v>1363</v>
       </c>
-      <c r="AW85" s="214" t="s">
-        <v>1367</v>
-      </c>
       <c r="AX85" s="62" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="BB85" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
         <v>206</v>
       </c>
@@ -39830,7 +39865,7 @@
       <c r="AX86" s="62"/>
       <c r="BB86" s="61"/>
     </row>
-    <row r="87" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
         <v>207</v>
       </c>
@@ -39971,13 +40006,13 @@
         <v>43697</v>
       </c>
       <c r="AW87" s="232" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="AX87" s="80" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
-    <row r="88" spans="2:54" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B88" s="21" t="s">
         <v>207</v>
       </c>
@@ -40114,25 +40149,25 @@
         <v>371</v>
       </c>
       <c r="AU88" s="235" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="AV88" s="236" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="AW88" s="232" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="AX88" s="62" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="AY88" s="80" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="BB88" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="2:54" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B89" s="21" t="s">
         <v>206</v>
       </c>
@@ -40269,13 +40304,13 @@
         <v>229</v>
       </c>
       <c r="AY89" s="175" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="BB89" s="61" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="90" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>207</v>
       </c>
@@ -40406,20 +40441,20 @@
       <c r="AS90" s="23"/>
       <c r="AT90" s="24"/>
       <c r="AU90" s="139" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="AV90" s="212">
         <v>43697</v>
       </c>
       <c r="AW90" s="232" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="AX90" s="80" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="AY90" s="84"/>
     </row>
-    <row r="91" spans="2:54" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>207</v>
       </c>
@@ -40550,25 +40585,25 @@
       <c r="AS91" s="23"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="134" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AV91" s="212">
         <v>43697</v>
       </c>
       <c r="AW91" s="232" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="AX91" s="62" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="AY91" s="175" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="BB91" s="58" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:54" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>207</v>
       </c>
@@ -40703,19 +40738,19 @@
         <v>43697</v>
       </c>
       <c r="AW92" s="212" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="AX92" s="62" t="s">
         <v>1021</v>
       </c>
       <c r="AY92" s="175" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="BB92" s="58" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="93" spans="2:54" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>207</v>
       </c>
@@ -40856,19 +40891,19 @@
         <v>43697</v>
       </c>
       <c r="AW93" s="142" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="AX93" s="80" t="s">
         <v>1022</v>
       </c>
       <c r="AY93" s="80" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="BB93" s="58" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="94" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B94" s="21" t="s">
         <v>207</v>
       </c>
@@ -40943,19 +40978,19 @@
         <v>43697</v>
       </c>
       <c r="AW94" s="142" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="AX94" s="62" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AY94" s="80" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="BB94" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B95" s="21" t="s">
         <v>207</v>
       </c>
@@ -41092,19 +41127,19 @@
         <v>369</v>
       </c>
       <c r="AU95" s="143" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AV95" s="233" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="AW95" s="214" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="AX95" s="62"/>
       <c r="AY95" s="62"/>
       <c r="BB95" s="174"/>
     </row>
-    <row r="96" spans="2:54" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B96" s="21" t="s">
         <v>207</v>
       </c>
@@ -41241,13 +41276,13 @@
         <v>369</v>
       </c>
       <c r="AU96" s="148" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AV96" s="233" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="AW96" s="214" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="AX96" s="62"/>
       <c r="AY96" s="62"/>
@@ -41255,7 +41290,7 @@
       <c r="BA96" s="230"/>
       <c r="BB96" s="229"/>
     </row>
-    <row r="97" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
         <v>207</v>
       </c>
@@ -41388,13 +41423,13 @@
         <v>369</v>
       </c>
       <c r="AU97" s="139" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AV97" s="233" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="AW97" s="214" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="AX97" s="62"/>
       <c r="AY97" s="62"/>
@@ -41402,7 +41437,7 @@
       <c r="BA97" s="230"/>
       <c r="BB97" s="229"/>
     </row>
-    <row r="98" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B98" s="21" t="s">
         <v>207</v>
       </c>
@@ -41543,7 +41578,7 @@
         <v>43697</v>
       </c>
       <c r="AW98" s="215" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="AX98" s="62" t="s">
         <v>1023</v>
@@ -41555,7 +41590,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="99" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>207</v>
       </c>
@@ -41650,13 +41685,13 @@
         <v>43697</v>
       </c>
       <c r="AW99" s="215" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="AX99" s="62" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="AY99" s="62" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="AZ99" s="230"/>
       <c r="BA99" s="230"/>
@@ -41664,7 +41699,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="100" spans="2:54" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B100" s="21" t="s">
         <v>207</v>
       </c>
@@ -41805,10 +41840,10 @@
         <v>43699</v>
       </c>
       <c r="AW100" s="215" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="AX100" s="62" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="AY100" s="80" t="s">
         <v>727</v>
@@ -41817,7 +41852,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="101" spans="2:54" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
         <v>207</v>
       </c>
@@ -41954,11 +41989,11 @@
         <v>369</v>
       </c>
       <c r="AU101" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW101" s="82"/>
     </row>
-    <row r="102" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B102" s="21" t="s">
         <v>208</v>
       </c>
@@ -42099,17 +42134,17 @@
         <v>43699</v>
       </c>
       <c r="AW102" s="215" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="AX102" s="62" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="AY102" s="62"/>
       <c r="BB102" s="61" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="s">
         <v>208</v>
       </c>
@@ -42250,16 +42285,16 @@
         <v>43699</v>
       </c>
       <c r="AW103" s="215" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="AX103" s="62" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="BB103" s="61" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="2:54" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
         <v>207</v>
       </c>
@@ -42396,16 +42431,16 @@
         <v>369</v>
       </c>
       <c r="AU104" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV104" s="212">
         <v>43699</v>
       </c>
       <c r="AW104" s="215" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="AX104" s="62" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="AY104" s="62" t="s">
         <v>1026</v>
@@ -42414,7 +42449,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="105" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="s">
         <v>208</v>
       </c>
@@ -42555,13 +42590,13 @@
         <v>43699</v>
       </c>
       <c r="AW105" s="215" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="AX105" s="80" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
-    <row r="106" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>208</v>
       </c>
@@ -42702,10 +42737,10 @@
         <v>43699</v>
       </c>
       <c r="AW106" s="215" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="AX106" s="62" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="AY106" s="62" t="s">
         <v>1027</v>
@@ -42714,7 +42749,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="107" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B107" s="21" t="s">
         <v>208</v>
       </c>
@@ -42855,10 +42890,10 @@
         <v>43699</v>
       </c>
       <c r="AW107" s="215" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="AX107" s="62" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="AY107" s="62" t="s">
         <v>1028</v>
@@ -42867,7 +42902,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="108" spans="2:54" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B108" s="21" t="s">
         <v>208</v>
       </c>
@@ -43004,25 +43039,25 @@
         <v>369</v>
       </c>
       <c r="AU108" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV108" s="212">
         <v>43699</v>
       </c>
       <c r="AW108" s="215" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="AX108" s="80" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="AY108" s="80" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="BB108" s="58" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="2:54" ht="66" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
         <v>208</v>
       </c>
@@ -43160,19 +43195,19 @@
       </c>
       <c r="AU109" s="155"/>
       <c r="AV109" s="163" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="AW109" s="215" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="AX109" s="80" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="BB109" s="58" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B110" s="21" t="s">
         <v>206</v>
       </c>
@@ -43309,19 +43344,19 @@
         <v>369</v>
       </c>
       <c r="AU110" s="139" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="AV110" s="212">
         <v>43704</v>
       </c>
       <c r="AW110" s="214" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="AX110" s="62" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
-    <row r="111" spans="2:54" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B111" s="21" t="s">
         <v>207</v>
       </c>
@@ -43462,16 +43497,16 @@
         <v>43704</v>
       </c>
       <c r="AW111" s="214" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="AX111" s="62" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="BB111" s="234" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B112" s="21" t="s">
         <v>207</v>
       </c>
@@ -43612,16 +43647,16 @@
         <v>43706</v>
       </c>
       <c r="AW112" s="214" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="AX112" s="62" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="BB112" s="61" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="113" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>208</v>
       </c>
@@ -43762,19 +43797,19 @@
         <v>43706</v>
       </c>
       <c r="AW113" s="214" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="AX113" s="62" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="AY113" s="80" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="BB113" s="61" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="114" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B114" s="21" t="s">
         <v>208</v>
       </c>
@@ -43915,19 +43950,19 @@
         <v>43706</v>
       </c>
       <c r="AW114" s="214" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="AX114" s="80" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AY114" s="80" t="s">
         <v>1420</v>
-      </c>
-      <c r="AY114" s="80" t="s">
-        <v>1424</v>
       </c>
       <c r="BB114" s="58" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="115" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B115" s="21" t="s">
         <v>207</v>
       </c>
@@ -44068,19 +44103,19 @@
         <v>43706</v>
       </c>
       <c r="AW115" s="214" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="AX115" s="62" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="AY115" s="80" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BB115" s="172" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B116" s="21" t="s">
         <v>207</v>
       </c>
@@ -44221,19 +44256,19 @@
         <v>43711</v>
       </c>
       <c r="AW116" s="214" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="AX116" s="62" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="AY116" s="62" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="BB116" s="172" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B117" s="21" t="s">
         <v>207</v>
       </c>
@@ -44374,16 +44409,16 @@
         <v>43711</v>
       </c>
       <c r="AW117" s="214" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="AX117" s="62" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="BB117" s="172" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="2:54" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:54" ht="102" x14ac:dyDescent="0.2">
       <c r="B118" s="21" t="s">
         <v>207</v>
       </c>
@@ -44520,22 +44555,22 @@
         <v>369</v>
       </c>
       <c r="AU118" s="139" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="AV118" s="212">
         <v>43711</v>
       </c>
       <c r="AW118" s="214" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="AX118" s="62" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="BB118" s="238" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="2:54" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
         <v>207</v>
       </c>
@@ -44672,22 +44707,22 @@
         <v>369</v>
       </c>
       <c r="AU119" s="237" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="AV119" s="212">
         <v>43711</v>
       </c>
       <c r="AW119" s="214" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="AX119" s="62" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="BB119" s="172" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="2:54" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>206</v>
       </c>
@@ -44824,22 +44859,22 @@
         <v>369</v>
       </c>
       <c r="AU120" s="239" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="AV120" s="212">
         <v>43713</v>
       </c>
       <c r="AW120" s="214" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="AX120" s="80" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BB120" s="240" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="121" spans="2:54" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B121" s="21" t="s">
         <v>207</v>
       </c>
@@ -44976,7 +45011,7 @@
         <v>369</v>
       </c>
       <c r="AU121" s="139" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="AV121" s="212">
         <v>43713</v>
@@ -44984,13 +45019,13 @@
       <c r="AW121" s="227"/>
       <c r="AX121" s="62"/>
       <c r="AY121" s="62" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="BB121" s="61" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="122" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B122" s="21" t="s">
         <v>206</v>
       </c>
@@ -45121,16 +45156,16 @@
         <v>369</v>
       </c>
       <c r="AU122" s="139" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="AV122" s="212">
         <v>43713</v>
       </c>
       <c r="AW122" s="214" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="AX122" s="62" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="AY122" s="62" t="s">
         <v>1033</v>
@@ -45139,7 +45174,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="123" spans="2:54" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:54" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B123" s="21" t="s">
         <v>207</v>
       </c>
@@ -45280,16 +45315,16 @@
         <v>43713</v>
       </c>
       <c r="AW123" s="214" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="AX123" s="62" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="AY123" s="62" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
-    <row r="124" spans="2:54" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:54" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B124" s="21" t="s">
         <v>207</v>
       </c>
@@ -45382,22 +45417,22 @@
       <c r="AS124" s="23"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="134" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AV124" s="212">
         <v>43713</v>
       </c>
       <c r="AW124" s="214" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="AX124" s="62" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="AY124" s="62" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
-    <row r="125" spans="2:54" ht="66" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:54" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B125" s="21" t="s">
         <v>207</v>
       </c>
@@ -45490,7 +45525,7 @@
       <c r="AS125" s="23"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="139" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="AV125" s="212">
         <v>43713</v>
@@ -45506,7 +45541,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="126" spans="2:54" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:54" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B126" s="21" t="s">
         <v>207</v>
       </c>
@@ -45603,16 +45638,16 @@
         <v>43713</v>
       </c>
       <c r="AW126" s="214" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="AX126" s="62" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="BB126" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="2:54" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:54" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>207</v>
       </c>
@@ -45709,10 +45744,10 @@
         <v>43713</v>
       </c>
       <c r="AW127" s="214" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="AX127" s="62" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="AY127" s="80" t="s">
         <v>1035</v>
@@ -45721,7 +45756,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="128" spans="2:54" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:54" ht="51" x14ac:dyDescent="0.2">
       <c r="B128" s="21" t="s">
         <v>207</v>
       </c>
@@ -45858,7 +45893,7 @@
       <c r="AU128" s="139"/>
       <c r="AW128" s="79"/>
     </row>
-    <row r="129" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
         <v>207</v>
       </c>
@@ -45947,11 +45982,11 @@
       <c r="AS129" s="23"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="139" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="AW129" s="79"/>
     </row>
-    <row r="130" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
         <v>208</v>
       </c>
@@ -46052,11 +46087,11 @@
       <c r="AS130" s="23"/>
       <c r="AT130" s="24"/>
       <c r="AU130" s="139" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="AW130" s="79"/>
     </row>
-    <row r="131" spans="2:55" s="105" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B131" s="95" t="s">
         <v>208</v>
       </c>
@@ -46146,13 +46181,13 @@
       <c r="AT131" s="101"/>
       <c r="AU131" s="139"/>
       <c r="AV131" s="221" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="AW131" s="151" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="AX131" s="69" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="AY131" s="70"/>
       <c r="AZ131" s="66"/>
@@ -46162,7 +46197,7 @@
       </c>
       <c r="BC131" s="246"/>
     </row>
-    <row r="132" spans="2:55" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:55" s="105" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="95" t="s">
         <v>208</v>
       </c>
@@ -46252,13 +46287,13 @@
       <c r="AT132" s="101"/>
       <c r="AU132" s="139"/>
       <c r="AV132" s="221" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="AW132" s="163" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="AX132" s="69" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="AY132" s="70"/>
       <c r="AZ132" s="66"/>
@@ -46268,7 +46303,7 @@
       </c>
       <c r="BC132" s="246"/>
     </row>
-    <row r="133" spans="2:55" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
         <v>206</v>
       </c>
@@ -46407,7 +46442,7 @@
       <c r="AU133" s="139"/>
       <c r="AW133" s="79"/>
     </row>
-    <row r="134" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>207</v>
       </c>
@@ -46546,7 +46581,7 @@
       <c r="AU134" s="139"/>
       <c r="AW134" s="79"/>
     </row>
-    <row r="135" spans="2:55" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:55" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="21" t="s">
         <v>207</v>
       </c>
@@ -46683,22 +46718,22 @@
         <v>369</v>
       </c>
       <c r="AU135" s="150" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="AV135" s="231" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="AW135" s="214" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="AX135" s="62" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="BB135" s="61" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="2:55" ht="132" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B136" s="21" t="s">
         <v>207</v>
       </c>
@@ -46835,25 +46870,25 @@
         <v>369</v>
       </c>
       <c r="AU136" s="139" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="AV136" s="212">
         <v>43718</v>
       </c>
       <c r="AW136" s="63" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="AX136" s="62" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="AY136" s="62" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="BB136" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="137" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
         <v>207</v>
       </c>
@@ -46990,25 +47025,25 @@
         <v>369</v>
       </c>
       <c r="AU137" s="139" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="AV137" s="212">
         <v>43720</v>
       </c>
       <c r="AW137" s="244" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="AX137" s="80" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="AY137" s="80" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="BB137" s="58" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="138" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B138" s="21" t="s">
         <v>207</v>
       </c>
@@ -47145,25 +47180,25 @@
         <v>369</v>
       </c>
       <c r="AU138" s="139" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="AV138" s="212">
         <v>43720</v>
       </c>
       <c r="AW138" s="244" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AX138" s="80" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="AY138" s="80" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="BB138" s="61" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="139" spans="2:55" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:55" ht="105" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
         <v>207</v>
       </c>
@@ -47252,25 +47287,25 @@
       <c r="AS139" s="23"/>
       <c r="AT139" s="24"/>
       <c r="AU139" s="148" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AV139" s="226" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="AW139" s="245" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="AX139" s="62" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="AY139" s="62" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="BB139" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="140" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B140" s="21" t="s">
         <v>206</v>
       </c>
@@ -47382,7 +47417,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="141" spans="2:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>207</v>
       </c>
@@ -47523,16 +47558,16 @@
         <v>43720</v>
       </c>
       <c r="AW141" s="245" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="AX141" s="62" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="BB141" s="242" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="2:55" ht="132" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B142" s="21" t="s">
         <v>207</v>
       </c>
@@ -47633,19 +47668,19 @@
         <v>371</v>
       </c>
       <c r="AU142" s="241" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="AV142" s="212">
         <v>43720</v>
       </c>
       <c r="AW142" s="245" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="AX142" s="62" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="AY142" s="80" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="AZ142" s="243"/>
       <c r="BA142" s="243"/>
@@ -47653,7 +47688,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="2:55" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:55" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B143" s="21" t="s">
         <v>207</v>
       </c>
@@ -47748,25 +47783,25 @@
         <v>371</v>
       </c>
       <c r="AU143" s="148" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AV143" s="226" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AW143" s="245" t="s">
         <v>1490</v>
       </c>
-      <c r="AV143" s="226" t="s">
-        <v>1491</v>
-      </c>
-      <c r="AW143" s="245" t="s">
-        <v>1494</v>
-      </c>
       <c r="AX143" s="62" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="AY143" s="62" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="BB143" s="172" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="144" spans="2:55" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:55" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" s="21" t="s">
         <v>207</v>
       </c>
@@ -47903,16 +47938,16 @@
         <v>371</v>
       </c>
       <c r="AU144" s="148" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="AV144" s="226" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="AW144" s="245" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="AX144" s="62" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="AY144" s="62" t="s">
         <v>737</v>
@@ -47922,7 +47957,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="2:55" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B145" s="21" t="s">
         <v>207</v>
       </c>
@@ -48063,20 +48098,20 @@
         <v>43720</v>
       </c>
       <c r="AW145" s="245" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="AX145" s="62" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="AY145" s="62" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AZ145" s="173"/>
       <c r="BB145" s="242" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B146" s="21" t="s">
         <v>207</v>
       </c>
@@ -48175,20 +48210,20 @@
         <v>43720</v>
       </c>
       <c r="AW146" s="245" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="AX146" s="62" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="AY146" s="62" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="AZ146" s="173"/>
       <c r="BB146" s="242" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="2:55" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:55" ht="165.75" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
         <v>207</v>
       </c>
@@ -48325,25 +48360,25 @@
         <v>371</v>
       </c>
       <c r="AU147" s="148" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AV147" s="226" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AW147" s="63" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AX147" s="62" t="s">
         <v>1503</v>
       </c>
-      <c r="AV147" s="226" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AW147" s="63" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AX147" s="62" t="s">
-        <v>1507</v>
-      </c>
       <c r="AY147" s="62" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="BB147" s="174" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>207</v>
       </c>
@@ -48442,19 +48477,19 @@
         <v>43720</v>
       </c>
       <c r="AW148" s="245" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="AX148" s="62" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="AY148" s="62" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="BB148" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B149" s="21" t="s">
         <v>207</v>
       </c>
@@ -48553,19 +48588,19 @@
         <v>43720</v>
       </c>
       <c r="AW149" s="245" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="AX149" s="62" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="AY149" s="62" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="BB149" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="150" spans="2:55" s="116" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:55" s="116" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="B150" s="106" t="s">
         <v>207</v>
       </c>
@@ -48674,19 +48709,19 @@
         <v>369</v>
       </c>
       <c r="AU150" s="161" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AV150" s="212">
         <v>43725</v>
       </c>
       <c r="AW150" s="245" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="AX150" s="62" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="AY150" s="88" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="AZ150" s="89"/>
       <c r="BA150" s="89"/>
@@ -48694,10 +48729,10 @@
         <v>321</v>
       </c>
       <c r="BC150" s="246" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
-    <row r="151" spans="2:55" s="116" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B151" s="106" t="s">
         <v>207</v>
       </c>
@@ -48832,19 +48867,19 @@
         <v>369</v>
       </c>
       <c r="AU151" s="139" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AV151" s="88">
         <v>20190917</v>
       </c>
       <c r="AW151" s="245" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="AX151" s="62" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="AY151" s="87" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="AZ151" s="89"/>
       <c r="BA151" s="89"/>
@@ -48852,10 +48887,10 @@
         <v>1039</v>
       </c>
       <c r="BC151" s="246" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
-    <row r="152" spans="2:55" s="116" customFormat="1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:55" s="116" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="B152" s="106" t="s">
         <v>207</v>
       </c>
@@ -48952,13 +48987,13 @@
         <v>20190917</v>
       </c>
       <c r="AW152" s="245" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="AX152" s="62" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="AY152" s="87" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="AZ152" s="89"/>
       <c r="BA152" s="89"/>
@@ -48966,10 +49001,10 @@
         <v>1039</v>
       </c>
       <c r="BC152" s="246" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
-    <row r="153" spans="2:55" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:55" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="21" t="s">
         <v>206</v>
       </c>
@@ -49104,19 +49139,19 @@
         <v>20190917</v>
       </c>
       <c r="AW153" s="245" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="AX153" s="62" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="AY153" s="62" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="BC153" s="246" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
-    <row r="154" spans="2:55" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:55" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="21" t="s">
         <v>207</v>
       </c>
@@ -49251,17 +49286,17 @@
         <v>20190917</v>
       </c>
       <c r="AW154" s="245" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="AX154" s="62" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="AY154" s="62"/>
       <c r="BC154" s="246" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
-    <row r="155" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>207</v>
       </c>
@@ -49403,10 +49438,10 @@
         <v>976</v>
       </c>
       <c r="BC155" s="246" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
-    <row r="156" spans="2:55" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:55" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B156" s="21" t="s">
         <v>208</v>
       </c>
@@ -49537,26 +49572,26 @@
       <c r="AS156" s="23"/>
       <c r="AT156" s="24"/>
       <c r="AU156" s="139" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="AV156" s="142">
         <v>20190917</v>
       </c>
       <c r="AW156" s="245" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="AX156" s="62" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="AY156" s="68"/>
       <c r="BB156" s="61" t="s">
         <v>1030</v>
       </c>
       <c r="BC156" s="247" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
-    <row r="157" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B157" s="21" t="s">
         <v>208</v>
       </c>
@@ -49679,19 +49714,19 @@
         <v>20190917</v>
       </c>
       <c r="AW157" s="245" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="AX157" s="62" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="AY157" s="62" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="BC157" s="246" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
-    <row r="158" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B158" s="21" t="s">
         <v>208</v>
       </c>
@@ -49826,19 +49861,19 @@
         <v>20190917</v>
       </c>
       <c r="AW158" s="245" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="AX158" s="62" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="AY158" s="80" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="BC158" s="246" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
-    <row r="159" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B159" s="21" t="s">
         <v>208</v>
       </c>
@@ -49959,10 +49994,10 @@
       <c r="AU159" s="139"/>
       <c r="AW159" s="79"/>
       <c r="BC159" s="246" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
-    <row r="160" spans="2:55" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:55" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="21" t="s">
         <v>209</v>
       </c>
@@ -50093,25 +50128,25 @@
       <c r="AS160" s="23"/>
       <c r="AT160" s="24"/>
       <c r="AU160" s="140" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="AV160" s="163">
         <v>20190917</v>
       </c>
       <c r="AW160" s="63" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="AX160" s="62" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="AY160" s="80" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="BC160" s="246" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
-    <row r="161" spans="2:61" s="105" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:61" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B161" s="95" t="s">
         <v>209</v>
       </c>
@@ -50230,19 +50265,19 @@
       <c r="AS161" s="100"/>
       <c r="AT161" s="101"/>
       <c r="AU161" s="139" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="AV161" s="163">
         <v>20190917</v>
       </c>
       <c r="AW161" s="63" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="AX161" s="62" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="AY161" s="80" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="AZ161" s="66"/>
       <c r="BA161" s="66"/>
@@ -50250,10 +50285,10 @@
         <v>321</v>
       </c>
       <c r="BC161" s="246" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
-    <row r="162" spans="2:61" s="105" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:61" s="105" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="95" t="s">
         <v>209</v>
       </c>
@@ -50372,19 +50407,19 @@
       <c r="AS162" s="100"/>
       <c r="AT162" s="101"/>
       <c r="AU162" s="139" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="AV162" s="163">
         <v>20190917</v>
       </c>
       <c r="AW162" s="63" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="AX162" s="62" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="AY162" s="62" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="AZ162" s="66"/>
       <c r="BA162" s="66"/>
@@ -50392,10 +50427,10 @@
         <v>321</v>
       </c>
       <c r="BC162" s="246" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
-    <row r="163" spans="2:61" s="105" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:61" s="105" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="95" t="s">
         <v>209</v>
       </c>
@@ -50514,19 +50549,19 @@
       <c r="AS163" s="100"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="139" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="AV163" s="163">
         <v>20190917</v>
       </c>
       <c r="AW163" s="63" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="AX163" s="62" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="AY163" s="62" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="AZ163" s="66"/>
       <c r="BA163" s="66"/>
@@ -50534,10 +50569,10 @@
         <v>321</v>
       </c>
       <c r="BC163" s="246" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
-    <row r="164" spans="2:61" ht="132" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:61" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B164" s="21" t="s">
         <v>207</v>
       </c>
@@ -50672,19 +50707,19 @@
         <v>20190919</v>
       </c>
       <c r="AW164" s="79" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="AX164" s="80" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="AY164" s="80" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="BC164" s="246" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="2:61" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:61" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B165" s="21" t="s">
         <v>207</v>
       </c>
@@ -50807,13 +50842,13 @@
         <v>20190919</v>
       </c>
       <c r="AW165" s="63" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="AX165" s="80" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="AY165" s="80" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="BB165" s="58" t="s">
         <v>324</v>
@@ -50822,7 +50857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="2:61" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:61" ht="153" x14ac:dyDescent="0.2">
       <c r="B166" s="21" t="s">
         <v>206</v>
       </c>
@@ -50964,13 +50999,13 @@
       </c>
       <c r="AW166" s="79"/>
       <c r="AY166" s="62" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="BC166" s="246" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
-    <row r="167" spans="2:61" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:61" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B167" s="21" t="s">
         <v>207</v>
       </c>
@@ -51109,19 +51144,19 @@
         <v>20190919</v>
       </c>
       <c r="AW167" s="63" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="AX167" s="62" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="BB167" s="248" t="s">
         <v>320</v>
       </c>
       <c r="BC167" s="246" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
-    <row r="168" spans="2:61" s="105" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:61" s="105" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="95" t="s">
         <v>207</v>
       </c>
@@ -51248,19 +51283,19 @@
         <v>369</v>
       </c>
       <c r="AU168" s="139" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="AV168" s="163">
         <v>20190919</v>
       </c>
       <c r="AW168" s="64" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="AX168" s="65" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="AY168" s="65" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="AZ168" s="66"/>
       <c r="BA168" s="66"/>
@@ -51268,10 +51303,10 @@
         <v>321</v>
       </c>
       <c r="BC168" s="247" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
-    <row r="169" spans="2:61" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:61" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>207</v>
       </c>
@@ -51360,24 +51395,24 @@
       <c r="AS169" s="23"/>
       <c r="AT169" s="24"/>
       <c r="AU169" s="145" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="AV169" s="151">
         <v>20190926</v>
       </c>
       <c r="AW169" s="214" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="AX169" s="62" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="AY169" s="62"/>
       <c r="BB169" s="249"/>
       <c r="BC169" s="246" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
-    <row r="170" spans="2:61" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:61" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B170" s="21" t="s">
         <v>207</v>
       </c>
@@ -51514,28 +51549,28 @@
         <v>369</v>
       </c>
       <c r="AU170" s="139" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="AV170" s="151">
         <v>20190926</v>
       </c>
       <c r="AW170" s="214" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="AX170" s="62" t="s">
         <v>1042</v>
       </c>
       <c r="AY170" s="62" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="BB170" s="249" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="BC170" s="246" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
-    <row r="171" spans="2:61" ht="132" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:61" ht="127.5" x14ac:dyDescent="0.25">
       <c r="B171" s="21" t="s">
         <v>207</v>
       </c>
@@ -51672,16 +51707,16 @@
         <v>369</v>
       </c>
       <c r="AU171" s="148" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AV171" s="151">
         <v>20190926</v>
       </c>
       <c r="AW171" s="214" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="AX171" s="62" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="AY171" s="62" t="s">
         <v>1043</v>
@@ -51690,10 +51725,10 @@
         <v>324</v>
       </c>
       <c r="BC171" s="246" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
-    <row r="172" spans="2:61" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:61" ht="240" x14ac:dyDescent="0.25">
       <c r="B172" s="21" t="s">
         <v>207</v>
       </c>
@@ -51830,28 +51865,28 @@
         <v>369</v>
       </c>
       <c r="AU172" s="148" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AV172" s="151">
         <v>20190926</v>
       </c>
       <c r="AW172" s="214" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="AX172" s="62" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="AY172" s="62" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="BB172" s="249" t="s">
         <v>324</v>
       </c>
       <c r="BC172" s="246" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
-    <row r="173" spans="2:61" s="105" customFormat="1" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:61" s="105" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B173" s="95" t="s">
         <v>207</v>
       </c>
@@ -51956,19 +51991,19 @@
       <c r="AS173" s="100"/>
       <c r="AT173" s="101"/>
       <c r="AU173" s="139" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="AV173" s="250">
         <v>20190930</v>
       </c>
       <c r="AW173" s="63" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="AX173" s="62" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="AY173" s="80" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="AZ173" s="80"/>
       <c r="BA173" s="80"/>
@@ -51976,10 +52011,10 @@
         <v>321</v>
       </c>
       <c r="BC173" s="247" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
-    <row r="174" spans="2:61" ht="264" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:61" ht="255" x14ac:dyDescent="0.2">
       <c r="B174" s="21" t="s">
         <v>207</v>
       </c>
@@ -52116,16 +52151,16 @@
         <v>369</v>
       </c>
       <c r="AU174" s="149" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AV174" s="138" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AW174" s="214" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="AX174" s="62" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AY174" s="80" t="s">
         <v>1044</v>
@@ -52134,13 +52169,13 @@
         <v>328</v>
       </c>
       <c r="BC174" s="246" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="BD174" s="257" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="BE174" s="62" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="BF174" s="80" t="s">
         <v>1044</v>
@@ -52151,7 +52186,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="2:61" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:61" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>207</v>
       </c>
@@ -52262,10 +52297,10 @@
         <v>20190930</v>
       </c>
       <c r="AW175" s="214" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="AX175" s="62" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="AY175" s="80" t="s">
         <v>1045</v>
@@ -52276,7 +52311,7 @@
         <v>976</v>
       </c>
       <c r="BC175" s="246" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="BD175" s="257"/>
       <c r="BE175" s="62"/>
@@ -52285,7 +52320,7 @@
       <c r="BH175" s="255"/>
       <c r="BI175" s="255"/>
     </row>
-    <row r="176" spans="2:61" ht="198" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:61" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B176" s="21" t="s">
         <v>207</v>
       </c>
@@ -52422,22 +52457,22 @@
         <v>369</v>
       </c>
       <c r="AU176" s="149" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="AV176" s="163">
         <v>20190930</v>
       </c>
       <c r="AW176" s="214" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="AX176" s="62" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="AZ176" s="255"/>
       <c r="BA176" s="255"/>
       <c r="BB176" s="255"/>
       <c r="BC176" s="247" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="BD176" s="257"/>
       <c r="BE176" s="62"/>
@@ -52446,7 +52481,7 @@
       <c r="BH176" s="255"/>
       <c r="BI176" s="255"/>
     </row>
-    <row r="177" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B177" s="21" t="s">
         <v>207</v>
       </c>
@@ -52577,19 +52612,19 @@
       <c r="AS177" s="23"/>
       <c r="AT177" s="24"/>
       <c r="AU177" s="253" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AV177" s="163" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="AW177" s="214" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="AX177" s="62" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="AY177" s="62" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="AZ177" s="255"/>
       <c r="BA177" s="255"/>
@@ -52597,10 +52632,10 @@
         <v>324</v>
       </c>
       <c r="BC177" s="246" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
-    <row r="178" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B178" s="21" t="s">
         <v>206</v>
       </c>
@@ -52739,7 +52774,7 @@
       <c r="AU178" s="139"/>
       <c r="AW178" s="214"/>
     </row>
-    <row r="179" spans="2:55" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:55" ht="153" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>207</v>
       </c>
@@ -52880,19 +52915,19 @@
         <v>201901001</v>
       </c>
       <c r="AW179" s="214" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="AX179" s="80" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="BB179" s="58" t="s">
         <v>976</v>
       </c>
       <c r="BC179" s="246" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
-    <row r="180" spans="2:55" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:55" ht="153" x14ac:dyDescent="0.2">
       <c r="B180" s="21" t="s">
         <v>207</v>
       </c>
@@ -53027,20 +53062,20 @@
         <v>201901001</v>
       </c>
       <c r="AW180" s="214" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="AX180" s="80" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="AY180" s="62"/>
       <c r="BB180" s="61" t="s">
         <v>976</v>
       </c>
       <c r="BC180" s="246" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
-    <row r="181" spans="2:55" ht="198" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:55" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B181" s="21" t="s">
         <v>207</v>
       </c>
@@ -53175,19 +53210,19 @@
         <v>201901001</v>
       </c>
       <c r="AW181" s="214" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="AX181" s="80" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="BB181" s="61" t="s">
         <v>999</v>
       </c>
       <c r="BC181" s="246" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
-    <row r="182" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>207</v>
       </c>
@@ -53325,13 +53360,13 @@
       </c>
       <c r="AU182" s="139"/>
       <c r="AW182" s="214" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="BC182" s="246" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
-    <row r="183" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B183" s="21" t="s">
         <v>207</v>
       </c>
@@ -53451,13 +53486,13 @@
       </c>
       <c r="AU183" s="222"/>
       <c r="AW183" s="214" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="BC183" s="246" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
-    <row r="184" spans="2:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B184" s="21" t="s">
         <v>207</v>
       </c>
@@ -53598,19 +53633,19 @@
         <v>201901001</v>
       </c>
       <c r="AW184" s="214" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="AX184" s="62" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="BB184" s="256" t="s">
         <v>322</v>
       </c>
       <c r="BC184" s="246" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
-    <row r="185" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B185" s="21" t="s">
         <v>207</v>
       </c>
@@ -53751,19 +53786,19 @@
         <v>201901001</v>
       </c>
       <c r="AW185" s="214" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="AX185" s="62" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="BB185" s="61" t="s">
         <v>322</v>
       </c>
       <c r="BC185" s="246" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
-    <row r="186" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B186" s="21" t="s">
         <v>206</v>
       </c>
@@ -53870,7 +53905,7 @@
       <c r="AU186" s="139"/>
       <c r="AW186" s="163"/>
     </row>
-    <row r="187" spans="2:55" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:55" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="21" t="s">
         <v>207</v>
       </c>
@@ -53979,19 +54014,19 @@
         <v>201901001</v>
       </c>
       <c r="AW187" s="214" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="AX187" s="62" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="BB187" s="256" t="s">
         <v>320</v>
       </c>
       <c r="BC187" s="246" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
-    <row r="188" spans="2:55" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:55" ht="153" x14ac:dyDescent="0.25">
       <c r="B188" s="21" t="s">
         <v>207</v>
       </c>
@@ -54128,25 +54163,25 @@
         <v>369</v>
       </c>
       <c r="AU188" s="156" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="AV188" s="151" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="AW188" s="214" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="AX188" s="62" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="BB188" s="172" t="s">
         <v>999</v>
       </c>
       <c r="BC188" s="246" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
-    <row r="189" spans="2:55" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:55" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>207</v>
       </c>
@@ -54283,30 +54318,32 @@
         <v>369</v>
       </c>
       <c r="AU189" s="135" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AV189" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW189" s="79"/>
+      <c r="AW189" s="298" t="s">
+        <v>1577</v>
+      </c>
       <c r="AX189" s="62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AY189" s="62" t="s">
         <v>1048</v>
-      </c>
-      <c r="AY189" s="62" t="s">
-        <v>1049</v>
       </c>
       <c r="BB189" s="61" t="s">
         <v>976</v>
       </c>
       <c r="BC189" s="246" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
-    <row r="190" spans="2:55" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:55" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C190" s="295" t="s">
+      <c r="C190" s="259" t="s">
         <v>479</v>
       </c>
       <c r="D190" s="42" t="s">
@@ -54407,26 +54444,28 @@
       <c r="AS190" s="23"/>
       <c r="AT190" s="24"/>
       <c r="AU190" s="93" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AV190" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW190" s="79"/>
+      <c r="AW190" s="298" t="s">
+        <v>1578</v>
+      </c>
       <c r="AX190" s="62" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AY190" s="62" t="s">
         <v>1050</v>
-      </c>
-      <c r="AY190" s="62" t="s">
-        <v>1051</v>
       </c>
       <c r="BB190" s="61" t="s">
         <v>976</v>
       </c>
       <c r="BC190" s="246" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
-    <row r="191" spans="2:55" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:55" ht="150" x14ac:dyDescent="0.2">
       <c r="B191" s="21" t="s">
         <v>207</v>
       </c>
@@ -54563,25 +54602,25 @@
         <v>369</v>
       </c>
       <c r="AU191" s="135" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AV191" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW191" s="82" t="s">
-        <v>1046</v>
+      <c r="AW191" s="298" t="s">
+        <v>1579</v>
       </c>
       <c r="AX191" s="62" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BB191" s="61" t="s">
         <v>328</v>
       </c>
       <c r="BC191" s="246" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
-    <row r="192" spans="2:55" ht="244.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:55" ht="270" x14ac:dyDescent="0.2">
       <c r="B192" s="21" t="s">
         <v>207</v>
       </c>
@@ -54718,17 +54757,19 @@
         <v>369</v>
       </c>
       <c r="AU192" s="136" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AV192" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW192" s="79"/>
+      <c r="AW192" s="298" t="s">
+        <v>1640</v>
+      </c>
       <c r="BC192" s="246" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="193" spans="1:55" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:55" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="21" t="s">
         <v>207</v>
       </c>
@@ -54865,17 +54906,19 @@
         <v>369</v>
       </c>
       <c r="AU193" s="135" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="AV193" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW193" s="79"/>
-      <c r="BC193" s="246" t="s">
-        <v>1584</v>
+      <c r="AW193" s="298" t="s">
+        <v>1580</v>
+      </c>
+      <c r="BC193" s="247" t="s">
+        <v>1580</v>
       </c>
     </row>
-    <row r="194" spans="1:55" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:55" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="21" t="s">
         <v>207</v>
       </c>
@@ -55012,25 +55055,25 @@
         <v>369</v>
       </c>
       <c r="AU194" s="137" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AV194" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW194" s="82" t="s">
-        <v>1038</v>
+      <c r="AW194" s="298" t="s">
+        <v>1581</v>
       </c>
       <c r="AX194" s="62" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="BB194" s="172" t="s">
-        <v>1047</v>
-      </c>
-      <c r="BC194" s="246" t="s">
-        <v>1585</v>
+        <v>1046</v>
+      </c>
+      <c r="BC194" s="247" t="s">
+        <v>1581</v>
       </c>
     </row>
-    <row r="195" spans="1:55" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:55" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="21" t="s">
         <v>206</v>
       </c>
@@ -55125,7 +55168,7 @@
       <c r="AU195" s="139"/>
       <c r="AW195" s="79"/>
     </row>
-    <row r="196" spans="1:55" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:55" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="21" t="s">
         <v>207</v>
       </c>
@@ -55224,22 +55267,22 @@
       <c r="AS196" s="23"/>
       <c r="AT196" s="24"/>
       <c r="AU196" s="135" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AV196" s="138">
         <v>20190307</v>
       </c>
-      <c r="AW196" s="82" t="s">
-        <v>1206</v>
+      <c r="AW196" s="298" t="s">
+        <v>1582</v>
       </c>
       <c r="AX196" s="62" t="s">
-        <v>1053</v>
-      </c>
-      <c r="BC196" s="246" t="s">
-        <v>1586</v>
+        <v>1052</v>
+      </c>
+      <c r="BC196" s="247" t="s">
+        <v>1582</v>
       </c>
     </row>
-    <row r="197" spans="1:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:55" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B197" s="21" t="s">
         <v>207</v>
       </c>
@@ -55376,14 +55419,16 @@
         <v>369</v>
       </c>
       <c r="AU197" s="139" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AV197" s="142">
         <v>20190307</v>
       </c>
-      <c r="AW197" s="82"/>
+      <c r="AW197" s="298" t="s">
+        <v>1583</v>
+      </c>
       <c r="AX197" s="62" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AY197" s="176" t="s">
         <v>1000</v>
@@ -55391,11 +55436,11 @@
       <c r="BB197" s="174" t="s">
         <v>1030</v>
       </c>
-      <c r="BC197" s="246" t="s">
-        <v>1587</v>
+      <c r="BC197" s="247" t="s">
+        <v>1583</v>
       </c>
     </row>
-    <row r="198" spans="1:55" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:55" ht="282.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>207</v>
       </c>
@@ -55532,14 +55577,16 @@
         <v>369</v>
       </c>
       <c r="AU198" s="139" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AV198" s="138">
         <v>20190312</v>
       </c>
-      <c r="AW198" s="82"/>
+      <c r="AW198" s="298" t="s">
+        <v>1641</v>
+      </c>
       <c r="AX198" s="62" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="AY198" s="176" t="s">
         <v>1000</v>
@@ -55548,7 +55595,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:55" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B199" s="21" t="s">
         <v>207</v>
       </c>
@@ -55641,22 +55688,22 @@
       <c r="AS199" s="23"/>
       <c r="AT199" s="24"/>
       <c r="AU199" s="141" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AV199" s="138">
         <v>20190312</v>
       </c>
-      <c r="AW199" s="82" t="s">
-        <v>1017</v>
+      <c r="AW199" s="298" t="s">
+        <v>1642</v>
       </c>
       <c r="AX199" s="62" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="BB199" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="1:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B200" s="21" t="s">
         <v>207</v>
       </c>
@@ -55793,9 +55840,11 @@
         <v>369</v>
       </c>
       <c r="AU200" s="139"/>
-      <c r="AW200" s="79"/>
+      <c r="AW200" s="299" t="s">
+        <v>1576</v>
+      </c>
     </row>
-    <row r="201" spans="1:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B201" s="21" t="s">
         <v>207</v>
       </c>
@@ -55932,17 +55981,17 @@
         <v>369</v>
       </c>
       <c r="AU201" s="139"/>
-      <c r="AW201" s="82" t="s">
-        <v>1017</v>
+      <c r="AW201" s="300" t="s">
+        <v>1643</v>
       </c>
       <c r="AX201" s="62" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="BB201" s="174" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="202" spans="1:55" s="105" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B202" s="95" t="s">
         <v>207</v>
       </c>
@@ -56026,7 +56075,9 @@
       <c r="AT202" s="101"/>
       <c r="AU202" s="139"/>
       <c r="AV202" s="70"/>
-      <c r="AW202" s="85"/>
+      <c r="AW202" s="298" t="s">
+        <v>1576</v>
+      </c>
       <c r="AX202" s="65"/>
       <c r="AY202" s="70"/>
       <c r="AZ202" s="66"/>
@@ -56034,7 +56085,7 @@
       <c r="BB202" s="66"/>
       <c r="BC202" s="246"/>
     </row>
-    <row r="203" spans="1:55" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:55" ht="216.75" x14ac:dyDescent="0.2">
       <c r="B203" s="21" t="s">
         <v>207</v>
       </c>
@@ -56127,25 +56178,25 @@
       <c r="AS203" s="23"/>
       <c r="AT203" s="24"/>
       <c r="AU203" s="93" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AV203" s="138">
         <v>20190312</v>
       </c>
-      <c r="AW203" s="133" t="s">
-        <v>1038</v>
+      <c r="AW203" s="300" t="s">
+        <v>1644</v>
       </c>
       <c r="AX203" s="62" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="AY203" s="62" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="BB203" s="172" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="204" spans="1:55" s="116" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:55" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B204" s="106" t="s">
         <v>207</v>
       </c>
@@ -56282,16 +56333,16 @@
         <v>369</v>
       </c>
       <c r="AU204" s="147" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV204" s="88" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AW204" s="86" t="s">
-        <v>1209</v>
+        <v>1156</v>
+      </c>
+      <c r="AW204" s="301" t="s">
+        <v>1645</v>
       </c>
       <c r="AX204" s="87" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="AY204" s="88"/>
       <c r="AZ204" s="89"/>
@@ -56301,7 +56352,7 @@
       </c>
       <c r="BC204" s="246"/>
     </row>
-    <row r="205" spans="1:55" s="105" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B205" s="95" t="s">
         <v>207</v>
       </c>
@@ -56393,7 +56444,9 @@
       <c r="AT205" s="101"/>
       <c r="AU205" s="139"/>
       <c r="AV205" s="70"/>
-      <c r="AW205" s="85"/>
+      <c r="AW205" s="302" t="s">
+        <v>1576</v>
+      </c>
       <c r="AX205" s="65"/>
       <c r="AY205" s="70"/>
       <c r="AZ205" s="66"/>
@@ -56401,8 +56454,8 @@
       <c r="BB205" s="67"/>
       <c r="BC205" s="246"/>
     </row>
-    <row r="206" spans="1:55" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A206" s="296"/>
+    <row r="206" spans="1:55" ht="51" x14ac:dyDescent="0.2">
+      <c r="A206" s="260"/>
       <c r="B206" s="21" t="s">
         <v>207</v>
       </c>
@@ -56539,16 +56592,16 @@
         <v>369</v>
       </c>
       <c r="AU206" s="93" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="AV206" s="93">
         <v>20190312</v>
       </c>
-      <c r="AW206" s="82" t="s">
-        <v>1056</v>
+      <c r="AW206" s="303" t="s">
+        <v>1646</v>
       </c>
     </row>
-    <row r="207" spans="1:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B207" s="21" t="s">
         <v>207</v>
       </c>
@@ -56627,9 +56680,11 @@
       <c r="AS207" s="23"/>
       <c r="AT207" s="24"/>
       <c r="AU207" s="139"/>
-      <c r="AW207" s="79"/>
+      <c r="AW207" s="298" t="s">
+        <v>1647</v>
+      </c>
     </row>
-    <row r="208" spans="1:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B208" s="21" t="s">
         <v>207</v>
       </c>
@@ -56766,20 +56821,20 @@
         <v>369</v>
       </c>
       <c r="AU208" s="139"/>
-      <c r="AW208" s="133" t="s">
-        <v>1038</v>
+      <c r="AW208" s="304" t="s">
+        <v>1648</v>
       </c>
       <c r="AX208" s="62" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="AY208" s="62" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="BB208" s="172" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
-    <row r="209" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B209" s="21" t="s">
         <v>207</v>
       </c>
@@ -56916,20 +56971,20 @@
         <v>369</v>
       </c>
       <c r="AU209" s="139"/>
-      <c r="AW209" s="133" t="s">
-        <v>1038</v>
+      <c r="AW209" s="304" t="s">
+        <v>1649</v>
       </c>
       <c r="AX209" s="62" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="AY209" s="62" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="BB209" s="172" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
-    <row r="210" spans="2:55" s="116" customFormat="1" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:55" s="116" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B210" s="106" t="s">
         <v>207</v>
       </c>
@@ -57023,10 +57078,10 @@
         <v>1038</v>
       </c>
       <c r="AX210" s="87" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="AY210" s="87" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="AZ210" s="89"/>
       <c r="BA210" s="89"/>
@@ -57035,7 +57090,7 @@
       </c>
       <c r="BC210" s="246"/>
     </row>
-    <row r="211" spans="2:55" s="116" customFormat="1" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:55" s="116" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="B211" s="106" t="s">
         <v>207</v>
       </c>
@@ -57172,7 +57227,7 @@
         <v>369</v>
       </c>
       <c r="AU211" s="149" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AV211" s="88">
         <v>20190226</v>
@@ -57181,10 +57236,10 @@
         <v>1038</v>
       </c>
       <c r="AX211" s="87" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="AY211" s="87" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="AZ211" s="89"/>
       <c r="BA211" s="89"/>
@@ -57193,7 +57248,7 @@
       </c>
       <c r="BC211" s="246"/>
     </row>
-    <row r="212" spans="2:55" s="105" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B212" s="95" t="s">
         <v>207</v>
       </c>
@@ -57254,17 +57309,17 @@
       <c r="AS212" s="100"/>
       <c r="AT212" s="101"/>
       <c r="AU212" s="143" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AV212" s="144">
         <v>20190328</v>
       </c>
       <c r="AW212" s="69"/>
       <c r="AX212" s="65" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AY212" s="65" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AZ212" s="66"/>
       <c r="BA212" s="66"/>
@@ -57273,7 +57328,7 @@
       </c>
       <c r="BC212" s="246"/>
     </row>
-    <row r="213" spans="2:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B213" s="21" t="s">
         <v>207</v>
       </c>
@@ -57410,25 +57465,25 @@
         <v>369</v>
       </c>
       <c r="AU213" s="141" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AV213" s="141">
         <v>20190312</v>
       </c>
       <c r="AW213" s="82" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AX213" s="62" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AY213" s="62" t="s">
         <v>1059</v>
       </c>
-      <c r="AX213" s="62" t="s">
+      <c r="BB213" s="61" t="s">
         <v>1060</v>
       </c>
-      <c r="AY213" s="62" t="s">
-        <v>1061</v>
-      </c>
-      <c r="BB213" s="61" t="s">
-        <v>1062</v>
-      </c>
     </row>
-    <row r="214" spans="2:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B214" s="21" t="s">
         <v>207</v>
       </c>
@@ -57565,7 +57620,7 @@
         <v>369</v>
       </c>
       <c r="AU214" s="93" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AV214" s="94">
         <v>20190312</v>
@@ -57574,13 +57629,13 @@
         <v>1017</v>
       </c>
       <c r="AX214" s="62" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="BB214" s="174" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="215" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B215" s="21" t="s">
         <v>207</v>
       </c>
@@ -57717,25 +57772,25 @@
         <v>369</v>
       </c>
       <c r="AU215" s="94" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AV215" s="94">
         <v>20190312</v>
       </c>
       <c r="AW215" s="82" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AX215" s="62" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AY215" s="62" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="BB215" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="216" spans="2:55" s="105" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:55" s="105" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="95" t="s">
         <v>207</v>
       </c>
@@ -57835,7 +57890,7 @@
       <c r="BB216" s="67"/>
       <c r="BC216" s="246"/>
     </row>
-    <row r="217" spans="2:55" s="105" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:55" s="105" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B217" s="95" t="s">
         <v>207</v>
       </c>
@@ -57935,7 +57990,7 @@
       <c r="BB217" s="67"/>
       <c r="BC217" s="246"/>
     </row>
-    <row r="218" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B218" s="21" t="s">
         <v>206</v>
       </c>
@@ -58074,7 +58129,7 @@
       <c r="AU218" s="139"/>
       <c r="AW218" s="79"/>
     </row>
-    <row r="219" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>207</v>
       </c>
@@ -58211,16 +58266,16 @@
         <v>371</v>
       </c>
       <c r="AU219" s="93" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="AV219" s="94">
         <v>20190319</v>
       </c>
       <c r="AW219" s="82" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
-    <row r="220" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B220" s="21" t="s">
         <v>207</v>
       </c>
@@ -58357,16 +58412,16 @@
         <v>371</v>
       </c>
       <c r="AU220" s="93" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AV220" s="94">
         <v>20190319</v>
       </c>
       <c r="AW220" s="82" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
-    <row r="221" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B221" s="21" t="s">
         <v>207</v>
       </c>
@@ -58504,10 +58559,10 @@
       </c>
       <c r="AU221" s="139"/>
       <c r="AW221" s="82" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
-    <row r="222" spans="2:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B222" s="21" t="s">
         <v>208</v>
       </c>
@@ -58644,22 +58699,22 @@
         <v>371</v>
       </c>
       <c r="AU222" s="93" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="AV222" s="94">
         <v>20190319</v>
       </c>
       <c r="AW222" s="82" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="AX222" s="62" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="BB222" s="172" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="223" spans="2:55" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:55" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B223" s="21" t="s">
         <v>208</v>
       </c>
@@ -58796,22 +58851,22 @@
         <v>371</v>
       </c>
       <c r="AU223" s="93" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="AV223" s="94">
         <v>20190321</v>
       </c>
       <c r="AW223" s="82" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AX223" s="62" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="AY223" s="62" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
-    <row r="224" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
         <v>207</v>
       </c>
@@ -58950,7 +59005,7 @@
       <c r="AU224" s="139"/>
       <c r="AW224" s="79"/>
     </row>
-    <row r="225" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B225" s="21" t="s">
         <v>208</v>
       </c>
@@ -59087,20 +59142,20 @@
         <v>371</v>
       </c>
       <c r="AU225" s="93" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="AV225" s="94">
         <v>20190319</v>
       </c>
       <c r="AW225" s="82"/>
       <c r="AX225" s="62" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="BB225" s="172" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>208</v>
       </c>
@@ -59231,7 +59286,7 @@
       <c r="AS226" s="23"/>
       <c r="AT226" s="24"/>
       <c r="AU226" s="93" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="AV226" s="94">
         <v>20190319</v>
@@ -59240,16 +59295,16 @@
         <v>1038</v>
       </c>
       <c r="AX226" s="62" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="AY226" s="62" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="BB226" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="227" spans="2:55" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:55" ht="165.75" x14ac:dyDescent="0.2">
       <c r="B227" s="21" t="s">
         <v>208</v>
       </c>
@@ -59380,7 +59435,7 @@
       <c r="AS227" s="23"/>
       <c r="AT227" s="24"/>
       <c r="AU227" s="93" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="AV227" s="138">
         <v>20190319</v>
@@ -59389,10 +59444,10 @@
         <v>1017</v>
       </c>
       <c r="AX227" s="62" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
-    <row r="228" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B228" s="21" t="s">
         <v>208</v>
       </c>
@@ -59531,7 +59586,7 @@
       <c r="AU228" s="139"/>
       <c r="AW228" s="79"/>
     </row>
-    <row r="229" spans="2:55" s="105" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B229" s="95" t="s">
         <v>208</v>
       </c>
@@ -59617,7 +59672,7 @@
       <c r="BB229" s="66"/>
       <c r="BC229" s="246"/>
     </row>
-    <row r="230" spans="2:55" s="105" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:55" s="105" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B230" s="95" t="s">
         <v>209</v>
       </c>
@@ -59703,7 +59758,7 @@
       <c r="BB230" s="66"/>
       <c r="BC230" s="246"/>
     </row>
-    <row r="231" spans="2:55" s="105" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:55" s="105" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B231" s="95" t="s">
         <v>209</v>
       </c>
@@ -59789,7 +59844,7 @@
       <c r="BB231" s="66"/>
       <c r="BC231" s="246"/>
     </row>
-    <row r="232" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B232" s="21" t="s">
         <v>208</v>
       </c>
@@ -59926,11 +59981,11 @@
         <v>369</v>
       </c>
       <c r="AU232" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW232" s="79"/>
     </row>
-    <row r="233" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>208</v>
       </c>
@@ -60067,11 +60122,11 @@
         <v>369</v>
       </c>
       <c r="AU233" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW233" s="79"/>
     </row>
-    <row r="234" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:55" ht="102" x14ac:dyDescent="0.2">
       <c r="B234" s="21" t="s">
         <v>207</v>
       </c>
@@ -60208,11 +60263,11 @@
         <v>370</v>
       </c>
       <c r="AU234" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW234" s="79"/>
     </row>
-    <row r="235" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B235" s="21" t="s">
         <v>208</v>
       </c>
@@ -60349,11 +60404,11 @@
         <v>370</v>
       </c>
       <c r="AU235" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW235" s="79"/>
     </row>
-    <row r="236" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B236" s="21" t="s">
         <v>208</v>
       </c>
@@ -60490,11 +60545,11 @@
         <v>372</v>
       </c>
       <c r="AU236" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW236" s="79"/>
     </row>
-    <row r="237" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="21" t="s">
         <v>208</v>
       </c>
@@ -60631,11 +60686,11 @@
         <v>370</v>
       </c>
       <c r="AU237" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW237" s="79"/>
     </row>
-    <row r="238" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B238" s="21" t="s">
         <v>208</v>
       </c>
@@ -60776,16 +60831,16 @@
         <v>1038</v>
       </c>
       <c r="AX238" s="62" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AY238" s="62" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BB238" s="61" t="s">
         <v>1066</v>
       </c>
-      <c r="AY238" s="62" t="s">
-        <v>1067</v>
-      </c>
-      <c r="BB238" s="61" t="s">
-        <v>1068</v>
-      </c>
     </row>
-    <row r="239" spans="2:55" s="116" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B239" s="106" t="s">
         <v>208</v>
       </c>
@@ -60918,17 +60973,17 @@
         <v>371</v>
       </c>
       <c r="AU239" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV239" s="88"/>
       <c r="AW239" s="86" t="s">
         <v>1038</v>
       </c>
       <c r="AX239" s="87" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AY239" s="87" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AZ239" s="89"/>
       <c r="BA239" s="89"/>
@@ -60937,7 +60992,7 @@
       </c>
       <c r="BC239" s="246"/>
     </row>
-    <row r="240" spans="2:55" s="116" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:55" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B240" s="106" t="s">
         <v>208</v>
       </c>
@@ -61070,7 +61125,7 @@
         <v>371</v>
       </c>
       <c r="AU240" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV240" s="88"/>
       <c r="AW240" s="91"/>
@@ -61081,7 +61136,7 @@
       <c r="BB240" s="89"/>
       <c r="BC240" s="246"/>
     </row>
-    <row r="241" spans="2:55" s="116" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:55" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B241" s="106" t="s">
         <v>208</v>
       </c>
@@ -61214,7 +61269,7 @@
         <v>371</v>
       </c>
       <c r="AU241" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV241" s="88"/>
       <c r="AW241" s="91"/>
@@ -61225,7 +61280,7 @@
       <c r="BB241" s="89"/>
       <c r="BC241" s="246"/>
     </row>
-    <row r="242" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
         <v>208</v>
       </c>
@@ -61356,11 +61411,11 @@
       <c r="AS242" s="23"/>
       <c r="AT242" s="24"/>
       <c r="AU242" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW242" s="79"/>
     </row>
-    <row r="243" spans="2:55" s="116" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:55" s="116" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B243" s="106" t="s">
         <v>208</v>
       </c>
@@ -61497,7 +61552,7 @@
         <v>369</v>
       </c>
       <c r="AU243" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV243" s="88"/>
       <c r="AW243" s="91"/>
@@ -61508,7 +61563,7 @@
       <c r="BB243" s="89"/>
       <c r="BC243" s="246"/>
     </row>
-    <row r="244" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B244" s="21" t="s">
         <v>208</v>
       </c>
@@ -61645,11 +61700,11 @@
         <v>371</v>
       </c>
       <c r="AU244" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW244" s="79"/>
     </row>
-    <row r="245" spans="2:55" s="105" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B245" s="95" t="s">
         <v>209</v>
       </c>
@@ -61736,7 +61791,7 @@
         <v>371</v>
       </c>
       <c r="AU245" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV245" s="70"/>
       <c r="AW245" s="69"/>
@@ -61747,7 +61802,7 @@
       <c r="BB245" s="66"/>
       <c r="BC245" s="246"/>
     </row>
-    <row r="246" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B246" s="21" t="s">
         <v>209</v>
       </c>
@@ -61838,22 +61893,22 @@
         <v>371</v>
       </c>
       <c r="AU246" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW246" s="82" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AX246" s="62" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AY246" s="80" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="BB246" s="58" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="247" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>209</v>
       </c>
@@ -61990,11 +62045,11 @@
         <v>371</v>
       </c>
       <c r="AU247" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW247" s="79"/>
     </row>
-    <row r="248" spans="2:55" s="105" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B248" s="95" t="s">
         <v>209</v>
       </c>
@@ -62085,7 +62140,7 @@
         <v>371</v>
       </c>
       <c r="AU248" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV248" s="70"/>
       <c r="AW248" s="69"/>
@@ -62096,7 +62151,7 @@
       <c r="BB248" s="66"/>
       <c r="BC248" s="246"/>
     </row>
-    <row r="249" spans="2:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B249" s="21" t="s">
         <v>209</v>
       </c>
@@ -62183,22 +62238,22 @@
         <v>371</v>
       </c>
       <c r="AU249" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW249" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX249" s="80" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AY249" s="80" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="BB249" s="58" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B250" s="21" t="s">
         <v>209</v>
       </c>
@@ -62335,22 +62390,22 @@
         <v>371</v>
       </c>
       <c r="AU250" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW250" s="82" t="s">
         <v>1038</v>
       </c>
       <c r="AX250" s="80" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AY250" s="80" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="BB250" s="58" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="251" spans="2:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:55" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="21" t="s">
         <v>209</v>
       </c>
@@ -62487,13 +62542,13 @@
         <v>369</v>
       </c>
       <c r="AU251" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW251" s="82" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
-    <row r="252" spans="2:55" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:55" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="21" t="s">
         <v>207</v>
       </c>
@@ -62632,7 +62687,7 @@
       <c r="AU252" s="139"/>
       <c r="AW252" s="79"/>
     </row>
-    <row r="253" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B253" s="21" t="s">
         <v>208</v>
       </c>
@@ -62771,7 +62826,7 @@
       <c r="AU253" s="139"/>
       <c r="AW253" s="79"/>
     </row>
-    <row r="254" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>208</v>
       </c>
@@ -62910,7 +62965,7 @@
       <c r="AU254" s="139"/>
       <c r="AW254" s="79"/>
     </row>
-    <row r="255" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B255" s="21" t="s">
         <v>208</v>
       </c>
@@ -63051,16 +63106,16 @@
         <v>1038</v>
       </c>
       <c r="AX255" s="62" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AY255" s="62" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="BB255" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="256" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B256" s="21" t="s">
         <v>208</v>
       </c>
@@ -63201,13 +63256,13 @@
         <v>1017</v>
       </c>
       <c r="AX256" s="62" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="BB256" s="61" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="257" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B257" s="21" t="s">
         <v>208</v>
       </c>
@@ -63340,16 +63395,16 @@
         <v>1038</v>
       </c>
       <c r="AX257" s="62" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AY257" s="62" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="BB257" s="61" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="258" spans="2:55" s="105" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:55" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B258" s="95" t="s">
         <v>208</v>
       </c>
@@ -63424,7 +63479,7 @@
       <c r="AU258" s="139"/>
       <c r="AV258" s="70"/>
       <c r="AW258" s="85" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="AX258" s="65"/>
       <c r="AY258" s="65"/>
@@ -63433,7 +63488,7 @@
       <c r="BB258" s="67"/>
       <c r="BC258" s="246"/>
     </row>
-    <row r="259" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B259" s="21" t="s">
         <v>208</v>
       </c>
@@ -63570,11 +63625,11 @@
         <v>371</v>
       </c>
       <c r="AU259" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW259" s="79"/>
     </row>
-    <row r="260" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B260" s="21" t="s">
         <v>208</v>
       </c>
@@ -63679,7 +63734,7 @@
       <c r="AU260" s="139"/>
       <c r="AW260" s="79"/>
     </row>
-    <row r="261" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>209</v>
       </c>
@@ -63782,7 +63837,7 @@
         <v>371</v>
       </c>
       <c r="AU261" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW261" s="82" t="s">
         <v>1038</v>
@@ -63797,7 +63852,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="262" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B262" s="21" t="s">
         <v>209</v>
       </c>
@@ -63900,20 +63955,20 @@
         <v>371</v>
       </c>
       <c r="AU262" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW262" s="79"/>
       <c r="AX262" s="62" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AY262" s="62" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="BB262" s="61" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="263" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B263" s="21" t="s">
         <v>206</v>
       </c>
@@ -64050,23 +64105,23 @@
         <v>371</v>
       </c>
       <c r="AU263" s="139" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AV263" s="138">
         <v>20190402</v>
       </c>
       <c r="AW263" s="79"/>
       <c r="AX263" s="62" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AY263" s="62" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="BB263" s="172" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="264" spans="2:55" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B264" s="21" t="s">
         <v>207</v>
       </c>
@@ -64193,7 +64248,7 @@
       <c r="AU264" s="139"/>
       <c r="AW264" s="79"/>
     </row>
-    <row r="265" spans="2:55" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:55" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="21" t="s">
         <v>207</v>
       </c>
@@ -64210,7 +64265,7 @@
         <v>332</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H265" s="21" t="s">
         <v>369</v>
@@ -64330,23 +64385,23 @@
         <v>371</v>
       </c>
       <c r="AU265" s="164" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AV265" s="163">
         <v>20190404</v>
       </c>
       <c r="AW265" s="82"/>
       <c r="AX265" s="62" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AY265" s="80" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="BB265" s="172" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="266" spans="2:55" s="105" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B266" s="95" t="s">
         <v>207</v>
       </c>
@@ -64471,14 +64526,14 @@
         <v>371</v>
       </c>
       <c r="AU266" s="139" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AV266" s="70">
         <v>20190402</v>
       </c>
       <c r="AW266" s="82"/>
       <c r="AX266" s="65" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="AY266" s="70"/>
       <c r="AZ266" s="66"/>
@@ -64488,7 +64543,7 @@
       </c>
       <c r="BC266" s="246"/>
     </row>
-    <row r="267" spans="2:55" s="105" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:55" s="105" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B267" s="95" t="s">
         <v>207</v>
       </c>
@@ -64613,7 +64668,7 @@
         <v>371</v>
       </c>
       <c r="AU267" s="168" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AV267" s="165">
         <v>20190404</v>
@@ -64622,7 +64677,7 @@
         <v>1017</v>
       </c>
       <c r="AX267" s="65" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="AY267" s="70"/>
       <c r="AZ267" s="66"/>
@@ -64632,7 +64687,7 @@
       </c>
       <c r="BC267" s="246"/>
     </row>
-    <row r="268" spans="2:55" s="105" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:55" s="105" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="B268" s="95" t="s">
         <v>207</v>
       </c>
@@ -64757,7 +64812,7 @@
         <v>371</v>
       </c>
       <c r="AU268" s="169" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AV268" s="170">
         <v>20190404</v>
@@ -64766,7 +64821,7 @@
         <v>1017</v>
       </c>
       <c r="AX268" s="65" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="AY268" s="70"/>
       <c r="AZ268" s="66"/>
@@ -64776,7 +64831,7 @@
       </c>
       <c r="BC268" s="246"/>
     </row>
-    <row r="269" spans="2:55" s="105" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B269" s="95" t="s">
         <v>207</v>
       </c>
@@ -64901,7 +64956,7 @@
         <v>371</v>
       </c>
       <c r="AU269" s="171" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AV269" s="170">
         <v>20190404</v>
@@ -64910,7 +64965,7 @@
         <v>1017</v>
       </c>
       <c r="AX269" s="65" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="AY269" s="70"/>
       <c r="AZ269" s="66"/>
@@ -64920,7 +64975,7 @@
       </c>
       <c r="BC269" s="246"/>
     </row>
-    <row r="270" spans="2:55" s="105" customFormat="1" ht="132" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:55" s="105" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B270" s="95" t="s">
         <v>207</v>
       </c>
@@ -64991,7 +65046,7 @@
         <v>371</v>
       </c>
       <c r="AU270" s="166" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AV270" s="167">
         <v>20190404</v>
@@ -65004,7 +65059,7 @@
       <c r="BB270" s="66"/>
       <c r="BC270" s="246"/>
     </row>
-    <row r="271" spans="2:55" s="105" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B271" s="95" t="s">
         <v>207</v>
       </c>
@@ -65075,7 +65130,7 @@
         <v>371</v>
       </c>
       <c r="AU271" s="140" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AV271" s="152">
         <v>20190404</v>
@@ -65088,7 +65143,7 @@
       <c r="BB271" s="66"/>
       <c r="BC271" s="246"/>
     </row>
-    <row r="272" spans="2:55" s="105" customFormat="1" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:55" s="105" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B272" s="95" t="s">
         <v>207</v>
       </c>
@@ -65159,7 +65214,7 @@
         <v>371</v>
       </c>
       <c r="AU272" s="140" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AV272" s="152">
         <v>20190404</v>
@@ -65172,7 +65227,7 @@
       <c r="BB272" s="66"/>
       <c r="BC272" s="246"/>
     </row>
-    <row r="273" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B273" s="21" t="s">
         <v>207</v>
       </c>
@@ -65295,19 +65350,19 @@
         <v>371</v>
       </c>
       <c r="AU273" s="139" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AW273" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX273" s="62" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="BB273" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="274" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B274" s="21" t="s">
         <v>207</v>
       </c>
@@ -65430,19 +65485,19 @@
         <v>371</v>
       </c>
       <c r="AU274" s="139" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AW274" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX274" s="62" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="BB274" s="61" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="275" spans="2:55" s="105" customFormat="1" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:55" s="105" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B275" s="95" t="s">
         <v>206</v>
       </c>
@@ -65579,7 +65634,7 @@
         <v>371</v>
       </c>
       <c r="AU275" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV275" s="70"/>
       <c r="AW275" s="85"/>
@@ -65590,7 +65645,7 @@
       <c r="BB275" s="67"/>
       <c r="BC275" s="246"/>
     </row>
-    <row r="276" spans="2:55" s="105" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:55" s="105" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="95" t="s">
         <v>207</v>
       </c>
@@ -65727,7 +65782,7 @@
         <v>372</v>
       </c>
       <c r="AU276" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV276" s="70"/>
       <c r="AW276" s="85"/>
@@ -65738,7 +65793,7 @@
       <c r="BB276" s="67"/>
       <c r="BC276" s="246"/>
     </row>
-    <row r="277" spans="2:55" s="116" customFormat="1" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:55" s="116" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B277" s="106" t="s">
         <v>207</v>
       </c>
@@ -65869,7 +65924,7 @@
       <c r="AS277" s="111"/>
       <c r="AT277" s="112"/>
       <c r="AU277" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV277" s="88"/>
       <c r="AW277" s="86"/>
@@ -65880,7 +65935,7 @@
       <c r="BB277" s="90"/>
       <c r="BC277" s="246"/>
     </row>
-    <row r="278" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B278" s="21" t="s">
         <v>207</v>
       </c>
@@ -65975,11 +66030,11 @@
       <c r="AS278" s="23"/>
       <c r="AT278" s="24"/>
       <c r="AU278" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW278" s="79"/>
     </row>
-    <row r="279" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B279" s="21" t="s">
         <v>207</v>
       </c>
@@ -66120,16 +66175,16 @@
         <v>1038</v>
       </c>
       <c r="AX279" s="62" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AY279" s="62" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="BB279" s="61" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="2:55" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:55" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B280" s="21" t="s">
         <v>207</v>
       </c>
@@ -66196,11 +66251,11 @@
       <c r="AS280" s="23"/>
       <c r="AT280" s="24"/>
       <c r="AU280" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW280" s="79"/>
     </row>
-    <row r="281" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B281" s="21" t="s">
         <v>207</v>
       </c>
@@ -66337,11 +66392,11 @@
         <v>371</v>
       </c>
       <c r="AU281" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW281" s="79"/>
     </row>
-    <row r="282" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B282" s="21" t="s">
         <v>206</v>
       </c>
@@ -66478,12 +66533,12 @@
         <v>371</v>
       </c>
       <c r="AU282" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW282" s="79"/>
       <c r="AY282" s="92"/>
     </row>
-    <row r="283" spans="2:55" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:55" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>207</v>
       </c>
@@ -66620,11 +66675,11 @@
         <v>369</v>
       </c>
       <c r="AU283" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW283" s="79"/>
     </row>
-    <row r="284" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B284" s="21" t="s">
         <v>207</v>
       </c>
@@ -66761,11 +66816,11 @@
         <v>369</v>
       </c>
       <c r="AU284" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW284" s="79"/>
     </row>
-    <row r="285" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B285" s="21" t="s">
         <v>207</v>
       </c>
@@ -66902,11 +66957,11 @@
         <v>369</v>
       </c>
       <c r="AU285" s="139" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AW285" s="79"/>
     </row>
-    <row r="286" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B286" s="21" t="s">
         <v>207</v>
       </c>
@@ -67043,11 +67098,11 @@
         <v>369</v>
       </c>
       <c r="AU286" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW286" s="79"/>
     </row>
-    <row r="287" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B287" s="21" t="s">
         <v>206</v>
       </c>
@@ -67170,22 +67225,22 @@
         <v>370</v>
       </c>
       <c r="AU287" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW287" s="82" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AX287" s="62" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AY287" s="62" t="s">
         <v>1088</v>
-      </c>
-      <c r="AX287" s="62" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AY287" s="62" t="s">
-        <v>1090</v>
       </c>
       <c r="BB287" s="61" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="288" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>207</v>
       </c>
@@ -67250,11 +67305,11 @@
         <v>370</v>
       </c>
       <c r="AU288" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW288" s="79"/>
     </row>
-    <row r="289" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B289" s="21" t="s">
         <v>207</v>
       </c>
@@ -67381,13 +67436,13 @@
         <v>1017</v>
       </c>
       <c r="AX289" s="62" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="BB289" s="61" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="290" spans="2:55" ht="66" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:55" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B290" s="21" t="s">
         <v>207</v>
       </c>
@@ -67510,7 +67565,7 @@
         <v>370</v>
       </c>
       <c r="AU290" s="158" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AV290" s="142">
         <v>20190305</v>
@@ -67519,10 +67574,10 @@
         <v>1017</v>
       </c>
       <c r="AX290" s="62" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
-    <row r="291" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B291" s="21" t="s">
         <v>207</v>
       </c>
@@ -67645,19 +67700,19 @@
         <v>370</v>
       </c>
       <c r="AU291" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW291" s="82" t="s">
         <v>1017</v>
       </c>
       <c r="AX291" s="62" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="BB291" s="61" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="292" spans="2:55" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B292" s="21" t="s">
         <v>206</v>
       </c>
@@ -67716,11 +67771,11 @@
       <c r="AS292" s="23"/>
       <c r="AT292" s="24"/>
       <c r="AU292" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW292" s="79"/>
     </row>
-    <row r="293" spans="2:55" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:55" ht="51" x14ac:dyDescent="0.2">
       <c r="B293" s="21" t="s">
         <v>207</v>
       </c>
@@ -67779,11 +67834,11 @@
       <c r="AS293" s="23"/>
       <c r="AT293" s="24"/>
       <c r="AU293" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW293" s="79"/>
     </row>
-    <row r="294" spans="2:55" s="105" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:55" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B294" s="95" t="s">
         <v>207</v>
       </c>
@@ -67842,7 +67897,7 @@
       <c r="AS294" s="100"/>
       <c r="AT294" s="101"/>
       <c r="AU294" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV294" s="70"/>
       <c r="AW294" s="69"/>
@@ -67853,7 +67908,7 @@
       <c r="BB294" s="66"/>
       <c r="BC294" s="246"/>
     </row>
-    <row r="295" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>207</v>
       </c>
@@ -67912,11 +67967,11 @@
       <c r="AS295" s="23"/>
       <c r="AT295" s="24"/>
       <c r="AU295" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW295" s="79"/>
     </row>
-    <row r="296" spans="2:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="21" t="s">
         <v>207</v>
       </c>
@@ -67975,11 +68030,11 @@
       <c r="AS296" s="23"/>
       <c r="AT296" s="24"/>
       <c r="AU296" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW296" s="79"/>
     </row>
-    <row r="297" spans="2:55" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:55" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B297" s="21" t="s">
         <v>207</v>
       </c>
@@ -68038,11 +68093,11 @@
       <c r="AS297" s="23"/>
       <c r="AT297" s="24"/>
       <c r="AU297" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AW297" s="79"/>
     </row>
-    <row r="298" spans="2:55" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:55" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B298" s="21" t="s">
         <v>207</v>
       </c>
@@ -68101,7 +68156,7 @@
       <c r="AS298" s="23"/>
       <c r="AT298" s="24"/>
       <c r="AU298" s="158" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AV298" s="142">
         <v>20190305</v>
@@ -68110,10 +68165,10 @@
         <v>1017</v>
       </c>
       <c r="AX298" s="62" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
-    <row r="299" spans="2:55" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:55" s="105" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B299" s="117" t="s">
         <v>207</v>
       </c>
@@ -68172,7 +68227,7 @@
       <c r="AS299" s="122"/>
       <c r="AT299" s="123"/>
       <c r="AU299" s="139" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AV299" s="70"/>
       <c r="AW299" s="69"/>
@@ -68183,7 +68238,7 @@
       <c r="BB299" s="66"/>
       <c r="BC299" s="246"/>
     </row>
-    <row r="300" spans="2:55" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="2:55" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="B1:BB302">
     <filterColumn colId="6" showButton="0"/>
@@ -68224,13 +68279,22 @@
     <filterColumn colId="49" showButton="0"/>
   </autoFilter>
   <mergeCells count="37">
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AU1:AU4"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AP3:AQ3"/>
@@ -68245,22 +68309,13 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AU1:AU4"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B1:AU1 B6:AU19 B2:AT5 B21:AU40 B20:AT20 B60:AU66 B59:AT59 B92:AU95 B91:AT91 B125:AU134 B124:AT124 B136:AU138 B135:AT135 B195:AU195 B198:AU198 B228:AU301 B200:AU202 B199:AT199 B204:AU205 B203:AT203 B207:AU210 B206:AT206 B216:AU218 B213:AT215 B221:AU221 B219:AT220 B224:AU224 B222:AT223 B225:AT227 B44:AU45 B43:AT43 B53:AU58 B52:AT52 B173:AU173 B174:AT174 B212:AU212 B211:AT211 B140:AU141 B139:AT139 B171:AT172 B145:AU146 B143:AT144 B148:AU170 B147:AT147 B48:AU51 B46:AT47 B68:AU76 B67:AT67 B77:AT77 B85:AU90 B84:AT84 B97:AU98 B96:AT96 B109:AT109 B196:AT197 B188:AT194 B78:AU83 B42:AU42 B100:AU108 B110:AU123 B178:AU182 B184:AU187 B183:AT183">
@@ -68480,29 +68535,29 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="140.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="291" t="s">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="295" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="292"/>
+      <c r="B1" s="296"/>
     </row>
-    <row r="2" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+    <row r="2" spans="1:2" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="297" t="s">
         <v>969</v>
       </c>
-      <c r="B2" s="293"/>
+      <c r="B2" s="297"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>390</v>
       </c>
@@ -68510,7 +68565,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>391</v>
       </c>
@@ -68518,7 +68573,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>392</v>
       </c>
@@ -68526,11 +68581,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>588</v>
       </c>
@@ -68538,23 +68593,23 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="287" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="291" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="289" t="s">
+      <c r="B9" s="293" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="288"/>
-      <c r="B10" s="290"/>
+    <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="292"/>
+      <c r="B10" s="294"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>394</v>
       </c>
@@ -68562,7 +68617,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>373</v>
       </c>
@@ -68570,7 +68625,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>374</v>
       </c>
@@ -68578,7 +68633,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>375</v>
       </c>
@@ -68586,7 +68641,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>376</v>
       </c>
@@ -68594,7 +68649,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>377</v>
       </c>
@@ -68602,7 +68657,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>562</v>
       </c>
@@ -68610,7 +68665,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>378</v>
       </c>
@@ -68618,7 +68673,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>379</v>
       </c>
@@ -68626,7 +68681,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>380</v>
       </c>
@@ -68634,7 +68689,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>381</v>
       </c>
@@ -68642,7 +68697,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>385</v>
       </c>
@@ -68650,7 +68705,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>382</v>
       </c>
@@ -68658,7 +68713,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>383</v>
       </c>
@@ -68666,7 +68721,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>384</v>
       </c>
@@ -68674,11 +68729,11 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>410</v>
       </c>
@@ -68686,7 +68741,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>370</v>
       </c>
@@ -68694,7 +68749,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>372</v>
       </c>
@@ -68702,7 +68757,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>371</v>
       </c>
@@ -68710,11 +68765,11 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>414</v>
       </c>
@@ -68722,7 +68777,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="s">
         <v>321</v>
       </c>
@@ -68730,7 +68785,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
         <v>322</v>
       </c>
@@ -68738,7 +68793,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46" t="s">
         <v>429</v>
       </c>
@@ -68746,7 +68801,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="s">
         <v>320</v>
       </c>
@@ -68754,7 +68809,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="46" t="s">
         <v>328</v>
       </c>
@@ -68762,7 +68817,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
         <v>327</v>
       </c>
@@ -68770,7 +68825,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
         <v>324</v>
       </c>
@@ -68778,7 +68833,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
         <v>325</v>
       </c>
@@ -68786,7 +68841,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="46" t="s">
         <v>326</v>
       </c>
@@ -68794,7 +68849,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
         <v>587</v>
       </c>
@@ -68823,36 +68878,36 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="105"/>
       <c r="B1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="116"/>
       <c r="B2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="128"/>
       <c r="B3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="146"/>
       <c r="B4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="160"/>
       <c r="B5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -68868,183 +68923,183 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1096</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1097</v>
       </c>
-      <c r="F1" t="s">
-        <v>1183</v>
+      <c r="F2" t="s">
+        <v>1181</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1098</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1099</v>
       </c>
-      <c r="F2" t="s">
-        <v>1183</v>
+      <c r="F3" t="s">
+        <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>1101</v>
       </c>
-      <c r="F3" t="s">
-        <v>1184</v>
+      <c r="F4" s="157" t="s">
+        <v>1180</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>1103</v>
       </c>
-      <c r="F4" s="157" t="s">
-        <v>1182</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>1104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1106</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1108</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>1110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>1112</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>1114</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>1116</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>1118</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>1120</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>1122</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>1124</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>1126</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>1128</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>1130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -69053,6 +69108,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -69235,31 +69295,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ContentTypeId="0x010100AAE994419BC24CED8BF9A98B0A371F99" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
@@ -69275,7 +69311,34 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69295,31 +69358,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91444F0C-2F56-43B8-A080-17A1842BA733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C5668C2-9E4E-41FF-A600-007B45A14DC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -69335,4 +69374,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB384150-4BBF-4CDD-8953-A011DFA23524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E369CE6D-9604-4643-97D8-E8E5B5CF0BA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>